--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,225 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17076600</v>
+        <v>15999400</v>
       </c>
       <c r="E8" s="3">
-        <v>16489300</v>
+        <v>22597400</v>
       </c>
       <c r="F8" s="3">
-        <v>13415100</v>
+        <v>16657600</v>
       </c>
       <c r="G8" s="3">
-        <v>16827000</v>
+        <v>16084800</v>
       </c>
       <c r="H8" s="3">
-        <v>12217000</v>
+        <v>13086000</v>
       </c>
       <c r="I8" s="3">
+        <v>16414200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11917300</v>
+      </c>
+      <c r="K8" s="3">
         <v>11610400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8886000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12322200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8180700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7447800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5610500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7743900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9404500</v>
+        <v>10147400</v>
       </c>
       <c r="E9" s="3">
-        <v>8606900</v>
+        <v>11803100</v>
       </c>
       <c r="F9" s="3">
-        <v>7978900</v>
+        <v>9173800</v>
       </c>
       <c r="G9" s="3">
-        <v>8725400</v>
+        <v>8395800</v>
       </c>
       <c r="H9" s="3">
-        <v>6712900</v>
+        <v>7783200</v>
       </c>
       <c r="I9" s="3">
+        <v>8511400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6548200</v>
+      </c>
+      <c r="K9" s="3">
         <v>6272900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4663700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5205900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3265300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2591200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2252700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2781500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7672000</v>
+        <v>5852000</v>
       </c>
       <c r="E10" s="3">
-        <v>7882400</v>
+        <v>10794300</v>
       </c>
       <c r="F10" s="3">
-        <v>5436200</v>
+        <v>7483800</v>
       </c>
       <c r="G10" s="3">
-        <v>8101600</v>
+        <v>7689000</v>
       </c>
       <c r="H10" s="3">
-        <v>5504200</v>
+        <v>5302800</v>
       </c>
       <c r="I10" s="3">
+        <v>7902800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5369100</v>
+      </c>
+      <c r="K10" s="3">
         <v>5337500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4222300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7116300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4915300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4856600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3357800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4962400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,52 +900,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1569400</v>
+        <v>1481800</v>
       </c>
       <c r="E12" s="3">
-        <v>1503400</v>
+        <v>1550300</v>
       </c>
       <c r="F12" s="3">
-        <v>1242400</v>
+        <v>1530900</v>
       </c>
       <c r="G12" s="3">
-        <v>1277100</v>
+        <v>1466500</v>
       </c>
       <c r="H12" s="3">
-        <v>1200200</v>
+        <v>1211900</v>
       </c>
       <c r="I12" s="3">
+        <v>1245800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1170800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1651500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>959300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>933400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>754400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>696900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>657100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>642800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,96 +996,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>82600</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>80600</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>73300</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>309000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>431300</v>
+        <v>566000</v>
       </c>
       <c r="E15" s="3">
-        <v>439900</v>
+        <v>457900</v>
       </c>
       <c r="F15" s="3">
-        <v>459600</v>
+        <v>420700</v>
       </c>
       <c r="G15" s="3">
-        <v>403000</v>
+        <v>429100</v>
       </c>
       <c r="H15" s="3">
-        <v>374600</v>
+        <v>448300</v>
       </c>
       <c r="I15" s="3">
+        <v>393100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>365400</v>
+      </c>
+      <c r="K15" s="3">
         <v>301900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>190700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>305300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>259400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>294700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>190900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>183400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,96 +1117,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14154700</v>
+        <v>15001300</v>
       </c>
       <c r="E17" s="3">
-        <v>12992000</v>
+        <v>17060600</v>
       </c>
       <c r="F17" s="3">
-        <v>12157500</v>
+        <v>13807500</v>
       </c>
       <c r="G17" s="3">
-        <v>12982100</v>
+        <v>12673200</v>
       </c>
       <c r="H17" s="3">
-        <v>10279900</v>
+        <v>11859200</v>
       </c>
       <c r="I17" s="3">
+        <v>12663600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10027700</v>
+      </c>
+      <c r="K17" s="3">
         <v>10459700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7563000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8464100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5719400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4848700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4533300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4738700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2921800</v>
+        <v>998100</v>
       </c>
       <c r="E18" s="3">
-        <v>3497300</v>
+        <v>5536800</v>
       </c>
       <c r="F18" s="3">
-        <v>1257600</v>
+        <v>2850100</v>
       </c>
       <c r="G18" s="3">
-        <v>3845000</v>
+        <v>3411500</v>
       </c>
       <c r="H18" s="3">
-        <v>1937100</v>
+        <v>1226700</v>
       </c>
       <c r="I18" s="3">
+        <v>3750600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1889600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1150700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1323000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3858100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2461200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2599100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1077200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3005200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,78 +1237,86 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>9544100</v>
+        <v>-914600</v>
       </c>
       <c r="E20" s="3">
-        <v>328300</v>
+        <v>2536500</v>
       </c>
       <c r="F20" s="3">
-        <v>2886000</v>
+        <v>9310000</v>
       </c>
       <c r="G20" s="3">
-        <v>1714200</v>
+        <v>320200</v>
       </c>
       <c r="H20" s="3">
-        <v>732200</v>
+        <v>2815200</v>
       </c>
       <c r="I20" s="3">
+        <v>1672100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>714200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1027700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>405900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3457200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>767600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>498500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1326000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>560200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12504400</v>
+        <v>246700</v>
       </c>
       <c r="E21" s="3">
-        <v>4937300</v>
+        <v>8139700</v>
       </c>
       <c r="F21" s="3">
-        <v>4217900</v>
+        <v>12197700</v>
       </c>
       <c r="G21" s="3">
-        <v>5671600</v>
+        <v>4816200</v>
       </c>
       <c r="H21" s="3">
-        <v>2842200</v>
+        <v>4114400</v>
       </c>
       <c r="I21" s="3">
+        <v>5532500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2772500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
@@ -1252,149 +1324,173 @@
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3">
         <v>2424500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3570300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>195100</v>
+        <v>163100</v>
       </c>
       <c r="E22" s="3">
-        <v>193100</v>
+        <v>183200</v>
       </c>
       <c r="F22" s="3">
-        <v>187000</v>
+        <v>190300</v>
       </c>
       <c r="G22" s="3">
-        <v>191400</v>
+        <v>188400</v>
       </c>
       <c r="H22" s="3">
-        <v>192300</v>
+        <v>182400</v>
       </c>
       <c r="I22" s="3">
+        <v>186700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>187500</v>
+      </c>
+      <c r="K22" s="3">
         <v>174000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>168600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>125300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>110900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>118700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>98300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>101900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12270800</v>
+        <v>-79600</v>
       </c>
       <c r="E23" s="3">
-        <v>3632500</v>
+        <v>7890100</v>
       </c>
       <c r="F23" s="3">
-        <v>3956600</v>
+        <v>11969800</v>
       </c>
       <c r="G23" s="3">
-        <v>5367700</v>
+        <v>3543400</v>
       </c>
       <c r="H23" s="3">
-        <v>2477000</v>
+        <v>3859500</v>
       </c>
       <c r="I23" s="3">
+        <v>5236000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2416300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2004400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1560300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>7190000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3117900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2978900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2304900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3463400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>403900</v>
+        <v>367800</v>
       </c>
       <c r="E24" s="3">
-        <v>963000</v>
+        <v>1176600</v>
       </c>
       <c r="F24" s="3">
-        <v>721000</v>
+        <v>394000</v>
       </c>
       <c r="G24" s="3">
-        <v>801500</v>
+        <v>939400</v>
       </c>
       <c r="H24" s="3">
-        <v>39700</v>
+        <v>703300</v>
       </c>
       <c r="I24" s="3">
+        <v>781800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K24" s="3">
         <v>812800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>597500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>988900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>403500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>690600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>662100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>743100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,96 +1533,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11866900</v>
+        <v>-447500</v>
       </c>
       <c r="E26" s="3">
-        <v>2669400</v>
+        <v>6713500</v>
       </c>
       <c r="F26" s="3">
-        <v>3235600</v>
+        <v>11575800</v>
       </c>
       <c r="G26" s="3">
-        <v>4566300</v>
+        <v>2604000</v>
       </c>
       <c r="H26" s="3">
-        <v>2437300</v>
+        <v>3156200</v>
       </c>
       <c r="I26" s="3">
+        <v>4454200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2377500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1191600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>962900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6201200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2714400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2288300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1642800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2720300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10408000</v>
+        <v>442600</v>
       </c>
       <c r="E27" s="3">
-        <v>3049200</v>
+        <v>7321200</v>
       </c>
       <c r="F27" s="3">
-        <v>3706100</v>
+        <v>10152700</v>
       </c>
       <c r="G27" s="3">
-        <v>4742300</v>
+        <v>2974400</v>
       </c>
       <c r="H27" s="3">
-        <v>2874300</v>
+        <v>3615200</v>
       </c>
       <c r="I27" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2803800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1246100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1084900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3572700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2622100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2179100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1548400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2596700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1683,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1733,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1783,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,96 +1833,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9544100</v>
+        <v>914600</v>
       </c>
       <c r="E32" s="3">
-        <v>-328300</v>
+        <v>-2536500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2886000</v>
+        <v>-9310000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1714200</v>
+        <v>-320200</v>
       </c>
       <c r="H32" s="3">
-        <v>-732200</v>
+        <v>-2815200</v>
       </c>
       <c r="I32" s="3">
+        <v>-1672100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-714200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-405900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-767600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-498500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-560200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10408000</v>
+        <v>442600</v>
       </c>
       <c r="E33" s="3">
-        <v>3049200</v>
+        <v>7321200</v>
       </c>
       <c r="F33" s="3">
-        <v>3706100</v>
+        <v>10152700</v>
       </c>
       <c r="G33" s="3">
-        <v>4742300</v>
+        <v>2974400</v>
       </c>
       <c r="H33" s="3">
-        <v>2874300</v>
+        <v>3615200</v>
       </c>
       <c r="I33" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2803800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1246100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1084900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3572700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2622100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2179100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1548400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2596700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,101 +1983,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10408000</v>
+        <v>442600</v>
       </c>
       <c r="E35" s="3">
-        <v>3049200</v>
+        <v>7321200</v>
       </c>
       <c r="F35" s="3">
-        <v>3706100</v>
+        <v>10152700</v>
       </c>
       <c r="G35" s="3">
-        <v>4742300</v>
+        <v>2974400</v>
       </c>
       <c r="H35" s="3">
-        <v>2874300</v>
+        <v>3615200</v>
       </c>
       <c r="I35" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2803800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1246100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1084900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3572700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2622100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2179100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1548400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2596700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2112,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,96 +2132,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33599700</v>
+        <v>46257200</v>
       </c>
       <c r="E41" s="3">
-        <v>30208100</v>
+        <v>49066500</v>
       </c>
       <c r="F41" s="3">
-        <v>27257800</v>
+        <v>32775400</v>
       </c>
       <c r="G41" s="3">
-        <v>27147000</v>
+        <v>29467000</v>
       </c>
       <c r="H41" s="3">
-        <v>23584500</v>
+        <v>26589000</v>
       </c>
       <c r="I41" s="3">
+        <v>26481000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>23005900</v>
+      </c>
+      <c r="K41" s="3">
         <v>24089600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28596900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>31492000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>22075400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21540800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20903500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>19486000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>980400</v>
+        <v>4578400</v>
       </c>
       <c r="E42" s="3">
-        <v>1446400</v>
+        <v>928600</v>
       </c>
       <c r="F42" s="3">
-        <v>1892400</v>
+        <v>956300</v>
       </c>
       <c r="G42" s="3">
-        <v>1633800</v>
+        <v>1410900</v>
       </c>
       <c r="H42" s="3">
-        <v>2462400</v>
+        <v>1845900</v>
       </c>
       <c r="I42" s="3">
+        <v>1593700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2475900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1564100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1771400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2413700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1108600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1027500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1135400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2094,8 +2278,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,228 +2328,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13584300</v>
+        <v>13955100</v>
       </c>
       <c r="E45" s="3">
-        <v>10045300</v>
+        <v>14309000</v>
       </c>
       <c r="F45" s="3">
-        <v>9628700</v>
+        <v>13251000</v>
       </c>
       <c r="G45" s="3">
-        <v>8765000</v>
+        <v>9798900</v>
       </c>
       <c r="H45" s="3">
-        <v>8084500</v>
+        <v>9392400</v>
       </c>
       <c r="I45" s="3">
+        <v>8550000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>7886200</v>
+      </c>
+      <c r="K45" s="3">
         <v>7438400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6692600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6553500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5882700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5013300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4517500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3887600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48164400</v>
+        <v>64790700</v>
       </c>
       <c r="E46" s="3">
-        <v>41699900</v>
+        <v>64304100</v>
       </c>
       <c r="F46" s="3">
-        <v>38778800</v>
+        <v>46982800</v>
       </c>
       <c r="G46" s="3">
-        <v>37545800</v>
+        <v>40676900</v>
       </c>
       <c r="H46" s="3">
-        <v>34131500</v>
+        <v>37827400</v>
       </c>
       <c r="I46" s="3">
+        <v>36624700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>33294100</v>
+      </c>
+      <c r="K46" s="3">
         <v>34003900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36853600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>39816900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>30371800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>27662700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>26448500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>24509000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47484800</v>
+        <v>49120500</v>
       </c>
       <c r="E47" s="3">
-        <v>36487700</v>
+        <v>50670700</v>
       </c>
       <c r="F47" s="3">
-        <v>34656700</v>
+        <v>46319900</v>
       </c>
       <c r="G47" s="3">
-        <v>32689200</v>
+        <v>35592500</v>
       </c>
       <c r="H47" s="3">
-        <v>31463700</v>
+        <v>33806500</v>
       </c>
       <c r="I47" s="3">
+        <v>31887200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>30691800</v>
+      </c>
+      <c r="K47" s="3">
         <v>28385900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>25523900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>24392700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>23730600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22240600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>22079200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>22453800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18050800</v>
+        <v>14470000</v>
       </c>
       <c r="E48" s="3">
-        <v>17086200</v>
+        <v>17693700</v>
       </c>
       <c r="F48" s="3">
-        <v>13204500</v>
+        <v>17607900</v>
       </c>
       <c r="G48" s="3">
-        <v>13030000</v>
+        <v>16667000</v>
       </c>
       <c r="H48" s="3">
-        <v>12486300</v>
+        <v>12880500</v>
       </c>
       <c r="I48" s="3">
+        <v>12710300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12180000</v>
+      </c>
+      <c r="K48" s="3">
         <v>11286000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>9539800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9642600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7359200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6518500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2938600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2893900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>49175300</v>
+        <v>47268600</v>
       </c>
       <c r="E49" s="3">
-        <v>47766400</v>
+        <v>47835100</v>
       </c>
       <c r="F49" s="3">
-        <v>47809100</v>
+        <v>47968900</v>
       </c>
       <c r="G49" s="3">
-        <v>44802300</v>
+        <v>46594500</v>
       </c>
       <c r="H49" s="3">
-        <v>36503200</v>
+        <v>46636200</v>
       </c>
       <c r="I49" s="3">
+        <v>43703200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>35607600</v>
+      </c>
+      <c r="K49" s="3">
         <v>37195600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>27205800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>28168500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>21480600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>21635700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>20291600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>19700100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2628,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,52 +2678,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500800</v>
+        <v>8115600</v>
       </c>
       <c r="E52" s="3">
-        <v>3145100</v>
+        <v>4172900</v>
       </c>
       <c r="F52" s="3">
-        <v>4020000</v>
+        <v>3414900</v>
       </c>
       <c r="G52" s="3">
-        <v>3639100</v>
+        <v>3067900</v>
       </c>
       <c r="H52" s="3">
-        <v>3752900</v>
+        <v>3921400</v>
       </c>
       <c r="I52" s="3">
+        <v>3549800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3660800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3433600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>3769800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3562900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2961100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2635200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1947900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1829800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,52 +2778,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>166376100</v>
+        <v>183765400</v>
       </c>
       <c r="E54" s="3">
-        <v>146185200</v>
+        <v>184676500</v>
       </c>
       <c r="F54" s="3">
-        <v>138469100</v>
+        <v>162294400</v>
       </c>
       <c r="G54" s="3">
-        <v>131706500</v>
+        <v>142598800</v>
       </c>
       <c r="H54" s="3">
-        <v>118337600</v>
+        <v>135072000</v>
       </c>
       <c r="I54" s="3">
+        <v>128475300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>115434400</v>
+      </c>
+      <c r="K54" s="3">
         <v>114305100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>102893000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>105583600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>85903300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>80692600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>73705700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>71386600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2852,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,8 +2872,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2658,228 +2918,264 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3465800</v>
+        <v>721400</v>
       </c>
       <c r="E58" s="3">
-        <v>3302800</v>
+        <v>589900</v>
       </c>
       <c r="F58" s="3">
-        <v>3223400</v>
+        <v>3380700</v>
       </c>
       <c r="G58" s="3">
-        <v>3273100</v>
+        <v>3221700</v>
       </c>
       <c r="H58" s="3">
-        <v>1294500</v>
+        <v>3144300</v>
       </c>
       <c r="I58" s="3">
+        <v>3192800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1262700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1964700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>864900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>956800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2428100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2442100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2166500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1989300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31536000</v>
+        <v>33131100</v>
       </c>
       <c r="E59" s="3">
-        <v>26928500</v>
+        <v>36143700</v>
       </c>
       <c r="F59" s="3">
-        <v>26572900</v>
+        <v>30762400</v>
       </c>
       <c r="G59" s="3">
-        <v>26681500</v>
+        <v>26267800</v>
       </c>
       <c r="H59" s="3">
-        <v>22823900</v>
+        <v>25921000</v>
       </c>
       <c r="I59" s="3">
+        <v>26027000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>22264000</v>
+      </c>
+      <c r="K59" s="3">
         <v>21594200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>18621100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19292000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>15311900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>13438700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11440500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11476900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35001800</v>
+        <v>33852400</v>
       </c>
       <c r="E60" s="3">
-        <v>30231200</v>
+        <v>36733600</v>
       </c>
       <c r="F60" s="3">
-        <v>29796300</v>
+        <v>34143100</v>
       </c>
       <c r="G60" s="3">
-        <v>29954600</v>
+        <v>29489600</v>
       </c>
       <c r="H60" s="3">
-        <v>24118400</v>
+        <v>29065400</v>
       </c>
       <c r="I60" s="3">
+        <v>29219700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>23526700</v>
+      </c>
+      <c r="K60" s="3">
         <v>23558800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19486000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20248800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17740000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15880800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>13607000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13466200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17436000</v>
+        <v>16833800</v>
       </c>
       <c r="E61" s="3">
-        <v>16696800</v>
+        <v>16539400</v>
       </c>
       <c r="F61" s="3">
-        <v>16045900</v>
+        <v>17008200</v>
       </c>
       <c r="G61" s="3">
-        <v>16247800</v>
+        <v>16287100</v>
       </c>
       <c r="H61" s="3">
-        <v>18536800</v>
+        <v>15652300</v>
       </c>
       <c r="I61" s="3">
+        <v>15849200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>18082000</v>
+      </c>
+      <c r="K61" s="3">
         <v>17848900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17149400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18237200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11186100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>11407200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>11174100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>11219300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9522600</v>
+        <v>9963200</v>
       </c>
       <c r="E62" s="3">
-        <v>6704400</v>
+        <v>10042800</v>
       </c>
       <c r="F62" s="3">
-        <v>4328900</v>
+        <v>9289000</v>
       </c>
       <c r="G62" s="3">
-        <v>3994900</v>
+        <v>6539900</v>
       </c>
       <c r="H62" s="3">
-        <v>3749000</v>
+        <v>4222700</v>
       </c>
       <c r="I62" s="3">
+        <v>3896900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4636800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3206800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3288800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2362400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2291500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1787600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1681900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3218,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3268,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,52 +3318,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>78809500</v>
+        <v>76765400</v>
       </c>
       <c r="E66" s="3">
-        <v>70409900</v>
+        <v>79439100</v>
       </c>
       <c r="F66" s="3">
-        <v>66861700</v>
+        <v>76876100</v>
       </c>
       <c r="G66" s="3">
-        <v>64549500</v>
+        <v>68682600</v>
       </c>
       <c r="H66" s="3">
-        <v>56991100</v>
+        <v>65221400</v>
       </c>
       <c r="I66" s="3">
+        <v>62965900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>55593000</v>
+      </c>
+      <c r="K66" s="3">
         <v>57452000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>49974200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>53203800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>37956500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>36261200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32724800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>32523100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3392,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3438,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,52 +3488,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1077000</v>
+        <v>1274100</v>
       </c>
       <c r="E70" s="3">
-        <v>1017400</v>
+        <v>1091000</v>
       </c>
       <c r="F70" s="3">
-        <v>978400</v>
+        <v>1050500</v>
       </c>
       <c r="G70" s="3">
-        <v>1028000</v>
+        <v>992500</v>
       </c>
       <c r="H70" s="3">
-        <v>861000</v>
+        <v>954400</v>
       </c>
       <c r="I70" s="3">
+        <v>1002800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>839900</v>
+      </c>
+      <c r="K70" s="3">
         <v>452700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>430600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>442100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>133300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>113200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>435100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>515800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,52 +3588,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51221400</v>
+        <v>57717700</v>
       </c>
       <c r="E72" s="3">
-        <v>40801600</v>
+        <v>57267000</v>
       </c>
       <c r="F72" s="3">
-        <v>37714700</v>
+        <v>49964700</v>
       </c>
       <c r="G72" s="3">
-        <v>34040300</v>
+        <v>39800600</v>
       </c>
       <c r="H72" s="3">
-        <v>30439700</v>
+        <v>36789500</v>
       </c>
       <c r="I72" s="3">
+        <v>33205200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>29692900</v>
+      </c>
+      <c r="K72" s="3">
         <v>27742100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>25305600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>25027300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>21444900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>18812900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>16290200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>14732300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3688,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3738,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,52 +3788,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>86489600</v>
+        <v>105725900</v>
       </c>
       <c r="E76" s="3">
-        <v>74757800</v>
+        <v>104146500</v>
       </c>
       <c r="F76" s="3">
-        <v>70629000</v>
+        <v>84367700</v>
       </c>
       <c r="G76" s="3">
-        <v>66128900</v>
+        <v>72923800</v>
       </c>
       <c r="H76" s="3">
-        <v>60485400</v>
+        <v>68896300</v>
       </c>
       <c r="I76" s="3">
+        <v>64506600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>59001500</v>
+      </c>
+      <c r="K76" s="3">
         <v>56400400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>52488100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>51937700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>47813500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>44318200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40545700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>38347700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,101 +3888,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10408000</v>
+        <v>442600</v>
       </c>
       <c r="E81" s="3">
-        <v>3049200</v>
+        <v>7321200</v>
       </c>
       <c r="F81" s="3">
-        <v>3706100</v>
+        <v>10152700</v>
       </c>
       <c r="G81" s="3">
-        <v>4742300</v>
+        <v>2974400</v>
       </c>
       <c r="H81" s="3">
-        <v>2874300</v>
+        <v>3615200</v>
       </c>
       <c r="I81" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2803800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1246100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1084900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3572700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2622100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2179100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1548400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2596700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,8 +4017,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3667,8 +4063,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +4113,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +4163,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4213,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4263,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,52 +4313,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6790300</v>
+        <v>302900</v>
       </c>
       <c r="E89" s="3">
-        <v>4966100</v>
+        <v>13506800</v>
       </c>
       <c r="F89" s="3">
-        <v>2662000</v>
+        <v>6623700</v>
       </c>
       <c r="G89" s="3">
-        <v>9311600</v>
+        <v>4844300</v>
       </c>
       <c r="H89" s="3">
-        <v>4506300</v>
+        <v>2596700</v>
       </c>
       <c r="I89" s="3">
+        <v>9083100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4395700</v>
+      </c>
+      <c r="K89" s="3">
         <v>5182100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2063700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8226100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4470300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3839800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1562800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5441400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,52 +4387,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1409800</v>
+        <v>-1355200</v>
       </c>
       <c r="E91" s="3">
-        <v>-915700</v>
-      </c>
-      <c r="F91" s="3" t="s">
+        <v>-932000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1375200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-893200</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1449100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1778300</v>
-      </c>
       <c r="I91" s="3">
+        <v>-1413600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1734700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-532600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4483,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,52 +4533,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3063700</v>
+        <v>-4618000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3032600</v>
+        <v>-4561000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2403400</v>
+        <v>-2988600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4455800</v>
+        <v>-2958200</v>
       </c>
       <c r="H94" s="3">
-        <v>-4531700</v>
+        <v>-2344500</v>
       </c>
       <c r="I94" s="3">
+        <v>-4346500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-4420500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-441400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4607,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4187,8 +4653,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4703,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4753,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,136 +4803,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>302200</v>
+        <v>415300</v>
       </c>
       <c r="E100" s="3">
-        <v>644700</v>
+        <v>8577700</v>
       </c>
       <c r="F100" s="3">
-        <v>103200</v>
+        <v>294800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1279100</v>
+        <v>628800</v>
       </c>
       <c r="H100" s="3">
-        <v>-498900</v>
+        <v>100600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1247700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-486600</v>
+      </c>
+      <c r="K100" s="3">
         <v>614200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-660700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5086600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-61700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>361000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-103300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>337600</v>
+        <v>325000</v>
       </c>
       <c r="E101" s="3">
-        <v>197600</v>
+        <v>-273200</v>
       </c>
       <c r="F101" s="3">
-        <v>-163900</v>
+        <v>329300</v>
       </c>
       <c r="G101" s="3">
-        <v>-9500</v>
+        <v>192700</v>
       </c>
       <c r="H101" s="3">
-        <v>239600</v>
+        <v>-159800</v>
       </c>
       <c r="I101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K101" s="3">
         <v>399300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-380700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-224000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-120400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-162100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-64900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>253800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4366400</v>
+        <v>-3574900</v>
       </c>
       <c r="E102" s="3">
-        <v>2775800</v>
+        <v>17250300</v>
       </c>
       <c r="F102" s="3">
-        <v>197900</v>
+        <v>4259300</v>
       </c>
       <c r="G102" s="3">
-        <v>3567200</v>
+        <v>2707700</v>
       </c>
       <c r="H102" s="3">
-        <v>-284700</v>
+        <v>193000</v>
       </c>
       <c r="I102" s="3">
+        <v>3479700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-277700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9481900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>494500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>291500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1417500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4407300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,225 +665,237 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15999400</v>
+        <v>22329300</v>
       </c>
       <c r="E8" s="3">
-        <v>22597400</v>
+        <v>16601800</v>
       </c>
       <c r="F8" s="3">
-        <v>16657600</v>
+        <v>23448300</v>
       </c>
       <c r="G8" s="3">
-        <v>16084800</v>
+        <v>17284800</v>
       </c>
       <c r="H8" s="3">
-        <v>13086000</v>
+        <v>16690400</v>
       </c>
       <c r="I8" s="3">
-        <v>16414200</v>
+        <v>13578700</v>
       </c>
       <c r="J8" s="3">
+        <v>17032300</v>
+      </c>
+      <c r="K8" s="3">
         <v>11917300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11610400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8886000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12322200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8180700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7447800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5610500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7743900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10147400</v>
+        <v>12275300</v>
       </c>
       <c r="E9" s="3">
-        <v>11803100</v>
+        <v>10529500</v>
       </c>
       <c r="F9" s="3">
-        <v>9173800</v>
+        <v>12247500</v>
       </c>
       <c r="G9" s="3">
-        <v>8395800</v>
+        <v>9519200</v>
       </c>
       <c r="H9" s="3">
-        <v>7783200</v>
+        <v>8711900</v>
       </c>
       <c r="I9" s="3">
-        <v>8511400</v>
+        <v>8076200</v>
       </c>
       <c r="J9" s="3">
+        <v>8831900</v>
+      </c>
+      <c r="K9" s="3">
         <v>6548200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6272900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4663700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5205900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3265300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2591200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2252700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2781500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5852000</v>
+        <v>10054000</v>
       </c>
       <c r="E10" s="3">
-        <v>10794300</v>
+        <v>6072400</v>
       </c>
       <c r="F10" s="3">
-        <v>7483800</v>
+        <v>11200700</v>
       </c>
       <c r="G10" s="3">
-        <v>7689000</v>
+        <v>7765600</v>
       </c>
       <c r="H10" s="3">
-        <v>5302800</v>
+        <v>7978500</v>
       </c>
       <c r="I10" s="3">
-        <v>7902800</v>
+        <v>5502500</v>
       </c>
       <c r="J10" s="3">
+        <v>8200400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5369100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5337500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4222300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7116300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4915300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4856600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3357800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4962400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,58 +914,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1481800</v>
+        <v>1609400</v>
       </c>
       <c r="E12" s="3">
-        <v>1550300</v>
+        <v>1537600</v>
       </c>
       <c r="F12" s="3">
-        <v>1530900</v>
+        <v>1608700</v>
       </c>
       <c r="G12" s="3">
-        <v>1466500</v>
+        <v>1588500</v>
       </c>
       <c r="H12" s="3">
-        <v>1211900</v>
+        <v>1521700</v>
       </c>
       <c r="I12" s="3">
-        <v>1245800</v>
+        <v>1257500</v>
       </c>
       <c r="J12" s="3">
+        <v>1292700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1170800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1651500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>959300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>933400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>754400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>696900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>657100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>642800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,108 +1018,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>80600</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>83700</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>73300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>309000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>566000</v>
+        <v>428700</v>
       </c>
       <c r="E15" s="3">
-        <v>457900</v>
+        <v>587300</v>
       </c>
       <c r="F15" s="3">
-        <v>420700</v>
+        <v>475200</v>
       </c>
       <c r="G15" s="3">
-        <v>429100</v>
+        <v>436600</v>
       </c>
       <c r="H15" s="3">
-        <v>448300</v>
+        <v>445300</v>
       </c>
       <c r="I15" s="3">
-        <v>393100</v>
+        <v>465200</v>
       </c>
       <c r="J15" s="3">
+        <v>408000</v>
+      </c>
+      <c r="K15" s="3">
         <v>365400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>301900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>190700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>305300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>259400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>294700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>190900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>183400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15001300</v>
+        <v>17289100</v>
       </c>
       <c r="E17" s="3">
-        <v>17060600</v>
+        <v>15566200</v>
       </c>
       <c r="F17" s="3">
-        <v>13807500</v>
+        <v>17703000</v>
       </c>
       <c r="G17" s="3">
-        <v>12673200</v>
+        <v>14327400</v>
       </c>
       <c r="H17" s="3">
-        <v>11859200</v>
+        <v>13150400</v>
       </c>
       <c r="I17" s="3">
-        <v>12663600</v>
+        <v>12305800</v>
       </c>
       <c r="J17" s="3">
+        <v>13140400</v>
+      </c>
+      <c r="K17" s="3">
         <v>10027700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10459700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7563000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8464100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5719400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4848700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4533300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4738700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>998100</v>
+        <v>5040200</v>
       </c>
       <c r="E18" s="3">
-        <v>5536800</v>
+        <v>1035600</v>
       </c>
       <c r="F18" s="3">
-        <v>2850100</v>
+        <v>5745300</v>
       </c>
       <c r="G18" s="3">
-        <v>3411500</v>
+        <v>2957500</v>
       </c>
       <c r="H18" s="3">
-        <v>1226700</v>
+        <v>3540000</v>
       </c>
       <c r="I18" s="3">
-        <v>3750600</v>
+        <v>1272900</v>
       </c>
       <c r="J18" s="3">
+        <v>3891900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1889600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1150700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1323000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3858100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2461200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2599100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1077200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3005200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1239,87 +1271,91 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-914600</v>
+        <v>3431800</v>
       </c>
       <c r="E20" s="3">
-        <v>2536500</v>
+        <v>-949100</v>
       </c>
       <c r="F20" s="3">
-        <v>9310000</v>
+        <v>2632000</v>
       </c>
       <c r="G20" s="3">
-        <v>320200</v>
+        <v>9660600</v>
       </c>
       <c r="H20" s="3">
-        <v>2815200</v>
+        <v>332300</v>
       </c>
       <c r="I20" s="3">
-        <v>1672100</v>
+        <v>2921200</v>
       </c>
       <c r="J20" s="3">
+        <v>1735100</v>
+      </c>
+      <c r="K20" s="3">
         <v>714200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1027700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>405900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3457200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>767600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>498500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1326000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>560200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>246700</v>
+        <v>9723700</v>
       </c>
       <c r="E21" s="3">
-        <v>8139700</v>
+        <v>256000</v>
       </c>
       <c r="F21" s="3">
-        <v>12197700</v>
+        <v>8446100</v>
       </c>
       <c r="G21" s="3">
-        <v>4816200</v>
+        <v>12656900</v>
       </c>
       <c r="H21" s="3">
-        <v>4114400</v>
+        <v>4997500</v>
       </c>
       <c r="I21" s="3">
-        <v>5532500</v>
+        <v>4269300</v>
       </c>
       <c r="J21" s="3">
+        <v>5740800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2772500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
@@ -1330,17 +1366,20 @@
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2424500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3570300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1348,149 +1387,158 @@
         <v>163100</v>
       </c>
       <c r="E22" s="3">
-        <v>183200</v>
+        <v>169200</v>
       </c>
       <c r="F22" s="3">
-        <v>190300</v>
+        <v>190100</v>
       </c>
       <c r="G22" s="3">
-        <v>188400</v>
+        <v>197500</v>
       </c>
       <c r="H22" s="3">
-        <v>182400</v>
+        <v>195500</v>
       </c>
       <c r="I22" s="3">
-        <v>186700</v>
+        <v>189200</v>
       </c>
       <c r="J22" s="3">
+        <v>193700</v>
+      </c>
+      <c r="K22" s="3">
         <v>187500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>174000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>168600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>125300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>110900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>118700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>98300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>101900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-79600</v>
+        <v>8308900</v>
       </c>
       <c r="E23" s="3">
-        <v>7890100</v>
+        <v>-82600</v>
       </c>
       <c r="F23" s="3">
-        <v>11969800</v>
+        <v>8187200</v>
       </c>
       <c r="G23" s="3">
-        <v>3543400</v>
+        <v>12420500</v>
       </c>
       <c r="H23" s="3">
-        <v>3859500</v>
+        <v>3676800</v>
       </c>
       <c r="I23" s="3">
-        <v>5236000</v>
+        <v>4004900</v>
       </c>
       <c r="J23" s="3">
+        <v>5433200</v>
+      </c>
+      <c r="K23" s="3">
         <v>2416300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2004400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1560300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7190000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3117900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2978900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2304900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3463400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>367800</v>
+        <v>1615500</v>
       </c>
       <c r="E24" s="3">
-        <v>1176600</v>
+        <v>381700</v>
       </c>
       <c r="F24" s="3">
-        <v>394000</v>
+        <v>1220900</v>
       </c>
       <c r="G24" s="3">
-        <v>939400</v>
+        <v>408800</v>
       </c>
       <c r="H24" s="3">
-        <v>703300</v>
+        <v>974800</v>
       </c>
       <c r="I24" s="3">
-        <v>781800</v>
+        <v>729800</v>
       </c>
       <c r="J24" s="3">
+        <v>811300</v>
+      </c>
+      <c r="K24" s="3">
         <v>38800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>812800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>597500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>988900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>403500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>690600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>662100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>743100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1539,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-447500</v>
+        <v>6693400</v>
       </c>
       <c r="E26" s="3">
-        <v>6713500</v>
+        <v>-464300</v>
       </c>
       <c r="F26" s="3">
-        <v>11575800</v>
+        <v>6966200</v>
       </c>
       <c r="G26" s="3">
-        <v>2604000</v>
+        <v>12011700</v>
       </c>
       <c r="H26" s="3">
-        <v>3156200</v>
+        <v>2702000</v>
       </c>
       <c r="I26" s="3">
-        <v>4454200</v>
+        <v>3275100</v>
       </c>
       <c r="J26" s="3">
+        <v>4621900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2377500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1191600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>962900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6201200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2714400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2288300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1642800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2720300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>442600</v>
+        <v>6911600</v>
       </c>
       <c r="E27" s="3">
-        <v>7321200</v>
+        <v>459200</v>
       </c>
       <c r="F27" s="3">
-        <v>10152700</v>
+        <v>7596800</v>
       </c>
       <c r="G27" s="3">
-        <v>2974400</v>
+        <v>10535000</v>
       </c>
       <c r="H27" s="3">
-        <v>3615200</v>
+        <v>3086400</v>
       </c>
       <c r="I27" s="3">
-        <v>4626000</v>
+        <v>3751300</v>
       </c>
       <c r="J27" s="3">
+        <v>4800100</v>
+      </c>
+      <c r="K27" s="3">
         <v>2803800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1246100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1084900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3572700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2622100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2179100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1548400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2596700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,8 +1746,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1739,8 +1799,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,108 +1905,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>914600</v>
+        <v>-3431800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2536500</v>
+        <v>949100</v>
       </c>
       <c r="F32" s="3">
-        <v>-9310000</v>
+        <v>-2632000</v>
       </c>
       <c r="G32" s="3">
-        <v>-320200</v>
+        <v>-9660600</v>
       </c>
       <c r="H32" s="3">
-        <v>-2815200</v>
+        <v>-332300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1672100</v>
+        <v>-2921200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1735100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-714200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-405900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-767600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-498500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-560200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>442600</v>
+        <v>6911600</v>
       </c>
       <c r="E33" s="3">
-        <v>7321200</v>
+        <v>459200</v>
       </c>
       <c r="F33" s="3">
-        <v>10152700</v>
+        <v>7596800</v>
       </c>
       <c r="G33" s="3">
-        <v>2974400</v>
+        <v>10535000</v>
       </c>
       <c r="H33" s="3">
-        <v>3615200</v>
+        <v>3086400</v>
       </c>
       <c r="I33" s="3">
-        <v>4626000</v>
+        <v>3751300</v>
       </c>
       <c r="J33" s="3">
+        <v>4800100</v>
+      </c>
+      <c r="K33" s="3">
         <v>2803800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1246100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1084900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3572700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2622100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2179100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1548400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2596700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>442600</v>
+        <v>6911600</v>
       </c>
       <c r="E35" s="3">
-        <v>7321200</v>
+        <v>459200</v>
       </c>
       <c r="F35" s="3">
-        <v>10152700</v>
+        <v>7596800</v>
       </c>
       <c r="G35" s="3">
-        <v>2974400</v>
+        <v>10535000</v>
       </c>
       <c r="H35" s="3">
-        <v>3615200</v>
+        <v>3086400</v>
       </c>
       <c r="I35" s="3">
-        <v>4626000</v>
+        <v>3751300</v>
       </c>
       <c r="J35" s="3">
+        <v>4800100</v>
+      </c>
+      <c r="K35" s="3">
         <v>2803800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1246100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1084900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3572700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2622100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2179100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1548400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2596700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,108 +2219,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46257200</v>
+        <v>44914800</v>
       </c>
       <c r="E41" s="3">
-        <v>49066500</v>
+        <v>47999000</v>
       </c>
       <c r="F41" s="3">
-        <v>32775400</v>
+        <v>50914000</v>
       </c>
       <c r="G41" s="3">
-        <v>29467000</v>
+        <v>34009500</v>
       </c>
       <c r="H41" s="3">
-        <v>26589000</v>
+        <v>30576600</v>
       </c>
       <c r="I41" s="3">
-        <v>26481000</v>
+        <v>27590200</v>
       </c>
       <c r="J41" s="3">
+        <v>27478100</v>
+      </c>
+      <c r="K41" s="3">
         <v>23005900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24089600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28596900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31492000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22075400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21540800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20903500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19486000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4578400</v>
+        <v>11225000</v>
       </c>
       <c r="E42" s="3">
-        <v>928600</v>
+        <v>4750800</v>
       </c>
       <c r="F42" s="3">
-        <v>956300</v>
+        <v>963600</v>
       </c>
       <c r="G42" s="3">
-        <v>1410900</v>
+        <v>992400</v>
       </c>
       <c r="H42" s="3">
-        <v>1845900</v>
+        <v>1464100</v>
       </c>
       <c r="I42" s="3">
-        <v>1593700</v>
+        <v>1915400</v>
       </c>
       <c r="J42" s="3">
+        <v>1653700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2402000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2475900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1564100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1771400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2413700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1108600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1027500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1135400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2284,8 +2376,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2334,258 +2429,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13955100</v>
+        <v>15213400</v>
       </c>
       <c r="E45" s="3">
-        <v>14309000</v>
+        <v>14480600</v>
       </c>
       <c r="F45" s="3">
-        <v>13251000</v>
+        <v>14847700</v>
       </c>
       <c r="G45" s="3">
-        <v>9798900</v>
+        <v>13749900</v>
       </c>
       <c r="H45" s="3">
-        <v>9392400</v>
+        <v>10167800</v>
       </c>
       <c r="I45" s="3">
-        <v>8550000</v>
+        <v>9746100</v>
       </c>
       <c r="J45" s="3">
+        <v>8872000</v>
+      </c>
+      <c r="K45" s="3">
         <v>7886200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7438400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6692600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6553500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5882700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5013300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4517500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3887600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>64790700</v>
+        <v>71353200</v>
       </c>
       <c r="E46" s="3">
-        <v>64304100</v>
+        <v>67230300</v>
       </c>
       <c r="F46" s="3">
-        <v>46982800</v>
+        <v>66725300</v>
       </c>
       <c r="G46" s="3">
-        <v>40676900</v>
+        <v>48751800</v>
       </c>
       <c r="H46" s="3">
-        <v>37827400</v>
+        <v>42208500</v>
       </c>
       <c r="I46" s="3">
-        <v>36624700</v>
+        <v>39251700</v>
       </c>
       <c r="J46" s="3">
+        <v>38003800</v>
+      </c>
+      <c r="K46" s="3">
         <v>33294100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34003900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36853600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39816900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30371800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27662700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26448500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24509000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49120500</v>
+        <v>54283500</v>
       </c>
       <c r="E47" s="3">
-        <v>50670700</v>
+        <v>50970100</v>
       </c>
       <c r="F47" s="3">
-        <v>46319900</v>
+        <v>52578600</v>
       </c>
       <c r="G47" s="3">
-        <v>35592500</v>
+        <v>48064000</v>
       </c>
       <c r="H47" s="3">
-        <v>33806500</v>
+        <v>36932700</v>
       </c>
       <c r="I47" s="3">
-        <v>31887200</v>
+        <v>35079400</v>
       </c>
       <c r="J47" s="3">
+        <v>33087900</v>
+      </c>
+      <c r="K47" s="3">
         <v>30691800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28385900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25523900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24392700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23730600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22240600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22079200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22453800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14470000</v>
+        <v>16187500</v>
       </c>
       <c r="E48" s="3">
-        <v>17693700</v>
+        <v>20048600</v>
       </c>
       <c r="F48" s="3">
-        <v>17607900</v>
+        <v>18360000</v>
       </c>
       <c r="G48" s="3">
-        <v>16667000</v>
+        <v>18271000</v>
       </c>
       <c r="H48" s="3">
-        <v>12880500</v>
+        <v>17294600</v>
       </c>
       <c r="I48" s="3">
-        <v>12710300</v>
+        <v>13365500</v>
       </c>
       <c r="J48" s="3">
+        <v>13188900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12180000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11286000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9539800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9642600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7359200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6518500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2938600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2893900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47268600</v>
+        <v>48575900</v>
       </c>
       <c r="E49" s="3">
-        <v>47835100</v>
+        <v>49048400</v>
       </c>
       <c r="F49" s="3">
-        <v>47968900</v>
+        <v>49636300</v>
       </c>
       <c r="G49" s="3">
-        <v>46594500</v>
+        <v>49775100</v>
       </c>
       <c r="H49" s="3">
-        <v>46636200</v>
+        <v>48349000</v>
       </c>
       <c r="I49" s="3">
-        <v>43703200</v>
+        <v>48392200</v>
       </c>
       <c r="J49" s="3">
+        <v>45348800</v>
+      </c>
+      <c r="K49" s="3">
         <v>35607600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37195600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27205800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28168500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>21480600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21635700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20291600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>19700100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,58 +2800,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8115600</v>
+        <v>8445400</v>
       </c>
       <c r="E52" s="3">
-        <v>4172900</v>
+        <v>3387500</v>
       </c>
       <c r="F52" s="3">
-        <v>3414900</v>
+        <v>4330000</v>
       </c>
       <c r="G52" s="3">
-        <v>3067900</v>
+        <v>3543500</v>
       </c>
       <c r="H52" s="3">
-        <v>3921400</v>
+        <v>3183400</v>
       </c>
       <c r="I52" s="3">
-        <v>3549800</v>
+        <v>4069100</v>
       </c>
       <c r="J52" s="3">
+        <v>3683500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3660800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3433600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3769800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3562900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2961100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2635200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1947900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1829800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2784,58 +2906,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>183765400</v>
+        <v>198845600</v>
       </c>
       <c r="E54" s="3">
-        <v>184676500</v>
+        <v>190684800</v>
       </c>
       <c r="F54" s="3">
-        <v>162294400</v>
+        <v>191630300</v>
       </c>
       <c r="G54" s="3">
-        <v>142598800</v>
+        <v>168405400</v>
       </c>
       <c r="H54" s="3">
-        <v>135072000</v>
+        <v>147968200</v>
       </c>
       <c r="I54" s="3">
-        <v>128475300</v>
+        <v>140158000</v>
       </c>
       <c r="J54" s="3">
+        <v>133312900</v>
+      </c>
+      <c r="K54" s="3">
         <v>115434400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>114305100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>102893000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105583600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85903300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>80692600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73705700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71386600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2854,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,8 +3003,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2924,258 +3054,276 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>721400</v>
+        <v>659800</v>
       </c>
       <c r="E58" s="3">
-        <v>589900</v>
+        <v>748500</v>
       </c>
       <c r="F58" s="3">
-        <v>3380700</v>
+        <v>612100</v>
       </c>
       <c r="G58" s="3">
-        <v>3221700</v>
+        <v>3508000</v>
       </c>
       <c r="H58" s="3">
-        <v>3144300</v>
+        <v>3343000</v>
       </c>
       <c r="I58" s="3">
-        <v>3192800</v>
+        <v>3262700</v>
       </c>
       <c r="J58" s="3">
+        <v>3313000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1262700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1964700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>864900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>956800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2428100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2442100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2166500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1989300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33131100</v>
+        <v>35370800</v>
       </c>
       <c r="E59" s="3">
-        <v>36143700</v>
+        <v>34378600</v>
       </c>
       <c r="F59" s="3">
-        <v>30762400</v>
+        <v>37504600</v>
       </c>
       <c r="G59" s="3">
-        <v>26267800</v>
+        <v>31920700</v>
       </c>
       <c r="H59" s="3">
-        <v>25921000</v>
+        <v>27256900</v>
       </c>
       <c r="I59" s="3">
-        <v>26027000</v>
+        <v>26897000</v>
       </c>
       <c r="J59" s="3">
+        <v>27007000</v>
+      </c>
+      <c r="K59" s="3">
         <v>22264000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21594200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18621100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19292000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15311900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13438700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11440500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11476900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33852400</v>
+        <v>36030500</v>
       </c>
       <c r="E60" s="3">
-        <v>36733600</v>
+        <v>35127100</v>
       </c>
       <c r="F60" s="3">
-        <v>34143100</v>
+        <v>38116800</v>
       </c>
       <c r="G60" s="3">
-        <v>29489600</v>
+        <v>35428700</v>
       </c>
       <c r="H60" s="3">
-        <v>29065400</v>
+        <v>30600000</v>
       </c>
       <c r="I60" s="3">
-        <v>29219700</v>
+        <v>30159800</v>
       </c>
       <c r="J60" s="3">
+        <v>30320000</v>
+      </c>
+      <c r="K60" s="3">
         <v>23526700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23558800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19486000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20248800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17740000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15880800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13607000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13466200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16833800</v>
+        <v>17557400</v>
       </c>
       <c r="E61" s="3">
-        <v>16539400</v>
+        <v>17467700</v>
       </c>
       <c r="F61" s="3">
-        <v>17008200</v>
+        <v>17162100</v>
       </c>
       <c r="G61" s="3">
-        <v>16287100</v>
+        <v>17648600</v>
       </c>
       <c r="H61" s="3">
-        <v>15652300</v>
+        <v>16900400</v>
       </c>
       <c r="I61" s="3">
-        <v>15849200</v>
+        <v>16241700</v>
       </c>
       <c r="J61" s="3">
+        <v>16446000</v>
+      </c>
+      <c r="K61" s="3">
         <v>18082000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17848900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17149400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18237200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11186100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11407200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11174100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11219300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9963200</v>
+        <v>10414200</v>
       </c>
       <c r="E62" s="3">
-        <v>10042800</v>
+        <v>10338300</v>
       </c>
       <c r="F62" s="3">
-        <v>9289000</v>
+        <v>10421000</v>
       </c>
       <c r="G62" s="3">
-        <v>6539900</v>
+        <v>9638800</v>
       </c>
       <c r="H62" s="3">
-        <v>4222700</v>
+        <v>6786200</v>
       </c>
       <c r="I62" s="3">
-        <v>3896900</v>
+        <v>4381700</v>
       </c>
       <c r="J62" s="3">
+        <v>4043600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3657000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4636800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3206800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3288800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2362400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2291500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1787600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1681900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,58 +3478,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>76765400</v>
+        <v>80261900</v>
       </c>
       <c r="E66" s="3">
-        <v>79439100</v>
+        <v>79655900</v>
       </c>
       <c r="F66" s="3">
-        <v>76876100</v>
+        <v>82430200</v>
       </c>
       <c r="G66" s="3">
-        <v>68682600</v>
+        <v>79770800</v>
       </c>
       <c r="H66" s="3">
-        <v>65221400</v>
+        <v>71268700</v>
       </c>
       <c r="I66" s="3">
-        <v>62965900</v>
+        <v>67677200</v>
       </c>
       <c r="J66" s="3">
+        <v>65336800</v>
+      </c>
+      <c r="K66" s="3">
         <v>55593000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57452000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49974200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53203800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37956500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36261200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32724800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32523100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3394,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3444,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,58 +3658,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1274100</v>
+        <v>1135700</v>
       </c>
       <c r="E70" s="3">
-        <v>1091000</v>
+        <v>1322000</v>
       </c>
       <c r="F70" s="3">
-        <v>1050500</v>
+        <v>1132100</v>
       </c>
       <c r="G70" s="3">
-        <v>992500</v>
+        <v>1090100</v>
       </c>
       <c r="H70" s="3">
-        <v>954400</v>
+        <v>1029800</v>
       </c>
       <c r="I70" s="3">
-        <v>1002800</v>
+        <v>990300</v>
       </c>
       <c r="J70" s="3">
+        <v>1040600</v>
+      </c>
+      <c r="K70" s="3">
         <v>839900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>452700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>430600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>442100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>133300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>113200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>435100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>515800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3594,58 +3764,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>57717700</v>
+        <v>66794200</v>
       </c>
       <c r="E72" s="3">
-        <v>57267000</v>
+        <v>59891000</v>
       </c>
       <c r="F72" s="3">
-        <v>49964700</v>
+        <v>59423300</v>
       </c>
       <c r="G72" s="3">
-        <v>39800600</v>
+        <v>51846100</v>
       </c>
       <c r="H72" s="3">
-        <v>36789500</v>
+        <v>41299200</v>
       </c>
       <c r="I72" s="3">
-        <v>33205200</v>
+        <v>38174700</v>
       </c>
       <c r="J72" s="3">
+        <v>34455500</v>
+      </c>
+      <c r="K72" s="3">
         <v>29692900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27742100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>25305600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25027300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>21444900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18812900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16290200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>14732300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3744,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3794,58 +3976,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>105725900</v>
+        <v>117447900</v>
       </c>
       <c r="E76" s="3">
-        <v>104146500</v>
+        <v>109706900</v>
       </c>
       <c r="F76" s="3">
-        <v>84367700</v>
+        <v>108068000</v>
       </c>
       <c r="G76" s="3">
-        <v>72923800</v>
+        <v>87544500</v>
       </c>
       <c r="H76" s="3">
-        <v>68896300</v>
+        <v>75669600</v>
       </c>
       <c r="I76" s="3">
-        <v>64506600</v>
+        <v>71490500</v>
       </c>
       <c r="J76" s="3">
+        <v>66935500</v>
+      </c>
+      <c r="K76" s="3">
         <v>59001500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56400400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52488100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51937700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47813500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>44318200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40545700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38347700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3894,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>442600</v>
+        <v>6911600</v>
       </c>
       <c r="E81" s="3">
-        <v>7321200</v>
+        <v>459200</v>
       </c>
       <c r="F81" s="3">
-        <v>10152700</v>
+        <v>7596800</v>
       </c>
       <c r="G81" s="3">
-        <v>2974400</v>
+        <v>10535000</v>
       </c>
       <c r="H81" s="3">
-        <v>3615200</v>
+        <v>3086400</v>
       </c>
       <c r="I81" s="3">
-        <v>4626000</v>
+        <v>3751300</v>
       </c>
       <c r="J81" s="3">
+        <v>4800100</v>
+      </c>
+      <c r="K81" s="3">
         <v>2803800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1246100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1084900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3572700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2622100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2179100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1548400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2596700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4019,8 +4216,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4069,8 +4267,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4169,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4219,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4319,58 +4532,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>302900</v>
+        <v>7275900</v>
       </c>
       <c r="E89" s="3">
-        <v>13506800</v>
+        <v>314300</v>
       </c>
       <c r="F89" s="3">
-        <v>6623700</v>
+        <v>14015400</v>
       </c>
       <c r="G89" s="3">
-        <v>4844300</v>
+        <v>6873200</v>
       </c>
       <c r="H89" s="3">
-        <v>2596700</v>
+        <v>5026700</v>
       </c>
       <c r="I89" s="3">
-        <v>9083100</v>
+        <v>2694500</v>
       </c>
       <c r="J89" s="3">
+        <v>9425100</v>
+      </c>
+      <c r="K89" s="3">
         <v>4395700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5182100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2063700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8226100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4470300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3839800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1562800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5441400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4389,58 +4608,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1355200</v>
+        <v>-1980600</v>
       </c>
       <c r="E91" s="3">
-        <v>-932000</v>
+        <v>-260700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1375200</v>
+        <v>-967100</v>
       </c>
       <c r="G91" s="3">
-        <v>-893200</v>
-      </c>
-      <c r="H91" s="3" t="s">
+        <v>-1427000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-926900</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1413600</v>
-      </c>
       <c r="J91" s="3">
+        <v>-1466800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-532600</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4489,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4539,58 +4765,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4618000</v>
+        <v>-9836100</v>
       </c>
       <c r="E94" s="3">
-        <v>-4561000</v>
+        <v>-4791900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2988600</v>
+        <v>-4732800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2958200</v>
+        <v>-3101100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2344500</v>
+        <v>-3069600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4346500</v>
+        <v>-2432700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4510100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-441400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4609,8 +4841,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4659,8 +4892,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4709,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4759,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4809,154 +5051,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>415300</v>
+        <v>-669400</v>
       </c>
       <c r="E100" s="3">
-        <v>8577700</v>
+        <v>430900</v>
       </c>
       <c r="F100" s="3">
-        <v>294800</v>
+        <v>8900700</v>
       </c>
       <c r="G100" s="3">
-        <v>628800</v>
+        <v>305900</v>
       </c>
       <c r="H100" s="3">
-        <v>100600</v>
+        <v>652500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1247700</v>
+        <v>104400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1294700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-486600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>614200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-660700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5086600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>361000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-103300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>325000</v>
+        <v>-51000</v>
       </c>
       <c r="E101" s="3">
-        <v>-273200</v>
+        <v>337200</v>
       </c>
       <c r="F101" s="3">
-        <v>329300</v>
+        <v>-283500</v>
       </c>
       <c r="G101" s="3">
-        <v>192700</v>
+        <v>341700</v>
       </c>
       <c r="H101" s="3">
-        <v>-159800</v>
+        <v>200000</v>
       </c>
       <c r="I101" s="3">
-        <v>-9200</v>
+        <v>-165900</v>
       </c>
       <c r="J101" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K101" s="3">
         <v>233700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>399300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-380700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-224000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-120400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-162100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>253800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3574900</v>
+        <v>-3280600</v>
       </c>
       <c r="E102" s="3">
-        <v>17250300</v>
+        <v>-3709500</v>
       </c>
       <c r="F102" s="3">
-        <v>4259300</v>
+        <v>17899900</v>
       </c>
       <c r="G102" s="3">
-        <v>2707700</v>
+        <v>4419600</v>
       </c>
       <c r="H102" s="3">
-        <v>193000</v>
+        <v>2809600</v>
       </c>
       <c r="I102" s="3">
-        <v>3479700</v>
+        <v>200300</v>
       </c>
       <c r="J102" s="3">
+        <v>3610700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-277700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9481900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>494500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>291500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1417500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4407300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,237 +665,249 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22329300</v>
+        <v>23587600</v>
       </c>
       <c r="E8" s="3">
-        <v>16601800</v>
+        <v>23388600</v>
       </c>
       <c r="F8" s="3">
-        <v>23448300</v>
+        <v>17389400</v>
       </c>
       <c r="G8" s="3">
-        <v>17284800</v>
+        <v>24560700</v>
       </c>
       <c r="H8" s="3">
-        <v>16690400</v>
+        <v>18104900</v>
       </c>
       <c r="I8" s="3">
-        <v>13578700</v>
+        <v>17482200</v>
       </c>
       <c r="J8" s="3">
+        <v>14222900</v>
+      </c>
+      <c r="K8" s="3">
         <v>17032300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11917300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11610400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8886000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12322200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8180700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7447800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5610500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7743900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12275300</v>
+        <v>13684700</v>
       </c>
       <c r="E9" s="3">
-        <v>10529500</v>
+        <v>12857600</v>
       </c>
       <c r="F9" s="3">
-        <v>12247500</v>
+        <v>11029000</v>
       </c>
       <c r="G9" s="3">
-        <v>9519200</v>
+        <v>12828600</v>
       </c>
       <c r="H9" s="3">
-        <v>8711900</v>
+        <v>9970900</v>
       </c>
       <c r="I9" s="3">
-        <v>8076200</v>
+        <v>9125200</v>
       </c>
       <c r="J9" s="3">
+        <v>8459400</v>
+      </c>
+      <c r="K9" s="3">
         <v>8831900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6548200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6272900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4663700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5205900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3265300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2591200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2252700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2781500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10054000</v>
+        <v>9902900</v>
       </c>
       <c r="E10" s="3">
-        <v>6072400</v>
+        <v>10531000</v>
       </c>
       <c r="F10" s="3">
-        <v>11200700</v>
+        <v>6360400</v>
       </c>
       <c r="G10" s="3">
-        <v>7765600</v>
+        <v>11732100</v>
       </c>
       <c r="H10" s="3">
-        <v>7978500</v>
+        <v>8134000</v>
       </c>
       <c r="I10" s="3">
-        <v>5502500</v>
+        <v>8357000</v>
       </c>
       <c r="J10" s="3">
+        <v>5763500</v>
+      </c>
+      <c r="K10" s="3">
         <v>8200400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5369100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5337500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4222300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7116300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4915300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4856600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3357800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4962400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,61 +927,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1609400</v>
+        <v>2927500</v>
       </c>
       <c r="E12" s="3">
-        <v>1537600</v>
+        <v>1685800</v>
       </c>
       <c r="F12" s="3">
-        <v>1608700</v>
+        <v>1610500</v>
       </c>
       <c r="G12" s="3">
-        <v>1588500</v>
+        <v>1685000</v>
       </c>
       <c r="H12" s="3">
-        <v>1521700</v>
+        <v>1663900</v>
       </c>
       <c r="I12" s="3">
-        <v>1257500</v>
+        <v>1593900</v>
       </c>
       <c r="J12" s="3">
+        <v>1317200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1292700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1170800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1651500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>959300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>933400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>754400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>696900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>657100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>642800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1021,114 +1037,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>83700</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>87600</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>73300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>309000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>428700</v>
+        <v>439300</v>
       </c>
       <c r="E15" s="3">
-        <v>587300</v>
+        <v>449100</v>
       </c>
       <c r="F15" s="3">
-        <v>475200</v>
+        <v>615200</v>
       </c>
       <c r="G15" s="3">
-        <v>436600</v>
+        <v>497700</v>
       </c>
       <c r="H15" s="3">
-        <v>445300</v>
+        <v>457300</v>
       </c>
       <c r="I15" s="3">
-        <v>465200</v>
+        <v>466400</v>
       </c>
       <c r="J15" s="3">
+        <v>487200</v>
+      </c>
+      <c r="K15" s="3">
         <v>408000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>365400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>301900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>190700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>305300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>259400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>294700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>190900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>183400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1170,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17289100</v>
+        <v>21513600</v>
       </c>
       <c r="E17" s="3">
-        <v>15566200</v>
+        <v>18109300</v>
       </c>
       <c r="F17" s="3">
-        <v>17703000</v>
+        <v>16304700</v>
       </c>
       <c r="G17" s="3">
-        <v>14327400</v>
+        <v>18542800</v>
       </c>
       <c r="H17" s="3">
-        <v>13150400</v>
+        <v>15007100</v>
       </c>
       <c r="I17" s="3">
-        <v>12305800</v>
+        <v>13774300</v>
       </c>
       <c r="J17" s="3">
+        <v>12889600</v>
+      </c>
+      <c r="K17" s="3">
         <v>13140400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10027700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10459700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7563000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8464100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5719400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4848700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4533300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4738700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5040200</v>
+        <v>2074000</v>
       </c>
       <c r="E18" s="3">
-        <v>1035600</v>
+        <v>5279300</v>
       </c>
       <c r="F18" s="3">
-        <v>5745300</v>
+        <v>1084800</v>
       </c>
       <c r="G18" s="3">
-        <v>2957500</v>
+        <v>6017900</v>
       </c>
       <c r="H18" s="3">
-        <v>3540000</v>
+        <v>3097800</v>
       </c>
       <c r="I18" s="3">
-        <v>1272900</v>
+        <v>3707900</v>
       </c>
       <c r="J18" s="3">
+        <v>1333300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3891900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1889600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1150700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1323000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3858100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2461200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2599100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1077200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3005200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,93 +1304,97 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3431800</v>
+        <v>1773400</v>
       </c>
       <c r="E20" s="3">
-        <v>-949100</v>
+        <v>3594600</v>
       </c>
       <c r="F20" s="3">
-        <v>2632000</v>
+        <v>-994100</v>
       </c>
       <c r="G20" s="3">
-        <v>9660600</v>
+        <v>2756900</v>
       </c>
       <c r="H20" s="3">
-        <v>332300</v>
+        <v>10118900</v>
       </c>
       <c r="I20" s="3">
-        <v>2921200</v>
+        <v>348100</v>
       </c>
       <c r="J20" s="3">
+        <v>3059700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1735100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>714200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1027700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>405900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3457200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>767600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>498500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1326000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>560200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9723700</v>
+        <v>3935300</v>
       </c>
       <c r="E21" s="3">
-        <v>256000</v>
+        <v>10185000</v>
       </c>
       <c r="F21" s="3">
-        <v>8446100</v>
+        <v>150800</v>
       </c>
       <c r="G21" s="3">
-        <v>12656900</v>
+        <v>8806400</v>
       </c>
       <c r="H21" s="3">
-        <v>4997500</v>
+        <v>13266500</v>
       </c>
       <c r="I21" s="3">
-        <v>4269300</v>
+        <v>4768200</v>
       </c>
       <c r="J21" s="3">
+        <v>4411900</v>
+      </c>
+      <c r="K21" s="3">
         <v>5740800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2772500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
@@ -1369,176 +1405,188 @@
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3">
         <v>2424500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3570300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163100</v>
+        <v>167500</v>
       </c>
       <c r="E22" s="3">
-        <v>169200</v>
+        <v>170800</v>
       </c>
       <c r="F22" s="3">
-        <v>190100</v>
+        <v>177200</v>
       </c>
       <c r="G22" s="3">
-        <v>197500</v>
+        <v>199100</v>
       </c>
       <c r="H22" s="3">
-        <v>195500</v>
+        <v>206900</v>
       </c>
       <c r="I22" s="3">
-        <v>189200</v>
+        <v>204800</v>
       </c>
       <c r="J22" s="3">
+        <v>198200</v>
+      </c>
+      <c r="K22" s="3">
         <v>193700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>187500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>174000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>168600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>125300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>110900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>118700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>98300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>101900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8308900</v>
+        <v>3679900</v>
       </c>
       <c r="E23" s="3">
-        <v>-82600</v>
+        <v>8703100</v>
       </c>
       <c r="F23" s="3">
-        <v>8187200</v>
+        <v>-86600</v>
       </c>
       <c r="G23" s="3">
-        <v>12420500</v>
+        <v>8575600</v>
       </c>
       <c r="H23" s="3">
-        <v>3676800</v>
+        <v>13009800</v>
       </c>
       <c r="I23" s="3">
-        <v>4004900</v>
+        <v>3851200</v>
       </c>
       <c r="J23" s="3">
+        <v>4194900</v>
+      </c>
+      <c r="K23" s="3">
         <v>5433200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2416300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2004400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1560300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7190000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3117900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2978900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2304900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3463400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1615500</v>
+        <v>290700</v>
       </c>
       <c r="E24" s="3">
-        <v>381700</v>
+        <v>1692200</v>
       </c>
       <c r="F24" s="3">
-        <v>1220900</v>
+        <v>399800</v>
       </c>
       <c r="G24" s="3">
-        <v>408800</v>
+        <v>1278900</v>
       </c>
       <c r="H24" s="3">
-        <v>974800</v>
+        <v>428200</v>
       </c>
       <c r="I24" s="3">
-        <v>729800</v>
+        <v>1021000</v>
       </c>
       <c r="J24" s="3">
+        <v>764400</v>
+      </c>
+      <c r="K24" s="3">
         <v>811300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>812800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>597500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>988900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>403500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>690600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>662100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>743100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1590,114 +1638,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6693400</v>
+        <v>3389200</v>
       </c>
       <c r="E26" s="3">
-        <v>-464300</v>
+        <v>7010900</v>
       </c>
       <c r="F26" s="3">
-        <v>6966200</v>
+        <v>-486300</v>
       </c>
       <c r="G26" s="3">
-        <v>12011700</v>
+        <v>7296700</v>
       </c>
       <c r="H26" s="3">
-        <v>2702000</v>
+        <v>12581500</v>
       </c>
       <c r="I26" s="3">
-        <v>3275100</v>
+        <v>2830200</v>
       </c>
       <c r="J26" s="3">
+        <v>3430500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4621900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2377500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1191600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>962900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6201200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2714400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2288300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1642800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2720300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6911600</v>
+        <v>4376300</v>
       </c>
       <c r="E27" s="3">
-        <v>459200</v>
+        <v>7239500</v>
       </c>
       <c r="F27" s="3">
-        <v>7596800</v>
+        <v>481000</v>
       </c>
       <c r="G27" s="3">
-        <v>10535000</v>
+        <v>7957200</v>
       </c>
       <c r="H27" s="3">
-        <v>3086400</v>
+        <v>11034800</v>
       </c>
       <c r="I27" s="3">
-        <v>3751300</v>
+        <v>3232900</v>
       </c>
       <c r="J27" s="3">
+        <v>3929300</v>
+      </c>
+      <c r="K27" s="3">
         <v>4800100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2803800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1246100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1084900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3572700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2622100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2179100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1548400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2596700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +1806,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1802,8 +1862,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1918,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,114 +1974,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3431800</v>
+        <v>-1773400</v>
       </c>
       <c r="E32" s="3">
-        <v>949100</v>
+        <v>-3594600</v>
       </c>
       <c r="F32" s="3">
-        <v>-2632000</v>
+        <v>994100</v>
       </c>
       <c r="G32" s="3">
-        <v>-9660600</v>
+        <v>-2756900</v>
       </c>
       <c r="H32" s="3">
-        <v>-332300</v>
+        <v>-10118900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2921200</v>
+        <v>-348100</v>
       </c>
       <c r="J32" s="3">
+        <v>-3059700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-714200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-405900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-767600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-498500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-560200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6911600</v>
+        <v>4376300</v>
       </c>
       <c r="E33" s="3">
-        <v>459200</v>
+        <v>7239500</v>
       </c>
       <c r="F33" s="3">
-        <v>7596800</v>
+        <v>481000</v>
       </c>
       <c r="G33" s="3">
-        <v>10535000</v>
+        <v>7957200</v>
       </c>
       <c r="H33" s="3">
-        <v>3086400</v>
+        <v>11034800</v>
       </c>
       <c r="I33" s="3">
-        <v>3751300</v>
+        <v>3232900</v>
       </c>
       <c r="J33" s="3">
+        <v>3929300</v>
+      </c>
+      <c r="K33" s="3">
         <v>4800100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2803800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1246100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1084900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3572700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2622100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2179100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1548400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2596700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2142,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6911600</v>
+        <v>4376300</v>
       </c>
       <c r="E35" s="3">
-        <v>459200</v>
+        <v>7239500</v>
       </c>
       <c r="F35" s="3">
-        <v>7596800</v>
+        <v>481000</v>
       </c>
       <c r="G35" s="3">
-        <v>10535000</v>
+        <v>7957200</v>
       </c>
       <c r="H35" s="3">
-        <v>3086400</v>
+        <v>11034800</v>
       </c>
       <c r="I35" s="3">
-        <v>3751300</v>
+        <v>3232900</v>
       </c>
       <c r="J35" s="3">
+        <v>3929300</v>
+      </c>
+      <c r="K35" s="3">
         <v>4800100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2803800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1246100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1084900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3572700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2622100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2179100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1548400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2596700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2283,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,114 +2305,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44914800</v>
+        <v>45865500</v>
       </c>
       <c r="E41" s="3">
-        <v>47999000</v>
+        <v>47045700</v>
       </c>
       <c r="F41" s="3">
-        <v>50914000</v>
+        <v>50276100</v>
       </c>
       <c r="G41" s="3">
-        <v>34009500</v>
+        <v>53329500</v>
       </c>
       <c r="H41" s="3">
-        <v>30576600</v>
+        <v>35623000</v>
       </c>
       <c r="I41" s="3">
-        <v>27590200</v>
+        <v>32027200</v>
       </c>
       <c r="J41" s="3">
+        <v>28899100</v>
+      </c>
+      <c r="K41" s="3">
         <v>27478100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23005900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24089600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28596900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31492000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22075400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21540800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20903500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19486000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11225000</v>
+        <v>16610600</v>
       </c>
       <c r="E42" s="3">
-        <v>4750800</v>
+        <v>11757500</v>
       </c>
       <c r="F42" s="3">
-        <v>963600</v>
+        <v>4976100</v>
       </c>
       <c r="G42" s="3">
-        <v>992400</v>
+        <v>1009300</v>
       </c>
       <c r="H42" s="3">
-        <v>1464100</v>
+        <v>1039400</v>
       </c>
       <c r="I42" s="3">
-        <v>1915400</v>
+        <v>1533500</v>
       </c>
       <c r="J42" s="3">
+        <v>2006300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1653700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2402000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2475900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1564100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1771400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2413700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1108600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1027500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1135400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2379,8 +2471,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2432,273 +2527,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15213400</v>
+        <v>17072700</v>
       </c>
       <c r="E45" s="3">
-        <v>14480600</v>
+        <v>15935200</v>
       </c>
       <c r="F45" s="3">
-        <v>14847700</v>
+        <v>15167600</v>
       </c>
       <c r="G45" s="3">
-        <v>13749900</v>
+        <v>15552100</v>
       </c>
       <c r="H45" s="3">
-        <v>10167800</v>
+        <v>14402300</v>
       </c>
       <c r="I45" s="3">
-        <v>9746100</v>
+        <v>10650200</v>
       </c>
       <c r="J45" s="3">
+        <v>10208500</v>
+      </c>
+      <c r="K45" s="3">
         <v>8872000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7886200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7438400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6692600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6553500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5882700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5013300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4517500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3887600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>71353200</v>
+        <v>79548900</v>
       </c>
       <c r="E46" s="3">
-        <v>67230300</v>
+        <v>74738400</v>
       </c>
       <c r="F46" s="3">
-        <v>66725300</v>
+        <v>70419800</v>
       </c>
       <c r="G46" s="3">
-        <v>48751800</v>
+        <v>69890900</v>
       </c>
       <c r="H46" s="3">
-        <v>42208500</v>
+        <v>51064700</v>
       </c>
       <c r="I46" s="3">
-        <v>39251700</v>
+        <v>44210900</v>
       </c>
       <c r="J46" s="3">
+        <v>41113900</v>
+      </c>
+      <c r="K46" s="3">
         <v>38003800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>33294100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34003900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36853600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39816900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30371800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27662700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26448500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>24509000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54283500</v>
+        <v>60632400</v>
       </c>
       <c r="E47" s="3">
-        <v>50970100</v>
+        <v>56858800</v>
       </c>
       <c r="F47" s="3">
-        <v>52578600</v>
+        <v>53388200</v>
       </c>
       <c r="G47" s="3">
-        <v>48064000</v>
+        <v>55073100</v>
       </c>
       <c r="H47" s="3">
-        <v>36932700</v>
+        <v>50344300</v>
       </c>
       <c r="I47" s="3">
-        <v>35079400</v>
+        <v>38684900</v>
       </c>
       <c r="J47" s="3">
+        <v>36743700</v>
+      </c>
+      <c r="K47" s="3">
         <v>33087900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30691800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>28385900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25523900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24392700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23730600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22240600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22079200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22453800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16187500</v>
+        <v>17955800</v>
       </c>
       <c r="E48" s="3">
-        <v>20048600</v>
+        <v>16955400</v>
       </c>
       <c r="F48" s="3">
-        <v>18360000</v>
+        <v>20999700</v>
       </c>
       <c r="G48" s="3">
-        <v>18271000</v>
+        <v>19231000</v>
       </c>
       <c r="H48" s="3">
-        <v>17294600</v>
+        <v>19137800</v>
       </c>
       <c r="I48" s="3">
-        <v>13365500</v>
+        <v>18115100</v>
       </c>
       <c r="J48" s="3">
+        <v>13999600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13188900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12180000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11286000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9539800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9642600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7359200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6518500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2938600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2893900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48575900</v>
+        <v>50587500</v>
       </c>
       <c r="E49" s="3">
-        <v>49048400</v>
+        <v>50880500</v>
       </c>
       <c r="F49" s="3">
-        <v>49636300</v>
+        <v>51375300</v>
       </c>
       <c r="G49" s="3">
-        <v>49775100</v>
+        <v>51991100</v>
       </c>
       <c r="H49" s="3">
-        <v>48349000</v>
+        <v>52136500</v>
       </c>
       <c r="I49" s="3">
-        <v>48392200</v>
+        <v>50642700</v>
       </c>
       <c r="J49" s="3">
+        <v>50688100</v>
+      </c>
+      <c r="K49" s="3">
         <v>45348800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>35607600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37195600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27205800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28168500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>21480600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21635700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20291600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>19700100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2863,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,61 +2919,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8445400</v>
+        <v>9358600</v>
       </c>
       <c r="E52" s="3">
-        <v>3387500</v>
+        <v>8846100</v>
       </c>
       <c r="F52" s="3">
-        <v>4330000</v>
+        <v>3548200</v>
       </c>
       <c r="G52" s="3">
-        <v>3543500</v>
+        <v>4535500</v>
       </c>
       <c r="H52" s="3">
-        <v>3183400</v>
+        <v>3711600</v>
       </c>
       <c r="I52" s="3">
-        <v>4069100</v>
+        <v>3334500</v>
       </c>
       <c r="J52" s="3">
+        <v>4262100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3683500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3660800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3433600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3769800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3562900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2961100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2635200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1947900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1829800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3031,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>198845600</v>
+        <v>218083200</v>
       </c>
       <c r="E54" s="3">
-        <v>190684800</v>
+        <v>208279200</v>
       </c>
       <c r="F54" s="3">
-        <v>191630300</v>
+        <v>199731300</v>
       </c>
       <c r="G54" s="3">
-        <v>168405400</v>
+        <v>200721600</v>
       </c>
       <c r="H54" s="3">
-        <v>147968200</v>
+        <v>176394900</v>
       </c>
       <c r="I54" s="3">
-        <v>140158000</v>
+        <v>154988100</v>
       </c>
       <c r="J54" s="3">
+        <v>146807400</v>
+      </c>
+      <c r="K54" s="3">
         <v>133312900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>115434400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>114305100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>102893000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105583600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85903300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>80692600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73705700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>71386600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3111,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,8 +3133,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3057,273 +3187,291 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>659800</v>
+        <v>745800</v>
       </c>
       <c r="E58" s="3">
-        <v>748500</v>
+        <v>691100</v>
       </c>
       <c r="F58" s="3">
-        <v>612100</v>
+        <v>784000</v>
       </c>
       <c r="G58" s="3">
-        <v>3508000</v>
+        <v>641200</v>
       </c>
       <c r="H58" s="3">
-        <v>3343000</v>
+        <v>3674500</v>
       </c>
       <c r="I58" s="3">
-        <v>3262700</v>
+        <v>3501700</v>
       </c>
       <c r="J58" s="3">
+        <v>3417500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3313000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1262700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1964700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>864900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>956800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2428100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2442100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2166500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1989300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35370800</v>
+        <v>39252900</v>
       </c>
       <c r="E59" s="3">
-        <v>34378600</v>
+        <v>37048800</v>
       </c>
       <c r="F59" s="3">
-        <v>37504600</v>
+        <v>36009500</v>
       </c>
       <c r="G59" s="3">
-        <v>31920700</v>
+        <v>39283900</v>
       </c>
       <c r="H59" s="3">
-        <v>27256900</v>
+        <v>33435100</v>
       </c>
       <c r="I59" s="3">
-        <v>26897000</v>
+        <v>28550000</v>
       </c>
       <c r="J59" s="3">
+        <v>28173100</v>
+      </c>
+      <c r="K59" s="3">
         <v>27007000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22264000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21594200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18621100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19292000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15311900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13438700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11440500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11476900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36030500</v>
+        <v>39998700</v>
       </c>
       <c r="E60" s="3">
-        <v>35127100</v>
+        <v>37739900</v>
       </c>
       <c r="F60" s="3">
-        <v>38116800</v>
+        <v>36793600</v>
       </c>
       <c r="G60" s="3">
-        <v>35428700</v>
+        <v>39925100</v>
       </c>
       <c r="H60" s="3">
-        <v>30600000</v>
+        <v>37109500</v>
       </c>
       <c r="I60" s="3">
-        <v>30159800</v>
+        <v>32051700</v>
       </c>
       <c r="J60" s="3">
+        <v>31590600</v>
+      </c>
+      <c r="K60" s="3">
         <v>30320000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23526700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23558800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19486000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20248800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17740000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15880800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13607000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13466200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17557400</v>
+        <v>17780500</v>
       </c>
       <c r="E61" s="3">
-        <v>17467700</v>
+        <v>18390400</v>
       </c>
       <c r="F61" s="3">
-        <v>17162100</v>
+        <v>18296400</v>
       </c>
       <c r="G61" s="3">
-        <v>17648600</v>
+        <v>17976300</v>
       </c>
       <c r="H61" s="3">
-        <v>16900400</v>
+        <v>18485900</v>
       </c>
       <c r="I61" s="3">
-        <v>16241700</v>
+        <v>17702200</v>
       </c>
       <c r="J61" s="3">
+        <v>17012200</v>
+      </c>
+      <c r="K61" s="3">
         <v>16446000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18082000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17848900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17149400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18237200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11186100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11407200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11174100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11219300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10414200</v>
+        <v>11040300</v>
       </c>
       <c r="E62" s="3">
-        <v>10338300</v>
+        <v>10908200</v>
       </c>
       <c r="F62" s="3">
-        <v>10421000</v>
+        <v>10828800</v>
       </c>
       <c r="G62" s="3">
-        <v>9638800</v>
+        <v>10915400</v>
       </c>
       <c r="H62" s="3">
-        <v>6786200</v>
+        <v>10096100</v>
       </c>
       <c r="I62" s="3">
-        <v>4381700</v>
+        <v>7108100</v>
       </c>
       <c r="J62" s="3">
+        <v>4589600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4043600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3657000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4636800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3206800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3288800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2362400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2291500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1787600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1681900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3523,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3579,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3635,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>80261900</v>
+        <v>86433100</v>
       </c>
       <c r="E66" s="3">
-        <v>79655900</v>
+        <v>84069700</v>
       </c>
       <c r="F66" s="3">
-        <v>82430200</v>
+        <v>83434900</v>
       </c>
       <c r="G66" s="3">
-        <v>79770800</v>
+        <v>86340900</v>
       </c>
       <c r="H66" s="3">
-        <v>71268700</v>
+        <v>83555300</v>
       </c>
       <c r="I66" s="3">
-        <v>67677200</v>
+        <v>74649800</v>
       </c>
       <c r="J66" s="3">
+        <v>70887900</v>
+      </c>
+      <c r="K66" s="3">
         <v>65336800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55593000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57452000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49974200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>53203800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37956500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36261200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32724800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32523100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3715,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3769,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,61 +3825,67 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1135700</v>
+        <v>1222000</v>
       </c>
       <c r="E70" s="3">
-        <v>1322000</v>
+        <v>1189600</v>
       </c>
       <c r="F70" s="3">
-        <v>1132100</v>
+        <v>1384700</v>
       </c>
       <c r="G70" s="3">
-        <v>1090100</v>
+        <v>1185800</v>
       </c>
       <c r="H70" s="3">
-        <v>1029800</v>
+        <v>1141800</v>
       </c>
       <c r="I70" s="3">
-        <v>990300</v>
+        <v>1078700</v>
       </c>
       <c r="J70" s="3">
+        <v>1037300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1040600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>839900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>452700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>430600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>442100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>133300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>113200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>435100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>515800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +3937,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66794200</v>
+        <v>74355600</v>
       </c>
       <c r="E72" s="3">
-        <v>59891000</v>
+        <v>69963000</v>
       </c>
       <c r="F72" s="3">
-        <v>59423300</v>
+        <v>62732300</v>
       </c>
       <c r="G72" s="3">
-        <v>51846100</v>
+        <v>62242500</v>
       </c>
       <c r="H72" s="3">
-        <v>41299200</v>
+        <v>54305800</v>
       </c>
       <c r="I72" s="3">
-        <v>38174700</v>
+        <v>43258500</v>
       </c>
       <c r="J72" s="3">
+        <v>39985800</v>
+      </c>
+      <c r="K72" s="3">
         <v>34455500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29692900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27742100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>25305600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25027300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21444900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18812900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16290200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14732300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4049,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4105,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4161,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>117447900</v>
+        <v>130428100</v>
       </c>
       <c r="E76" s="3">
-        <v>109706900</v>
+        <v>123019900</v>
       </c>
       <c r="F76" s="3">
-        <v>108068000</v>
+        <v>114911600</v>
       </c>
       <c r="G76" s="3">
-        <v>87544500</v>
+        <v>113194900</v>
       </c>
       <c r="H76" s="3">
-        <v>75669600</v>
+        <v>91697800</v>
       </c>
       <c r="I76" s="3">
-        <v>71490500</v>
+        <v>79259500</v>
       </c>
       <c r="J76" s="3">
+        <v>74882100</v>
+      </c>
+      <c r="K76" s="3">
         <v>66935500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>59001500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56400400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52488100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51937700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47813500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44318200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40545700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>38347700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4273,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6911600</v>
+        <v>4376300</v>
       </c>
       <c r="E81" s="3">
-        <v>459200</v>
+        <v>7239500</v>
       </c>
       <c r="F81" s="3">
-        <v>7596800</v>
+        <v>481000</v>
       </c>
       <c r="G81" s="3">
-        <v>10535000</v>
+        <v>7957200</v>
       </c>
       <c r="H81" s="3">
-        <v>3086400</v>
+        <v>11034800</v>
       </c>
       <c r="I81" s="3">
-        <v>3751300</v>
+        <v>3232900</v>
       </c>
       <c r="J81" s="3">
+        <v>3929300</v>
+      </c>
+      <c r="K81" s="3">
         <v>4800100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2803800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1246100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1084900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3572700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2622100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2179100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1548400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2596700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,8 +4414,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4270,8 +4468,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4524,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4580,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4636,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4692,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,61 +4748,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7275900</v>
+        <v>8259500</v>
       </c>
       <c r="E89" s="3">
-        <v>314300</v>
+        <v>7621100</v>
       </c>
       <c r="F89" s="3">
-        <v>14015400</v>
+        <v>329200</v>
       </c>
       <c r="G89" s="3">
-        <v>6873200</v>
+        <v>14680300</v>
       </c>
       <c r="H89" s="3">
-        <v>5026700</v>
+        <v>7199200</v>
       </c>
       <c r="I89" s="3">
-        <v>2694500</v>
+        <v>5265200</v>
       </c>
       <c r="J89" s="3">
+        <v>2822300</v>
+      </c>
+      <c r="K89" s="3">
         <v>9425100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4395700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5182100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2063700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8226100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4470300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3839800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1562800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5441400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,61 +4828,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1980600</v>
+        <v>-2846200</v>
       </c>
       <c r="E91" s="3">
-        <v>-260700</v>
+        <v>-2074600</v>
       </c>
       <c r="F91" s="3">
-        <v>-967100</v>
+        <v>-273100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1427000</v>
+        <v>-1013000</v>
       </c>
       <c r="H91" s="3">
-        <v>-926900</v>
-      </c>
-      <c r="I91" s="3" t="s">
+        <v>-1494700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-970800</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-532600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +4938,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,61 +4994,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9836100</v>
+        <v>-10504300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4791900</v>
+        <v>-10302800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4732800</v>
+        <v>-5019200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3101100</v>
+        <v>-4957300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3069600</v>
+        <v>-3248200</v>
       </c>
       <c r="I94" s="3">
-        <v>-2432700</v>
+        <v>-3215200</v>
       </c>
       <c r="J94" s="3">
+        <v>-2548200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-441400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,8 +5074,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4895,8 +5128,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5184,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5240,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,163 +5296,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-669400</v>
+        <v>1537300</v>
       </c>
       <c r="E100" s="3">
-        <v>430900</v>
+        <v>-701100</v>
       </c>
       <c r="F100" s="3">
-        <v>8900700</v>
+        <v>451300</v>
       </c>
       <c r="G100" s="3">
-        <v>305900</v>
+        <v>9323000</v>
       </c>
       <c r="H100" s="3">
-        <v>652500</v>
+        <v>320400</v>
       </c>
       <c r="I100" s="3">
-        <v>104400</v>
+        <v>683500</v>
       </c>
       <c r="J100" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-486600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>614200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-660700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5086600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>361000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-103300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51000</v>
+        <v>-586100</v>
       </c>
       <c r="E101" s="3">
-        <v>337200</v>
+        <v>-53400</v>
       </c>
       <c r="F101" s="3">
-        <v>-283500</v>
+        <v>353200</v>
       </c>
       <c r="G101" s="3">
-        <v>341700</v>
+        <v>-296900</v>
       </c>
       <c r="H101" s="3">
-        <v>200000</v>
+        <v>357900</v>
       </c>
       <c r="I101" s="3">
-        <v>-165900</v>
+        <v>209500</v>
       </c>
       <c r="J101" s="3">
+        <v>-173700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>233700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>399300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-380700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-224000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-120400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-162100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-64900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>253800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3280600</v>
+        <v>-1293600</v>
       </c>
       <c r="E102" s="3">
-        <v>-3709500</v>
+        <v>-3436200</v>
       </c>
       <c r="F102" s="3">
-        <v>17899900</v>
+        <v>-3885400</v>
       </c>
       <c r="G102" s="3">
-        <v>4419600</v>
+        <v>18749100</v>
       </c>
       <c r="H102" s="3">
-        <v>2809600</v>
+        <v>4629300</v>
       </c>
       <c r="I102" s="3">
-        <v>200300</v>
+        <v>2942900</v>
       </c>
       <c r="J102" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K102" s="3">
         <v>3610700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-277700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9481900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>494500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>291500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1417500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4407300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,249 +665,261 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23587600</v>
+        <v>33777200</v>
       </c>
       <c r="E8" s="3">
-        <v>23388600</v>
+        <v>23689900</v>
       </c>
       <c r="F8" s="3">
-        <v>17389400</v>
+        <v>23490100</v>
       </c>
       <c r="G8" s="3">
-        <v>24560700</v>
+        <v>17464900</v>
       </c>
       <c r="H8" s="3">
-        <v>18104900</v>
+        <v>24667200</v>
       </c>
       <c r="I8" s="3">
-        <v>17482200</v>
+        <v>18183400</v>
       </c>
       <c r="J8" s="3">
+        <v>17558100</v>
+      </c>
+      <c r="K8" s="3">
         <v>14222900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17032300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11917300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11610400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8886000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12322200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8180700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7447800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5610500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7743900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13684700</v>
+        <v>18527300</v>
       </c>
       <c r="E9" s="3">
-        <v>12857600</v>
+        <v>13744100</v>
       </c>
       <c r="F9" s="3">
-        <v>11029000</v>
+        <v>12913400</v>
       </c>
       <c r="G9" s="3">
-        <v>12828600</v>
+        <v>11076900</v>
       </c>
       <c r="H9" s="3">
-        <v>9970900</v>
+        <v>12884200</v>
       </c>
       <c r="I9" s="3">
-        <v>9125200</v>
+        <v>10014100</v>
       </c>
       <c r="J9" s="3">
+        <v>9164800</v>
+      </c>
+      <c r="K9" s="3">
         <v>8459400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8831900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6548200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6272900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4663700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5205900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3265300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2591200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2252700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2781500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9902900</v>
+        <v>15249900</v>
       </c>
       <c r="E10" s="3">
-        <v>10531000</v>
+        <v>9945800</v>
       </c>
       <c r="F10" s="3">
-        <v>6360400</v>
+        <v>10576700</v>
       </c>
       <c r="G10" s="3">
-        <v>11732100</v>
+        <v>6388000</v>
       </c>
       <c r="H10" s="3">
-        <v>8134000</v>
+        <v>11783000</v>
       </c>
       <c r="I10" s="3">
-        <v>8357000</v>
+        <v>8169300</v>
       </c>
       <c r="J10" s="3">
+        <v>8393300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5763500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8200400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5369100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5337500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4222300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7116300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4915300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4856600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3357800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4962400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,64 +940,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2927500</v>
+        <v>2078900</v>
       </c>
       <c r="E12" s="3">
-        <v>1685800</v>
+        <v>2940300</v>
       </c>
       <c r="F12" s="3">
-        <v>1610500</v>
+        <v>1693100</v>
       </c>
       <c r="G12" s="3">
-        <v>1685000</v>
+        <v>1617500</v>
       </c>
       <c r="H12" s="3">
-        <v>1663900</v>
+        <v>1692300</v>
       </c>
       <c r="I12" s="3">
-        <v>1593900</v>
+        <v>1671100</v>
       </c>
       <c r="J12" s="3">
+        <v>1600800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1317200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1292700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1170800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1651500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>959300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>933400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>754400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>696900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>657100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>642800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1040,120 +1056,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>87600</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>88000</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>73300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>309000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>439300</v>
+        <v>484600</v>
       </c>
       <c r="E15" s="3">
-        <v>449100</v>
+        <v>441200</v>
       </c>
       <c r="F15" s="3">
-        <v>615200</v>
+        <v>451000</v>
       </c>
       <c r="G15" s="3">
-        <v>497700</v>
+        <v>617800</v>
       </c>
       <c r="H15" s="3">
-        <v>457300</v>
+        <v>499900</v>
       </c>
       <c r="I15" s="3">
-        <v>466400</v>
+        <v>459300</v>
       </c>
       <c r="J15" s="3">
+        <v>468400</v>
+      </c>
+      <c r="K15" s="3">
         <v>487200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>408000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>365400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>301900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>190700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>305300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>259400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>294700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>190900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>183400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1171,120 +1196,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21513600</v>
+        <v>26290700</v>
       </c>
       <c r="E17" s="3">
-        <v>18109300</v>
+        <v>21606900</v>
       </c>
       <c r="F17" s="3">
-        <v>16304700</v>
+        <v>18187800</v>
       </c>
       <c r="G17" s="3">
-        <v>18542800</v>
+        <v>16375400</v>
       </c>
       <c r="H17" s="3">
-        <v>15007100</v>
+        <v>18623300</v>
       </c>
       <c r="I17" s="3">
-        <v>13774300</v>
+        <v>15072200</v>
       </c>
       <c r="J17" s="3">
+        <v>13834100</v>
+      </c>
+      <c r="K17" s="3">
         <v>12889600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13140400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10027700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10459700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7563000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8464100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5719400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4848700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4533300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4738700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2074000</v>
+        <v>7486500</v>
       </c>
       <c r="E18" s="3">
-        <v>5279300</v>
+        <v>2083000</v>
       </c>
       <c r="F18" s="3">
-        <v>1084800</v>
+        <v>5302200</v>
       </c>
       <c r="G18" s="3">
-        <v>6017900</v>
+        <v>1089500</v>
       </c>
       <c r="H18" s="3">
-        <v>3097800</v>
+        <v>6044000</v>
       </c>
       <c r="I18" s="3">
-        <v>3707900</v>
+        <v>3111200</v>
       </c>
       <c r="J18" s="3">
+        <v>3724000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1333300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3891900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1889600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1150700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1323000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3858100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2461200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2599100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1077200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3005200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,99 +1337,103 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1773400</v>
+        <v>6548500</v>
       </c>
       <c r="E20" s="3">
-        <v>3594600</v>
+        <v>1781100</v>
       </c>
       <c r="F20" s="3">
-        <v>-994100</v>
+        <v>3610200</v>
       </c>
       <c r="G20" s="3">
-        <v>2756900</v>
+        <v>-998400</v>
       </c>
       <c r="H20" s="3">
-        <v>10118900</v>
+        <v>2768800</v>
       </c>
       <c r="I20" s="3">
-        <v>348100</v>
+        <v>10162800</v>
       </c>
       <c r="J20" s="3">
+        <v>349600</v>
+      </c>
+      <c r="K20" s="3">
         <v>3059700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1735100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>714200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1027700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>405900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3457200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>767600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>498500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1326000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>560200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3935300</v>
+        <v>14203300</v>
       </c>
       <c r="E21" s="3">
-        <v>10185000</v>
+        <v>3952400</v>
       </c>
       <c r="F21" s="3">
-        <v>150800</v>
+        <v>10229200</v>
       </c>
       <c r="G21" s="3">
-        <v>8806400</v>
+        <v>1570400</v>
       </c>
       <c r="H21" s="3">
-        <v>13266500</v>
+        <v>8885200</v>
       </c>
       <c r="I21" s="3">
-        <v>4768200</v>
+        <v>13314900</v>
       </c>
       <c r="J21" s="3">
+        <v>5257300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4411900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5740800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2772500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
@@ -1408,185 +1444,197 @@
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3">
         <v>2424500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3570300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>167500</v>
+        <v>166800</v>
       </c>
       <c r="E22" s="3">
-        <v>170800</v>
+        <v>168200</v>
       </c>
       <c r="F22" s="3">
-        <v>177200</v>
+        <v>171600</v>
       </c>
       <c r="G22" s="3">
-        <v>199100</v>
+        <v>178000</v>
       </c>
       <c r="H22" s="3">
-        <v>206900</v>
+        <v>200000</v>
       </c>
       <c r="I22" s="3">
-        <v>204800</v>
+        <v>207800</v>
       </c>
       <c r="J22" s="3">
+        <v>205600</v>
+      </c>
+      <c r="K22" s="3">
         <v>198200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>193700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>187500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>174000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>168600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>125300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>110900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>118700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>98300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>101900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3679900</v>
+        <v>13868100</v>
       </c>
       <c r="E23" s="3">
-        <v>8703100</v>
+        <v>3695900</v>
       </c>
       <c r="F23" s="3">
-        <v>-86600</v>
+        <v>8740800</v>
       </c>
       <c r="G23" s="3">
-        <v>8575600</v>
+        <v>-86900</v>
       </c>
       <c r="H23" s="3">
-        <v>13009800</v>
+        <v>8612800</v>
       </c>
       <c r="I23" s="3">
-        <v>3851200</v>
+        <v>13066200</v>
       </c>
       <c r="J23" s="3">
+        <v>3867900</v>
+      </c>
+      <c r="K23" s="3">
         <v>4194900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5433200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2416300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2004400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1560300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7190000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3117900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2978900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2304900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3463400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>290700</v>
+        <v>1404700</v>
       </c>
       <c r="E24" s="3">
-        <v>1692200</v>
+        <v>292000</v>
       </c>
       <c r="F24" s="3">
-        <v>399800</v>
+        <v>1699500</v>
       </c>
       <c r="G24" s="3">
-        <v>1278900</v>
+        <v>401500</v>
       </c>
       <c r="H24" s="3">
-        <v>428200</v>
+        <v>1284400</v>
       </c>
       <c r="I24" s="3">
-        <v>1021000</v>
+        <v>430100</v>
       </c>
       <c r="J24" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="K24" s="3">
         <v>764400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>811300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>812800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>597500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>988900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>403500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>690600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>662100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>743100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1641,120 +1689,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3389200</v>
+        <v>12463500</v>
       </c>
       <c r="E26" s="3">
-        <v>7010900</v>
+        <v>3403900</v>
       </c>
       <c r="F26" s="3">
-        <v>-486300</v>
+        <v>7041300</v>
       </c>
       <c r="G26" s="3">
-        <v>7296700</v>
+        <v>-488400</v>
       </c>
       <c r="H26" s="3">
-        <v>12581500</v>
+        <v>7328400</v>
       </c>
       <c r="I26" s="3">
-        <v>2830200</v>
+        <v>12636100</v>
       </c>
       <c r="J26" s="3">
+        <v>2842500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3430500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4621900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2377500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1191600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>962900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6201200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2714400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2288300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1642800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2720300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4376300</v>
+        <v>12134900</v>
       </c>
       <c r="E27" s="3">
-        <v>7239500</v>
+        <v>4395300</v>
       </c>
       <c r="F27" s="3">
-        <v>481000</v>
+        <v>7271000</v>
       </c>
       <c r="G27" s="3">
-        <v>7957200</v>
+        <v>483100</v>
       </c>
       <c r="H27" s="3">
-        <v>11034800</v>
+        <v>7991800</v>
       </c>
       <c r="I27" s="3">
-        <v>3232900</v>
+        <v>11082700</v>
       </c>
       <c r="J27" s="3">
+        <v>3246900</v>
+      </c>
+      <c r="K27" s="3">
         <v>3929300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2803800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1246100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1084900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3572700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2622100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2179100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1548400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2596700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1866,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1865,8 +1925,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +1984,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1977,120 +2043,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1773400</v>
+        <v>-6548500</v>
       </c>
       <c r="E32" s="3">
-        <v>-3594600</v>
+        <v>-1781100</v>
       </c>
       <c r="F32" s="3">
-        <v>994100</v>
+        <v>-3610200</v>
       </c>
       <c r="G32" s="3">
-        <v>-2756900</v>
+        <v>998400</v>
       </c>
       <c r="H32" s="3">
-        <v>-10118900</v>
+        <v>-2768800</v>
       </c>
       <c r="I32" s="3">
-        <v>-348100</v>
+        <v>-10162800</v>
       </c>
       <c r="J32" s="3">
+        <v>-349600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-714200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-405900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-767600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-498500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-560200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4376300</v>
+        <v>12134900</v>
       </c>
       <c r="E33" s="3">
-        <v>7239500</v>
+        <v>4395300</v>
       </c>
       <c r="F33" s="3">
-        <v>481000</v>
+        <v>7271000</v>
       </c>
       <c r="G33" s="3">
-        <v>7957200</v>
+        <v>483100</v>
       </c>
       <c r="H33" s="3">
-        <v>11034800</v>
+        <v>7991800</v>
       </c>
       <c r="I33" s="3">
-        <v>3232900</v>
+        <v>11082700</v>
       </c>
       <c r="J33" s="3">
+        <v>3246900</v>
+      </c>
+      <c r="K33" s="3">
         <v>3929300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2803800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1246100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1084900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3572700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2622100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2179100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1548400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2596700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2145,125 +2220,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4376300</v>
+        <v>12134900</v>
       </c>
       <c r="E35" s="3">
-        <v>7239500</v>
+        <v>4395300</v>
       </c>
       <c r="F35" s="3">
-        <v>481000</v>
+        <v>7271000</v>
       </c>
       <c r="G35" s="3">
-        <v>7957200</v>
+        <v>483100</v>
       </c>
       <c r="H35" s="3">
-        <v>11034800</v>
+        <v>7991800</v>
       </c>
       <c r="I35" s="3">
-        <v>3232900</v>
+        <v>11082700</v>
       </c>
       <c r="J35" s="3">
+        <v>3246900</v>
+      </c>
+      <c r="K35" s="3">
         <v>3929300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2803800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1246100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1084900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3572700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2622100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2179100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1548400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2596700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2284,8 +2368,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2306,120 +2391,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45865500</v>
+        <v>47688300</v>
       </c>
       <c r="E41" s="3">
-        <v>47045700</v>
+        <v>46064500</v>
       </c>
       <c r="F41" s="3">
-        <v>50276100</v>
+        <v>47249800</v>
       </c>
       <c r="G41" s="3">
-        <v>53329500</v>
+        <v>50494200</v>
       </c>
       <c r="H41" s="3">
-        <v>35623000</v>
+        <v>53560800</v>
       </c>
       <c r="I41" s="3">
-        <v>32027200</v>
+        <v>35777600</v>
       </c>
       <c r="J41" s="3">
+        <v>32166100</v>
+      </c>
+      <c r="K41" s="3">
         <v>28899100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27478100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23005900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24089600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28596900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31492000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22075400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>21540800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20903500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19486000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16610600</v>
+        <v>22920700</v>
       </c>
       <c r="E42" s="3">
-        <v>11757500</v>
+        <v>16682700</v>
       </c>
       <c r="F42" s="3">
-        <v>4976100</v>
+        <v>11808500</v>
       </c>
       <c r="G42" s="3">
-        <v>1009300</v>
+        <v>4997700</v>
       </c>
       <c r="H42" s="3">
-        <v>1039400</v>
+        <v>1013700</v>
       </c>
       <c r="I42" s="3">
-        <v>1533500</v>
+        <v>1043900</v>
       </c>
       <c r="J42" s="3">
+        <v>1540200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2006300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1653700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2402000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2475900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1564100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1771400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2413700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1108600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1027500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1135400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2474,8 +2566,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2530,288 +2625,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17072700</v>
+        <v>20711600</v>
       </c>
       <c r="E45" s="3">
-        <v>15935200</v>
+        <v>17146800</v>
       </c>
       <c r="F45" s="3">
-        <v>15167600</v>
+        <v>16004300</v>
       </c>
       <c r="G45" s="3">
-        <v>15552100</v>
+        <v>15233400</v>
       </c>
       <c r="H45" s="3">
-        <v>14402300</v>
+        <v>15619600</v>
       </c>
       <c r="I45" s="3">
-        <v>10650200</v>
+        <v>14464800</v>
       </c>
       <c r="J45" s="3">
+        <v>10696400</v>
+      </c>
+      <c r="K45" s="3">
         <v>10208500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8872000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7886200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7438400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6692600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6553500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5882700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5013300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4517500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3887600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>79548900</v>
+        <v>91320600</v>
       </c>
       <c r="E46" s="3">
-        <v>74738400</v>
+        <v>79894000</v>
       </c>
       <c r="F46" s="3">
-        <v>70419800</v>
+        <v>75062600</v>
       </c>
       <c r="G46" s="3">
-        <v>69890900</v>
+        <v>70725400</v>
       </c>
       <c r="H46" s="3">
-        <v>51064700</v>
+        <v>70194200</v>
       </c>
       <c r="I46" s="3">
-        <v>44210900</v>
+        <v>51286300</v>
       </c>
       <c r="J46" s="3">
+        <v>44402800</v>
+      </c>
+      <c r="K46" s="3">
         <v>41113900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38003800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>33294100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>34003900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36853600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39816900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30371800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27662700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26448500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>24509000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60632400</v>
+        <v>65048800</v>
       </c>
       <c r="E47" s="3">
-        <v>56858800</v>
+        <v>60895500</v>
       </c>
       <c r="F47" s="3">
-        <v>53388200</v>
+        <v>57105500</v>
       </c>
       <c r="G47" s="3">
-        <v>55073100</v>
+        <v>53619800</v>
       </c>
       <c r="H47" s="3">
-        <v>50344300</v>
+        <v>55312000</v>
       </c>
       <c r="I47" s="3">
-        <v>38684900</v>
+        <v>50562700</v>
       </c>
       <c r="J47" s="3">
+        <v>38852700</v>
+      </c>
+      <c r="K47" s="3">
         <v>36743700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33087900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30691800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>28385900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25523900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24392700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23730600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22240600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22079200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22453800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17955800</v>
+        <v>22471200</v>
       </c>
       <c r="E48" s="3">
-        <v>16955400</v>
+        <v>18033700</v>
       </c>
       <c r="F48" s="3">
-        <v>20999700</v>
+        <v>17029000</v>
       </c>
       <c r="G48" s="3">
-        <v>19231000</v>
+        <v>21090800</v>
       </c>
       <c r="H48" s="3">
-        <v>19137800</v>
+        <v>19314400</v>
       </c>
       <c r="I48" s="3">
-        <v>18115100</v>
+        <v>19220800</v>
       </c>
       <c r="J48" s="3">
+        <v>18193700</v>
+      </c>
+      <c r="K48" s="3">
         <v>13999600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13188900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12180000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11286000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9539800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9642600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7359200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6518500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2938600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2893900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50587500</v>
+        <v>56121100</v>
       </c>
       <c r="E49" s="3">
-        <v>50880500</v>
+        <v>50807000</v>
       </c>
       <c r="F49" s="3">
-        <v>51375300</v>
+        <v>51101200</v>
       </c>
       <c r="G49" s="3">
-        <v>51991100</v>
+        <v>51598200</v>
       </c>
       <c r="H49" s="3">
-        <v>52136500</v>
+        <v>52216700</v>
       </c>
       <c r="I49" s="3">
-        <v>50642700</v>
+        <v>52362700</v>
       </c>
       <c r="J49" s="3">
+        <v>50862400</v>
+      </c>
+      <c r="K49" s="3">
         <v>50688100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>45348800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>35607600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37195600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27205800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28168500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>21480600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21635700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20291600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>19700100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2866,8 +2979,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2922,64 +3038,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9358600</v>
+        <v>14874200</v>
       </c>
       <c r="E52" s="3">
-        <v>8846100</v>
+        <v>9399200</v>
       </c>
       <c r="F52" s="3">
-        <v>3548200</v>
+        <v>8884500</v>
       </c>
       <c r="G52" s="3">
-        <v>4535500</v>
+        <v>3563600</v>
       </c>
       <c r="H52" s="3">
-        <v>3711600</v>
+        <v>4555100</v>
       </c>
       <c r="I52" s="3">
-        <v>3334500</v>
+        <v>3727700</v>
       </c>
       <c r="J52" s="3">
+        <v>3348900</v>
+      </c>
+      <c r="K52" s="3">
         <v>4262100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3683500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3660800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3433600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3769800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3562900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2961100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2635200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1947900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1829800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3034,64 +3156,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>218083200</v>
+        <v>249835900</v>
       </c>
       <c r="E54" s="3">
-        <v>208279200</v>
+        <v>219029400</v>
       </c>
       <c r="F54" s="3">
-        <v>199731300</v>
+        <v>209182900</v>
       </c>
       <c r="G54" s="3">
-        <v>200721600</v>
+        <v>200597800</v>
       </c>
       <c r="H54" s="3">
-        <v>176394900</v>
+        <v>201592400</v>
       </c>
       <c r="I54" s="3">
-        <v>154988100</v>
+        <v>177160200</v>
       </c>
       <c r="J54" s="3">
+        <v>155660500</v>
+      </c>
+      <c r="K54" s="3">
         <v>146807400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>133312900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115434400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>114305100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>102893000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105583600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85903300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80692600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73705700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71386600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3112,8 +3240,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3134,8 +3263,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3190,288 +3320,306 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>745800</v>
+        <v>2298900</v>
       </c>
       <c r="E58" s="3">
-        <v>691100</v>
+        <v>749100</v>
       </c>
       <c r="F58" s="3">
-        <v>784000</v>
+        <v>694100</v>
       </c>
       <c r="G58" s="3">
-        <v>641200</v>
+        <v>787400</v>
       </c>
       <c r="H58" s="3">
-        <v>3674500</v>
+        <v>644000</v>
       </c>
       <c r="I58" s="3">
-        <v>3501700</v>
+        <v>3690400</v>
       </c>
       <c r="J58" s="3">
+        <v>3516800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3417500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3313000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1262700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1964700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>864900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>956800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2428100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2442100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2166500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1989300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39252900</v>
+        <v>52420800</v>
       </c>
       <c r="E59" s="3">
-        <v>37048800</v>
+        <v>39423200</v>
       </c>
       <c r="F59" s="3">
-        <v>36009500</v>
+        <v>37209600</v>
       </c>
       <c r="G59" s="3">
-        <v>39283900</v>
+        <v>36165800</v>
       </c>
       <c r="H59" s="3">
-        <v>33435100</v>
+        <v>39454400</v>
       </c>
       <c r="I59" s="3">
-        <v>28550000</v>
+        <v>33580100</v>
       </c>
       <c r="J59" s="3">
+        <v>28673900</v>
+      </c>
+      <c r="K59" s="3">
         <v>28173100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27007000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22264000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>21594200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18621100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>19292000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15311900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13438700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11440500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11476900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39998700</v>
+        <v>54719700</v>
       </c>
       <c r="E60" s="3">
-        <v>37739900</v>
+        <v>40172300</v>
       </c>
       <c r="F60" s="3">
-        <v>36793600</v>
+        <v>37903600</v>
       </c>
       <c r="G60" s="3">
-        <v>39925100</v>
+        <v>36953200</v>
       </c>
       <c r="H60" s="3">
-        <v>37109500</v>
+        <v>40098300</v>
       </c>
       <c r="I60" s="3">
-        <v>32051700</v>
+        <v>37270500</v>
       </c>
       <c r="J60" s="3">
+        <v>32190700</v>
+      </c>
+      <c r="K60" s="3">
         <v>31590600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30320000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23526700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23558800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19486000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20248800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17740000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15880800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13607000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13466200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17780500</v>
+        <v>15683200</v>
       </c>
       <c r="E61" s="3">
-        <v>18390400</v>
+        <v>17857700</v>
       </c>
       <c r="F61" s="3">
-        <v>18296400</v>
+        <v>18470200</v>
       </c>
       <c r="G61" s="3">
-        <v>17976300</v>
+        <v>18375800</v>
       </c>
       <c r="H61" s="3">
-        <v>18485900</v>
+        <v>18054300</v>
       </c>
       <c r="I61" s="3">
-        <v>17702200</v>
+        <v>18566100</v>
       </c>
       <c r="J61" s="3">
+        <v>17779000</v>
+      </c>
+      <c r="K61" s="3">
         <v>17012200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16446000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18082000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17848900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17149400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18237200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11186100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11407200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11174100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11219300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11040300</v>
+        <v>14071000</v>
       </c>
       <c r="E62" s="3">
-        <v>10908200</v>
+        <v>11088200</v>
       </c>
       <c r="F62" s="3">
-        <v>10828800</v>
+        <v>10955500</v>
       </c>
       <c r="G62" s="3">
-        <v>10915400</v>
+        <v>10875800</v>
       </c>
       <c r="H62" s="3">
-        <v>10096100</v>
+        <v>10962700</v>
       </c>
       <c r="I62" s="3">
-        <v>7108100</v>
+        <v>10139900</v>
       </c>
       <c r="J62" s="3">
+        <v>7139000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4589600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4043600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3657000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4636800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3206800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3288800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2362400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2291500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1787600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1681900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3526,8 +3674,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3582,8 +3733,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3638,64 +3792,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>86433100</v>
+        <v>105381800</v>
       </c>
       <c r="E66" s="3">
-        <v>84069700</v>
+        <v>86808100</v>
       </c>
       <c r="F66" s="3">
-        <v>83434900</v>
+        <v>84434500</v>
       </c>
       <c r="G66" s="3">
-        <v>86340900</v>
+        <v>83796900</v>
       </c>
       <c r="H66" s="3">
-        <v>83555300</v>
+        <v>86715500</v>
       </c>
       <c r="I66" s="3">
-        <v>74649800</v>
+        <v>83917800</v>
       </c>
       <c r="J66" s="3">
+        <v>74973700</v>
+      </c>
+      <c r="K66" s="3">
         <v>70887900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65336800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55593000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57452000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49974200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>53203800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37956500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36261200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>32724800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32523100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3716,8 +3876,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3772,8 +3933,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3828,64 +3992,70 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1222000</v>
+        <v>1289900</v>
       </c>
       <c r="E70" s="3">
-        <v>1189600</v>
+        <v>1227300</v>
       </c>
       <c r="F70" s="3">
-        <v>1384700</v>
+        <v>1194700</v>
       </c>
       <c r="G70" s="3">
-        <v>1185800</v>
+        <v>1390800</v>
       </c>
       <c r="H70" s="3">
-        <v>1141800</v>
+        <v>1190900</v>
       </c>
       <c r="I70" s="3">
-        <v>1078700</v>
+        <v>1146800</v>
       </c>
       <c r="J70" s="3">
+        <v>1083400</v>
+      </c>
+      <c r="K70" s="3">
         <v>1037300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1040600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>839900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>452700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>430600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>442100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>133300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>113200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>435100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>515800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3940,64 +4110,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>74355600</v>
+        <v>86829600</v>
       </c>
       <c r="E72" s="3">
-        <v>69963000</v>
+        <v>74678300</v>
       </c>
       <c r="F72" s="3">
-        <v>62732300</v>
+        <v>70266600</v>
       </c>
       <c r="G72" s="3">
-        <v>62242500</v>
+        <v>63004500</v>
       </c>
       <c r="H72" s="3">
-        <v>54305800</v>
+        <v>62512500</v>
       </c>
       <c r="I72" s="3">
-        <v>43258500</v>
+        <v>54541400</v>
       </c>
       <c r="J72" s="3">
+        <v>43446200</v>
+      </c>
+      <c r="K72" s="3">
         <v>39985800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34455500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29692900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27742100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>25305600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25027300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21444900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18812900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>16290200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14732300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4052,8 +4228,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4108,8 +4287,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4164,64 +4346,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130428100</v>
+        <v>143164200</v>
       </c>
       <c r="E76" s="3">
-        <v>123019900</v>
+        <v>130994000</v>
       </c>
       <c r="F76" s="3">
-        <v>114911600</v>
+        <v>123553600</v>
       </c>
       <c r="G76" s="3">
-        <v>113194900</v>
+        <v>115410200</v>
       </c>
       <c r="H76" s="3">
-        <v>91697800</v>
+        <v>113686000</v>
       </c>
       <c r="I76" s="3">
-        <v>79259500</v>
+        <v>92095600</v>
       </c>
       <c r="J76" s="3">
+        <v>79603400</v>
+      </c>
+      <c r="K76" s="3">
         <v>74882100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66935500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59001500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56400400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52488100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51937700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47813500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44318200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>40545700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38347700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4276,125 +4464,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4376300</v>
+        <v>12134900</v>
       </c>
       <c r="E81" s="3">
-        <v>7239500</v>
+        <v>4395300</v>
       </c>
       <c r="F81" s="3">
-        <v>481000</v>
+        <v>7271000</v>
       </c>
       <c r="G81" s="3">
-        <v>7957200</v>
+        <v>483100</v>
       </c>
       <c r="H81" s="3">
-        <v>11034800</v>
+        <v>7991800</v>
       </c>
       <c r="I81" s="3">
-        <v>3232900</v>
+        <v>11082700</v>
       </c>
       <c r="J81" s="3">
+        <v>3246900</v>
+      </c>
+      <c r="K81" s="3">
         <v>3929300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2803800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1246100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1084900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3572700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2622100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2179100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1548400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2596700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4415,8 +4612,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4471,8 +4669,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4527,8 +4728,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4583,8 +4787,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4639,8 +4846,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4695,8 +4905,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4751,64 +4964,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8259500</v>
+        <v>15768100</v>
       </c>
       <c r="E89" s="3">
-        <v>7621100</v>
+        <v>8295300</v>
       </c>
       <c r="F89" s="3">
-        <v>329200</v>
+        <v>7654100</v>
       </c>
       <c r="G89" s="3">
-        <v>14680300</v>
+        <v>330600</v>
       </c>
       <c r="H89" s="3">
-        <v>7199200</v>
+        <v>14744000</v>
       </c>
       <c r="I89" s="3">
-        <v>5265200</v>
+        <v>7230500</v>
       </c>
       <c r="J89" s="3">
+        <v>5288000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2822300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9425100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4395700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5182100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2063700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8226100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4470300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3839800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1562800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5441400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4829,64 +5048,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2846200</v>
+        <v>-892800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2074600</v>
+        <v>-2858500</v>
       </c>
       <c r="F91" s="3">
-        <v>-273100</v>
+        <v>-2083600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1013000</v>
+        <v>-274200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1494700</v>
+        <v>-1017400</v>
       </c>
       <c r="I91" s="3">
-        <v>-970800</v>
-      </c>
-      <c r="J91" s="3" t="s">
+        <v>-1501200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-975000</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-532600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4941,8 +5164,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4997,64 +5223,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10504300</v>
+        <v>-12178400</v>
       </c>
       <c r="E94" s="3">
-        <v>-10302800</v>
+        <v>-10549900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5019200</v>
+        <v>-10347500</v>
       </c>
       <c r="G94" s="3">
-        <v>-4957300</v>
+        <v>-5041000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3248200</v>
+        <v>-4978800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3215200</v>
+        <v>-3262300</v>
       </c>
       <c r="J94" s="3">
+        <v>-3229200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-441400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5075,8 +5307,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5131,8 +5364,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5187,8 +5423,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5243,8 +5482,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5299,172 +5541,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1537300</v>
+        <v>-868600</v>
       </c>
       <c r="E100" s="3">
-        <v>-701100</v>
+        <v>1544000</v>
       </c>
       <c r="F100" s="3">
-        <v>451300</v>
+        <v>-704200</v>
       </c>
       <c r="G100" s="3">
-        <v>9323000</v>
+        <v>453300</v>
       </c>
       <c r="H100" s="3">
-        <v>320400</v>
+        <v>9363400</v>
       </c>
       <c r="I100" s="3">
-        <v>683500</v>
+        <v>321800</v>
       </c>
       <c r="J100" s="3">
+        <v>686400</v>
+      </c>
+      <c r="K100" s="3">
         <v>109400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-486600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>614200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-660700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5086600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>361000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-103300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-586100</v>
+        <v>-631300</v>
       </c>
       <c r="E101" s="3">
-        <v>-53400</v>
+        <v>-588700</v>
       </c>
       <c r="F101" s="3">
-        <v>353200</v>
+        <v>-53600</v>
       </c>
       <c r="G101" s="3">
-        <v>-296900</v>
+        <v>354800</v>
       </c>
       <c r="H101" s="3">
-        <v>357900</v>
+        <v>-298200</v>
       </c>
       <c r="I101" s="3">
-        <v>209500</v>
+        <v>359500</v>
       </c>
       <c r="J101" s="3">
+        <v>210400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-173700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>233700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>399300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-380700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-224000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-120400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-162100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-64900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>253800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1293600</v>
+        <v>2089900</v>
       </c>
       <c r="E102" s="3">
-        <v>-3436200</v>
+        <v>-1299200</v>
       </c>
       <c r="F102" s="3">
-        <v>-3885400</v>
+        <v>-3451100</v>
       </c>
       <c r="G102" s="3">
-        <v>18749100</v>
+        <v>-3902300</v>
       </c>
       <c r="H102" s="3">
-        <v>4629300</v>
+        <v>18830400</v>
       </c>
       <c r="I102" s="3">
-        <v>2942900</v>
+        <v>4649400</v>
       </c>
       <c r="J102" s="3">
+        <v>2955700</v>
+      </c>
+      <c r="K102" s="3">
         <v>209800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3610700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-277700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9481900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>494500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>291500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1417500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4407300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,273 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33777200</v>
+        <v>29235500</v>
       </c>
       <c r="E8" s="3">
-        <v>23689900</v>
+        <v>34491300</v>
       </c>
       <c r="F8" s="3">
-        <v>23490100</v>
+        <v>24190800</v>
       </c>
       <c r="G8" s="3">
-        <v>17464900</v>
+        <v>23986700</v>
       </c>
       <c r="H8" s="3">
-        <v>24667200</v>
+        <v>17834100</v>
       </c>
       <c r="I8" s="3">
-        <v>18183400</v>
+        <v>25188800</v>
       </c>
       <c r="J8" s="3">
+        <v>18567800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17558100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14222900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17032300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11917300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11610400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8886000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12322200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8180700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7447800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5610500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7743900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18527300</v>
+        <v>19572100</v>
       </c>
       <c r="E9" s="3">
-        <v>13744100</v>
+        <v>18919000</v>
       </c>
       <c r="F9" s="3">
-        <v>12913400</v>
+        <v>14034700</v>
       </c>
       <c r="G9" s="3">
-        <v>11076900</v>
+        <v>13186400</v>
       </c>
       <c r="H9" s="3">
-        <v>12884200</v>
+        <v>11311000</v>
       </c>
       <c r="I9" s="3">
-        <v>10014100</v>
+        <v>13156600</v>
       </c>
       <c r="J9" s="3">
+        <v>10225800</v>
+      </c>
+      <c r="K9" s="3">
         <v>9164800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8459400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8831900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6548200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6272900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4663700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5205900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3265300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2591200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2252700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2781500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15249900</v>
+        <v>9663400</v>
       </c>
       <c r="E10" s="3">
-        <v>9945800</v>
+        <v>15572300</v>
       </c>
       <c r="F10" s="3">
-        <v>10576700</v>
+        <v>10156100</v>
       </c>
       <c r="G10" s="3">
-        <v>6388000</v>
+        <v>10800300</v>
       </c>
       <c r="H10" s="3">
-        <v>11783000</v>
+        <v>6523100</v>
       </c>
       <c r="I10" s="3">
-        <v>8169300</v>
+        <v>12032100</v>
       </c>
       <c r="J10" s="3">
+        <v>8342000</v>
+      </c>
+      <c r="K10" s="3">
         <v>8393300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5763500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8200400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5369100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5337500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4222300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7116300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4915300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4856600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3357800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4962400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,67 +953,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2078900</v>
+        <v>2075200</v>
       </c>
       <c r="E12" s="3">
-        <v>2940300</v>
+        <v>2122800</v>
       </c>
       <c r="F12" s="3">
-        <v>1693100</v>
+        <v>3002400</v>
       </c>
       <c r="G12" s="3">
-        <v>1617500</v>
+        <v>1728900</v>
       </c>
       <c r="H12" s="3">
-        <v>1692300</v>
+        <v>1651700</v>
       </c>
       <c r="I12" s="3">
-        <v>1671100</v>
+        <v>1728100</v>
       </c>
       <c r="J12" s="3">
+        <v>1706400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1600800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1317200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1292700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1170800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1651500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>959300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>933400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>754400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>696900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>657100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>642800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,126 +1075,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>88000</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>73300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>309000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>484600</v>
+        <v>532800</v>
       </c>
       <c r="E15" s="3">
-        <v>441200</v>
+        <v>494900</v>
       </c>
       <c r="F15" s="3">
-        <v>451000</v>
+        <v>450600</v>
       </c>
       <c r="G15" s="3">
-        <v>617800</v>
+        <v>460500</v>
       </c>
       <c r="H15" s="3">
-        <v>499900</v>
+        <v>630900</v>
       </c>
       <c r="I15" s="3">
-        <v>459300</v>
+        <v>510500</v>
       </c>
       <c r="J15" s="3">
+        <v>469000</v>
+      </c>
+      <c r="K15" s="3">
         <v>468400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>487200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>408000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>365400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>301900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>190700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>305300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>259400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>294700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>190900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>183400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1197,126 +1222,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26290700</v>
+        <v>30431000</v>
       </c>
       <c r="E17" s="3">
-        <v>21606900</v>
+        <v>26846500</v>
       </c>
       <c r="F17" s="3">
-        <v>18187800</v>
+        <v>22063700</v>
       </c>
       <c r="G17" s="3">
-        <v>16375400</v>
+        <v>18572400</v>
       </c>
       <c r="H17" s="3">
-        <v>18623300</v>
+        <v>16721600</v>
       </c>
       <c r="I17" s="3">
-        <v>15072200</v>
+        <v>19017000</v>
       </c>
       <c r="J17" s="3">
+        <v>15390900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13834100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12889600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13140400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10027700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10459700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7563000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8464100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5719400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4848700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4533300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4738700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7486500</v>
+        <v>-1195500</v>
       </c>
       <c r="E18" s="3">
-        <v>2083000</v>
+        <v>7644800</v>
       </c>
       <c r="F18" s="3">
-        <v>5302200</v>
+        <v>2127000</v>
       </c>
       <c r="G18" s="3">
-        <v>1089500</v>
+        <v>5414300</v>
       </c>
       <c r="H18" s="3">
-        <v>6044000</v>
+        <v>1112500</v>
       </c>
       <c r="I18" s="3">
-        <v>3111200</v>
+        <v>6171800</v>
       </c>
       <c r="J18" s="3">
+        <v>3177000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3724000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1333300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3891900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1889600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1150700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1323000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3858100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2461200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2599100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1077200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3005200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1338,105 +1370,109 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6548500</v>
+        <v>347300</v>
       </c>
       <c r="E20" s="3">
-        <v>1781100</v>
+        <v>6686900</v>
       </c>
       <c r="F20" s="3">
-        <v>3610200</v>
+        <v>1818800</v>
       </c>
       <c r="G20" s="3">
-        <v>-998400</v>
+        <v>3686500</v>
       </c>
       <c r="H20" s="3">
-        <v>2768800</v>
+        <v>-1019500</v>
       </c>
       <c r="I20" s="3">
-        <v>10162800</v>
+        <v>2827400</v>
       </c>
       <c r="J20" s="3">
+        <v>10377600</v>
+      </c>
+      <c r="K20" s="3">
         <v>349600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3059700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1735100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>714200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1027700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>405900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3457200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>767600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>498500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1326000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>560200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14203300</v>
+        <v>-785500</v>
       </c>
       <c r="E21" s="3">
-        <v>3952400</v>
+        <v>14503600</v>
       </c>
       <c r="F21" s="3">
-        <v>10229200</v>
+        <v>4036000</v>
       </c>
       <c r="G21" s="3">
-        <v>1570400</v>
+        <v>10445500</v>
       </c>
       <c r="H21" s="3">
-        <v>8885200</v>
+        <v>1603600</v>
       </c>
       <c r="I21" s="3">
-        <v>13314900</v>
+        <v>9073100</v>
       </c>
       <c r="J21" s="3">
+        <v>13596400</v>
+      </c>
+      <c r="K21" s="3">
         <v>5257300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4411900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5740800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2772500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
@@ -1447,194 +1483,206 @@
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3">
         <v>2424500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3570300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>166800</v>
+        <v>181000</v>
       </c>
       <c r="E22" s="3">
-        <v>168200</v>
+        <v>170400</v>
       </c>
       <c r="F22" s="3">
-        <v>171600</v>
+        <v>171800</v>
       </c>
       <c r="G22" s="3">
-        <v>178000</v>
+        <v>175200</v>
       </c>
       <c r="H22" s="3">
-        <v>200000</v>
+        <v>181800</v>
       </c>
       <c r="I22" s="3">
-        <v>207800</v>
+        <v>204200</v>
       </c>
       <c r="J22" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K22" s="3">
         <v>205600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>198200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>193700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>187500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>174000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>168600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>125300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>110900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>118700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>98300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>101900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13868100</v>
+        <v>-1029200</v>
       </c>
       <c r="E23" s="3">
-        <v>3695900</v>
+        <v>14161300</v>
       </c>
       <c r="F23" s="3">
-        <v>8740800</v>
+        <v>3774000</v>
       </c>
       <c r="G23" s="3">
-        <v>-86900</v>
+        <v>8925600</v>
       </c>
       <c r="H23" s="3">
-        <v>8612800</v>
+        <v>-88800</v>
       </c>
       <c r="I23" s="3">
-        <v>13066200</v>
+        <v>8794900</v>
       </c>
       <c r="J23" s="3">
+        <v>13342400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3867900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4194900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5433200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2416300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2004400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1560300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7190000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3117900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2978900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2304900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3463400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1404700</v>
+        <v>1099700</v>
       </c>
       <c r="E24" s="3">
-        <v>292000</v>
+        <v>1434400</v>
       </c>
       <c r="F24" s="3">
-        <v>1699500</v>
+        <v>298100</v>
       </c>
       <c r="G24" s="3">
-        <v>401500</v>
+        <v>1735500</v>
       </c>
       <c r="H24" s="3">
-        <v>1284400</v>
+        <v>410000</v>
       </c>
       <c r="I24" s="3">
-        <v>430100</v>
+        <v>1311600</v>
       </c>
       <c r="J24" s="3">
+        <v>439200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1025500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>764400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>811300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>812800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>597500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>988900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>403500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>690600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>662100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>743100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,126 +1740,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12463500</v>
+        <v>-2128900</v>
       </c>
       <c r="E26" s="3">
-        <v>3403900</v>
+        <v>12727000</v>
       </c>
       <c r="F26" s="3">
-        <v>7041300</v>
+        <v>3475900</v>
       </c>
       <c r="G26" s="3">
-        <v>-488400</v>
+        <v>7190200</v>
       </c>
       <c r="H26" s="3">
-        <v>7328400</v>
+        <v>-498800</v>
       </c>
       <c r="I26" s="3">
-        <v>12636100</v>
+        <v>7483300</v>
       </c>
       <c r="J26" s="3">
+        <v>12903300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2842500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3430500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4621900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2377500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1191600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>962900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6201200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2714400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2288300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1642800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2720300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12134900</v>
+        <v>-854800</v>
       </c>
       <c r="E27" s="3">
-        <v>4395300</v>
+        <v>12391400</v>
       </c>
       <c r="F27" s="3">
-        <v>7271000</v>
+        <v>4488300</v>
       </c>
       <c r="G27" s="3">
-        <v>483100</v>
+        <v>7424700</v>
       </c>
       <c r="H27" s="3">
-        <v>7991800</v>
+        <v>493300</v>
       </c>
       <c r="I27" s="3">
-        <v>11082700</v>
+        <v>8160700</v>
       </c>
       <c r="J27" s="3">
+        <v>11317000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3246900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3929300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2803800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1246100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1084900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3572700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2622100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2179100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1548400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2596700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1869,8 +1926,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1928,8 +1988,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1987,8 +2050,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2046,126 +2112,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6548500</v>
+        <v>-347300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1781100</v>
+        <v>-6686900</v>
       </c>
       <c r="F32" s="3">
-        <v>-3610200</v>
+        <v>-1818800</v>
       </c>
       <c r="G32" s="3">
-        <v>998400</v>
+        <v>-3686500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2768800</v>
+        <v>1019500</v>
       </c>
       <c r="I32" s="3">
-        <v>-10162800</v>
+        <v>-2827400</v>
       </c>
       <c r="J32" s="3">
+        <v>-10377600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-349600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-714200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-405900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-767600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-498500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-560200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12134900</v>
+        <v>-854800</v>
       </c>
       <c r="E33" s="3">
-        <v>4395300</v>
+        <v>12391400</v>
       </c>
       <c r="F33" s="3">
-        <v>7271000</v>
+        <v>4488300</v>
       </c>
       <c r="G33" s="3">
-        <v>483100</v>
+        <v>7424700</v>
       </c>
       <c r="H33" s="3">
-        <v>7991800</v>
+        <v>493300</v>
       </c>
       <c r="I33" s="3">
-        <v>11082700</v>
+        <v>8160700</v>
       </c>
       <c r="J33" s="3">
+        <v>11317000</v>
+      </c>
+      <c r="K33" s="3">
         <v>3246900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3929300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4800100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2803800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1246100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1084900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3572700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2622100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2179100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1548400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2596700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2223,131 +2298,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12134900</v>
+        <v>-854800</v>
       </c>
       <c r="E35" s="3">
-        <v>4395300</v>
+        <v>12391400</v>
       </c>
       <c r="F35" s="3">
-        <v>7271000</v>
+        <v>4488300</v>
       </c>
       <c r="G35" s="3">
-        <v>483100</v>
+        <v>7424700</v>
       </c>
       <c r="H35" s="3">
-        <v>7991800</v>
+        <v>493300</v>
       </c>
       <c r="I35" s="3">
-        <v>11082700</v>
+        <v>8160700</v>
       </c>
       <c r="J35" s="3">
+        <v>11317000</v>
+      </c>
+      <c r="K35" s="3">
         <v>3246900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3929300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4800100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2803800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1246100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1084900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3572700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2622100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2179100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1548400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2596700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2369,8 +2453,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2392,126 +2477,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47688300</v>
+        <v>50120100</v>
       </c>
       <c r="E41" s="3">
-        <v>46064500</v>
+        <v>48696500</v>
       </c>
       <c r="F41" s="3">
-        <v>47249800</v>
+        <v>47038400</v>
       </c>
       <c r="G41" s="3">
-        <v>50494200</v>
+        <v>48248700</v>
       </c>
       <c r="H41" s="3">
-        <v>53560800</v>
+        <v>51561800</v>
       </c>
       <c r="I41" s="3">
-        <v>35777600</v>
+        <v>54693200</v>
       </c>
       <c r="J41" s="3">
+        <v>36534000</v>
+      </c>
+      <c r="K41" s="3">
         <v>32166100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28899100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27478100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23005900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24089600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28596900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31492000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>22075400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>21540800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20903500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19486000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>22920700</v>
+        <v>25302200</v>
       </c>
       <c r="E42" s="3">
-        <v>16682700</v>
+        <v>23405200</v>
       </c>
       <c r="F42" s="3">
-        <v>11808500</v>
+        <v>17035400</v>
       </c>
       <c r="G42" s="3">
-        <v>4997700</v>
+        <v>12058200</v>
       </c>
       <c r="H42" s="3">
-        <v>1013700</v>
+        <v>5103400</v>
       </c>
       <c r="I42" s="3">
-        <v>1043900</v>
+        <v>1035100</v>
       </c>
       <c r="J42" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1540200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2006300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1653700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2402000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2475900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1564100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1771400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2413700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1108600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1027500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1135400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2569,8 +2661,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2628,303 +2723,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20711600</v>
+        <v>24948300</v>
       </c>
       <c r="E45" s="3">
-        <v>17146800</v>
+        <v>21149500</v>
       </c>
       <c r="F45" s="3">
-        <v>16004300</v>
+        <v>17509300</v>
       </c>
       <c r="G45" s="3">
-        <v>15233400</v>
+        <v>16342700</v>
       </c>
       <c r="H45" s="3">
-        <v>15619600</v>
+        <v>15555400</v>
       </c>
       <c r="I45" s="3">
-        <v>14464800</v>
+        <v>15949800</v>
       </c>
       <c r="J45" s="3">
+        <v>14770600</v>
+      </c>
+      <c r="K45" s="3">
         <v>10696400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10208500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8872000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7886200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7438400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6692600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6553500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5882700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5013300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4517500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3887600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>91320600</v>
+        <v>100370600</v>
       </c>
       <c r="E46" s="3">
-        <v>79894000</v>
+        <v>93251200</v>
       </c>
       <c r="F46" s="3">
-        <v>75062600</v>
+        <v>81583100</v>
       </c>
       <c r="G46" s="3">
-        <v>70725400</v>
+        <v>76649600</v>
       </c>
       <c r="H46" s="3">
-        <v>70194200</v>
+        <v>72220600</v>
       </c>
       <c r="I46" s="3">
-        <v>51286300</v>
+        <v>71678200</v>
       </c>
       <c r="J46" s="3">
+        <v>52370500</v>
+      </c>
+      <c r="K46" s="3">
         <v>44402800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41113900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38003800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33294100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34003900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36853600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39816900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30371800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27662700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26448500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24509000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65048800</v>
+        <v>68240300</v>
       </c>
       <c r="E47" s="3">
-        <v>60895500</v>
+        <v>66424100</v>
       </c>
       <c r="F47" s="3">
-        <v>57105500</v>
+        <v>62182900</v>
       </c>
       <c r="G47" s="3">
-        <v>53619800</v>
+        <v>58312800</v>
       </c>
       <c r="H47" s="3">
-        <v>55312000</v>
+        <v>54753400</v>
       </c>
       <c r="I47" s="3">
-        <v>50562700</v>
+        <v>56481400</v>
       </c>
       <c r="J47" s="3">
+        <v>51631700</v>
+      </c>
+      <c r="K47" s="3">
         <v>38852700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36743700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33087900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>30691800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>28385900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25523900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>24392700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23730600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22240600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22079200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22453800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22471200</v>
+        <v>22997700</v>
       </c>
       <c r="E48" s="3">
-        <v>18033700</v>
+        <v>22946300</v>
       </c>
       <c r="F48" s="3">
-        <v>17029000</v>
+        <v>18415000</v>
       </c>
       <c r="G48" s="3">
-        <v>21090800</v>
+        <v>17389000</v>
       </c>
       <c r="H48" s="3">
-        <v>19314400</v>
+        <v>21536700</v>
       </c>
       <c r="I48" s="3">
-        <v>19220800</v>
+        <v>19722800</v>
       </c>
       <c r="J48" s="3">
+        <v>19627200</v>
+      </c>
+      <c r="K48" s="3">
         <v>18193700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13999600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13188900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12180000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11286000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9539800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9642600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7359200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6518500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2938600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2893900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56121100</v>
+        <v>56725900</v>
       </c>
       <c r="E49" s="3">
-        <v>50807000</v>
+        <v>57307600</v>
       </c>
       <c r="F49" s="3">
-        <v>51101200</v>
+        <v>51881100</v>
       </c>
       <c r="G49" s="3">
-        <v>51598200</v>
+        <v>52181600</v>
       </c>
       <c r="H49" s="3">
-        <v>52216700</v>
+        <v>52689100</v>
       </c>
       <c r="I49" s="3">
-        <v>52362700</v>
+        <v>53320600</v>
       </c>
       <c r="J49" s="3">
+        <v>53469800</v>
+      </c>
+      <c r="K49" s="3">
         <v>50862400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50688100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>45348800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35607600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37195600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27205800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28168500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>21480600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21635700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20291600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>19700100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2982,8 +3095,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3041,67 +3157,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14874200</v>
+        <v>15356400</v>
       </c>
       <c r="E52" s="3">
-        <v>9399200</v>
+        <v>15188700</v>
       </c>
       <c r="F52" s="3">
-        <v>8884500</v>
+        <v>9597900</v>
       </c>
       <c r="G52" s="3">
-        <v>3563600</v>
+        <v>9072300</v>
       </c>
       <c r="H52" s="3">
-        <v>4555100</v>
+        <v>3638900</v>
       </c>
       <c r="I52" s="3">
-        <v>3727700</v>
+        <v>4651400</v>
       </c>
       <c r="J52" s="3">
+        <v>3806500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3348900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4262100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3683500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3660800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3433600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3769800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3562900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2961100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2635200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1947900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1829800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3159,67 +3281,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>249835900</v>
+        <v>263690900</v>
       </c>
       <c r="E54" s="3">
-        <v>219029400</v>
+        <v>255117800</v>
       </c>
       <c r="F54" s="3">
-        <v>209182900</v>
+        <v>223660000</v>
       </c>
       <c r="G54" s="3">
-        <v>200597800</v>
+        <v>213605300</v>
       </c>
       <c r="H54" s="3">
-        <v>201592400</v>
+        <v>204838800</v>
       </c>
       <c r="I54" s="3">
-        <v>177160200</v>
+        <v>205854400</v>
       </c>
       <c r="J54" s="3">
+        <v>180905600</v>
+      </c>
+      <c r="K54" s="3">
         <v>155660500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146807400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>133312900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115434400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>114305100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>102893000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>105583600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>85903300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80692600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73705700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71386600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3241,8 +3369,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3264,8 +3393,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3323,303 +3453,321 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2298900</v>
+        <v>2096300</v>
       </c>
       <c r="E58" s="3">
-        <v>749100</v>
+        <v>2347500</v>
       </c>
       <c r="F58" s="3">
-        <v>694100</v>
+        <v>764900</v>
       </c>
       <c r="G58" s="3">
-        <v>787400</v>
+        <v>708800</v>
       </c>
       <c r="H58" s="3">
-        <v>644000</v>
+        <v>804100</v>
       </c>
       <c r="I58" s="3">
-        <v>3690400</v>
+        <v>657600</v>
       </c>
       <c r="J58" s="3">
+        <v>3768400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3516800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3417500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3313000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1262700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1964700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>864900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>956800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2428100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2442100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2166500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1989300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52420800</v>
+        <v>56775300</v>
       </c>
       <c r="E59" s="3">
-        <v>39423200</v>
+        <v>53529100</v>
       </c>
       <c r="F59" s="3">
-        <v>37209600</v>
+        <v>40256700</v>
       </c>
       <c r="G59" s="3">
-        <v>36165800</v>
+        <v>37996200</v>
       </c>
       <c r="H59" s="3">
-        <v>39454400</v>
+        <v>36930400</v>
       </c>
       <c r="I59" s="3">
-        <v>33580100</v>
+        <v>40288500</v>
       </c>
       <c r="J59" s="3">
+        <v>34290100</v>
+      </c>
+      <c r="K59" s="3">
         <v>28673900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28173100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27007000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22264000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>21594200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18621100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>19292000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15311900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13438700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11440500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11476900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54719700</v>
+        <v>58871600</v>
       </c>
       <c r="E60" s="3">
-        <v>40172300</v>
+        <v>55876500</v>
       </c>
       <c r="F60" s="3">
-        <v>37903600</v>
+        <v>41021600</v>
       </c>
       <c r="G60" s="3">
-        <v>36953200</v>
+        <v>38705000</v>
       </c>
       <c r="H60" s="3">
-        <v>40098300</v>
+        <v>37734500</v>
       </c>
       <c r="I60" s="3">
-        <v>37270500</v>
+        <v>40946100</v>
       </c>
       <c r="J60" s="3">
+        <v>38058500</v>
+      </c>
+      <c r="K60" s="3">
         <v>32190700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31590600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>30320000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>23526700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23558800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19486000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20248800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17740000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15880800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13607000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13466200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15683200</v>
+        <v>21173100</v>
       </c>
       <c r="E61" s="3">
-        <v>17857700</v>
+        <v>16014700</v>
       </c>
       <c r="F61" s="3">
-        <v>18470200</v>
+        <v>18235200</v>
       </c>
       <c r="G61" s="3">
-        <v>18375800</v>
+        <v>18860700</v>
       </c>
       <c r="H61" s="3">
-        <v>18054300</v>
+        <v>18764300</v>
       </c>
       <c r="I61" s="3">
-        <v>18566100</v>
+        <v>18436000</v>
       </c>
       <c r="J61" s="3">
+        <v>18958600</v>
+      </c>
+      <c r="K61" s="3">
         <v>17779000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17012200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16446000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18082000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17848900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17149400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18237200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11186100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11407200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11174100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11219300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14071000</v>
+        <v>14588500</v>
       </c>
       <c r="E62" s="3">
-        <v>11088200</v>
+        <v>14368500</v>
       </c>
       <c r="F62" s="3">
-        <v>10955500</v>
+        <v>11322600</v>
       </c>
       <c r="G62" s="3">
-        <v>10875800</v>
+        <v>11187200</v>
       </c>
       <c r="H62" s="3">
-        <v>10962700</v>
+        <v>11105700</v>
       </c>
       <c r="I62" s="3">
-        <v>10139900</v>
+        <v>11194500</v>
       </c>
       <c r="J62" s="3">
+        <v>10354200</v>
+      </c>
+      <c r="K62" s="3">
         <v>7139000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4589600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4043600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3657000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4636800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3206800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3288800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2362400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2291500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1787600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1681900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3677,8 +3825,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3736,8 +3887,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3795,67 +3949,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105381800</v>
+        <v>116083100</v>
       </c>
       <c r="E66" s="3">
-        <v>86808100</v>
+        <v>107609800</v>
       </c>
       <c r="F66" s="3">
-        <v>84434500</v>
+        <v>88643300</v>
       </c>
       <c r="G66" s="3">
-        <v>83796900</v>
+        <v>86219600</v>
       </c>
       <c r="H66" s="3">
-        <v>86715500</v>
+        <v>85568500</v>
       </c>
       <c r="I66" s="3">
-        <v>83917800</v>
+        <v>88548800</v>
       </c>
       <c r="J66" s="3">
+        <v>85691900</v>
+      </c>
+      <c r="K66" s="3">
         <v>74973700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>70887900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65336800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55593000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57452000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49974200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>53203800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37956500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36261200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>32724800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32523100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3877,8 +4037,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3936,8 +4097,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3995,67 +4159,73 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1289900</v>
+        <v>1353100</v>
       </c>
       <c r="E70" s="3">
-        <v>1227300</v>
+        <v>1317200</v>
       </c>
       <c r="F70" s="3">
-        <v>1194700</v>
+        <v>1253200</v>
       </c>
       <c r="G70" s="3">
-        <v>1390800</v>
+        <v>1220000</v>
       </c>
       <c r="H70" s="3">
-        <v>1190900</v>
+        <v>1420200</v>
       </c>
       <c r="I70" s="3">
-        <v>1146800</v>
+        <v>1216100</v>
       </c>
       <c r="J70" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="K70" s="3">
         <v>1083400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1037300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1040600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>839900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>452700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>430600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>442100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>133300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>113200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>435100</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>515800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4113,67 +4283,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>86829600</v>
+        <v>87719900</v>
       </c>
       <c r="E72" s="3">
-        <v>74678300</v>
+        <v>88665300</v>
       </c>
       <c r="F72" s="3">
-        <v>70266600</v>
+        <v>76257100</v>
       </c>
       <c r="G72" s="3">
-        <v>63004500</v>
+        <v>71752100</v>
       </c>
       <c r="H72" s="3">
-        <v>62512500</v>
+        <v>64336500</v>
       </c>
       <c r="I72" s="3">
-        <v>54541400</v>
+        <v>63834100</v>
       </c>
       <c r="J72" s="3">
+        <v>55694500</v>
+      </c>
+      <c r="K72" s="3">
         <v>43446200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39985800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34455500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29692900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27742100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>25305600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25027300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21444900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>18812900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>16290200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14732300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4231,8 +4407,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4290,8 +4469,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4349,67 +4531,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>143164200</v>
+        <v>146254700</v>
       </c>
       <c r="E76" s="3">
-        <v>130994000</v>
+        <v>146190900</v>
       </c>
       <c r="F76" s="3">
-        <v>123553600</v>
+        <v>133763400</v>
       </c>
       <c r="G76" s="3">
-        <v>115410200</v>
+        <v>126165800</v>
       </c>
       <c r="H76" s="3">
-        <v>113686000</v>
+        <v>117850100</v>
       </c>
       <c r="I76" s="3">
-        <v>92095600</v>
+        <v>116089500</v>
       </c>
       <c r="J76" s="3">
+        <v>94042700</v>
+      </c>
+      <c r="K76" s="3">
         <v>79603400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74882100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66935500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59001500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56400400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52488100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51937700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47813500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44318200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>40545700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38347700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4467,131 +4655,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12134900</v>
+        <v>-854800</v>
       </c>
       <c r="E81" s="3">
-        <v>4395300</v>
+        <v>12391400</v>
       </c>
       <c r="F81" s="3">
-        <v>7271000</v>
+        <v>4488300</v>
       </c>
       <c r="G81" s="3">
-        <v>483100</v>
+        <v>7424700</v>
       </c>
       <c r="H81" s="3">
-        <v>7991800</v>
+        <v>493300</v>
       </c>
       <c r="I81" s="3">
-        <v>11082700</v>
+        <v>8160700</v>
       </c>
       <c r="J81" s="3">
+        <v>11317000</v>
+      </c>
+      <c r="K81" s="3">
         <v>3246900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3929300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4800100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2803800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1246100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1084900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3572700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2622100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2179100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1548400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2596700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4613,8 +4810,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4672,8 +4870,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4731,8 +4932,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4790,8 +4994,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4849,8 +5056,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4908,8 +5118,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4967,67 +5180,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15768100</v>
+        <v>3772800</v>
       </c>
       <c r="E89" s="3">
-        <v>8295300</v>
+        <v>16101500</v>
       </c>
       <c r="F89" s="3">
-        <v>7654100</v>
+        <v>8470700</v>
       </c>
       <c r="G89" s="3">
-        <v>330600</v>
+        <v>7815900</v>
       </c>
       <c r="H89" s="3">
-        <v>14744000</v>
+        <v>337600</v>
       </c>
       <c r="I89" s="3">
-        <v>7230500</v>
+        <v>15055700</v>
       </c>
       <c r="J89" s="3">
+        <v>7383300</v>
+      </c>
+      <c r="K89" s="3">
         <v>5288000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2822300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9425100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4395700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5182100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2063700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8226100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4470300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3839800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1562800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5441400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5049,67 +5268,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-892800</v>
+        <v>-508300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2858500</v>
+        <v>-911700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2083600</v>
+        <v>-2918900</v>
       </c>
       <c r="G91" s="3">
-        <v>-274200</v>
+        <v>-2127700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1017400</v>
+        <v>-280000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1501200</v>
+        <v>-1038900</v>
       </c>
       <c r="J91" s="3">
+        <v>-1533000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-975000</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-532600</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5167,8 +5390,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5226,67 +5452,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12178400</v>
+        <v>-4321600</v>
       </c>
       <c r="E94" s="3">
-        <v>-10549900</v>
+        <v>-12435900</v>
       </c>
       <c r="F94" s="3">
-        <v>-10347500</v>
+        <v>-10773000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5041000</v>
+        <v>-10566200</v>
       </c>
       <c r="H94" s="3">
-        <v>-4978800</v>
+        <v>-5147500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3262300</v>
+        <v>-5084100</v>
       </c>
       <c r="J94" s="3">
+        <v>-3331300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-441400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5308,8 +5540,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5367,8 +5600,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5426,8 +5662,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5485,8 +5724,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5544,181 +5786,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-868600</v>
+        <v>4722400</v>
       </c>
       <c r="E100" s="3">
-        <v>1544000</v>
+        <v>-886900</v>
       </c>
       <c r="F100" s="3">
-        <v>-704200</v>
+        <v>1576600</v>
       </c>
       <c r="G100" s="3">
-        <v>453300</v>
+        <v>-719100</v>
       </c>
       <c r="H100" s="3">
-        <v>9363400</v>
+        <v>462900</v>
       </c>
       <c r="I100" s="3">
-        <v>321800</v>
+        <v>9561400</v>
       </c>
       <c r="J100" s="3">
+        <v>328600</v>
+      </c>
+      <c r="K100" s="3">
         <v>686400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>109400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-486600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>614200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-660700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5086600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>361000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-103300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-631300</v>
+        <v>179300</v>
       </c>
       <c r="E101" s="3">
-        <v>-588700</v>
+        <v>-644600</v>
       </c>
       <c r="F101" s="3">
-        <v>-53600</v>
+        <v>-601100</v>
       </c>
       <c r="G101" s="3">
-        <v>354800</v>
+        <v>-54800</v>
       </c>
       <c r="H101" s="3">
-        <v>-298200</v>
+        <v>362300</v>
       </c>
       <c r="I101" s="3">
-        <v>359500</v>
+        <v>-304500</v>
       </c>
       <c r="J101" s="3">
+        <v>367100</v>
+      </c>
+      <c r="K101" s="3">
         <v>210400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-173700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>233700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>399300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-380700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-224000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-120400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-162100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-64900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>253800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2089900</v>
+        <v>4352800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1299200</v>
+        <v>2134100</v>
       </c>
       <c r="F102" s="3">
-        <v>-3451100</v>
+        <v>-1326700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3902300</v>
+        <v>-3524100</v>
       </c>
       <c r="H102" s="3">
-        <v>18830400</v>
+        <v>-3984800</v>
       </c>
       <c r="I102" s="3">
-        <v>4649400</v>
+        <v>19228500</v>
       </c>
       <c r="J102" s="3">
+        <v>4747700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2955700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>209800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3610700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-277700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9481900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>494500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>291500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1417500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4407300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,273 +665,285 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29235500</v>
+        <v>31679800</v>
       </c>
       <c r="E8" s="3">
-        <v>34491300</v>
+        <v>28855100</v>
       </c>
       <c r="F8" s="3">
-        <v>24190800</v>
+        <v>34042500</v>
       </c>
       <c r="G8" s="3">
-        <v>23986700</v>
+        <v>23876000</v>
       </c>
       <c r="H8" s="3">
-        <v>17834100</v>
+        <v>23674600</v>
       </c>
       <c r="I8" s="3">
-        <v>25188800</v>
+        <v>17602100</v>
       </c>
       <c r="J8" s="3">
+        <v>24861000</v>
+      </c>
+      <c r="K8" s="3">
         <v>18567800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17558100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14222900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17032300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11917300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11610400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8886000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12322200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8180700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7447800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5610500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7743900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19572100</v>
+        <v>19108500</v>
       </c>
       <c r="E9" s="3">
-        <v>18919000</v>
+        <v>19317400</v>
       </c>
       <c r="F9" s="3">
-        <v>14034700</v>
+        <v>18672800</v>
       </c>
       <c r="G9" s="3">
-        <v>13186400</v>
+        <v>13852000</v>
       </c>
       <c r="H9" s="3">
-        <v>11311000</v>
+        <v>13014900</v>
       </c>
       <c r="I9" s="3">
-        <v>13156600</v>
+        <v>11163900</v>
       </c>
       <c r="J9" s="3">
+        <v>12985400</v>
+      </c>
+      <c r="K9" s="3">
         <v>10225800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9164800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8459400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8831900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6548200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6272900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4663700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5205900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3265300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2591200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2252700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2781500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9663400</v>
+        <v>12571400</v>
       </c>
       <c r="E10" s="3">
-        <v>15572300</v>
+        <v>9537700</v>
       </c>
       <c r="F10" s="3">
-        <v>10156100</v>
+        <v>15369700</v>
       </c>
       <c r="G10" s="3">
-        <v>10800300</v>
+        <v>10023900</v>
       </c>
       <c r="H10" s="3">
-        <v>6523100</v>
+        <v>10659700</v>
       </c>
       <c r="I10" s="3">
-        <v>12032100</v>
+        <v>6438200</v>
       </c>
       <c r="J10" s="3">
+        <v>11875600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8342000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8393300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5763500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8200400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5369100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5337500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4222300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7116300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4915300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4856600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3357800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4962400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -954,70 +966,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2075200</v>
+        <v>2081700</v>
       </c>
       <c r="E12" s="3">
-        <v>2122800</v>
+        <v>2048200</v>
       </c>
       <c r="F12" s="3">
-        <v>3002400</v>
+        <v>2095200</v>
       </c>
       <c r="G12" s="3">
-        <v>1728900</v>
+        <v>2963300</v>
       </c>
       <c r="H12" s="3">
-        <v>1651700</v>
+        <v>1706400</v>
       </c>
       <c r="I12" s="3">
-        <v>1728100</v>
+        <v>1630200</v>
       </c>
       <c r="J12" s="3">
+        <v>1705600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1706400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1317200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1292700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1170800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1651500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>959300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>933400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>754400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>696900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>657100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>642800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1078,132 +1094,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>89900</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>73300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>309000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>532800</v>
+        <v>473200</v>
       </c>
       <c r="E15" s="3">
-        <v>494900</v>
+        <v>525800</v>
       </c>
       <c r="F15" s="3">
-        <v>450600</v>
+        <v>488400</v>
       </c>
       <c r="G15" s="3">
-        <v>460500</v>
+        <v>444700</v>
       </c>
       <c r="H15" s="3">
-        <v>630900</v>
+        <v>454500</v>
       </c>
       <c r="I15" s="3">
-        <v>510500</v>
+        <v>622700</v>
       </c>
       <c r="J15" s="3">
+        <v>503800</v>
+      </c>
+      <c r="K15" s="3">
         <v>469000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>468400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>487200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>408000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>365400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>301900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>190700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>305300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>259400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>294700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>190900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>183400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1223,132 +1248,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30431000</v>
+        <v>26930000</v>
       </c>
       <c r="E17" s="3">
-        <v>26846500</v>
+        <v>30035000</v>
       </c>
       <c r="F17" s="3">
-        <v>22063700</v>
+        <v>26497200</v>
       </c>
       <c r="G17" s="3">
-        <v>18572400</v>
+        <v>21776600</v>
       </c>
       <c r="H17" s="3">
-        <v>16721600</v>
+        <v>18330700</v>
       </c>
       <c r="I17" s="3">
-        <v>19017000</v>
+        <v>16504000</v>
       </c>
       <c r="J17" s="3">
+        <v>18769500</v>
+      </c>
+      <c r="K17" s="3">
         <v>15390900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13834100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12889600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13140400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10027700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10459700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7563000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8464100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5719400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4848700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4533300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4738700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1195500</v>
+        <v>4749800</v>
       </c>
       <c r="E18" s="3">
-        <v>7644800</v>
+        <v>-1179900</v>
       </c>
       <c r="F18" s="3">
-        <v>2127000</v>
+        <v>7545300</v>
       </c>
       <c r="G18" s="3">
-        <v>5414300</v>
+        <v>2099400</v>
       </c>
       <c r="H18" s="3">
-        <v>1112500</v>
+        <v>5343900</v>
       </c>
       <c r="I18" s="3">
-        <v>6171800</v>
+        <v>1098000</v>
       </c>
       <c r="J18" s="3">
+        <v>6091400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3177000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3724000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1333300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3891900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1889600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1150700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1323000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3858100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2461200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2599100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1077200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3005200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1371,111 +1403,115 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>347300</v>
+        <v>2503400</v>
       </c>
       <c r="E20" s="3">
-        <v>6686900</v>
+        <v>342800</v>
       </c>
       <c r="F20" s="3">
-        <v>1818800</v>
+        <v>6599900</v>
       </c>
       <c r="G20" s="3">
-        <v>3686500</v>
+        <v>1795100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1019500</v>
+        <v>3638500</v>
       </c>
       <c r="I20" s="3">
-        <v>2827400</v>
+        <v>-1006300</v>
       </c>
       <c r="J20" s="3">
+        <v>2790600</v>
+      </c>
+      <c r="K20" s="3">
         <v>10377600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>349600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3059700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1735100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>714200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1027700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>405900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3457200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>767600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>498500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1326000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>560200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-785500</v>
+        <v>8788400</v>
       </c>
       <c r="E21" s="3">
-        <v>14503600</v>
+        <v>624900</v>
       </c>
       <c r="F21" s="3">
-        <v>4036000</v>
+        <v>14314900</v>
       </c>
       <c r="G21" s="3">
-        <v>10445500</v>
+        <v>3983500</v>
       </c>
       <c r="H21" s="3">
-        <v>1603600</v>
+        <v>10309600</v>
       </c>
       <c r="I21" s="3">
-        <v>9073100</v>
+        <v>1582800</v>
       </c>
       <c r="J21" s="3">
+        <v>8955000</v>
+      </c>
+      <c r="K21" s="3">
         <v>13596400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5257300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4411900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5740800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2772500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>10</v>
@@ -1486,203 +1522,215 @@
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3">
         <v>2424500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3570300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>181000</v>
+        <v>195100</v>
       </c>
       <c r="E22" s="3">
-        <v>170400</v>
+        <v>178600</v>
       </c>
       <c r="F22" s="3">
-        <v>171800</v>
+        <v>168100</v>
       </c>
       <c r="G22" s="3">
-        <v>175200</v>
+        <v>169500</v>
       </c>
       <c r="H22" s="3">
-        <v>181800</v>
+        <v>172900</v>
       </c>
       <c r="I22" s="3">
-        <v>204200</v>
+        <v>179400</v>
       </c>
       <c r="J22" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K22" s="3">
         <v>212200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>205600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>198200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>193700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>187500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>174000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>168600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>125300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>110900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>118700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>98300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>101900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1029200</v>
+        <v>7058100</v>
       </c>
       <c r="E23" s="3">
-        <v>14161300</v>
+        <v>-1015800</v>
       </c>
       <c r="F23" s="3">
-        <v>3774000</v>
+        <v>13977100</v>
       </c>
       <c r="G23" s="3">
-        <v>8925600</v>
+        <v>3724900</v>
       </c>
       <c r="H23" s="3">
-        <v>-88800</v>
+        <v>8809500</v>
       </c>
       <c r="I23" s="3">
-        <v>8794900</v>
+        <v>-87600</v>
       </c>
       <c r="J23" s="3">
+        <v>8680500</v>
+      </c>
+      <c r="K23" s="3">
         <v>13342400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3867900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4194900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5433200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2416300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2004400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1560300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7190000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3117900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2978900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2304900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3463400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1099700</v>
+        <v>1400600</v>
       </c>
       <c r="E24" s="3">
-        <v>1434400</v>
+        <v>1085400</v>
       </c>
       <c r="F24" s="3">
-        <v>298100</v>
+        <v>1415700</v>
       </c>
       <c r="G24" s="3">
-        <v>1735500</v>
+        <v>294300</v>
       </c>
       <c r="H24" s="3">
-        <v>410000</v>
+        <v>1712900</v>
       </c>
       <c r="I24" s="3">
-        <v>1311600</v>
+        <v>404700</v>
       </c>
       <c r="J24" s="3">
+        <v>1294500</v>
+      </c>
+      <c r="K24" s="3">
         <v>439200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1025500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>764400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>811300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>812800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>597500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>988900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>403500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>690600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>662100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>743100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1743,132 +1791,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2128900</v>
+        <v>5657500</v>
       </c>
       <c r="E26" s="3">
-        <v>12727000</v>
+        <v>-2101200</v>
       </c>
       <c r="F26" s="3">
-        <v>3475900</v>
+        <v>12561400</v>
       </c>
       <c r="G26" s="3">
-        <v>7190200</v>
+        <v>3430700</v>
       </c>
       <c r="H26" s="3">
-        <v>-498800</v>
+        <v>7096600</v>
       </c>
       <c r="I26" s="3">
-        <v>7483300</v>
+        <v>-492300</v>
       </c>
       <c r="J26" s="3">
+        <v>7386000</v>
+      </c>
+      <c r="K26" s="3">
         <v>12903300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2842500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3430500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4621900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2377500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1191600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>962900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6201200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2714400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2288300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1642800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2720300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-854800</v>
+        <v>6950800</v>
       </c>
       <c r="E27" s="3">
-        <v>12391400</v>
+        <v>-843700</v>
       </c>
       <c r="F27" s="3">
-        <v>4488300</v>
+        <v>12230200</v>
       </c>
       <c r="G27" s="3">
-        <v>7424700</v>
+        <v>4429900</v>
       </c>
       <c r="H27" s="3">
-        <v>493300</v>
+        <v>7328100</v>
       </c>
       <c r="I27" s="3">
-        <v>8160700</v>
+        <v>486900</v>
       </c>
       <c r="J27" s="3">
+        <v>8054500</v>
+      </c>
+      <c r="K27" s="3">
         <v>11317000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3246900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3929300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4800100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2803800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1246100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1084900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3572700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2622100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2179100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1548400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2596700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1929,8 +1986,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1991,8 +2051,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2053,8 +2116,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2115,132 +2181,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-347300</v>
+        <v>-2503400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6686900</v>
+        <v>-342800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1818800</v>
+        <v>-6599900</v>
       </c>
       <c r="G32" s="3">
-        <v>-3686500</v>
+        <v>-1795100</v>
       </c>
       <c r="H32" s="3">
-        <v>1019500</v>
+        <v>-3638500</v>
       </c>
       <c r="I32" s="3">
-        <v>-2827400</v>
+        <v>1006300</v>
       </c>
       <c r="J32" s="3">
+        <v>-2790600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-349600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-714200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-405900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-767600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-498500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-560200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-854800</v>
+        <v>6950800</v>
       </c>
       <c r="E33" s="3">
-        <v>12391400</v>
+        <v>-843700</v>
       </c>
       <c r="F33" s="3">
-        <v>4488300</v>
+        <v>12230200</v>
       </c>
       <c r="G33" s="3">
-        <v>7424700</v>
+        <v>4429900</v>
       </c>
       <c r="H33" s="3">
-        <v>493300</v>
+        <v>7328100</v>
       </c>
       <c r="I33" s="3">
-        <v>8160700</v>
+        <v>486900</v>
       </c>
       <c r="J33" s="3">
+        <v>8054500</v>
+      </c>
+      <c r="K33" s="3">
         <v>11317000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3246900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3929300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4800100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2803800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1246100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1084900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3572700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2622100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2179100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1548400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2596700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2301,137 +2376,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-854800</v>
+        <v>6950800</v>
       </c>
       <c r="E35" s="3">
-        <v>12391400</v>
+        <v>-843700</v>
       </c>
       <c r="F35" s="3">
-        <v>4488300</v>
+        <v>12230200</v>
       </c>
       <c r="G35" s="3">
-        <v>7424700</v>
+        <v>4429900</v>
       </c>
       <c r="H35" s="3">
-        <v>493300</v>
+        <v>7328100</v>
       </c>
       <c r="I35" s="3">
-        <v>8160700</v>
+        <v>486900</v>
       </c>
       <c r="J35" s="3">
+        <v>8054500</v>
+      </c>
+      <c r="K35" s="3">
         <v>11317000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3246900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3929300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4800100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2803800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1246100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1084900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3572700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2622100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2179100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1548400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2596700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2454,8 +2538,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2478,132 +2563,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50120100</v>
+        <v>44932700</v>
       </c>
       <c r="E41" s="3">
-        <v>48696500</v>
+        <v>49467900</v>
       </c>
       <c r="F41" s="3">
-        <v>47038400</v>
+        <v>48062900</v>
       </c>
       <c r="G41" s="3">
-        <v>48248700</v>
+        <v>46426400</v>
       </c>
       <c r="H41" s="3">
-        <v>51561800</v>
+        <v>47620900</v>
       </c>
       <c r="I41" s="3">
-        <v>54693200</v>
+        <v>50890900</v>
       </c>
       <c r="J41" s="3">
+        <v>53981500</v>
+      </c>
+      <c r="K41" s="3">
         <v>36534000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32166100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28899100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27478100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>23005900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24089600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28596900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>31492000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>22075400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21540800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20903500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19486000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25302200</v>
+        <v>29493800</v>
       </c>
       <c r="E42" s="3">
-        <v>23405200</v>
+        <v>24972900</v>
       </c>
       <c r="F42" s="3">
-        <v>17035400</v>
+        <v>23100700</v>
       </c>
       <c r="G42" s="3">
-        <v>12058200</v>
+        <v>16813700</v>
       </c>
       <c r="H42" s="3">
-        <v>5103400</v>
+        <v>11901300</v>
       </c>
       <c r="I42" s="3">
-        <v>1035100</v>
+        <v>5037000</v>
       </c>
       <c r="J42" s="3">
+        <v>1021700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1066000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1540200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2006300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1653700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2402000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2475900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1564100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1771400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2413700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1108600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1027500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1135400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2664,8 +2756,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2726,318 +2821,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24948300</v>
+        <v>25219600</v>
       </c>
       <c r="E45" s="3">
-        <v>21149500</v>
+        <v>24623700</v>
       </c>
       <c r="F45" s="3">
-        <v>17509300</v>
+        <v>20874300</v>
       </c>
       <c r="G45" s="3">
-        <v>16342700</v>
+        <v>17281500</v>
       </c>
       <c r="H45" s="3">
-        <v>15555400</v>
+        <v>16130000</v>
       </c>
       <c r="I45" s="3">
-        <v>15949800</v>
+        <v>15353000</v>
       </c>
       <c r="J45" s="3">
+        <v>15742300</v>
+      </c>
+      <c r="K45" s="3">
         <v>14770600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10696400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10208500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8872000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7886200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7438400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6692600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6553500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5882700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5013300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4517500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3887600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100370600</v>
+        <v>99646200</v>
       </c>
       <c r="E46" s="3">
-        <v>93251200</v>
+        <v>99064600</v>
       </c>
       <c r="F46" s="3">
-        <v>81583100</v>
+        <v>92037800</v>
       </c>
       <c r="G46" s="3">
-        <v>76649600</v>
+        <v>80521500</v>
       </c>
       <c r="H46" s="3">
-        <v>72220600</v>
+        <v>75652200</v>
       </c>
       <c r="I46" s="3">
-        <v>71678200</v>
+        <v>71280900</v>
       </c>
       <c r="J46" s="3">
+        <v>70745500</v>
+      </c>
+      <c r="K46" s="3">
         <v>52370500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44402800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41113900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38003800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33294100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34003900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36853600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39816900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30371800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27662700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>26448500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>24509000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68240300</v>
+        <v>69990500</v>
       </c>
       <c r="E47" s="3">
-        <v>66424100</v>
+        <v>67352400</v>
       </c>
       <c r="F47" s="3">
-        <v>62182900</v>
+        <v>65559800</v>
       </c>
       <c r="G47" s="3">
-        <v>58312800</v>
+        <v>61373800</v>
       </c>
       <c r="H47" s="3">
-        <v>54753400</v>
+        <v>57554000</v>
       </c>
       <c r="I47" s="3">
-        <v>56481400</v>
+        <v>54041000</v>
       </c>
       <c r="J47" s="3">
+        <v>55746500</v>
+      </c>
+      <c r="K47" s="3">
         <v>51631700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38852700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36743700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33087900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>30691800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>28385900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25523900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>24392700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23730600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22240600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22079200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22453800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22997700</v>
+        <v>23498300</v>
       </c>
       <c r="E48" s="3">
-        <v>22946300</v>
+        <v>22698500</v>
       </c>
       <c r="F48" s="3">
-        <v>18415000</v>
+        <v>22647700</v>
       </c>
       <c r="G48" s="3">
-        <v>17389000</v>
+        <v>18175300</v>
       </c>
       <c r="H48" s="3">
-        <v>21536700</v>
+        <v>17162800</v>
       </c>
       <c r="I48" s="3">
-        <v>19722800</v>
+        <v>21256500</v>
       </c>
       <c r="J48" s="3">
+        <v>19466200</v>
+      </c>
+      <c r="K48" s="3">
         <v>19627200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18193700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13999600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13188900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12180000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11286000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9539800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9642600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7359200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6518500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2938600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2893900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56725900</v>
+        <v>55420600</v>
       </c>
       <c r="E49" s="3">
-        <v>57307600</v>
+        <v>55987700</v>
       </c>
       <c r="F49" s="3">
-        <v>51881100</v>
+        <v>56561900</v>
       </c>
       <c r="G49" s="3">
-        <v>52181600</v>
+        <v>51206000</v>
       </c>
       <c r="H49" s="3">
-        <v>52689100</v>
+        <v>51502600</v>
       </c>
       <c r="I49" s="3">
-        <v>53320600</v>
+        <v>52003500</v>
       </c>
       <c r="J49" s="3">
+        <v>52626800</v>
+      </c>
+      <c r="K49" s="3">
         <v>53469800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50862400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50688100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>45348800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35607600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>37195600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27205800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28168500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>21480600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21635700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20291600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>19700100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3098,8 +3211,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3160,70 +3276,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15356400</v>
+        <v>15552700</v>
       </c>
       <c r="E52" s="3">
-        <v>15188700</v>
+        <v>15156600</v>
       </c>
       <c r="F52" s="3">
-        <v>9597900</v>
+        <v>14991000</v>
       </c>
       <c r="G52" s="3">
-        <v>9072300</v>
+        <v>9473000</v>
       </c>
       <c r="H52" s="3">
-        <v>3638900</v>
+        <v>8954200</v>
       </c>
       <c r="I52" s="3">
-        <v>4651400</v>
+        <v>3591600</v>
       </c>
       <c r="J52" s="3">
+        <v>4590900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3806500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3348900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4262100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3683500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3660800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3433600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3769800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3562900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2961100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2635200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1947900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1829800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3284,70 +3406,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>263690900</v>
+        <v>264108300</v>
       </c>
       <c r="E54" s="3">
-        <v>255117800</v>
+        <v>260259800</v>
       </c>
       <c r="F54" s="3">
-        <v>223660000</v>
+        <v>251798300</v>
       </c>
       <c r="G54" s="3">
-        <v>213605300</v>
+        <v>220749700</v>
       </c>
       <c r="H54" s="3">
-        <v>204838800</v>
+        <v>210825900</v>
       </c>
       <c r="I54" s="3">
-        <v>205854400</v>
+        <v>202173400</v>
       </c>
       <c r="J54" s="3">
+        <v>203175800</v>
+      </c>
+      <c r="K54" s="3">
         <v>180905600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155660500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146807400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>133312900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>115434400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>114305100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>102893000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>105583600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>85903300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>80692600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73705700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71386600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3370,8 +3498,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3394,8 +3523,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3456,318 +3586,336 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2096300</v>
+        <v>2619700</v>
       </c>
       <c r="E58" s="3">
-        <v>2347500</v>
+        <v>2069000</v>
       </c>
       <c r="F58" s="3">
-        <v>764900</v>
+        <v>2316900</v>
       </c>
       <c r="G58" s="3">
-        <v>708800</v>
+        <v>755000</v>
       </c>
       <c r="H58" s="3">
-        <v>804100</v>
+        <v>699500</v>
       </c>
       <c r="I58" s="3">
-        <v>657600</v>
+        <v>793600</v>
       </c>
       <c r="J58" s="3">
+        <v>649000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3768400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3516800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3417500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3313000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1262700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1964700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>864900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>956800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2428100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2442100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2166500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1989300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56775300</v>
+        <v>54075600</v>
       </c>
       <c r="E59" s="3">
-        <v>53529100</v>
+        <v>56036600</v>
       </c>
       <c r="F59" s="3">
-        <v>40256700</v>
+        <v>52832500</v>
       </c>
       <c r="G59" s="3">
-        <v>37996200</v>
+        <v>39732800</v>
       </c>
       <c r="H59" s="3">
-        <v>36930400</v>
+        <v>37501800</v>
       </c>
       <c r="I59" s="3">
-        <v>40288500</v>
+        <v>36449800</v>
       </c>
       <c r="J59" s="3">
+        <v>39764300</v>
+      </c>
+      <c r="K59" s="3">
         <v>34290100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28673900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28173100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27007000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22264000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21594200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18621100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>19292000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15311900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13438700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11440500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11476900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58871600</v>
+        <v>56695300</v>
       </c>
       <c r="E60" s="3">
-        <v>55876500</v>
+        <v>58105600</v>
       </c>
       <c r="F60" s="3">
-        <v>41021600</v>
+        <v>55149500</v>
       </c>
       <c r="G60" s="3">
-        <v>38705000</v>
+        <v>40487800</v>
       </c>
       <c r="H60" s="3">
-        <v>37734500</v>
+        <v>38201400</v>
       </c>
       <c r="I60" s="3">
-        <v>40946100</v>
+        <v>37243500</v>
       </c>
       <c r="J60" s="3">
+        <v>40413300</v>
+      </c>
+      <c r="K60" s="3">
         <v>38058500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32190700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31590600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>30320000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>23526700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23558800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19486000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>20248800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17740000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15880800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13607000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13466200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21173100</v>
+        <v>20571600</v>
       </c>
       <c r="E61" s="3">
-        <v>16014700</v>
+        <v>20897500</v>
       </c>
       <c r="F61" s="3">
-        <v>18235200</v>
+        <v>15806400</v>
       </c>
       <c r="G61" s="3">
-        <v>18860700</v>
+        <v>17998000</v>
       </c>
       <c r="H61" s="3">
-        <v>18764300</v>
+        <v>18615300</v>
       </c>
       <c r="I61" s="3">
-        <v>18436000</v>
+        <v>18520100</v>
       </c>
       <c r="J61" s="3">
+        <v>18196100</v>
+      </c>
+      <c r="K61" s="3">
         <v>18958600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17779000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17012200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16446000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18082000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17848900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17149400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18237200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11186100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11407200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11174100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11219300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14588500</v>
+        <v>14596800</v>
       </c>
       <c r="E62" s="3">
-        <v>14368500</v>
+        <v>14398700</v>
       </c>
       <c r="F62" s="3">
-        <v>11322600</v>
+        <v>14181600</v>
       </c>
       <c r="G62" s="3">
-        <v>11187200</v>
+        <v>11175300</v>
       </c>
       <c r="H62" s="3">
-        <v>11105700</v>
+        <v>11041600</v>
       </c>
       <c r="I62" s="3">
-        <v>11194500</v>
+        <v>10961200</v>
       </c>
       <c r="J62" s="3">
+        <v>11048800</v>
+      </c>
+      <c r="K62" s="3">
         <v>10354200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7139000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4589600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4043600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3657000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4636800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3206800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3288800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2362400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2291500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1787600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1681900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3828,8 +3976,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3890,8 +4041,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3952,70 +4106,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>116083100</v>
+        <v>112612700</v>
       </c>
       <c r="E66" s="3">
-        <v>107609800</v>
+        <v>114572700</v>
       </c>
       <c r="F66" s="3">
-        <v>88643300</v>
+        <v>106209600</v>
       </c>
       <c r="G66" s="3">
-        <v>86219600</v>
+        <v>87489900</v>
       </c>
       <c r="H66" s="3">
-        <v>85568500</v>
+        <v>85097700</v>
       </c>
       <c r="I66" s="3">
-        <v>88548800</v>
+        <v>84455100</v>
       </c>
       <c r="J66" s="3">
+        <v>87396600</v>
+      </c>
+      <c r="K66" s="3">
         <v>85691900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74973700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>70887900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>65336800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55593000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57452000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49974200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>53203800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37956500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36261200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>32724800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32523100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4038,8 +4198,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4100,8 +4261,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4162,70 +4326,76 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1353100</v>
+        <v>1287700</v>
       </c>
       <c r="E70" s="3">
-        <v>1317200</v>
+        <v>1335500</v>
       </c>
       <c r="F70" s="3">
-        <v>1253200</v>
+        <v>1300100</v>
       </c>
       <c r="G70" s="3">
-        <v>1220000</v>
+        <v>1236900</v>
       </c>
       <c r="H70" s="3">
-        <v>1420200</v>
+        <v>1204100</v>
       </c>
       <c r="I70" s="3">
-        <v>1216100</v>
+        <v>1401700</v>
       </c>
       <c r="J70" s="3">
+        <v>1200300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1171000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1083400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1037300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1040600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>839900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>452700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>430600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>442100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>133300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>113200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>435100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>515800</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4286,70 +4456,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>87719900</v>
+        <v>92536300</v>
       </c>
       <c r="E72" s="3">
-        <v>88665300</v>
+        <v>86578500</v>
       </c>
       <c r="F72" s="3">
-        <v>76257100</v>
+        <v>87511600</v>
       </c>
       <c r="G72" s="3">
-        <v>71752100</v>
+        <v>75264800</v>
       </c>
       <c r="H72" s="3">
-        <v>64336500</v>
+        <v>70818500</v>
       </c>
       <c r="I72" s="3">
-        <v>63834100</v>
+        <v>63499400</v>
       </c>
       <c r="J72" s="3">
+        <v>63003500</v>
+      </c>
+      <c r="K72" s="3">
         <v>55694500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43446200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39985800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34455500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29692900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27742100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>25305600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25027300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21444900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18812900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>16290200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>14732300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4410,8 +4586,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4472,8 +4651,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4534,70 +4716,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>146254700</v>
+        <v>150208000</v>
       </c>
       <c r="E76" s="3">
-        <v>146190900</v>
+        <v>144351600</v>
       </c>
       <c r="F76" s="3">
-        <v>133763400</v>
+        <v>144288700</v>
       </c>
       <c r="G76" s="3">
-        <v>126165800</v>
+        <v>132022900</v>
       </c>
       <c r="H76" s="3">
-        <v>117850100</v>
+        <v>124524100</v>
       </c>
       <c r="I76" s="3">
-        <v>116089500</v>
+        <v>116316600</v>
       </c>
       <c r="J76" s="3">
+        <v>114579000</v>
+      </c>
+      <c r="K76" s="3">
         <v>94042700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79603400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74882100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66935500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59001500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56400400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52488100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51937700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47813500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44318200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40545700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38347700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4658,137 +4846,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-854800</v>
+        <v>6950800</v>
       </c>
       <c r="E81" s="3">
-        <v>12391400</v>
+        <v>-843700</v>
       </c>
       <c r="F81" s="3">
-        <v>4488300</v>
+        <v>12230200</v>
       </c>
       <c r="G81" s="3">
-        <v>7424700</v>
+        <v>4429900</v>
       </c>
       <c r="H81" s="3">
-        <v>493300</v>
+        <v>7328100</v>
       </c>
       <c r="I81" s="3">
-        <v>8160700</v>
+        <v>486900</v>
       </c>
       <c r="J81" s="3">
+        <v>8054500</v>
+      </c>
+      <c r="K81" s="3">
         <v>11317000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3246900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3929300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4800100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2803800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1246100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1084900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3572700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2622100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2179100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1548400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2596700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4811,8 +5008,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4873,8 +5071,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4935,8 +5136,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4997,8 +5201,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5059,8 +5266,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5121,8 +5331,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5183,70 +5396,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3772800</v>
+        <v>5174200</v>
       </c>
       <c r="E89" s="3">
-        <v>16101500</v>
+        <v>3723700</v>
       </c>
       <c r="F89" s="3">
-        <v>8470700</v>
+        <v>15892000</v>
       </c>
       <c r="G89" s="3">
-        <v>7815900</v>
+        <v>8360500</v>
       </c>
       <c r="H89" s="3">
-        <v>337600</v>
+        <v>7714200</v>
       </c>
       <c r="I89" s="3">
-        <v>15055700</v>
+        <v>333200</v>
       </c>
       <c r="J89" s="3">
+        <v>14859800</v>
+      </c>
+      <c r="K89" s="3">
         <v>7383300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5288000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2822300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9425100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4395700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5182100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2063700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8226100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4470300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3839800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1562800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5441400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5269,70 +5488,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-508300</v>
+        <v>-1677900</v>
       </c>
       <c r="E91" s="3">
-        <v>-911700</v>
+        <v>-501700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2918900</v>
+        <v>-899900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2127700</v>
+        <v>-2881000</v>
       </c>
       <c r="H91" s="3">
-        <v>-280000</v>
+        <v>-2100000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1038900</v>
+        <v>-276400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1025400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-975000</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-532600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5393,8 +5616,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5455,70 +5681,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4321600</v>
+        <v>-7356400</v>
       </c>
       <c r="E94" s="3">
-        <v>-12435900</v>
+        <v>-4265400</v>
       </c>
       <c r="F94" s="3">
-        <v>-10773000</v>
+        <v>-12274100</v>
       </c>
       <c r="G94" s="3">
-        <v>-10566200</v>
+        <v>-10632800</v>
       </c>
       <c r="H94" s="3">
-        <v>-5147500</v>
+        <v>-10428800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5084100</v>
+        <v>-5080600</v>
       </c>
       <c r="J94" s="3">
+        <v>-5017900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-441400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5541,8 +5773,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5603,8 +5836,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5665,8 +5901,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5727,8 +5966,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5789,190 +6031,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4722400</v>
+        <v>-1765800</v>
       </c>
       <c r="E100" s="3">
-        <v>-886900</v>
+        <v>4661000</v>
       </c>
       <c r="F100" s="3">
-        <v>1576600</v>
+        <v>-875400</v>
       </c>
       <c r="G100" s="3">
-        <v>-719100</v>
+        <v>1556100</v>
       </c>
       <c r="H100" s="3">
-        <v>462900</v>
+        <v>-709700</v>
       </c>
       <c r="I100" s="3">
-        <v>9561400</v>
+        <v>456900</v>
       </c>
       <c r="J100" s="3">
+        <v>9437000</v>
+      </c>
+      <c r="K100" s="3">
         <v>328600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>686400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>109400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-486600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>614200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-660700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5086600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-61700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>361000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-103300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>179300</v>
+        <v>-337500</v>
       </c>
       <c r="E101" s="3">
-        <v>-644600</v>
+        <v>176900</v>
       </c>
       <c r="F101" s="3">
-        <v>-601100</v>
+        <v>-636200</v>
       </c>
       <c r="G101" s="3">
-        <v>-54800</v>
+        <v>-593300</v>
       </c>
       <c r="H101" s="3">
-        <v>362300</v>
+        <v>-54000</v>
       </c>
       <c r="I101" s="3">
-        <v>-304500</v>
+        <v>357500</v>
       </c>
       <c r="J101" s="3">
+        <v>-300600</v>
+      </c>
+      <c r="K101" s="3">
         <v>367100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>210400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-173700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>233700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>399300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-380700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-224000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-120400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-162100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-64900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>253800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4352800</v>
+        <v>-4285600</v>
       </c>
       <c r="E102" s="3">
-        <v>2134100</v>
+        <v>4296200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1326700</v>
+        <v>2106300</v>
       </c>
       <c r="G102" s="3">
-        <v>-3524100</v>
+        <v>-1309400</v>
       </c>
       <c r="H102" s="3">
-        <v>-3984800</v>
+        <v>-3478300</v>
       </c>
       <c r="I102" s="3">
-        <v>19228500</v>
+        <v>-3933000</v>
       </c>
       <c r="J102" s="3">
+        <v>18978300</v>
+      </c>
+      <c r="K102" s="3">
         <v>4747700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2955700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>209800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3610700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-277700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9481900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>494500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>291500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1417500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4407300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,285 +665,297 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31679800</v>
+        <v>31420000</v>
       </c>
       <c r="E8" s="3">
-        <v>28855100</v>
+        <v>32210700</v>
       </c>
       <c r="F8" s="3">
-        <v>34042500</v>
+        <v>29338600</v>
       </c>
       <c r="G8" s="3">
-        <v>23876000</v>
+        <v>34612900</v>
       </c>
       <c r="H8" s="3">
-        <v>23674600</v>
+        <v>24276000</v>
       </c>
       <c r="I8" s="3">
-        <v>17602100</v>
+        <v>24071300</v>
       </c>
       <c r="J8" s="3">
+        <v>17897000</v>
+      </c>
+      <c r="K8" s="3">
         <v>24861000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18567800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17558100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14222900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17032300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11917300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11610400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8886000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12322200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8180700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7447800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5610500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7743900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19108500</v>
+        <v>20313700</v>
       </c>
       <c r="E9" s="3">
-        <v>19317400</v>
+        <v>19428600</v>
       </c>
       <c r="F9" s="3">
-        <v>18672800</v>
+        <v>19641100</v>
       </c>
       <c r="G9" s="3">
-        <v>13852000</v>
+        <v>18985700</v>
       </c>
       <c r="H9" s="3">
-        <v>13014900</v>
+        <v>14084100</v>
       </c>
       <c r="I9" s="3">
-        <v>11163900</v>
+        <v>13232900</v>
       </c>
       <c r="J9" s="3">
+        <v>11350900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12985400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10225800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9164800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8459400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8831900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6548200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6272900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4663700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5205900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3265300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2591200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2252700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2781500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12571400</v>
+        <v>11106400</v>
       </c>
       <c r="E10" s="3">
-        <v>9537700</v>
+        <v>12782000</v>
       </c>
       <c r="F10" s="3">
-        <v>15369700</v>
+        <v>9697500</v>
       </c>
       <c r="G10" s="3">
-        <v>10023900</v>
+        <v>15627200</v>
       </c>
       <c r="H10" s="3">
-        <v>10659700</v>
+        <v>10191900</v>
       </c>
       <c r="I10" s="3">
-        <v>6438200</v>
+        <v>10838300</v>
       </c>
       <c r="J10" s="3">
+        <v>6546100</v>
+      </c>
+      <c r="K10" s="3">
         <v>11875600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8342000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8393300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5763500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8200400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5369100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5337500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4222300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7116300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4915300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4856600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3357800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4962400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -967,73 +979,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2081700</v>
+        <v>2394900</v>
       </c>
       <c r="E12" s="3">
-        <v>2048200</v>
+        <v>2116500</v>
       </c>
       <c r="F12" s="3">
-        <v>2095200</v>
+        <v>2082600</v>
       </c>
       <c r="G12" s="3">
-        <v>2963300</v>
+        <v>2130300</v>
       </c>
       <c r="H12" s="3">
+        <v>3013000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1657500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1705600</v>
+      </c>
+      <c r="L12" s="3">
         <v>1706400</v>
       </c>
-      <c r="I12" s="3">
-        <v>1630200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1705600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1706400</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1317200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1292700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1170800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1651500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>959300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>933400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>754400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>696900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>657100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>642800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1097,138 +1113,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>89900</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>73300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>309000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>473200</v>
+        <v>455000</v>
       </c>
       <c r="E15" s="3">
-        <v>525800</v>
+        <v>481100</v>
       </c>
       <c r="F15" s="3">
-        <v>488400</v>
+        <v>534700</v>
       </c>
       <c r="G15" s="3">
-        <v>444700</v>
+        <v>496600</v>
       </c>
       <c r="H15" s="3">
-        <v>454500</v>
+        <v>452100</v>
       </c>
       <c r="I15" s="3">
-        <v>622700</v>
+        <v>462200</v>
       </c>
       <c r="J15" s="3">
+        <v>633100</v>
+      </c>
+      <c r="K15" s="3">
         <v>503800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>469000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>468400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>487200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>408000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>365400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>301900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>190700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>305300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>259400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>294700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>190900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>183400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1249,138 +1274,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26930000</v>
+        <v>29070700</v>
       </c>
       <c r="E17" s="3">
-        <v>30035000</v>
+        <v>27381200</v>
       </c>
       <c r="F17" s="3">
-        <v>26497200</v>
+        <v>30538300</v>
       </c>
       <c r="G17" s="3">
-        <v>21776600</v>
+        <v>26941200</v>
       </c>
       <c r="H17" s="3">
-        <v>18330700</v>
+        <v>22141500</v>
       </c>
       <c r="I17" s="3">
-        <v>16504000</v>
+        <v>18637800</v>
       </c>
       <c r="J17" s="3">
+        <v>16780600</v>
+      </c>
+      <c r="K17" s="3">
         <v>18769500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15390900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13834100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12889600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13140400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10027700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10459700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7563000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8464100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5719400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4848700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4533300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4738700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4749800</v>
+        <v>2349300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1179900</v>
+        <v>4829400</v>
       </c>
       <c r="F18" s="3">
-        <v>7545300</v>
+        <v>-1199700</v>
       </c>
       <c r="G18" s="3">
-        <v>2099400</v>
+        <v>7671800</v>
       </c>
       <c r="H18" s="3">
-        <v>5343900</v>
+        <v>2134500</v>
       </c>
       <c r="I18" s="3">
-        <v>1098000</v>
+        <v>5433400</v>
       </c>
       <c r="J18" s="3">
+        <v>1116400</v>
+      </c>
+      <c r="K18" s="3">
         <v>6091400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3177000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3724000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1333300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3891900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1889600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1150700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1323000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3858100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2461200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2599100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1077200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3005200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1404,117 +1436,121 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2503400</v>
+        <v>-1533200</v>
       </c>
       <c r="E20" s="3">
-        <v>342800</v>
+        <v>2545400</v>
       </c>
       <c r="F20" s="3">
-        <v>6599900</v>
+        <v>348500</v>
       </c>
       <c r="G20" s="3">
-        <v>1795100</v>
+        <v>6710500</v>
       </c>
       <c r="H20" s="3">
-        <v>3638500</v>
+        <v>1825200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1006300</v>
+        <v>3699500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1023100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2790600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10377600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>349600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3059700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1735100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>714200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1027700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>405900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3457200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>767600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>498500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1326000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>560200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8788400</v>
+        <v>775900</v>
       </c>
       <c r="E21" s="3">
-        <v>624900</v>
+        <v>8935700</v>
       </c>
       <c r="F21" s="3">
-        <v>14314900</v>
+        <v>635300</v>
       </c>
       <c r="G21" s="3">
-        <v>3983500</v>
+        <v>14554800</v>
       </c>
       <c r="H21" s="3">
-        <v>10309600</v>
+        <v>4050200</v>
       </c>
       <c r="I21" s="3">
-        <v>1582800</v>
+        <v>10482300</v>
       </c>
       <c r="J21" s="3">
+        <v>1609300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8955000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13596400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5257300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4411900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5740800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2772500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>10</v>
@@ -1525,212 +1561,224 @@
       <c r="T21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="3">
         <v>2424500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3570300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>195100</v>
+        <v>198400</v>
       </c>
       <c r="E22" s="3">
-        <v>178600</v>
+        <v>198400</v>
       </c>
       <c r="F22" s="3">
-        <v>168100</v>
+        <v>181600</v>
       </c>
       <c r="G22" s="3">
-        <v>169500</v>
+        <v>171000</v>
       </c>
       <c r="H22" s="3">
-        <v>172900</v>
+        <v>172400</v>
       </c>
       <c r="I22" s="3">
-        <v>179400</v>
+        <v>175800</v>
       </c>
       <c r="J22" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K22" s="3">
         <v>201600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>212200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>205600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>198200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>193700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>187500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>174000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>168600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>125300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>110900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>118700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>98300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>101900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7058100</v>
+        <v>617800</v>
       </c>
       <c r="E23" s="3">
-        <v>-1015800</v>
+        <v>7176400</v>
       </c>
       <c r="F23" s="3">
-        <v>13977100</v>
+        <v>-1032800</v>
       </c>
       <c r="G23" s="3">
-        <v>3724900</v>
+        <v>14211300</v>
       </c>
       <c r="H23" s="3">
-        <v>8809500</v>
+        <v>3787300</v>
       </c>
       <c r="I23" s="3">
-        <v>-87600</v>
+        <v>8957100</v>
       </c>
       <c r="J23" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="K23" s="3">
         <v>8680500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13342400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3867900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4194900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5433200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2416300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2004400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1560300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7190000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3117900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2978900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2304900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3463400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1400600</v>
+        <v>953000</v>
       </c>
       <c r="E24" s="3">
-        <v>1085400</v>
+        <v>1424100</v>
       </c>
       <c r="F24" s="3">
-        <v>1415700</v>
+        <v>1103600</v>
       </c>
       <c r="G24" s="3">
-        <v>294300</v>
+        <v>1439400</v>
       </c>
       <c r="H24" s="3">
-        <v>1712900</v>
+        <v>299200</v>
       </c>
       <c r="I24" s="3">
-        <v>404700</v>
+        <v>1741600</v>
       </c>
       <c r="J24" s="3">
+        <v>411400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1294500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>439200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1025500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>764400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>811300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>812800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>597500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>988900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>403500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>690600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>662100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>743100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1794,138 +1842,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5657500</v>
+        <v>-335200</v>
       </c>
       <c r="E26" s="3">
-        <v>-2101200</v>
+        <v>5752300</v>
       </c>
       <c r="F26" s="3">
-        <v>12561400</v>
+        <v>-2136400</v>
       </c>
       <c r="G26" s="3">
-        <v>3430700</v>
+        <v>12771900</v>
       </c>
       <c r="H26" s="3">
-        <v>7096600</v>
+        <v>3488200</v>
       </c>
       <c r="I26" s="3">
-        <v>-492300</v>
+        <v>7215500</v>
       </c>
       <c r="J26" s="3">
+        <v>-500500</v>
+      </c>
+      <c r="K26" s="3">
         <v>7386000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12903300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2842500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3430500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4621900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2377500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1191600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>962900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6201200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2714400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2288300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1642800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2720300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6950800</v>
+        <v>840300</v>
       </c>
       <c r="E27" s="3">
-        <v>-843700</v>
+        <v>7067300</v>
       </c>
       <c r="F27" s="3">
-        <v>12230200</v>
+        <v>-857800</v>
       </c>
       <c r="G27" s="3">
-        <v>4429900</v>
+        <v>12435100</v>
       </c>
       <c r="H27" s="3">
-        <v>7328100</v>
+        <v>4504100</v>
       </c>
       <c r="I27" s="3">
-        <v>486900</v>
+        <v>7450800</v>
       </c>
       <c r="J27" s="3">
+        <v>495000</v>
+      </c>
+      <c r="K27" s="3">
         <v>8054500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11317000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3246900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3929300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4800100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2803800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1246100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1084900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3572700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2622100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2179100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1548400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2596700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1989,8 +2046,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2054,8 +2114,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2119,8 +2182,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2184,138 +2250,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2503400</v>
+        <v>1533200</v>
       </c>
       <c r="E32" s="3">
-        <v>-342800</v>
+        <v>-2545400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6599900</v>
+        <v>-348500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1795100</v>
+        <v>-6710500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3638500</v>
+        <v>-1825200</v>
       </c>
       <c r="I32" s="3">
-        <v>1006300</v>
+        <v>-3699500</v>
       </c>
       <c r="J32" s="3">
+        <v>1023100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-349600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-714200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-405900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-767600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-498500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-560200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6950800</v>
+        <v>840300</v>
       </c>
       <c r="E33" s="3">
-        <v>-843700</v>
+        <v>7067300</v>
       </c>
       <c r="F33" s="3">
-        <v>12230200</v>
+        <v>-857800</v>
       </c>
       <c r="G33" s="3">
-        <v>4429900</v>
+        <v>12435100</v>
       </c>
       <c r="H33" s="3">
-        <v>7328100</v>
+        <v>4504100</v>
       </c>
       <c r="I33" s="3">
-        <v>486900</v>
+        <v>7450800</v>
       </c>
       <c r="J33" s="3">
+        <v>495000</v>
+      </c>
+      <c r="K33" s="3">
         <v>8054500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11317000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3246900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3929300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4800100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2803800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1246100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1084900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3572700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2622100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2179100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1548400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2596700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2379,143 +2454,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6950800</v>
+        <v>840300</v>
       </c>
       <c r="E35" s="3">
-        <v>-843700</v>
+        <v>7067300</v>
       </c>
       <c r="F35" s="3">
-        <v>12230200</v>
+        <v>-857800</v>
       </c>
       <c r="G35" s="3">
-        <v>4429900</v>
+        <v>12435100</v>
       </c>
       <c r="H35" s="3">
-        <v>7328100</v>
+        <v>4504100</v>
       </c>
       <c r="I35" s="3">
-        <v>486900</v>
+        <v>7450800</v>
       </c>
       <c r="J35" s="3">
+        <v>495000</v>
+      </c>
+      <c r="K35" s="3">
         <v>8054500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11317000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3246900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3929300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4800100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2803800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1246100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1084900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3572700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2622100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2179100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1548400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2596700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2539,8 +2623,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2564,138 +2649,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44932700</v>
+        <v>42616600</v>
       </c>
       <c r="E41" s="3">
-        <v>49467900</v>
+        <v>45685600</v>
       </c>
       <c r="F41" s="3">
-        <v>48062900</v>
+        <v>50296800</v>
       </c>
       <c r="G41" s="3">
-        <v>46426400</v>
+        <v>48868200</v>
       </c>
       <c r="H41" s="3">
-        <v>47620900</v>
+        <v>47204200</v>
       </c>
       <c r="I41" s="3">
-        <v>50890900</v>
+        <v>48418800</v>
       </c>
       <c r="J41" s="3">
+        <v>51743500</v>
+      </c>
+      <c r="K41" s="3">
         <v>53981500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36534000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>32166100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>28899100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27478100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>23005900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24089600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28596900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>31492000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>22075400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21540800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>20903500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>19486000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29493800</v>
+        <v>29276600</v>
       </c>
       <c r="E42" s="3">
-        <v>24972900</v>
+        <v>29988000</v>
       </c>
       <c r="F42" s="3">
-        <v>23100700</v>
+        <v>25391400</v>
       </c>
       <c r="G42" s="3">
-        <v>16813700</v>
+        <v>23487800</v>
       </c>
       <c r="H42" s="3">
-        <v>11901300</v>
+        <v>17095400</v>
       </c>
       <c r="I42" s="3">
-        <v>5037000</v>
+        <v>12100700</v>
       </c>
       <c r="J42" s="3">
+        <v>5121400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1021700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1066000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1540200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2006300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1653700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2402000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2475900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1564100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1771400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2413700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1108600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1027500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1135400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2759,8 +2851,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2824,333 +2919,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25219600</v>
+        <v>27999500</v>
       </c>
       <c r="E45" s="3">
-        <v>24623700</v>
+        <v>25642200</v>
       </c>
       <c r="F45" s="3">
-        <v>20874300</v>
+        <v>25036300</v>
       </c>
       <c r="G45" s="3">
-        <v>17281500</v>
+        <v>21224100</v>
       </c>
       <c r="H45" s="3">
-        <v>16130000</v>
+        <v>17571000</v>
       </c>
       <c r="I45" s="3">
-        <v>15353000</v>
+        <v>16400300</v>
       </c>
       <c r="J45" s="3">
+        <v>15610300</v>
+      </c>
+      <c r="K45" s="3">
         <v>15742300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14770600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10696400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10208500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8872000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7886200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7438400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6692600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6553500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5882700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5013300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4517500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3887600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99646200</v>
+        <v>99892600</v>
       </c>
       <c r="E46" s="3">
-        <v>99064600</v>
+        <v>101315800</v>
       </c>
       <c r="F46" s="3">
-        <v>92037800</v>
+        <v>100724400</v>
       </c>
       <c r="G46" s="3">
-        <v>80521500</v>
+        <v>93580000</v>
       </c>
       <c r="H46" s="3">
-        <v>75652200</v>
+        <v>81870700</v>
       </c>
       <c r="I46" s="3">
-        <v>71280900</v>
+        <v>76919800</v>
       </c>
       <c r="J46" s="3">
+        <v>72475200</v>
+      </c>
+      <c r="K46" s="3">
         <v>70745500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>52370500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44402800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41113900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38003800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33294100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34003900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36853600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39816900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30371800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27662700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26448500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>24509000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69990500</v>
+        <v>72232700</v>
       </c>
       <c r="E47" s="3">
-        <v>67352400</v>
+        <v>71163300</v>
       </c>
       <c r="F47" s="3">
-        <v>65559800</v>
+        <v>68480900</v>
       </c>
       <c r="G47" s="3">
-        <v>61373800</v>
+        <v>66658200</v>
       </c>
       <c r="H47" s="3">
-        <v>57554000</v>
+        <v>62402200</v>
       </c>
       <c r="I47" s="3">
-        <v>54041000</v>
+        <v>58518400</v>
       </c>
       <c r="J47" s="3">
+        <v>54946500</v>
+      </c>
+      <c r="K47" s="3">
         <v>55746500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51631700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38852700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36743700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33087900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30691800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>28385900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25523900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>24392700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23730600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>22240600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22079200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22453800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23498300</v>
+        <v>24590300</v>
       </c>
       <c r="E48" s="3">
-        <v>22698500</v>
+        <v>23892000</v>
       </c>
       <c r="F48" s="3">
-        <v>22647700</v>
+        <v>23078800</v>
       </c>
       <c r="G48" s="3">
-        <v>18175300</v>
+        <v>23027200</v>
       </c>
       <c r="H48" s="3">
-        <v>17162800</v>
+        <v>18479900</v>
       </c>
       <c r="I48" s="3">
-        <v>21256500</v>
+        <v>17450300</v>
       </c>
       <c r="J48" s="3">
+        <v>21612600</v>
+      </c>
+      <c r="K48" s="3">
         <v>19466200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19627200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18193700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13999600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13188900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12180000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11286000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9539800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9642600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7359200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6518500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2938600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2893900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>55420600</v>
+        <v>56326500</v>
       </c>
       <c r="E49" s="3">
-        <v>55987700</v>
+        <v>56349200</v>
       </c>
       <c r="F49" s="3">
-        <v>56561900</v>
+        <v>56925800</v>
       </c>
       <c r="G49" s="3">
-        <v>51206000</v>
+        <v>57509700</v>
       </c>
       <c r="H49" s="3">
-        <v>51502600</v>
+        <v>52064000</v>
       </c>
       <c r="I49" s="3">
-        <v>52003500</v>
+        <v>52365600</v>
       </c>
       <c r="J49" s="3">
+        <v>52874900</v>
+      </c>
+      <c r="K49" s="3">
         <v>52626800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53469800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50862400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50688100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>45348800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35607600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>37195600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27205800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28168500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>21480600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>21635700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20291600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>19700100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3214,8 +3327,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3279,73 +3395,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15552700</v>
+        <v>17129400</v>
       </c>
       <c r="E52" s="3">
-        <v>15156600</v>
+        <v>15813300</v>
       </c>
       <c r="F52" s="3">
-        <v>14991000</v>
+        <v>15410500</v>
       </c>
       <c r="G52" s="3">
-        <v>9473000</v>
+        <v>15242200</v>
       </c>
       <c r="H52" s="3">
-        <v>8954200</v>
+        <v>9631700</v>
       </c>
       <c r="I52" s="3">
-        <v>3591600</v>
+        <v>9104300</v>
       </c>
       <c r="J52" s="3">
+        <v>3651800</v>
+      </c>
+      <c r="K52" s="3">
         <v>4590900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3806500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3348900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4262100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3683500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3660800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3433600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3769800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3562900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2961100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2635200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1947900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1829800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3409,73 +3531,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>264108300</v>
+        <v>270171500</v>
       </c>
       <c r="E54" s="3">
-        <v>260259800</v>
+        <v>268533600</v>
       </c>
       <c r="F54" s="3">
-        <v>251798300</v>
+        <v>264620500</v>
       </c>
       <c r="G54" s="3">
-        <v>220749700</v>
+        <v>256017200</v>
       </c>
       <c r="H54" s="3">
-        <v>210825900</v>
+        <v>224448500</v>
       </c>
       <c r="I54" s="3">
-        <v>202173400</v>
+        <v>214358400</v>
       </c>
       <c r="J54" s="3">
+        <v>205560900</v>
+      </c>
+      <c r="K54" s="3">
         <v>203175800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>180905600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155660500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>146807400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>133312900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>115434400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>114305100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>102893000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>105583600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85903300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80692600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73705700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>71386600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3499,8 +3627,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3524,31 +3653,32 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>41635100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>39201700</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>40851000</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>35211900</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>27920400</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>25787200</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3589,333 +3719,351 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2619700</v>
+        <v>2950500</v>
       </c>
       <c r="E58" s="3">
-        <v>2069000</v>
+        <v>2663600</v>
       </c>
       <c r="F58" s="3">
-        <v>2316900</v>
+        <v>2103700</v>
       </c>
       <c r="G58" s="3">
-        <v>755000</v>
+        <v>2355800</v>
       </c>
       <c r="H58" s="3">
-        <v>699500</v>
+        <v>767600</v>
       </c>
       <c r="I58" s="3">
-        <v>793600</v>
+        <v>711300</v>
       </c>
       <c r="J58" s="3">
+        <v>806900</v>
+      </c>
+      <c r="K58" s="3">
         <v>649000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3768400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3516800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3417500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3313000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1262700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1964700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>864900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>956800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2428100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2442100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2166500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1989300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54075600</v>
+        <v>16138200</v>
       </c>
       <c r="E59" s="3">
-        <v>56036600</v>
+        <v>15780000</v>
       </c>
       <c r="F59" s="3">
-        <v>52832500</v>
+        <v>16124400</v>
       </c>
       <c r="G59" s="3">
-        <v>39732800</v>
+        <v>18505900</v>
       </c>
       <c r="H59" s="3">
-        <v>37501800</v>
+        <v>12478100</v>
       </c>
       <c r="I59" s="3">
-        <v>36449800</v>
+        <v>12343000</v>
       </c>
       <c r="J59" s="3">
+        <v>37060600</v>
+      </c>
+      <c r="K59" s="3">
         <v>39764300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34290100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28673900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28173100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27007000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22264000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21594200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18621100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>19292000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15311900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13438700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11440500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11476900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56695300</v>
+        <v>60723800</v>
       </c>
       <c r="E60" s="3">
-        <v>58105600</v>
+        <v>57645200</v>
       </c>
       <c r="F60" s="3">
-        <v>55149500</v>
+        <v>59079200</v>
       </c>
       <c r="G60" s="3">
-        <v>40487800</v>
+        <v>56073500</v>
       </c>
       <c r="H60" s="3">
-        <v>38201400</v>
+        <v>41166200</v>
       </c>
       <c r="I60" s="3">
-        <v>37243500</v>
+        <v>38841400</v>
       </c>
       <c r="J60" s="3">
+        <v>37867500</v>
+      </c>
+      <c r="K60" s="3">
         <v>40413300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38058500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32190700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31590600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>30320000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>23526700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23558800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19486000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>20248800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17740000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15880800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13607000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13466200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20571600</v>
+        <v>20807900</v>
       </c>
       <c r="E61" s="3">
-        <v>20897500</v>
+        <v>20916300</v>
       </c>
       <c r="F61" s="3">
-        <v>15806400</v>
+        <v>21247700</v>
       </c>
       <c r="G61" s="3">
-        <v>17998000</v>
+        <v>16071200</v>
       </c>
       <c r="H61" s="3">
-        <v>18615300</v>
+        <v>18299500</v>
       </c>
       <c r="I61" s="3">
-        <v>18520100</v>
+        <v>18927200</v>
       </c>
       <c r="J61" s="3">
+        <v>18830400</v>
+      </c>
+      <c r="K61" s="3">
         <v>18196100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18958600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17779000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17012200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16446000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18082000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17848900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17149400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18237200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11186100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11407200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11174100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11219300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14596800</v>
+        <v>15121700</v>
       </c>
       <c r="E62" s="3">
-        <v>14398700</v>
+        <v>14841400</v>
       </c>
       <c r="F62" s="3">
-        <v>14181600</v>
+        <v>14639900</v>
       </c>
       <c r="G62" s="3">
-        <v>11175300</v>
+        <v>14419200</v>
       </c>
       <c r="H62" s="3">
-        <v>11041600</v>
+        <v>11362500</v>
       </c>
       <c r="I62" s="3">
-        <v>10961200</v>
+        <v>11226600</v>
       </c>
       <c r="J62" s="3">
+        <v>11144900</v>
+      </c>
+      <c r="K62" s="3">
         <v>11048800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10354200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7139000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4589600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4043600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3657000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4636800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3206800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3288800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2362400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2291500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1787600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1681900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3979,8 +4127,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4044,8 +4195,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4109,73 +4263,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112612700</v>
+        <v>117804500</v>
       </c>
       <c r="E66" s="3">
-        <v>114572700</v>
+        <v>114499500</v>
       </c>
       <c r="F66" s="3">
-        <v>106209600</v>
+        <v>116492400</v>
       </c>
       <c r="G66" s="3">
-        <v>87489900</v>
+        <v>107989100</v>
       </c>
       <c r="H66" s="3">
-        <v>85097700</v>
+        <v>88955800</v>
       </c>
       <c r="I66" s="3">
-        <v>84455100</v>
+        <v>86523500</v>
       </c>
       <c r="J66" s="3">
+        <v>85870200</v>
+      </c>
+      <c r="K66" s="3">
         <v>87396600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85691900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74973700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>70887900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>65336800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55593000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57452000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49974200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>53203800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37956500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36261200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>32724800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32523100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4199,8 +4359,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4264,8 +4425,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4329,73 +4493,79 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1287700</v>
+        <v>1627300</v>
       </c>
       <c r="E70" s="3">
-        <v>1335500</v>
+        <v>1309300</v>
       </c>
       <c r="F70" s="3">
-        <v>1300100</v>
+        <v>1357800</v>
       </c>
       <c r="G70" s="3">
-        <v>1236900</v>
+        <v>1321800</v>
       </c>
       <c r="H70" s="3">
-        <v>1204100</v>
+        <v>1257600</v>
       </c>
       <c r="I70" s="3">
-        <v>1401700</v>
+        <v>1224300</v>
       </c>
       <c r="J70" s="3">
+        <v>1425200</v>
+      </c>
+      <c r="K70" s="3">
         <v>1200300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1171000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1083400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1037300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1040600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>839900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>452700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>430600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>442100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>133300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>113200</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>435100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>515800</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4459,73 +4629,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>92536300</v>
+        <v>90464900</v>
       </c>
       <c r="E72" s="3">
-        <v>86578500</v>
+        <v>94086800</v>
       </c>
       <c r="F72" s="3">
-        <v>87511600</v>
+        <v>88029100</v>
       </c>
       <c r="G72" s="3">
-        <v>75264800</v>
+        <v>88977900</v>
       </c>
       <c r="H72" s="3">
-        <v>70818500</v>
+        <v>76525900</v>
       </c>
       <c r="I72" s="3">
-        <v>63499400</v>
+        <v>72005100</v>
       </c>
       <c r="J72" s="3">
+        <v>64563300</v>
+      </c>
+      <c r="K72" s="3">
         <v>63003500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>55694500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43446200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39985800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34455500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29692900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27742100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>25305600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25027300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21444900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18812900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>16290200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>14732300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4589,8 +4765,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4654,8 +4833,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4719,73 +4901,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>150208000</v>
+        <v>150739700</v>
       </c>
       <c r="E76" s="3">
-        <v>144351600</v>
+        <v>152724700</v>
       </c>
       <c r="F76" s="3">
-        <v>144288700</v>
+        <v>146770300</v>
       </c>
       <c r="G76" s="3">
-        <v>132022900</v>
+        <v>146706300</v>
       </c>
       <c r="H76" s="3">
-        <v>124524100</v>
+        <v>134235000</v>
       </c>
       <c r="I76" s="3">
-        <v>116316600</v>
+        <v>126610500</v>
       </c>
       <c r="J76" s="3">
+        <v>118265600</v>
+      </c>
+      <c r="K76" s="3">
         <v>114579000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94042700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79603400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74882100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66935500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>59001500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56400400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52488100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51937700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47813500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44318200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40545700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38347700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4849,143 +5037,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6950800</v>
+        <v>840300</v>
       </c>
       <c r="E81" s="3">
-        <v>-843700</v>
+        <v>7067300</v>
       </c>
       <c r="F81" s="3">
-        <v>12230200</v>
+        <v>-857800</v>
       </c>
       <c r="G81" s="3">
-        <v>4429900</v>
+        <v>12435100</v>
       </c>
       <c r="H81" s="3">
-        <v>7328100</v>
+        <v>4504100</v>
       </c>
       <c r="I81" s="3">
-        <v>486900</v>
+        <v>7450800</v>
       </c>
       <c r="J81" s="3">
+        <v>495000</v>
+      </c>
+      <c r="K81" s="3">
         <v>8054500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11317000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3246900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3929300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4800100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2803800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1246100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1084900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3572700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2622100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2179100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1548400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2596700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5009,8 +5206,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5074,8 +5272,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5139,8 +5340,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5204,8 +5408,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5269,8 +5476,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5334,8 +5544,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5399,73 +5612,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5174200</v>
+        <v>5609500</v>
       </c>
       <c r="E89" s="3">
-        <v>3723700</v>
+        <v>5260900</v>
       </c>
       <c r="F89" s="3">
-        <v>15892000</v>
+        <v>3786100</v>
       </c>
       <c r="G89" s="3">
-        <v>8360500</v>
+        <v>16158200</v>
       </c>
       <c r="H89" s="3">
-        <v>7714200</v>
+        <v>8500600</v>
       </c>
       <c r="I89" s="3">
-        <v>333200</v>
+        <v>7843500</v>
       </c>
       <c r="J89" s="3">
+        <v>338800</v>
+      </c>
+      <c r="K89" s="3">
         <v>14859800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7383300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5288000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2822300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9425100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4395700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5182100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2063700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8226100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4470300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3839800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1562800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5441400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5489,73 +5708,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1677900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-501700</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
-        <v>-899900</v>
+        <v>-510100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2881000</v>
+        <v>-914900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100000</v>
+        <v>-2929200</v>
       </c>
       <c r="I91" s="3">
-        <v>-276400</v>
+        <v>-2135200</v>
       </c>
       <c r="J91" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1025400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-975000</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-532600</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5619,8 +5842,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5684,73 +5910,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7356400</v>
+        <v>-4661300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4265400</v>
+        <v>-7479700</v>
       </c>
       <c r="F94" s="3">
-        <v>-12274100</v>
+        <v>-4336900</v>
       </c>
       <c r="G94" s="3">
-        <v>-10632800</v>
+        <v>-12479700</v>
       </c>
       <c r="H94" s="3">
-        <v>-10428800</v>
+        <v>-10810900</v>
       </c>
       <c r="I94" s="3">
-        <v>-5080600</v>
+        <v>-10603500</v>
       </c>
       <c r="J94" s="3">
+        <v>-5165700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-441400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5774,8 +6006,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5839,8 +6072,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5904,8 +6140,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5969,8 +6208,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6034,199 +6276,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1765800</v>
+        <v>-3705800</v>
       </c>
       <c r="E100" s="3">
-        <v>4661000</v>
+        <v>-1795400</v>
       </c>
       <c r="F100" s="3">
-        <v>-875400</v>
+        <v>4739100</v>
       </c>
       <c r="G100" s="3">
-        <v>1556100</v>
+        <v>-890000</v>
       </c>
       <c r="H100" s="3">
-        <v>-709700</v>
+        <v>1582200</v>
       </c>
       <c r="I100" s="3">
-        <v>456900</v>
+        <v>-721600</v>
       </c>
       <c r="J100" s="3">
+        <v>464500</v>
+      </c>
+      <c r="K100" s="3">
         <v>9437000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>328600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>686400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>109400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-486600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>614200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-660700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5086600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-61700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>361000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-103300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-337500</v>
+        <v>30500</v>
       </c>
       <c r="E101" s="3">
-        <v>176900</v>
+        <v>-343200</v>
       </c>
       <c r="F101" s="3">
-        <v>-636200</v>
+        <v>179900</v>
       </c>
       <c r="G101" s="3">
-        <v>-593300</v>
+        <v>-646900</v>
       </c>
       <c r="H101" s="3">
-        <v>-54000</v>
+        <v>-603200</v>
       </c>
       <c r="I101" s="3">
-        <v>357500</v>
+        <v>-55000</v>
       </c>
       <c r="J101" s="3">
+        <v>363500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>367100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>210400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-173700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>233700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>399300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-380700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-224000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-120400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-162100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-64900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>253800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4285600</v>
+        <v>-2727000</v>
       </c>
       <c r="E102" s="3">
-        <v>4296200</v>
+        <v>-4357400</v>
       </c>
       <c r="F102" s="3">
-        <v>2106300</v>
+        <v>4368200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1309400</v>
+        <v>2141600</v>
       </c>
       <c r="H102" s="3">
-        <v>-3478300</v>
+        <v>-1331400</v>
       </c>
       <c r="I102" s="3">
-        <v>-3933000</v>
+        <v>-3536500</v>
       </c>
       <c r="J102" s="3">
+        <v>-3998900</v>
+      </c>
+      <c r="K102" s="3">
         <v>18978300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4747700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2955700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>209800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3610700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-277700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9481900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>494500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>291500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1417500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4407300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,309 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31420000</v>
+        <v>38269400</v>
       </c>
       <c r="E8" s="3">
-        <v>32210700</v>
+        <v>31660900</v>
       </c>
       <c r="F8" s="3">
-        <v>29338600</v>
+        <v>32457500</v>
       </c>
       <c r="G8" s="3">
-        <v>34612900</v>
+        <v>29563400</v>
       </c>
       <c r="H8" s="3">
-        <v>24276000</v>
+        <v>34878200</v>
       </c>
       <c r="I8" s="3">
-        <v>24071300</v>
+        <v>24462100</v>
       </c>
       <c r="J8" s="3">
+        <v>24255800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17897000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24861000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18567800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17558100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14222900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17032300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11917300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11610400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8886000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12322200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8180700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7447800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5610500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7743900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20313700</v>
+        <v>23136800</v>
       </c>
       <c r="E9" s="3">
-        <v>19428600</v>
+        <v>20469400</v>
       </c>
       <c r="F9" s="3">
-        <v>19641100</v>
+        <v>19577500</v>
       </c>
       <c r="G9" s="3">
-        <v>18985700</v>
+        <v>19791600</v>
       </c>
       <c r="H9" s="3">
-        <v>14084100</v>
+        <v>19131200</v>
       </c>
       <c r="I9" s="3">
-        <v>13232900</v>
+        <v>14192100</v>
       </c>
       <c r="J9" s="3">
+        <v>13334300</v>
+      </c>
+      <c r="K9" s="3">
         <v>11350900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12985400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10225800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9164800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8459400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8831900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6548200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6272900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4663700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5205900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3265300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2591200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2252700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2781500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11106400</v>
+        <v>15132700</v>
       </c>
       <c r="E10" s="3">
-        <v>12782000</v>
+        <v>11191500</v>
       </c>
       <c r="F10" s="3">
-        <v>9697500</v>
+        <v>12880000</v>
       </c>
       <c r="G10" s="3">
-        <v>15627200</v>
+        <v>9771800</v>
       </c>
       <c r="H10" s="3">
-        <v>10191900</v>
+        <v>15747000</v>
       </c>
       <c r="I10" s="3">
-        <v>10838300</v>
+        <v>10270000</v>
       </c>
       <c r="J10" s="3">
+        <v>10921400</v>
+      </c>
+      <c r="K10" s="3">
         <v>6546100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11875600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8342000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8393300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5763500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8200400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5369100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5337500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4222300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7116300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4915300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4856600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3357800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4962400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,76 +992,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2394900</v>
+        <v>2477600</v>
       </c>
       <c r="E12" s="3">
-        <v>2116500</v>
+        <v>2413300</v>
       </c>
       <c r="F12" s="3">
-        <v>2082600</v>
+        <v>2132800</v>
       </c>
       <c r="G12" s="3">
-        <v>2130300</v>
+        <v>2098500</v>
       </c>
       <c r="H12" s="3">
-        <v>3013000</v>
+        <v>2146600</v>
       </c>
       <c r="I12" s="3">
-        <v>1735000</v>
+        <v>3036100</v>
       </c>
       <c r="J12" s="3">
+        <v>1748300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1657500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1705600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1706400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1317200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1292700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1170800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1651500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>959300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>933400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>754400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>696900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>657100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>642800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,144 +1132,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>3966200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>89900</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>73300</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>309000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>455000</v>
+        <v>447600</v>
       </c>
       <c r="E15" s="3">
-        <v>481100</v>
+        <v>458500</v>
       </c>
       <c r="F15" s="3">
-        <v>534700</v>
+        <v>484800</v>
       </c>
       <c r="G15" s="3">
-        <v>496600</v>
+        <v>538800</v>
       </c>
       <c r="H15" s="3">
-        <v>452100</v>
+        <v>500400</v>
       </c>
       <c r="I15" s="3">
-        <v>462200</v>
+        <v>455600</v>
       </c>
       <c r="J15" s="3">
+        <v>465700</v>
+      </c>
+      <c r="K15" s="3">
         <v>633100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>503800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>469000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>468400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>487200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>408000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>365400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>301900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>190700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>305300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>259400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>294700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>190900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>183400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1275,144 +1300,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29070700</v>
+        <v>37154400</v>
       </c>
       <c r="E17" s="3">
-        <v>27381200</v>
+        <v>29293500</v>
       </c>
       <c r="F17" s="3">
-        <v>30538300</v>
+        <v>27591100</v>
       </c>
       <c r="G17" s="3">
-        <v>26941200</v>
+        <v>30772400</v>
       </c>
       <c r="H17" s="3">
-        <v>22141500</v>
+        <v>27147700</v>
       </c>
       <c r="I17" s="3">
-        <v>18637800</v>
+        <v>22311200</v>
       </c>
       <c r="J17" s="3">
+        <v>18780700</v>
+      </c>
+      <c r="K17" s="3">
         <v>16780600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18769500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15390900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13834100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12889600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13140400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10027700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10459700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7563000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8464100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5719400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4848700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4533300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4738700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2349300</v>
+        <v>1115000</v>
       </c>
       <c r="E18" s="3">
-        <v>4829400</v>
+        <v>2367300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1199700</v>
+        <v>4866400</v>
       </c>
       <c r="G18" s="3">
-        <v>7671800</v>
+        <v>-1208900</v>
       </c>
       <c r="H18" s="3">
-        <v>2134500</v>
+        <v>7730600</v>
       </c>
       <c r="I18" s="3">
-        <v>5433400</v>
+        <v>2150900</v>
       </c>
       <c r="J18" s="3">
+        <v>5475100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1116400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6091400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3177000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3724000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1333300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3891900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1889600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1150700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1323000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3858100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2461200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2599100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1077200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3005200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1437,123 +1469,127 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1533200</v>
+        <v>3698500</v>
       </c>
       <c r="E20" s="3">
-        <v>2545400</v>
+        <v>-1544900</v>
       </c>
       <c r="F20" s="3">
-        <v>348500</v>
+        <v>2564900</v>
       </c>
       <c r="G20" s="3">
-        <v>6710500</v>
+        <v>351200</v>
       </c>
       <c r="H20" s="3">
-        <v>1825200</v>
+        <v>6761900</v>
       </c>
       <c r="I20" s="3">
-        <v>3699500</v>
+        <v>1839200</v>
       </c>
       <c r="J20" s="3">
+        <v>3727900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1023100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2790600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10377600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>349600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3059700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1735100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>714200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1027700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>405900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3457200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>767600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>498500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1326000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>560200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>775900</v>
+        <v>4760900</v>
       </c>
       <c r="E21" s="3">
-        <v>8935700</v>
+        <v>781900</v>
       </c>
       <c r="F21" s="3">
-        <v>635300</v>
+        <v>9004200</v>
       </c>
       <c r="G21" s="3">
-        <v>14554800</v>
+        <v>640200</v>
       </c>
       <c r="H21" s="3">
-        <v>4050200</v>
+        <v>14666300</v>
       </c>
       <c r="I21" s="3">
-        <v>10482300</v>
+        <v>4081300</v>
       </c>
       <c r="J21" s="3">
+        <v>10562700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1609300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8955000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13596400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5257300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4411900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5740800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2772500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>10</v>
@@ -1564,221 +1600,233 @@
       <c r="U21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="3">
         <v>2424500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3570300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>198400</v>
+        <v>187100</v>
       </c>
       <c r="E22" s="3">
-        <v>198400</v>
+        <v>199900</v>
       </c>
       <c r="F22" s="3">
-        <v>181600</v>
+        <v>199900</v>
       </c>
       <c r="G22" s="3">
-        <v>171000</v>
+        <v>183000</v>
       </c>
       <c r="H22" s="3">
-        <v>172400</v>
+        <v>172300</v>
       </c>
       <c r="I22" s="3">
-        <v>175800</v>
+        <v>173700</v>
       </c>
       <c r="J22" s="3">
+        <v>177200</v>
+      </c>
+      <c r="K22" s="3">
         <v>182400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>212200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>205600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>198200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>193700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>187500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>174000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>168600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>125300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>110900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>118700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>98300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>101900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>617800</v>
+        <v>4626500</v>
       </c>
       <c r="E23" s="3">
-        <v>7176400</v>
+        <v>622500</v>
       </c>
       <c r="F23" s="3">
-        <v>-1032800</v>
+        <v>7231400</v>
       </c>
       <c r="G23" s="3">
-        <v>14211300</v>
+        <v>-1040700</v>
       </c>
       <c r="H23" s="3">
-        <v>3787300</v>
+        <v>14320200</v>
       </c>
       <c r="I23" s="3">
-        <v>8957100</v>
+        <v>3816400</v>
       </c>
       <c r="J23" s="3">
+        <v>9025800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-89100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8680500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13342400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3867900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4194900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5433200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2416300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2004400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1560300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7190000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3117900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2978900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2304900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3463400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>953000</v>
+        <v>1507100</v>
       </c>
       <c r="E24" s="3">
-        <v>1424100</v>
+        <v>960300</v>
       </c>
       <c r="F24" s="3">
-        <v>1103600</v>
+        <v>1435000</v>
       </c>
       <c r="G24" s="3">
-        <v>1439400</v>
+        <v>1112100</v>
       </c>
       <c r="H24" s="3">
-        <v>299200</v>
+        <v>1450400</v>
       </c>
       <c r="I24" s="3">
-        <v>1741600</v>
+        <v>301500</v>
       </c>
       <c r="J24" s="3">
+        <v>1754900</v>
+      </c>
+      <c r="K24" s="3">
         <v>411400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1294500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>439200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1025500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>764400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>811300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>812800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>597500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>988900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>403500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>690600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>662100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>743100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1845,144 +1893,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-335200</v>
+        <v>3119400</v>
       </c>
       <c r="E26" s="3">
-        <v>5752300</v>
+        <v>-337800</v>
       </c>
       <c r="F26" s="3">
-        <v>-2136400</v>
+        <v>5796400</v>
       </c>
       <c r="G26" s="3">
-        <v>12771900</v>
+        <v>-2152800</v>
       </c>
       <c r="H26" s="3">
-        <v>3488200</v>
+        <v>12869700</v>
       </c>
       <c r="I26" s="3">
-        <v>7215500</v>
+        <v>3514900</v>
       </c>
       <c r="J26" s="3">
+        <v>7270800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7386000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12903300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2842500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3430500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4621900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2377500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1191600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>962900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6201200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2714400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2288300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1642800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2720300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>840300</v>
+        <v>3222900</v>
       </c>
       <c r="E27" s="3">
-        <v>7067300</v>
+        <v>846700</v>
       </c>
       <c r="F27" s="3">
-        <v>-857800</v>
+        <v>7121400</v>
       </c>
       <c r="G27" s="3">
-        <v>12435100</v>
+        <v>-864400</v>
       </c>
       <c r="H27" s="3">
-        <v>4504100</v>
+        <v>12530400</v>
       </c>
       <c r="I27" s="3">
-        <v>7450800</v>
+        <v>4538600</v>
       </c>
       <c r="J27" s="3">
+        <v>7508000</v>
+      </c>
+      <c r="K27" s="3">
         <v>495000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8054500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11317000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3246900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3929300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4800100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2803800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1246100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1084900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3572700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2622100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2179100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1548400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2596700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2049,8 +2106,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2117,8 +2177,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2185,8 +2248,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2253,144 +2319,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1533200</v>
+        <v>-3698500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2545400</v>
+        <v>1544900</v>
       </c>
       <c r="F32" s="3">
-        <v>-348500</v>
+        <v>-2564900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6710500</v>
+        <v>-351200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1825200</v>
+        <v>-6761900</v>
       </c>
       <c r="I32" s="3">
-        <v>-3699500</v>
+        <v>-1839200</v>
       </c>
       <c r="J32" s="3">
+        <v>-3727900</v>
+      </c>
+      <c r="K32" s="3">
         <v>1023100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-349600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-714200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-405900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-767600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-498500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-560200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>840300</v>
+        <v>3222900</v>
       </c>
       <c r="E33" s="3">
-        <v>7067300</v>
+        <v>846700</v>
       </c>
       <c r="F33" s="3">
-        <v>-857800</v>
+        <v>7121400</v>
       </c>
       <c r="G33" s="3">
-        <v>12435100</v>
+        <v>-864400</v>
       </c>
       <c r="H33" s="3">
-        <v>4504100</v>
+        <v>12530400</v>
       </c>
       <c r="I33" s="3">
-        <v>7450800</v>
+        <v>4538600</v>
       </c>
       <c r="J33" s="3">
+        <v>7508000</v>
+      </c>
+      <c r="K33" s="3">
         <v>495000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8054500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11317000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3246900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3929300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4800100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2803800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1246100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1084900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3572700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2622100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2179100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1548400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2596700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2457,149 +2532,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>840300</v>
+        <v>3222900</v>
       </c>
       <c r="E35" s="3">
-        <v>7067300</v>
+        <v>846700</v>
       </c>
       <c r="F35" s="3">
-        <v>-857800</v>
+        <v>7121400</v>
       </c>
       <c r="G35" s="3">
-        <v>12435100</v>
+        <v>-864400</v>
       </c>
       <c r="H35" s="3">
-        <v>4504100</v>
+        <v>12530400</v>
       </c>
       <c r="I35" s="3">
-        <v>7450800</v>
+        <v>4538600</v>
       </c>
       <c r="J35" s="3">
+        <v>7508000</v>
+      </c>
+      <c r="K35" s="3">
         <v>495000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8054500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11317000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3246900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3929300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4800100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2803800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1246100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1084900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3572700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2622100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2179100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1548400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2596700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2624,8 +2708,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2650,144 +2735,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42616600</v>
+        <v>46241500</v>
       </c>
       <c r="E41" s="3">
-        <v>45685600</v>
+        <v>42943200</v>
       </c>
       <c r="F41" s="3">
-        <v>50296800</v>
+        <v>46035800</v>
       </c>
       <c r="G41" s="3">
-        <v>48868200</v>
+        <v>50682300</v>
       </c>
       <c r="H41" s="3">
-        <v>47204200</v>
+        <v>49242700</v>
       </c>
       <c r="I41" s="3">
-        <v>48418800</v>
+        <v>47566100</v>
       </c>
       <c r="J41" s="3">
+        <v>48790000</v>
+      </c>
+      <c r="K41" s="3">
         <v>51743500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>53981500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36534000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>32166100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28899100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27478100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>23005900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24089600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28596900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>31492000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>22075400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>21540800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>20903500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>19486000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29276600</v>
+        <v>31839100</v>
       </c>
       <c r="E42" s="3">
-        <v>29988000</v>
+        <v>29501000</v>
       </c>
       <c r="F42" s="3">
-        <v>25391400</v>
+        <v>30217800</v>
       </c>
       <c r="G42" s="3">
-        <v>23487800</v>
+        <v>25586000</v>
       </c>
       <c r="H42" s="3">
-        <v>17095400</v>
+        <v>23667800</v>
       </c>
       <c r="I42" s="3">
-        <v>12100700</v>
+        <v>17226400</v>
       </c>
       <c r="J42" s="3">
+        <v>12193400</v>
+      </c>
+      <c r="K42" s="3">
         <v>5121400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1021700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1066000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1540200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2006300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1653700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2402000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2475900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1564100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1771400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2413700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1108600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1027500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1135400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2854,8 +2946,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2922,348 +3017,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27999500</v>
+        <v>28429100</v>
       </c>
       <c r="E45" s="3">
-        <v>25642200</v>
+        <v>28214100</v>
       </c>
       <c r="F45" s="3">
-        <v>25036300</v>
+        <v>25838700</v>
       </c>
       <c r="G45" s="3">
-        <v>21224100</v>
+        <v>25228200</v>
       </c>
       <c r="H45" s="3">
-        <v>17571000</v>
+        <v>21386700</v>
       </c>
       <c r="I45" s="3">
-        <v>16400300</v>
+        <v>17705700</v>
       </c>
       <c r="J45" s="3">
+        <v>16526000</v>
+      </c>
+      <c r="K45" s="3">
         <v>15610300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15742300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14770600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10696400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10208500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8872000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7886200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7438400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6692600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6553500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5882700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5013300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4517500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3887600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99892600</v>
+        <v>106509800</v>
       </c>
       <c r="E46" s="3">
-        <v>101315800</v>
+        <v>100658300</v>
       </c>
       <c r="F46" s="3">
-        <v>100724400</v>
+        <v>102092300</v>
       </c>
       <c r="G46" s="3">
-        <v>93580000</v>
+        <v>101496500</v>
       </c>
       <c r="H46" s="3">
-        <v>81870700</v>
+        <v>94297300</v>
       </c>
       <c r="I46" s="3">
-        <v>76919800</v>
+        <v>82498200</v>
       </c>
       <c r="J46" s="3">
+        <v>77509400</v>
+      </c>
+      <c r="K46" s="3">
         <v>72475200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>70745500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>52370500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44402800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41113900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38003800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33294100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34003900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36853600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39816900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30371800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27662700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26448500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>24509000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72232700</v>
+        <v>75147600</v>
       </c>
       <c r="E47" s="3">
-        <v>71163300</v>
+        <v>72786400</v>
       </c>
       <c r="F47" s="3">
-        <v>68480900</v>
+        <v>71708700</v>
       </c>
       <c r="G47" s="3">
-        <v>66658200</v>
+        <v>69005800</v>
       </c>
       <c r="H47" s="3">
-        <v>62402200</v>
+        <v>67169200</v>
       </c>
       <c r="I47" s="3">
-        <v>58518400</v>
+        <v>62880500</v>
       </c>
       <c r="J47" s="3">
+        <v>58966900</v>
+      </c>
+      <c r="K47" s="3">
         <v>54946500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55746500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51631700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>38852700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>36743700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33087900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30691800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>28385900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25523900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>24392700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23730600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>22240600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22079200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22453800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24590300</v>
+        <v>26039200</v>
       </c>
       <c r="E48" s="3">
-        <v>23892000</v>
+        <v>24778700</v>
       </c>
       <c r="F48" s="3">
-        <v>23078800</v>
+        <v>24075100</v>
       </c>
       <c r="G48" s="3">
-        <v>23027200</v>
+        <v>23255700</v>
       </c>
       <c r="H48" s="3">
-        <v>18479900</v>
+        <v>23203700</v>
       </c>
       <c r="I48" s="3">
-        <v>17450300</v>
+        <v>18621500</v>
       </c>
       <c r="J48" s="3">
+        <v>17584100</v>
+      </c>
+      <c r="K48" s="3">
         <v>21612600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19466200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19627200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18193700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13999600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13188900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12180000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11286000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9539800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9642600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7359200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6518500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2938600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2893900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>56326500</v>
+        <v>52245700</v>
       </c>
       <c r="E49" s="3">
-        <v>56349200</v>
+        <v>56758300</v>
       </c>
       <c r="F49" s="3">
-        <v>56925800</v>
+        <v>56781100</v>
       </c>
       <c r="G49" s="3">
-        <v>57509700</v>
+        <v>57362200</v>
       </c>
       <c r="H49" s="3">
-        <v>52064000</v>
+        <v>57950500</v>
       </c>
       <c r="I49" s="3">
-        <v>52365600</v>
+        <v>52463100</v>
       </c>
       <c r="J49" s="3">
+        <v>52766900</v>
+      </c>
+      <c r="K49" s="3">
         <v>52874900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52626800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>53469800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50862400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>50688100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>45348800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>35607600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>37195600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27205800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28168500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>21480600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>21635700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20291600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>19700100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3330,8 +3443,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3398,76 +3514,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17129400</v>
+        <v>17804800</v>
       </c>
       <c r="E52" s="3">
-        <v>15813300</v>
+        <v>17260700</v>
       </c>
       <c r="F52" s="3">
-        <v>15410500</v>
+        <v>15934500</v>
       </c>
       <c r="G52" s="3">
-        <v>15242200</v>
+        <v>15528600</v>
       </c>
       <c r="H52" s="3">
-        <v>9631700</v>
+        <v>15359000</v>
       </c>
       <c r="I52" s="3">
-        <v>9104300</v>
+        <v>9705600</v>
       </c>
       <c r="J52" s="3">
+        <v>9174100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3651800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4590900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3806500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3348900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4262100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3683500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3660800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3433600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3769800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3562900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2961100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2635200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1947900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1829800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3534,76 +3656,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>270171500</v>
+        <v>277747000</v>
       </c>
       <c r="E54" s="3">
-        <v>268533600</v>
+        <v>272242300</v>
       </c>
       <c r="F54" s="3">
-        <v>264620500</v>
+        <v>270591800</v>
       </c>
       <c r="G54" s="3">
-        <v>256017200</v>
+        <v>266648800</v>
       </c>
       <c r="H54" s="3">
-        <v>224448500</v>
+        <v>257979600</v>
       </c>
       <c r="I54" s="3">
-        <v>214358400</v>
+        <v>226168800</v>
       </c>
       <c r="J54" s="3">
+        <v>216001400</v>
+      </c>
+      <c r="K54" s="3">
         <v>205560900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>203175800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>180905600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155660500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>146807400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>133312900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115434400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>114305100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>102893000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>105583600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>85903300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80692600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73705700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>71386600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3628,8 +3756,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3654,35 +3783,36 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>41635100</v>
+        <v>44467300</v>
       </c>
       <c r="E57" s="3">
-        <v>39201700</v>
+        <v>41954200</v>
       </c>
       <c r="F57" s="3">
-        <v>40851000</v>
+        <v>39502200</v>
       </c>
       <c r="G57" s="3">
-        <v>35211900</v>
+        <v>41164200</v>
       </c>
       <c r="H57" s="3">
-        <v>27920400</v>
+        <v>35481800</v>
       </c>
       <c r="I57" s="3">
-        <v>25787200</v>
-      </c>
-      <c r="J57" s="3" t="s">
+        <v>28134400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>25984800</v>
+      </c>
+      <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -3722,348 +3852,366 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2950500</v>
+        <v>1247300</v>
       </c>
       <c r="E58" s="3">
-        <v>2663600</v>
+        <v>2973100</v>
       </c>
       <c r="F58" s="3">
-        <v>2103700</v>
+        <v>2684000</v>
       </c>
       <c r="G58" s="3">
-        <v>2355800</v>
+        <v>2119800</v>
       </c>
       <c r="H58" s="3">
-        <v>767600</v>
+        <v>2373800</v>
       </c>
       <c r="I58" s="3">
-        <v>711300</v>
+        <v>773500</v>
       </c>
       <c r="J58" s="3">
+        <v>716700</v>
+      </c>
+      <c r="K58" s="3">
         <v>806900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>649000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3768400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3516800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3417500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3313000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1262700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1964700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>864900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>956800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2428100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2442100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2166500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1989300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16138200</v>
+        <v>19047000</v>
       </c>
       <c r="E59" s="3">
-        <v>15780000</v>
+        <v>16261900</v>
       </c>
       <c r="F59" s="3">
-        <v>16124400</v>
+        <v>15900900</v>
       </c>
       <c r="G59" s="3">
-        <v>18505900</v>
+        <v>16248000</v>
       </c>
       <c r="H59" s="3">
-        <v>12478100</v>
+        <v>18647700</v>
       </c>
       <c r="I59" s="3">
-        <v>12343000</v>
+        <v>12573800</v>
       </c>
       <c r="J59" s="3">
+        <v>12437600</v>
+      </c>
+      <c r="K59" s="3">
         <v>37060600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>39764300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34290100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28673900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28173100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27007000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>22264000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>21594200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>18621100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>19292000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15311900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13438700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11440500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11476900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>60723800</v>
+        <v>64761600</v>
       </c>
       <c r="E60" s="3">
-        <v>57645200</v>
+        <v>61189300</v>
       </c>
       <c r="F60" s="3">
-        <v>59079200</v>
+        <v>58087100</v>
       </c>
       <c r="G60" s="3">
-        <v>56073500</v>
+        <v>59532000</v>
       </c>
       <c r="H60" s="3">
-        <v>41166200</v>
+        <v>56503300</v>
       </c>
       <c r="I60" s="3">
-        <v>38841400</v>
+        <v>41481700</v>
       </c>
       <c r="J60" s="3">
+        <v>39139200</v>
+      </c>
+      <c r="K60" s="3">
         <v>37867500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40413300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>38058500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32190700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31590600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>30320000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>23526700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>23558800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19486000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>20248800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17740000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15880800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13607000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13466200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20807900</v>
+        <v>20781900</v>
       </c>
       <c r="E61" s="3">
-        <v>20916300</v>
+        <v>20967400</v>
       </c>
       <c r="F61" s="3">
-        <v>21247700</v>
+        <v>21076600</v>
       </c>
       <c r="G61" s="3">
-        <v>16071200</v>
+        <v>21410600</v>
       </c>
       <c r="H61" s="3">
-        <v>18299500</v>
+        <v>16194400</v>
       </c>
       <c r="I61" s="3">
-        <v>18927200</v>
+        <v>18439800</v>
       </c>
       <c r="J61" s="3">
+        <v>19072200</v>
+      </c>
+      <c r="K61" s="3">
         <v>18830400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18196100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18958600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17779000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17012200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16446000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18082000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17848900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17149400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18237200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11186100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11407200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11174100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11219300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15121700</v>
+        <v>15488100</v>
       </c>
       <c r="E62" s="3">
-        <v>14841400</v>
+        <v>15237600</v>
       </c>
       <c r="F62" s="3">
-        <v>14639900</v>
+        <v>14955200</v>
       </c>
       <c r="G62" s="3">
-        <v>14419200</v>
+        <v>14752100</v>
       </c>
       <c r="H62" s="3">
-        <v>11362500</v>
+        <v>14529700</v>
       </c>
       <c r="I62" s="3">
-        <v>11226600</v>
+        <v>11449600</v>
       </c>
       <c r="J62" s="3">
+        <v>11312700</v>
+      </c>
+      <c r="K62" s="3">
         <v>11144900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11048800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10354200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7139000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4589600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4043600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3657000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4636800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3206800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3288800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2362400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2291500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1787600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1681900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4130,8 +4278,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4198,8 +4349,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4266,76 +4420,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>117804500</v>
+        <v>122368100</v>
       </c>
       <c r="E66" s="3">
-        <v>114499500</v>
+        <v>118707500</v>
       </c>
       <c r="F66" s="3">
-        <v>116492400</v>
+        <v>115377100</v>
       </c>
       <c r="G66" s="3">
-        <v>107989100</v>
+        <v>117385300</v>
       </c>
       <c r="H66" s="3">
-        <v>88955800</v>
+        <v>108816900</v>
       </c>
       <c r="I66" s="3">
-        <v>86523500</v>
+        <v>89637700</v>
       </c>
       <c r="J66" s="3">
+        <v>87186700</v>
+      </c>
+      <c r="K66" s="3">
         <v>85870200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87396600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>85691900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74973700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>70887900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>65336800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55593000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57452000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49974200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>53203800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37956500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36261200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>32724800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>32523100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4360,8 +4520,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4428,8 +4589,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4496,76 +4660,82 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1627300</v>
+        <v>1673500</v>
       </c>
       <c r="E70" s="3">
-        <v>1309300</v>
+        <v>1639800</v>
       </c>
       <c r="F70" s="3">
-        <v>1357800</v>
+        <v>1319300</v>
       </c>
       <c r="G70" s="3">
-        <v>1321800</v>
+        <v>1368300</v>
       </c>
       <c r="H70" s="3">
-        <v>1257600</v>
+        <v>1332000</v>
       </c>
       <c r="I70" s="3">
-        <v>1224300</v>
+        <v>1267300</v>
       </c>
       <c r="J70" s="3">
+        <v>1233700</v>
+      </c>
+      <c r="K70" s="3">
         <v>1425200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1200300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1171000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1083400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1037300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1040600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>839900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>452700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>430600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>442100</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>133300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>113200</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>435100</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>515800</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4632,76 +4802,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>90464900</v>
+        <v>93260500</v>
       </c>
       <c r="E72" s="3">
-        <v>94086800</v>
+        <v>91158300</v>
       </c>
       <c r="F72" s="3">
-        <v>88029100</v>
+        <v>94807900</v>
       </c>
       <c r="G72" s="3">
-        <v>88977900</v>
+        <v>88703900</v>
       </c>
       <c r="H72" s="3">
-        <v>76525900</v>
+        <v>89659900</v>
       </c>
       <c r="I72" s="3">
-        <v>72005100</v>
+        <v>77112500</v>
       </c>
       <c r="J72" s="3">
+        <v>72557000</v>
+      </c>
+      <c r="K72" s="3">
         <v>64563300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>63003500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>55694500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43446200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39985800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34455500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29692900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27742100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>25305600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>25027300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21444900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18812900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>16290200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>14732300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4768,8 +4944,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4836,8 +5015,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4904,76 +5086,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>150739700</v>
+        <v>153705400</v>
       </c>
       <c r="E76" s="3">
-        <v>152724700</v>
+        <v>151895100</v>
       </c>
       <c r="F76" s="3">
-        <v>146770300</v>
+        <v>153895400</v>
       </c>
       <c r="G76" s="3">
-        <v>146706300</v>
+        <v>147895300</v>
       </c>
       <c r="H76" s="3">
-        <v>134235000</v>
+        <v>147830700</v>
       </c>
       <c r="I76" s="3">
-        <v>126610500</v>
+        <v>135263900</v>
       </c>
       <c r="J76" s="3">
+        <v>127581000</v>
+      </c>
+      <c r="K76" s="3">
         <v>118265600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>114579000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94042700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79603400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74882100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66935500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>59001500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56400400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52488100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51937700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>47813500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44318200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40545700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38347700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5040,149 +5228,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>840300</v>
+        <v>3222900</v>
       </c>
       <c r="E81" s="3">
-        <v>7067300</v>
+        <v>846700</v>
       </c>
       <c r="F81" s="3">
-        <v>-857800</v>
+        <v>7121400</v>
       </c>
       <c r="G81" s="3">
-        <v>12435100</v>
+        <v>-864400</v>
       </c>
       <c r="H81" s="3">
-        <v>4504100</v>
+        <v>12530400</v>
       </c>
       <c r="I81" s="3">
-        <v>7450800</v>
+        <v>4538600</v>
       </c>
       <c r="J81" s="3">
+        <v>7508000</v>
+      </c>
+      <c r="K81" s="3">
         <v>495000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8054500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11317000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3246900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3929300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4800100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2803800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1246100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1084900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3572700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2622100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2179100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1548400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2596700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5207,8 +5404,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5275,8 +5473,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5343,8 +5544,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5411,8 +5615,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5479,8 +5686,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5547,8 +5757,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5615,76 +5828,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5609500</v>
+        <v>12678500</v>
       </c>
       <c r="E89" s="3">
-        <v>5260900</v>
+        <v>5652500</v>
       </c>
       <c r="F89" s="3">
-        <v>3786100</v>
+        <v>5301200</v>
       </c>
       <c r="G89" s="3">
-        <v>16158200</v>
+        <v>3815100</v>
       </c>
       <c r="H89" s="3">
-        <v>8500600</v>
+        <v>16282100</v>
       </c>
       <c r="I89" s="3">
-        <v>7843500</v>
+        <v>8565700</v>
       </c>
       <c r="J89" s="3">
+        <v>7903600</v>
+      </c>
+      <c r="K89" s="3">
         <v>338800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14859800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7383300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5288000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2822300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9425100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4395700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5182100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2063700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8226100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4470300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3839800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1562800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5441400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5709,8 +5928,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5720,65 +5940,68 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>-510100</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>-914900</v>
+        <v>-514000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2929200</v>
+        <v>-921900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2135200</v>
+        <v>-2951700</v>
       </c>
       <c r="J91" s="3">
+        <v>-2151500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-281000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1025400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-975000</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-532600</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5845,8 +6068,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5913,76 +6139,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4661300</v>
+        <v>-5330700</v>
       </c>
       <c r="E94" s="3">
-        <v>-7479700</v>
+        <v>-4697000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4336900</v>
+        <v>-7537000</v>
       </c>
       <c r="G94" s="3">
-        <v>-12479700</v>
+        <v>-4370100</v>
       </c>
       <c r="H94" s="3">
-        <v>-10810900</v>
+        <v>-12575400</v>
       </c>
       <c r="I94" s="3">
-        <v>-10603500</v>
+        <v>-10893800</v>
       </c>
       <c r="J94" s="3">
+        <v>-10684800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5165700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-441400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6007,8 +6239,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6075,8 +6308,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6143,8 +6379,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6211,8 +6450,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6279,208 +6521,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3705800</v>
+        <v>-2949600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1795400</v>
+        <v>-3734200</v>
       </c>
       <c r="F100" s="3">
-        <v>4739100</v>
+        <v>-1809200</v>
       </c>
       <c r="G100" s="3">
-        <v>-890000</v>
+        <v>4775400</v>
       </c>
       <c r="H100" s="3">
-        <v>1582200</v>
+        <v>-896900</v>
       </c>
       <c r="I100" s="3">
-        <v>-721600</v>
+        <v>1594300</v>
       </c>
       <c r="J100" s="3">
+        <v>-727100</v>
+      </c>
+      <c r="K100" s="3">
         <v>464500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9437000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>328600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>686400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>109400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-486600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>614200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-660700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5086600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-61700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>361000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-103300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30500</v>
+        <v>-934600</v>
       </c>
       <c r="E101" s="3">
-        <v>-343200</v>
+        <v>30800</v>
       </c>
       <c r="F101" s="3">
-        <v>179900</v>
+        <v>-345800</v>
       </c>
       <c r="G101" s="3">
-        <v>-646900</v>
+        <v>181300</v>
       </c>
       <c r="H101" s="3">
-        <v>-603200</v>
+        <v>-651900</v>
       </c>
       <c r="I101" s="3">
-        <v>-55000</v>
+        <v>-607800</v>
       </c>
       <c r="J101" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K101" s="3">
         <v>363500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>367100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>210400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-173700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>233700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>399300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-380700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-224000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-120400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-162100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-64900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>253800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2727000</v>
+        <v>3463600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4357400</v>
+        <v>-2747900</v>
       </c>
       <c r="F102" s="3">
-        <v>4368200</v>
+        <v>-4390800</v>
       </c>
       <c r="G102" s="3">
-        <v>2141600</v>
+        <v>4401700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1331400</v>
+        <v>2158000</v>
       </c>
       <c r="I102" s="3">
-        <v>-3536500</v>
+        <v>-1341600</v>
       </c>
       <c r="J102" s="3">
+        <v>-3563600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3998900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>18978300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4747700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2955700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>209800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3610700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-277700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9481900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>494500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>291500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1417500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>4407300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38269400</v>
+        <v>35746600</v>
       </c>
       <c r="E8" s="3">
-        <v>31660900</v>
+        <v>29573700</v>
       </c>
       <c r="F8" s="3">
-        <v>32457500</v>
+        <v>30317800</v>
       </c>
       <c r="G8" s="3">
-        <v>29563400</v>
+        <v>27614500</v>
       </c>
       <c r="H8" s="3">
-        <v>34878200</v>
+        <v>32578900</v>
       </c>
       <c r="I8" s="3">
-        <v>24462100</v>
+        <v>22849500</v>
       </c>
       <c r="J8" s="3">
-        <v>24255800</v>
+        <v>22656700</v>
       </c>
       <c r="K8" s="3">
         <v>17897000</v>
@@ -830,25 +830,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>23136800</v>
+        <v>21611500</v>
       </c>
       <c r="E9" s="3">
-        <v>20469400</v>
+        <v>19120000</v>
       </c>
       <c r="F9" s="3">
-        <v>19577500</v>
+        <v>18286900</v>
       </c>
       <c r="G9" s="3">
-        <v>19791600</v>
+        <v>18486900</v>
       </c>
       <c r="H9" s="3">
-        <v>19131200</v>
+        <v>17870100</v>
       </c>
       <c r="I9" s="3">
-        <v>14192100</v>
+        <v>13256500</v>
       </c>
       <c r="J9" s="3">
-        <v>13334300</v>
+        <v>12455300</v>
       </c>
       <c r="K9" s="3">
         <v>11350900</v>
@@ -901,25 +901,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15132700</v>
+        <v>14135100</v>
       </c>
       <c r="E10" s="3">
-        <v>11191500</v>
+        <v>10453700</v>
       </c>
       <c r="F10" s="3">
-        <v>12880000</v>
+        <v>12030900</v>
       </c>
       <c r="G10" s="3">
-        <v>9771800</v>
+        <v>9127600</v>
       </c>
       <c r="H10" s="3">
-        <v>15747000</v>
+        <v>14708900</v>
       </c>
       <c r="I10" s="3">
-        <v>10270000</v>
+        <v>9593000</v>
       </c>
       <c r="J10" s="3">
-        <v>10921400</v>
+        <v>10201400</v>
       </c>
       <c r="K10" s="3">
         <v>6546100</v>
@@ -999,25 +999,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2477600</v>
+        <v>2314300</v>
       </c>
       <c r="E12" s="3">
-        <v>2413300</v>
+        <v>2254200</v>
       </c>
       <c r="F12" s="3">
-        <v>2132800</v>
+        <v>1992200</v>
       </c>
       <c r="G12" s="3">
-        <v>2098500</v>
+        <v>1960200</v>
       </c>
       <c r="H12" s="3">
-        <v>2146600</v>
+        <v>2005100</v>
       </c>
       <c r="I12" s="3">
-        <v>3036100</v>
+        <v>2835900</v>
       </c>
       <c r="J12" s="3">
-        <v>1748300</v>
+        <v>1633000</v>
       </c>
       <c r="K12" s="3">
         <v>1657500</v>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3966200</v>
+        <v>3704800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1212,25 +1212,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>447600</v>
+        <v>418100</v>
       </c>
       <c r="E15" s="3">
-        <v>458500</v>
+        <v>428200</v>
       </c>
       <c r="F15" s="3">
-        <v>484800</v>
+        <v>452800</v>
       </c>
       <c r="G15" s="3">
-        <v>538800</v>
+        <v>503200</v>
       </c>
       <c r="H15" s="3">
-        <v>500400</v>
+        <v>467400</v>
       </c>
       <c r="I15" s="3">
-        <v>455600</v>
+        <v>425600</v>
       </c>
       <c r="J15" s="3">
-        <v>465700</v>
+        <v>435000</v>
       </c>
       <c r="K15" s="3">
         <v>633100</v>
@@ -1307,25 +1307,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37154400</v>
+        <v>34705000</v>
       </c>
       <c r="E17" s="3">
-        <v>29293500</v>
+        <v>27362400</v>
       </c>
       <c r="F17" s="3">
-        <v>27591100</v>
+        <v>25772200</v>
       </c>
       <c r="G17" s="3">
-        <v>30772400</v>
+        <v>28743700</v>
       </c>
       <c r="H17" s="3">
-        <v>27147700</v>
+        <v>25358000</v>
       </c>
       <c r="I17" s="3">
-        <v>22311200</v>
+        <v>20840400</v>
       </c>
       <c r="J17" s="3">
-        <v>18780700</v>
+        <v>17542600</v>
       </c>
       <c r="K17" s="3">
         <v>16780600</v>
@@ -1378,25 +1378,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1115000</v>
+        <v>1041500</v>
       </c>
       <c r="E18" s="3">
-        <v>2367300</v>
+        <v>2211300</v>
       </c>
       <c r="F18" s="3">
-        <v>4866400</v>
+        <v>4545600</v>
       </c>
       <c r="G18" s="3">
-        <v>-1208900</v>
+        <v>-1129200</v>
       </c>
       <c r="H18" s="3">
-        <v>7730600</v>
+        <v>7220900</v>
       </c>
       <c r="I18" s="3">
-        <v>2150900</v>
+        <v>2009100</v>
       </c>
       <c r="J18" s="3">
-        <v>5475100</v>
+        <v>5114100</v>
       </c>
       <c r="K18" s="3">
         <v>1116400</v>
@@ -1476,25 +1476,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3698500</v>
+        <v>3454700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1544900</v>
+        <v>-1443100</v>
       </c>
       <c r="F20" s="3">
-        <v>2564900</v>
+        <v>2395800</v>
       </c>
       <c r="G20" s="3">
-        <v>351200</v>
+        <v>328000</v>
       </c>
       <c r="H20" s="3">
-        <v>6761900</v>
+        <v>6316100</v>
       </c>
       <c r="I20" s="3">
-        <v>1839200</v>
+        <v>1717900</v>
       </c>
       <c r="J20" s="3">
-        <v>3727900</v>
+        <v>3482100</v>
       </c>
       <c r="K20" s="3">
         <v>-1023100</v>
@@ -1547,25 +1547,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4760900</v>
+        <v>4447000</v>
       </c>
       <c r="E21" s="3">
-        <v>781900</v>
+        <v>730300</v>
       </c>
       <c r="F21" s="3">
-        <v>9004200</v>
+        <v>8410600</v>
       </c>
       <c r="G21" s="3">
-        <v>640200</v>
+        <v>598000</v>
       </c>
       <c r="H21" s="3">
-        <v>14666300</v>
+        <v>13699500</v>
       </c>
       <c r="I21" s="3">
-        <v>4081300</v>
+        <v>3812200</v>
       </c>
       <c r="J21" s="3">
-        <v>10562700</v>
+        <v>9866300</v>
       </c>
       <c r="K21" s="3">
         <v>1609300</v>
@@ -1618,25 +1618,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>187100</v>
+        <v>174800</v>
       </c>
       <c r="E22" s="3">
-        <v>199900</v>
+        <v>186700</v>
       </c>
       <c r="F22" s="3">
-        <v>199900</v>
+        <v>186700</v>
       </c>
       <c r="G22" s="3">
-        <v>183000</v>
+        <v>170900</v>
       </c>
       <c r="H22" s="3">
-        <v>172300</v>
+        <v>160900</v>
       </c>
       <c r="I22" s="3">
-        <v>173700</v>
+        <v>162200</v>
       </c>
       <c r="J22" s="3">
-        <v>177200</v>
+        <v>165500</v>
       </c>
       <c r="K22" s="3">
         <v>182400</v>
@@ -1689,25 +1689,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4626500</v>
+        <v>4321500</v>
       </c>
       <c r="E23" s="3">
-        <v>622500</v>
+        <v>581500</v>
       </c>
       <c r="F23" s="3">
-        <v>7231400</v>
+        <v>6754700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1040700</v>
+        <v>-972100</v>
       </c>
       <c r="H23" s="3">
-        <v>14320200</v>
+        <v>13376200</v>
       </c>
       <c r="I23" s="3">
-        <v>3816400</v>
+        <v>3564800</v>
       </c>
       <c r="J23" s="3">
-        <v>9025800</v>
+        <v>8430800</v>
       </c>
       <c r="K23" s="3">
         <v>-89100</v>
@@ -1760,25 +1760,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1507100</v>
+        <v>1407700</v>
       </c>
       <c r="E24" s="3">
-        <v>960300</v>
+        <v>897000</v>
       </c>
       <c r="F24" s="3">
-        <v>1435000</v>
+        <v>1340400</v>
       </c>
       <c r="G24" s="3">
-        <v>1112100</v>
+        <v>1038700</v>
       </c>
       <c r="H24" s="3">
-        <v>1450400</v>
+        <v>1354800</v>
       </c>
       <c r="I24" s="3">
-        <v>301500</v>
+        <v>281600</v>
       </c>
       <c r="J24" s="3">
-        <v>1754900</v>
+        <v>1639200</v>
       </c>
       <c r="K24" s="3">
         <v>411400</v>
@@ -1902,25 +1902,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3119400</v>
+        <v>2913700</v>
       </c>
       <c r="E26" s="3">
-        <v>-337800</v>
+        <v>-315500</v>
       </c>
       <c r="F26" s="3">
-        <v>5796400</v>
+        <v>5414300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2152800</v>
+        <v>-2010900</v>
       </c>
       <c r="H26" s="3">
-        <v>12869700</v>
+        <v>12021300</v>
       </c>
       <c r="I26" s="3">
-        <v>3514900</v>
+        <v>3283200</v>
       </c>
       <c r="J26" s="3">
-        <v>7270800</v>
+        <v>6791500</v>
       </c>
       <c r="K26" s="3">
         <v>-500500</v>
@@ -1973,25 +1973,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3222900</v>
+        <v>3010400</v>
       </c>
       <c r="E27" s="3">
-        <v>846700</v>
+        <v>790900</v>
       </c>
       <c r="F27" s="3">
-        <v>7121400</v>
+        <v>6652000</v>
       </c>
       <c r="G27" s="3">
-        <v>-864400</v>
+        <v>-807400</v>
       </c>
       <c r="H27" s="3">
-        <v>12530400</v>
+        <v>11704400</v>
       </c>
       <c r="I27" s="3">
-        <v>4538600</v>
+        <v>4239400</v>
       </c>
       <c r="J27" s="3">
-        <v>7508000</v>
+        <v>7013000</v>
       </c>
       <c r="K27" s="3">
         <v>495000</v>
@@ -2328,25 +2328,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3698500</v>
+        <v>-3454700</v>
       </c>
       <c r="E32" s="3">
-        <v>1544900</v>
+        <v>1443100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2564900</v>
+        <v>-2395800</v>
       </c>
       <c r="G32" s="3">
-        <v>-351200</v>
+        <v>-328000</v>
       </c>
       <c r="H32" s="3">
-        <v>-6761900</v>
+        <v>-6316100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1839200</v>
+        <v>-1717900</v>
       </c>
       <c r="J32" s="3">
-        <v>-3727900</v>
+        <v>-3482100</v>
       </c>
       <c r="K32" s="3">
         <v>1023100</v>
@@ -2399,25 +2399,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3222900</v>
+        <v>3010400</v>
       </c>
       <c r="E33" s="3">
-        <v>846700</v>
+        <v>790900</v>
       </c>
       <c r="F33" s="3">
-        <v>7121400</v>
+        <v>6652000</v>
       </c>
       <c r="G33" s="3">
-        <v>-864400</v>
+        <v>-807400</v>
       </c>
       <c r="H33" s="3">
-        <v>12530400</v>
+        <v>11704400</v>
       </c>
       <c r="I33" s="3">
-        <v>4538600</v>
+        <v>4239400</v>
       </c>
       <c r="J33" s="3">
-        <v>7508000</v>
+        <v>7013000</v>
       </c>
       <c r="K33" s="3">
         <v>495000</v>
@@ -2541,25 +2541,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3222900</v>
+        <v>3010400</v>
       </c>
       <c r="E35" s="3">
-        <v>846700</v>
+        <v>790900</v>
       </c>
       <c r="F35" s="3">
-        <v>7121400</v>
+        <v>6652000</v>
       </c>
       <c r="G35" s="3">
-        <v>-864400</v>
+        <v>-807400</v>
       </c>
       <c r="H35" s="3">
-        <v>12530400</v>
+        <v>11704400</v>
       </c>
       <c r="I35" s="3">
-        <v>4538600</v>
+        <v>4239400</v>
       </c>
       <c r="J35" s="3">
-        <v>7508000</v>
+        <v>7013000</v>
       </c>
       <c r="K35" s="3">
         <v>495000</v>
@@ -2742,25 +2742,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>46241500</v>
+        <v>43193100</v>
       </c>
       <c r="E41" s="3">
-        <v>42943200</v>
+        <v>40112300</v>
       </c>
       <c r="F41" s="3">
-        <v>46035800</v>
+        <v>43001000</v>
       </c>
       <c r="G41" s="3">
-        <v>50682300</v>
+        <v>47341200</v>
       </c>
       <c r="H41" s="3">
-        <v>49242700</v>
+        <v>45996500</v>
       </c>
       <c r="I41" s="3">
-        <v>47566100</v>
+        <v>44430400</v>
       </c>
       <c r="J41" s="3">
-        <v>48790000</v>
+        <v>45573600</v>
       </c>
       <c r="K41" s="3">
         <v>51743500</v>
@@ -2813,25 +2813,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31839100</v>
+        <v>29740200</v>
       </c>
       <c r="E42" s="3">
-        <v>29501000</v>
+        <v>27556200</v>
       </c>
       <c r="F42" s="3">
-        <v>30217800</v>
+        <v>28225800</v>
       </c>
       <c r="G42" s="3">
-        <v>25586000</v>
+        <v>23899300</v>
       </c>
       <c r="H42" s="3">
-        <v>23667800</v>
+        <v>22107500</v>
       </c>
       <c r="I42" s="3">
-        <v>17226400</v>
+        <v>16090800</v>
       </c>
       <c r="J42" s="3">
-        <v>12193400</v>
+        <v>11389600</v>
       </c>
       <c r="K42" s="3">
         <v>5121400</v>
@@ -3026,25 +3026,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28429100</v>
+        <v>26555000</v>
       </c>
       <c r="E45" s="3">
-        <v>28214100</v>
+        <v>26354200</v>
       </c>
       <c r="F45" s="3">
-        <v>25838700</v>
+        <v>24135400</v>
       </c>
       <c r="G45" s="3">
-        <v>25228200</v>
+        <v>23565100</v>
       </c>
       <c r="H45" s="3">
-        <v>21386700</v>
+        <v>19976900</v>
       </c>
       <c r="I45" s="3">
-        <v>17705700</v>
+        <v>16538500</v>
       </c>
       <c r="J45" s="3">
-        <v>16526000</v>
+        <v>15436500</v>
       </c>
       <c r="K45" s="3">
         <v>15610300</v>
@@ -3097,25 +3097,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>106509800</v>
+        <v>99488300</v>
       </c>
       <c r="E46" s="3">
-        <v>100658300</v>
+        <v>94022600</v>
       </c>
       <c r="F46" s="3">
-        <v>102092300</v>
+        <v>95362100</v>
       </c>
       <c r="G46" s="3">
-        <v>101496500</v>
+        <v>94805500</v>
       </c>
       <c r="H46" s="3">
-        <v>94297300</v>
+        <v>88080900</v>
       </c>
       <c r="I46" s="3">
-        <v>82498200</v>
+        <v>77059700</v>
       </c>
       <c r="J46" s="3">
-        <v>77509400</v>
+        <v>72399700</v>
       </c>
       <c r="K46" s="3">
         <v>72475200</v>
@@ -3168,25 +3168,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75147600</v>
+        <v>70193600</v>
       </c>
       <c r="E47" s="3">
-        <v>72786400</v>
+        <v>67988100</v>
       </c>
       <c r="F47" s="3">
-        <v>71708700</v>
+        <v>66981500</v>
       </c>
       <c r="G47" s="3">
-        <v>69005800</v>
+        <v>64456700</v>
       </c>
       <c r="H47" s="3">
-        <v>67169200</v>
+        <v>62741200</v>
       </c>
       <c r="I47" s="3">
-        <v>62880500</v>
+        <v>58735200</v>
       </c>
       <c r="J47" s="3">
-        <v>58966900</v>
+        <v>55079600</v>
       </c>
       <c r="K47" s="3">
         <v>54946500</v>
@@ -3239,25 +3239,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26039200</v>
+        <v>24322700</v>
       </c>
       <c r="E48" s="3">
-        <v>24778700</v>
+        <v>23145200</v>
       </c>
       <c r="F48" s="3">
-        <v>24075100</v>
+        <v>22488000</v>
       </c>
       <c r="G48" s="3">
-        <v>23255700</v>
+        <v>21722600</v>
       </c>
       <c r="H48" s="3">
-        <v>23203700</v>
+        <v>21674000</v>
       </c>
       <c r="I48" s="3">
-        <v>18621500</v>
+        <v>17393900</v>
       </c>
       <c r="J48" s="3">
-        <v>17584100</v>
+        <v>16424900</v>
       </c>
       <c r="K48" s="3">
         <v>21612600</v>
@@ -3310,25 +3310,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>52245700</v>
+        <v>48801500</v>
       </c>
       <c r="E49" s="3">
-        <v>56758300</v>
+        <v>53016600</v>
       </c>
       <c r="F49" s="3">
-        <v>56781100</v>
+        <v>53038000</v>
       </c>
       <c r="G49" s="3">
-        <v>57362200</v>
+        <v>53580700</v>
       </c>
       <c r="H49" s="3">
-        <v>57950500</v>
+        <v>54130200</v>
       </c>
       <c r="I49" s="3">
-        <v>52463100</v>
+        <v>49004600</v>
       </c>
       <c r="J49" s="3">
-        <v>52766900</v>
+        <v>49288400</v>
       </c>
       <c r="K49" s="3">
         <v>52874900</v>
@@ -3523,25 +3523,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17804800</v>
+        <v>16631000</v>
       </c>
       <c r="E52" s="3">
-        <v>17260700</v>
+        <v>16122800</v>
       </c>
       <c r="F52" s="3">
-        <v>15934500</v>
+        <v>14884100</v>
       </c>
       <c r="G52" s="3">
-        <v>15528600</v>
+        <v>14504900</v>
       </c>
       <c r="H52" s="3">
-        <v>15359000</v>
+        <v>14346500</v>
       </c>
       <c r="I52" s="3">
-        <v>9705600</v>
+        <v>9065700</v>
       </c>
       <c r="J52" s="3">
-        <v>9174100</v>
+        <v>8569300</v>
       </c>
       <c r="K52" s="3">
         <v>3651800</v>
@@ -3665,25 +3665,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>277747000</v>
+        <v>259437200</v>
       </c>
       <c r="E54" s="3">
-        <v>272242300</v>
+        <v>254295300</v>
       </c>
       <c r="F54" s="3">
-        <v>270591800</v>
+        <v>252753600</v>
       </c>
       <c r="G54" s="3">
-        <v>266648800</v>
+        <v>249070500</v>
       </c>
       <c r="H54" s="3">
-        <v>257979600</v>
+        <v>240972800</v>
       </c>
       <c r="I54" s="3">
-        <v>226168800</v>
+        <v>211259100</v>
       </c>
       <c r="J54" s="3">
-        <v>216001400</v>
+        <v>201761900</v>
       </c>
       <c r="K54" s="3">
         <v>205560900</v>
@@ -3790,25 +3790,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44467300</v>
+        <v>41535900</v>
       </c>
       <c r="E57" s="3">
-        <v>41954200</v>
+        <v>39188500</v>
       </c>
       <c r="F57" s="3">
-        <v>39502200</v>
+        <v>36898100</v>
       </c>
       <c r="G57" s="3">
-        <v>41164200</v>
+        <v>38450500</v>
       </c>
       <c r="H57" s="3">
-        <v>35481800</v>
+        <v>33142700</v>
       </c>
       <c r="I57" s="3">
-        <v>28134400</v>
+        <v>26279700</v>
       </c>
       <c r="J57" s="3">
-        <v>25984800</v>
+        <v>24271800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -3861,25 +3861,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1247300</v>
+        <v>1165000</v>
       </c>
       <c r="E58" s="3">
-        <v>2973100</v>
+        <v>2777100</v>
       </c>
       <c r="F58" s="3">
-        <v>2684000</v>
+        <v>2507000</v>
       </c>
       <c r="G58" s="3">
-        <v>2119800</v>
+        <v>1980100</v>
       </c>
       <c r="H58" s="3">
-        <v>2373800</v>
+        <v>2217300</v>
       </c>
       <c r="I58" s="3">
-        <v>773500</v>
+        <v>722500</v>
       </c>
       <c r="J58" s="3">
-        <v>716700</v>
+        <v>669500</v>
       </c>
       <c r="K58" s="3">
         <v>806900</v>
@@ -3932,25 +3932,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19047000</v>
+        <v>17791400</v>
       </c>
       <c r="E59" s="3">
-        <v>16261900</v>
+        <v>15189900</v>
       </c>
       <c r="F59" s="3">
-        <v>15900900</v>
+        <v>14852700</v>
       </c>
       <c r="G59" s="3">
-        <v>16248000</v>
+        <v>15176900</v>
       </c>
       <c r="H59" s="3">
-        <v>18647700</v>
+        <v>17418400</v>
       </c>
       <c r="I59" s="3">
-        <v>12573800</v>
+        <v>11744900</v>
       </c>
       <c r="J59" s="3">
-        <v>12437600</v>
+        <v>11617700</v>
       </c>
       <c r="K59" s="3">
         <v>37060600</v>
@@ -4003,25 +4003,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64761600</v>
+        <v>60492300</v>
       </c>
       <c r="E60" s="3">
-        <v>61189300</v>
+        <v>57155500</v>
       </c>
       <c r="F60" s="3">
-        <v>58087100</v>
+        <v>54257800</v>
       </c>
       <c r="G60" s="3">
-        <v>59532000</v>
+        <v>55607500</v>
       </c>
       <c r="H60" s="3">
-        <v>56503300</v>
+        <v>52778500</v>
       </c>
       <c r="I60" s="3">
-        <v>41481700</v>
+        <v>38747100</v>
       </c>
       <c r="J60" s="3">
-        <v>39139200</v>
+        <v>36559000</v>
       </c>
       <c r="K60" s="3">
         <v>37867500</v>
@@ -4074,25 +4074,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20781900</v>
+        <v>19411900</v>
       </c>
       <c r="E61" s="3">
-        <v>20967400</v>
+        <v>19585200</v>
       </c>
       <c r="F61" s="3">
-        <v>21076600</v>
+        <v>19687100</v>
       </c>
       <c r="G61" s="3">
-        <v>21410600</v>
+        <v>19999100</v>
       </c>
       <c r="H61" s="3">
-        <v>16194400</v>
+        <v>15126800</v>
       </c>
       <c r="I61" s="3">
-        <v>18439800</v>
+        <v>17224200</v>
       </c>
       <c r="J61" s="3">
-        <v>19072200</v>
+        <v>17814900</v>
       </c>
       <c r="K61" s="3">
         <v>18830400</v>
@@ -4145,25 +4145,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15488100</v>
+        <v>14467100</v>
       </c>
       <c r="E62" s="3">
-        <v>15237600</v>
+        <v>14233100</v>
       </c>
       <c r="F62" s="3">
-        <v>14955200</v>
+        <v>13969300</v>
       </c>
       <c r="G62" s="3">
-        <v>14752100</v>
+        <v>13779600</v>
       </c>
       <c r="H62" s="3">
-        <v>14529700</v>
+        <v>13571900</v>
       </c>
       <c r="I62" s="3">
-        <v>11449600</v>
+        <v>10694800</v>
       </c>
       <c r="J62" s="3">
-        <v>11312700</v>
+        <v>10566900</v>
       </c>
       <c r="K62" s="3">
         <v>11144900</v>
@@ -4429,25 +4429,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>122368100</v>
+        <v>114301300</v>
       </c>
       <c r="E66" s="3">
-        <v>118707500</v>
+        <v>110881900</v>
       </c>
       <c r="F66" s="3">
-        <v>115377100</v>
+        <v>107771100</v>
       </c>
       <c r="G66" s="3">
-        <v>117385300</v>
+        <v>109646900</v>
       </c>
       <c r="H66" s="3">
-        <v>108816900</v>
+        <v>101643300</v>
       </c>
       <c r="I66" s="3">
-        <v>89637700</v>
+        <v>83728500</v>
       </c>
       <c r="J66" s="3">
-        <v>87186700</v>
+        <v>81439100</v>
       </c>
       <c r="K66" s="3">
         <v>85870200</v>
@@ -4669,25 +4669,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1673500</v>
+        <v>1563200</v>
       </c>
       <c r="E70" s="3">
-        <v>1639800</v>
+        <v>1531700</v>
       </c>
       <c r="F70" s="3">
-        <v>1319300</v>
+        <v>1232400</v>
       </c>
       <c r="G70" s="3">
-        <v>1368300</v>
+        <v>1278100</v>
       </c>
       <c r="H70" s="3">
-        <v>1332000</v>
+        <v>1244200</v>
       </c>
       <c r="I70" s="3">
-        <v>1267300</v>
+        <v>1183700</v>
       </c>
       <c r="J70" s="3">
-        <v>1233700</v>
+        <v>1152400</v>
       </c>
       <c r="K70" s="3">
         <v>1425200</v>
@@ -4811,25 +4811,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93260500</v>
+        <v>87112500</v>
       </c>
       <c r="E72" s="3">
-        <v>91158300</v>
+        <v>85148900</v>
       </c>
       <c r="F72" s="3">
-        <v>94807900</v>
+        <v>88557900</v>
       </c>
       <c r="G72" s="3">
-        <v>88703900</v>
+        <v>82856300</v>
       </c>
       <c r="H72" s="3">
-        <v>89659900</v>
+        <v>83749300</v>
       </c>
       <c r="I72" s="3">
-        <v>77112500</v>
+        <v>72029000</v>
       </c>
       <c r="J72" s="3">
-        <v>72557000</v>
+        <v>67773800</v>
       </c>
       <c r="K72" s="3">
         <v>64563300</v>
@@ -5095,25 +5095,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>153705400</v>
+        <v>143572700</v>
       </c>
       <c r="E76" s="3">
-        <v>151895100</v>
+        <v>141881700</v>
       </c>
       <c r="F76" s="3">
-        <v>153895400</v>
+        <v>143750100</v>
       </c>
       <c r="G76" s="3">
-        <v>147895300</v>
+        <v>138145600</v>
       </c>
       <c r="H76" s="3">
-        <v>147830700</v>
+        <v>138085300</v>
       </c>
       <c r="I76" s="3">
-        <v>135263900</v>
+        <v>126346900</v>
       </c>
       <c r="J76" s="3">
-        <v>127581000</v>
+        <v>119170500</v>
       </c>
       <c r="K76" s="3">
         <v>118265600</v>
@@ -5313,25 +5313,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3222900</v>
+        <v>3010400</v>
       </c>
       <c r="E81" s="3">
-        <v>846700</v>
+        <v>790900</v>
       </c>
       <c r="F81" s="3">
-        <v>7121400</v>
+        <v>6652000</v>
       </c>
       <c r="G81" s="3">
-        <v>-864400</v>
+        <v>-807400</v>
       </c>
       <c r="H81" s="3">
-        <v>12530400</v>
+        <v>11704400</v>
       </c>
       <c r="I81" s="3">
-        <v>4538600</v>
+        <v>4239400</v>
       </c>
       <c r="J81" s="3">
-        <v>7508000</v>
+        <v>7013000</v>
       </c>
       <c r="K81" s="3">
         <v>495000</v>
@@ -5837,25 +5837,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12678500</v>
+        <v>11842700</v>
       </c>
       <c r="E89" s="3">
-        <v>5652500</v>
+        <v>5279900</v>
       </c>
       <c r="F89" s="3">
-        <v>5301200</v>
+        <v>4951700</v>
       </c>
       <c r="G89" s="3">
-        <v>3815100</v>
+        <v>3563600</v>
       </c>
       <c r="H89" s="3">
-        <v>16282100</v>
+        <v>15208700</v>
       </c>
       <c r="I89" s="3">
-        <v>8565700</v>
+        <v>8001100</v>
       </c>
       <c r="J89" s="3">
-        <v>7903600</v>
+        <v>7382600</v>
       </c>
       <c r="K89" s="3">
         <v>338800</v>
@@ -5944,16 +5944,16 @@
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>-514000</v>
+        <v>-480100</v>
       </c>
       <c r="H91" s="3">
-        <v>-921900</v>
+        <v>-861200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2951700</v>
+        <v>-2757100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2151500</v>
+        <v>-2009700</v>
       </c>
       <c r="K91" s="3">
         <v>-281000</v>
@@ -6148,25 +6148,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5330700</v>
+        <v>-4979300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4697000</v>
+        <v>-4387300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7537000</v>
+        <v>-7040100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4370100</v>
+        <v>-4082000</v>
       </c>
       <c r="H94" s="3">
-        <v>-12575400</v>
+        <v>-11746400</v>
       </c>
       <c r="I94" s="3">
-        <v>-10893800</v>
+        <v>-10175700</v>
       </c>
       <c r="J94" s="3">
-        <v>-10684800</v>
+        <v>-9980400</v>
       </c>
       <c r="K94" s="3">
         <v>-5165700</v>
@@ -6530,25 +6530,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2949600</v>
+        <v>-2755200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3734200</v>
+        <v>-3488000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1809200</v>
+        <v>-1689900</v>
       </c>
       <c r="G100" s="3">
-        <v>4775400</v>
+        <v>4460600</v>
       </c>
       <c r="H100" s="3">
-        <v>-896900</v>
+        <v>-837700</v>
       </c>
       <c r="I100" s="3">
-        <v>1594300</v>
+        <v>1489200</v>
       </c>
       <c r="J100" s="3">
-        <v>-727100</v>
+        <v>-679200</v>
       </c>
       <c r="K100" s="3">
         <v>464500</v>
@@ -6601,25 +6601,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-934600</v>
+        <v>-873000</v>
       </c>
       <c r="E101" s="3">
-        <v>30800</v>
+        <v>28700</v>
       </c>
       <c r="F101" s="3">
-        <v>-345800</v>
+        <v>-323000</v>
       </c>
       <c r="G101" s="3">
-        <v>181300</v>
+        <v>169300</v>
       </c>
       <c r="H101" s="3">
-        <v>-651900</v>
+        <v>-608900</v>
       </c>
       <c r="I101" s="3">
-        <v>-607800</v>
+        <v>-567800</v>
       </c>
       <c r="J101" s="3">
-        <v>-55400</v>
+        <v>-51700</v>
       </c>
       <c r="K101" s="3">
         <v>363500</v>
@@ -6672,25 +6672,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3463600</v>
+        <v>3235300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2747900</v>
+        <v>-2566700</v>
       </c>
       <c r="F102" s="3">
-        <v>-4390800</v>
+        <v>-4101300</v>
       </c>
       <c r="G102" s="3">
-        <v>4401700</v>
+        <v>4111500</v>
       </c>
       <c r="H102" s="3">
-        <v>2158000</v>
+        <v>2015700</v>
       </c>
       <c r="I102" s="3">
-        <v>-1341600</v>
+        <v>-1253100</v>
       </c>
       <c r="J102" s="3">
-        <v>-3563600</v>
+        <v>-3328700</v>
       </c>
       <c r="K102" s="3">
         <v>-3998900</v>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,309 +665,333 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35746600</v>
+        <v>30017200</v>
       </c>
       <c r="E8" s="3">
-        <v>29573700</v>
+        <v>29797700</v>
       </c>
       <c r="F8" s="3">
-        <v>30317800</v>
+        <v>35424000</v>
       </c>
       <c r="G8" s="3">
-        <v>27614500</v>
+        <v>29306800</v>
       </c>
       <c r="H8" s="3">
-        <v>32578900</v>
+        <v>30044200</v>
       </c>
       <c r="I8" s="3">
+        <v>27365300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>32284900</v>
+      </c>
+      <c r="K8" s="3">
         <v>22849500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>22656700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17897000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>24861000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>18567800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>17558100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>14222900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>17032300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>11917300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>11610400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8886000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12322200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>8180700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7447800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5610500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>7743900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21611500</v>
+        <v>18933800</v>
       </c>
       <c r="E9" s="3">
-        <v>19120000</v>
+        <v>20290100</v>
       </c>
       <c r="F9" s="3">
-        <v>18286900</v>
+        <v>21416500</v>
       </c>
       <c r="G9" s="3">
-        <v>18486900</v>
+        <v>18947400</v>
       </c>
       <c r="H9" s="3">
-        <v>17870100</v>
+        <v>18121900</v>
       </c>
       <c r="I9" s="3">
+        <v>18320000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17708800</v>
+      </c>
+      <c r="K9" s="3">
         <v>13256500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>12455300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11350900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12985400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10225800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>9164800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>8459400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>8831900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6548200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>6272900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4663700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>5205900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3265300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2591200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2252700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2781500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14135100</v>
+        <v>11083400</v>
       </c>
       <c r="E10" s="3">
-        <v>10453700</v>
+        <v>9507600</v>
       </c>
       <c r="F10" s="3">
-        <v>12030900</v>
+        <v>14007500</v>
       </c>
       <c r="G10" s="3">
-        <v>9127600</v>
+        <v>10359400</v>
       </c>
       <c r="H10" s="3">
-        <v>14708900</v>
+        <v>11922300</v>
       </c>
       <c r="I10" s="3">
+        <v>9045200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14576100</v>
+      </c>
+      <c r="K10" s="3">
         <v>9593000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>10201400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6546100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>11875600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8342000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>8393300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5763500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8200400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5369100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>5337500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>4222300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>7116300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4915300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4856600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>3357800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4962400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,79 +1017,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2314300</v>
+        <v>2072600</v>
       </c>
       <c r="E12" s="3">
-        <v>2254200</v>
+        <v>1598200</v>
       </c>
       <c r="F12" s="3">
-        <v>1992200</v>
+        <v>2293400</v>
       </c>
       <c r="G12" s="3">
-        <v>1960200</v>
+        <v>2233800</v>
       </c>
       <c r="H12" s="3">
-        <v>2005100</v>
+        <v>1974200</v>
       </c>
       <c r="I12" s="3">
+        <v>1942500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1987000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2835900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1633000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1657500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1705600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1706400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1600800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1317200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1292700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1170800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1651500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>959300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>933400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>754400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>696900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>657100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>642800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1135,150 +1167,168 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>3704800</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3671300</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>89900</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>73300</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>309000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>418100</v>
+        <v>401700</v>
       </c>
       <c r="E15" s="3">
-        <v>428200</v>
+        <v>413400</v>
       </c>
       <c r="F15" s="3">
-        <v>452800</v>
+        <v>414300</v>
       </c>
       <c r="G15" s="3">
-        <v>503200</v>
+        <v>424400</v>
       </c>
       <c r="H15" s="3">
-        <v>467400</v>
+        <v>448800</v>
       </c>
       <c r="I15" s="3">
+        <v>498700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>463200</v>
+      </c>
+      <c r="K15" s="3">
         <v>425600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>435000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>633100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>503800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>469000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>468400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>487200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>408000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>365400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>301900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>190700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>305300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>259400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>294700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>190900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>183400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1301,150 +1351,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34705000</v>
+        <v>26374800</v>
       </c>
       <c r="E17" s="3">
-        <v>27362400</v>
+        <v>27356500</v>
       </c>
       <c r="F17" s="3">
-        <v>25772200</v>
+        <v>34391800</v>
       </c>
       <c r="G17" s="3">
-        <v>28743700</v>
+        <v>27115400</v>
       </c>
       <c r="H17" s="3">
-        <v>25358000</v>
+        <v>25539600</v>
       </c>
       <c r="I17" s="3">
+        <v>28484300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25129100</v>
+      </c>
+      <c r="K17" s="3">
         <v>20840400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>17542600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16780600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18769500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15390900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13834100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12889600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13140400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>10027700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10459700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7563000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>8464100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5719400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4848700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4533300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4738700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1041500</v>
+        <v>3642400</v>
       </c>
       <c r="E18" s="3">
-        <v>2211300</v>
+        <v>2441200</v>
       </c>
       <c r="F18" s="3">
-        <v>4545600</v>
+        <v>1032100</v>
       </c>
       <c r="G18" s="3">
-        <v>-1129200</v>
+        <v>2191300</v>
       </c>
       <c r="H18" s="3">
-        <v>7220900</v>
+        <v>4504600</v>
       </c>
       <c r="I18" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7155800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2009100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5114100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1116400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6091400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3177000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3724000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1333300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3891900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1889600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>1150700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1323000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3858100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>2461200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>2599100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1077200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3005200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1470,132 +1534,140 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3454700</v>
+        <v>800000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1443100</v>
+        <v>-5123900</v>
       </c>
       <c r="F20" s="3">
-        <v>2395800</v>
+        <v>3423500</v>
       </c>
       <c r="G20" s="3">
-        <v>328000</v>
+        <v>-1430100</v>
       </c>
       <c r="H20" s="3">
-        <v>6316100</v>
+        <v>2374200</v>
       </c>
       <c r="I20" s="3">
+        <v>325100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6259100</v>
+      </c>
+      <c r="K20" s="3">
         <v>1717900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>3482100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1023100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2790600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>10377600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>349600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3059700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1735100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>714200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1027700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>405900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3457200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>767600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>498500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1326000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>560200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4447000</v>
+        <v>5821800</v>
       </c>
       <c r="E21" s="3">
-        <v>730300</v>
+        <v>-2534600</v>
       </c>
       <c r="F21" s="3">
-        <v>8410600</v>
+        <v>4406900</v>
       </c>
       <c r="G21" s="3">
-        <v>598000</v>
+        <v>723700</v>
       </c>
       <c r="H21" s="3">
-        <v>13699500</v>
+        <v>8334700</v>
       </c>
       <c r="I21" s="3">
+        <v>592600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>13575800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3812200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9866300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1609300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>8955000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>13596400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>5257300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>4411900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5740800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2772500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>10</v>
@@ -1603,230 +1675,254 @@
       <c r="V21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="3">
         <v>2424500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3570300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>174800</v>
+        <v>181700</v>
       </c>
       <c r="E22" s="3">
-        <v>186700</v>
+        <v>173600</v>
       </c>
       <c r="F22" s="3">
-        <v>186700</v>
+        <v>173200</v>
       </c>
       <c r="G22" s="3">
-        <v>170900</v>
+        <v>185000</v>
       </c>
       <c r="H22" s="3">
-        <v>160900</v>
+        <v>185000</v>
       </c>
       <c r="I22" s="3">
+        <v>169400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>159500</v>
+      </c>
+      <c r="K22" s="3">
         <v>162200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>165500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>182400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>201600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>212200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>205600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>198200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>193700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>187500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>174000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>168600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>125300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>110900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>118700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>98300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>101900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4321500</v>
+        <v>4260700</v>
       </c>
       <c r="E23" s="3">
-        <v>581500</v>
+        <v>-2856300</v>
       </c>
       <c r="F23" s="3">
-        <v>6754700</v>
+        <v>4282500</v>
       </c>
       <c r="G23" s="3">
-        <v>-972100</v>
+        <v>576200</v>
       </c>
       <c r="H23" s="3">
-        <v>13376200</v>
+        <v>6693700</v>
       </c>
       <c r="I23" s="3">
+        <v>-963400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>13255400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3564800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>8430800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-89100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8680500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>13342400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3867900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>4194900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>5433200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2416300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2004400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1560300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>7190000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>3117900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2978900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2304900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>3463400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1407700</v>
+        <v>788400</v>
       </c>
       <c r="E24" s="3">
-        <v>897000</v>
+        <v>303600</v>
       </c>
       <c r="F24" s="3">
-        <v>1340400</v>
+        <v>1395000</v>
       </c>
       <c r="G24" s="3">
-        <v>1038700</v>
+        <v>888900</v>
       </c>
       <c r="H24" s="3">
-        <v>1354800</v>
+        <v>1328300</v>
       </c>
       <c r="I24" s="3">
+        <v>1029400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1342600</v>
+      </c>
+      <c r="K24" s="3">
         <v>281600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1639200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>411400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1294500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>439200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1025500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>764400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>811300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>38800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>812800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>597500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>988900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>403500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>690600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>662100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>743100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1896,150 +1992,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2913700</v>
+        <v>3472300</v>
       </c>
       <c r="E26" s="3">
-        <v>-315500</v>
+        <v>-3159900</v>
       </c>
       <c r="F26" s="3">
-        <v>5414300</v>
+        <v>2887500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2010900</v>
+        <v>-312700</v>
       </c>
       <c r="H26" s="3">
-        <v>12021300</v>
+        <v>5365400</v>
       </c>
       <c r="I26" s="3">
+        <v>-1992700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11912800</v>
+      </c>
+      <c r="K26" s="3">
         <v>3283200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6791500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7386000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>12903300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2842500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3430500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4621900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2377500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1191600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>962900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>6201200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>2714400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2288300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1642800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2720300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3010400</v>
+        <v>3320600</v>
       </c>
       <c r="E27" s="3">
-        <v>790900</v>
+        <v>-1311100</v>
       </c>
       <c r="F27" s="3">
-        <v>6652000</v>
+        <v>2983200</v>
       </c>
       <c r="G27" s="3">
-        <v>-807400</v>
+        <v>783700</v>
       </c>
       <c r="H27" s="3">
-        <v>11704400</v>
+        <v>6591900</v>
       </c>
       <c r="I27" s="3">
+        <v>-800100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>11598700</v>
+      </c>
+      <c r="K27" s="3">
         <v>4239400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7013000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>495000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8054500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>11317000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3246900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3929300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4800100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2803800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1246100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>1084900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3572700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>2622100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2179100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1548400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2596700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2109,8 +2223,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2180,8 +2300,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2251,8 +2377,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2322,150 +2454,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3454700</v>
+        <v>-800000</v>
       </c>
       <c r="E32" s="3">
-        <v>1443100</v>
+        <v>5123900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2395800</v>
+        <v>-3423500</v>
       </c>
       <c r="G32" s="3">
-        <v>-328000</v>
+        <v>1430100</v>
       </c>
       <c r="H32" s="3">
-        <v>-6316100</v>
+        <v>-2374200</v>
       </c>
       <c r="I32" s="3">
+        <v>-325100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-6259100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1717900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-3482100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1023100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-349600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-714200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-405900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-767600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-498500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-560200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3010400</v>
+        <v>3320600</v>
       </c>
       <c r="E33" s="3">
-        <v>790900</v>
+        <v>-1311100</v>
       </c>
       <c r="F33" s="3">
-        <v>6652000</v>
+        <v>2983200</v>
       </c>
       <c r="G33" s="3">
-        <v>-807400</v>
+        <v>783700</v>
       </c>
       <c r="H33" s="3">
-        <v>11704400</v>
+        <v>6591900</v>
       </c>
       <c r="I33" s="3">
+        <v>-800100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>11598700</v>
+      </c>
+      <c r="K33" s="3">
         <v>4239400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7013000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>495000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8054500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>11317000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3246900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3929300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4800100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2803800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1246100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>1084900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3572700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>2622100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2179100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1548400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2596700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2535,155 +2685,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3010400</v>
+        <v>3320600</v>
       </c>
       <c r="E35" s="3">
-        <v>790900</v>
+        <v>-1311100</v>
       </c>
       <c r="F35" s="3">
-        <v>6652000</v>
+        <v>2983200</v>
       </c>
       <c r="G35" s="3">
-        <v>-807400</v>
+        <v>783700</v>
       </c>
       <c r="H35" s="3">
-        <v>11704400</v>
+        <v>6591900</v>
       </c>
       <c r="I35" s="3">
+        <v>-800100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>11598700</v>
+      </c>
+      <c r="K35" s="3">
         <v>4239400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7013000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>495000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8054500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>11317000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3246900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3929300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4800100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2803800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1246100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>1084900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3572700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>2622100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2179100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1548400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2596700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2709,8 +2877,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2736,150 +2906,164 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43193100</v>
+        <v>25808200</v>
       </c>
       <c r="E41" s="3">
-        <v>40112300</v>
+        <v>27730800</v>
       </c>
       <c r="F41" s="3">
-        <v>43001000</v>
+        <v>42803300</v>
       </c>
       <c r="G41" s="3">
-        <v>47341200</v>
+        <v>39750200</v>
       </c>
       <c r="H41" s="3">
-        <v>45996500</v>
+        <v>42612900</v>
       </c>
       <c r="I41" s="3">
+        <v>46913900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>45581400</v>
+      </c>
+      <c r="K41" s="3">
         <v>44430400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>45573600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>51743500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>53981500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>36534000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>32166100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>28899100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>27478100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>23005900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>24089600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>28596900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>31492000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>22075400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>21540800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>20903500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>19486000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29740200</v>
+        <v>41845000</v>
       </c>
       <c r="E42" s="3">
-        <v>27556200</v>
+        <v>38725300</v>
       </c>
       <c r="F42" s="3">
-        <v>28225800</v>
+        <v>29471800</v>
       </c>
       <c r="G42" s="3">
-        <v>23899300</v>
+        <v>27307500</v>
       </c>
       <c r="H42" s="3">
-        <v>22107500</v>
+        <v>27971000</v>
       </c>
       <c r="I42" s="3">
+        <v>23683600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>21908000</v>
+      </c>
+      <c r="K42" s="3">
         <v>16090800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>11389600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5121400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1021700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1066000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1540200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2006300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1653700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2402000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2475900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1564100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1771400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2413700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1108600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1027500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1135400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2949,8 +3133,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3020,363 +3210,399 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26555000</v>
+        <v>26530900</v>
       </c>
       <c r="E45" s="3">
-        <v>26354200</v>
+        <v>26789200</v>
       </c>
       <c r="F45" s="3">
-        <v>24135400</v>
+        <v>26315300</v>
       </c>
       <c r="G45" s="3">
-        <v>23565100</v>
+        <v>26116300</v>
       </c>
       <c r="H45" s="3">
-        <v>19976900</v>
+        <v>23917500</v>
       </c>
       <c r="I45" s="3">
+        <v>23352400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>19796600</v>
+      </c>
+      <c r="K45" s="3">
         <v>16538500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15436500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15610300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15742300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14770600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>10696400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>10208500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8872000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7886200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7438400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>6692600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>6553500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>5882700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>5013300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>4517500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>3887600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99488300</v>
+        <v>94184100</v>
       </c>
       <c r="E46" s="3">
-        <v>94022600</v>
+        <v>93245300</v>
       </c>
       <c r="F46" s="3">
-        <v>95362100</v>
+        <v>98590400</v>
       </c>
       <c r="G46" s="3">
-        <v>94805500</v>
+        <v>93174000</v>
       </c>
       <c r="H46" s="3">
-        <v>88080900</v>
+        <v>94501400</v>
       </c>
       <c r="I46" s="3">
+        <v>93949900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>87285900</v>
+      </c>
+      <c r="K46" s="3">
         <v>77059700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>72399700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>72475200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>70745500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>52370500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>44402800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>41113900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>38003800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>33294100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>34003900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>36853600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>39816900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>30371800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>27662700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>26448500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>24509000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70193600</v>
+        <v>65243600</v>
       </c>
       <c r="E47" s="3">
-        <v>67988100</v>
+        <v>64728200</v>
       </c>
       <c r="F47" s="3">
-        <v>66981500</v>
+        <v>69560100</v>
       </c>
       <c r="G47" s="3">
-        <v>64456700</v>
+        <v>67374400</v>
       </c>
       <c r="H47" s="3">
-        <v>62741200</v>
+        <v>66376900</v>
       </c>
       <c r="I47" s="3">
+        <v>63875000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>62174900</v>
+      </c>
+      <c r="K47" s="3">
         <v>58735200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>55079600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>54946500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>55746500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>51631700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>38852700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>36743700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>33087900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>30691800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>28385900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>25523900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>24392700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>23730600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>22240600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>22079200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>22453800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24322700</v>
+        <v>25965900</v>
       </c>
       <c r="E48" s="3">
-        <v>23145200</v>
+        <v>36486900</v>
       </c>
       <c r="F48" s="3">
-        <v>22488000</v>
+        <v>24103100</v>
       </c>
       <c r="G48" s="3">
-        <v>21722600</v>
+        <v>22936300</v>
       </c>
       <c r="H48" s="3">
-        <v>21674000</v>
+        <v>22285100</v>
       </c>
       <c r="I48" s="3">
+        <v>21526600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21478400</v>
+      </c>
+      <c r="K48" s="3">
         <v>17393900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16424900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>21612600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>19466200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>19627200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18193700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>13999600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>13188900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12180000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>11286000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>9539800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>9642600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>7359200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6518500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2938600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2893900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48801500</v>
+        <v>47790400</v>
       </c>
       <c r="E49" s="3">
-        <v>53016600</v>
+        <v>48016400</v>
       </c>
       <c r="F49" s="3">
-        <v>53038000</v>
+        <v>48361000</v>
       </c>
       <c r="G49" s="3">
-        <v>53580700</v>
+        <v>52538100</v>
       </c>
       <c r="H49" s="3">
-        <v>54130200</v>
+        <v>52559300</v>
       </c>
       <c r="I49" s="3">
+        <v>53097100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>53641600</v>
+      </c>
+      <c r="K49" s="3">
         <v>49004600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>49288400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>52874900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>52626800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>53469800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>50862400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>50688100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>45348800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>35607600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>37195600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>27205800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>28168500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>21480600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>21635700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>20291600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>19700100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3446,8 +3672,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3517,79 +3749,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16631000</v>
+        <v>16289100</v>
       </c>
       <c r="E52" s="3">
-        <v>16122800</v>
+        <v>5124800</v>
       </c>
       <c r="F52" s="3">
-        <v>14884100</v>
+        <v>16480900</v>
       </c>
       <c r="G52" s="3">
-        <v>14504900</v>
+        <v>15977300</v>
       </c>
       <c r="H52" s="3">
-        <v>14346500</v>
+        <v>14749800</v>
       </c>
       <c r="I52" s="3">
+        <v>14374000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14217000</v>
+      </c>
+      <c r="K52" s="3">
         <v>9065700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8569300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3651800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4590900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3806500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3348900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>4262100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3683500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3660800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3433600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3769800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3562900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2961100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2635200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1947900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1829800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3659,79 +3903,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>259437200</v>
+        <v>249473000</v>
       </c>
       <c r="E54" s="3">
-        <v>254295300</v>
+        <v>247601600</v>
       </c>
       <c r="F54" s="3">
-        <v>252753600</v>
+        <v>257095600</v>
       </c>
       <c r="G54" s="3">
-        <v>249070500</v>
+        <v>252000200</v>
       </c>
       <c r="H54" s="3">
-        <v>240972800</v>
+        <v>250472400</v>
       </c>
       <c r="I54" s="3">
+        <v>246822500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>238797900</v>
+      </c>
+      <c r="K54" s="3">
         <v>211259100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>201761900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>205560900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>203175800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>180905600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>155660500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>146807400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>133312900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>115434400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>114305100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>102893000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>105583600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>85903300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>80692600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>73705700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>71386600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3757,8 +4013,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3784,41 +4042,43 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>41535900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>39188500</v>
+        <v>38780200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F57" s="3">
-        <v>36898100</v>
+        <v>41161000</v>
       </c>
       <c r="G57" s="3">
-        <v>38450500</v>
+        <v>38834800</v>
       </c>
       <c r="H57" s="3">
-        <v>33142700</v>
+        <v>36565000</v>
       </c>
       <c r="I57" s="3">
+        <v>38103500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>32843600</v>
+      </c>
+      <c r="K57" s="3">
         <v>26279700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>24271800</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3855,363 +4115,399 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1165000</v>
+        <v>1978600</v>
       </c>
       <c r="E58" s="3">
-        <v>2777100</v>
+        <v>1291100</v>
       </c>
       <c r="F58" s="3">
-        <v>2507000</v>
+        <v>1154500</v>
       </c>
       <c r="G58" s="3">
-        <v>1980100</v>
+        <v>2752100</v>
       </c>
       <c r="H58" s="3">
-        <v>2217300</v>
+        <v>2484400</v>
       </c>
       <c r="I58" s="3">
+        <v>1962200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2197300</v>
+      </c>
+      <c r="K58" s="3">
         <v>722500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>669500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>806900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>649000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3768400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3516800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3417500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3313000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1262700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1964700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>864900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>956800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2428100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2442100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2166500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1989300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17791400</v>
+        <v>14087800</v>
       </c>
       <c r="E59" s="3">
-        <v>15189900</v>
+        <v>54752900</v>
       </c>
       <c r="F59" s="3">
-        <v>14852700</v>
+        <v>17630800</v>
       </c>
       <c r="G59" s="3">
-        <v>15176900</v>
+        <v>15052800</v>
       </c>
       <c r="H59" s="3">
-        <v>17418400</v>
+        <v>14718700</v>
       </c>
       <c r="I59" s="3">
+        <v>15039900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>17261200</v>
+      </c>
+      <c r="K59" s="3">
         <v>11744900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11617700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>37060600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>39764300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>34290100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>28673900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>28173100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>27007000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>22264000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>21594200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>18621100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>19292000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>15311900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>13438700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>11440500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>11476900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>60492300</v>
+        <v>54846500</v>
       </c>
       <c r="E60" s="3">
-        <v>57155500</v>
+        <v>56044000</v>
       </c>
       <c r="F60" s="3">
-        <v>54257800</v>
+        <v>59946300</v>
       </c>
       <c r="G60" s="3">
-        <v>55607500</v>
+        <v>56639600</v>
       </c>
       <c r="H60" s="3">
-        <v>52778500</v>
+        <v>53768100</v>
       </c>
       <c r="I60" s="3">
+        <v>55105600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>52302100</v>
+      </c>
+      <c r="K60" s="3">
         <v>38747100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>36559000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>37867500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>40413300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>38058500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>32190700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>31590600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>30320000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>23526700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>23558800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>19486000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>20248800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>17740000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>15880800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>13607000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>13466200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19411900</v>
+        <v>20219600</v>
       </c>
       <c r="E61" s="3">
-        <v>19585200</v>
+        <v>19349400</v>
       </c>
       <c r="F61" s="3">
-        <v>19687100</v>
+        <v>19236700</v>
       </c>
       <c r="G61" s="3">
-        <v>19999100</v>
+        <v>19408400</v>
       </c>
       <c r="H61" s="3">
-        <v>15126800</v>
+        <v>19509500</v>
       </c>
       <c r="I61" s="3">
+        <v>19818600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>14990300</v>
+      </c>
+      <c r="K61" s="3">
         <v>17224200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>17814900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>18830400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18196100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>18958600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>17779000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>17012200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16446000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>18082000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>17848900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>17149400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>18237200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>11186100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>11407200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>11174100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>11219300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14467100</v>
+        <v>14309800</v>
       </c>
       <c r="E62" s="3">
-        <v>14233100</v>
+        <v>14175600</v>
       </c>
       <c r="F62" s="3">
-        <v>13969300</v>
+        <v>14336500</v>
       </c>
       <c r="G62" s="3">
-        <v>13779600</v>
+        <v>14104600</v>
       </c>
       <c r="H62" s="3">
-        <v>13571900</v>
+        <v>13843200</v>
       </c>
       <c r="I62" s="3">
+        <v>13655300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13449400</v>
+      </c>
+      <c r="K62" s="3">
         <v>10694800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10566900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11144900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>11048800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10354200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7139000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>4589600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4043600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3657000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4636800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3206800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>3288800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2362400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2291500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1787600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1681900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4281,8 +4577,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4352,8 +4654,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4423,79 +4731,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>114301300</v>
+        <v>107459200</v>
       </c>
       <c r="E66" s="3">
-        <v>110881900</v>
+        <v>107685300</v>
       </c>
       <c r="F66" s="3">
-        <v>107771100</v>
+        <v>113269600</v>
       </c>
       <c r="G66" s="3">
-        <v>109646900</v>
+        <v>109881100</v>
       </c>
       <c r="H66" s="3">
-        <v>101643300</v>
+        <v>106798500</v>
       </c>
       <c r="I66" s="3">
+        <v>108657300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>100725900</v>
+      </c>
+      <c r="K66" s="3">
         <v>83728500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>81439100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>85870200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>87396600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>85691900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>74973700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>70887900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>65336800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>55593000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>57452000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>49974200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>53203800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>37956500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>36261200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>32724800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>32523100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4521,8 +4841,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4592,8 +4914,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4663,79 +4991,91 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1563200</v>
+        <v>1351800</v>
       </c>
       <c r="E70" s="3">
-        <v>1531700</v>
+        <v>1409900</v>
       </c>
       <c r="F70" s="3">
-        <v>1232400</v>
+        <v>1549100</v>
       </c>
       <c r="G70" s="3">
-        <v>1278100</v>
+        <v>1517800</v>
       </c>
       <c r="H70" s="3">
-        <v>1244200</v>
+        <v>1221200</v>
       </c>
       <c r="I70" s="3">
+        <v>1266500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1232900</v>
+      </c>
+      <c r="K70" s="3">
         <v>1183700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1152400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1425200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1200300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1171000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1083400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1037300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1040600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>839900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>452700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>430600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>442100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>133300</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>113200</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>435100</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>515800</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4805,79 +5145,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>87112500</v>
+        <v>84334500</v>
       </c>
       <c r="E72" s="3">
-        <v>85148900</v>
+        <v>83733000</v>
       </c>
       <c r="F72" s="3">
-        <v>88557900</v>
+        <v>86326200</v>
       </c>
       <c r="G72" s="3">
-        <v>82856300</v>
+        <v>84380400</v>
       </c>
       <c r="H72" s="3">
-        <v>83749300</v>
+        <v>87758600</v>
       </c>
       <c r="I72" s="3">
+        <v>82108400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>82993400</v>
+      </c>
+      <c r="K72" s="3">
         <v>72029000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>67773800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>64563300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>63003500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>55694500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>43446200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>39985800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>34455500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>29692900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>27742100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>25305600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>25027300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>21444900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>18812900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>16290200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>14732300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4947,8 +5299,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5018,8 +5376,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5089,79 +5453,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>143572700</v>
+        <v>140661900</v>
       </c>
       <c r="E76" s="3">
-        <v>141881700</v>
+        <v>138506400</v>
       </c>
       <c r="F76" s="3">
-        <v>143750100</v>
+        <v>142276900</v>
       </c>
       <c r="G76" s="3">
-        <v>138145600</v>
+        <v>140601200</v>
       </c>
       <c r="H76" s="3">
-        <v>138085300</v>
+        <v>142452700</v>
       </c>
       <c r="I76" s="3">
+        <v>136898700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>136839000</v>
+      </c>
+      <c r="K76" s="3">
         <v>126346900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>119170500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>118265600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>114579000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>94042700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>79603400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>74882100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>66935500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>59001500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>56400400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>52488100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>51937700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>47813500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>44318200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>40545700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>38347700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5231,155 +5607,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3010400</v>
+        <v>3320600</v>
       </c>
       <c r="E81" s="3">
-        <v>790900</v>
+        <v>-1311100</v>
       </c>
       <c r="F81" s="3">
-        <v>6652000</v>
+        <v>2983200</v>
       </c>
       <c r="G81" s="3">
-        <v>-807400</v>
+        <v>783700</v>
       </c>
       <c r="H81" s="3">
-        <v>11704400</v>
+        <v>6591900</v>
       </c>
       <c r="I81" s="3">
+        <v>-800100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>11598700</v>
+      </c>
+      <c r="K81" s="3">
         <v>4239400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7013000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>495000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8054500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>11317000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3246900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3929300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4800100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2803800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1246100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>1084900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3572700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>2622100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2179100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1548400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2596700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5405,8 +5799,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5476,8 +5872,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5547,8 +5949,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5618,8 +6026,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5689,8 +6103,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5760,8 +6180,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5831,79 +6257,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11842700</v>
+        <v>4945900</v>
       </c>
       <c r="E89" s="3">
-        <v>5279900</v>
+        <v>-1028100</v>
       </c>
       <c r="F89" s="3">
-        <v>4951700</v>
+        <v>11735800</v>
       </c>
       <c r="G89" s="3">
-        <v>3563600</v>
+        <v>5232300</v>
       </c>
       <c r="H89" s="3">
-        <v>15208700</v>
+        <v>4907000</v>
       </c>
       <c r="I89" s="3">
+        <v>3531400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>15071500</v>
+      </c>
+      <c r="K89" s="3">
         <v>8001100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7382600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>338800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>14859800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7383300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>5288000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2822300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9425100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>4395700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5182100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2063700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>8226100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>4470300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3839800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1562800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>5441400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5929,79 +6367,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>-1729400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7186300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>-480100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-861200</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
+        <v>-475800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-853400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2757100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2009700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-281000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1025400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-975000</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-532600</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6071,8 +6517,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6142,79 +6594,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4979300</v>
+        <v>-4031500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4387300</v>
+        <v>-12741700</v>
       </c>
       <c r="F94" s="3">
-        <v>-7040100</v>
+        <v>-4934400</v>
       </c>
       <c r="G94" s="3">
-        <v>-4082000</v>
+        <v>-4347800</v>
       </c>
       <c r="H94" s="3">
-        <v>-11746400</v>
+        <v>-6976600</v>
       </c>
       <c r="I94" s="3">
+        <v>-4045200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11640300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10175700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9980400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5165700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-441400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6240,8 +6704,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6311,8 +6777,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6382,8 +6854,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6453,8 +6931,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6524,217 +7008,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2755200</v>
+        <v>-3069800</v>
       </c>
       <c r="E100" s="3">
-        <v>-3488000</v>
+        <v>-1550000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1689900</v>
+        <v>-2730300</v>
       </c>
       <c r="G100" s="3">
-        <v>4460600</v>
+        <v>-3456500</v>
       </c>
       <c r="H100" s="3">
-        <v>-837700</v>
+        <v>-1674700</v>
       </c>
       <c r="I100" s="3">
+        <v>4420300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-830200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1489200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-679200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>464500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>9437000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>328600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>686400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>109400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-486600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>614200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-660700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>5086600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-61700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>361000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-103300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-873000</v>
+        <v>485700</v>
       </c>
       <c r="E101" s="3">
-        <v>28700</v>
+        <v>-133300</v>
       </c>
       <c r="F101" s="3">
-        <v>-323000</v>
+        <v>-865100</v>
       </c>
       <c r="G101" s="3">
-        <v>169300</v>
+        <v>28500</v>
       </c>
       <c r="H101" s="3">
-        <v>-608900</v>
+        <v>-320100</v>
       </c>
       <c r="I101" s="3">
+        <v>167800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-603400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-567800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-51700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>363500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>367100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>210400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-173700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>233700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>399300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-380700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-224000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-120400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-162100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-64900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>253800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3235300</v>
+        <v>-1669700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2566700</v>
+        <v>-15453000</v>
       </c>
       <c r="F102" s="3">
-        <v>-4101300</v>
+        <v>3206100</v>
       </c>
       <c r="G102" s="3">
-        <v>4111500</v>
+        <v>-2543600</v>
       </c>
       <c r="H102" s="3">
-        <v>2015700</v>
+        <v>-4064300</v>
       </c>
       <c r="I102" s="3">
+        <v>4074400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1997500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1253100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3328700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3998900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>18978300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4747700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2955700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>209800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3610700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-277700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>9481900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>494500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>291500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1417500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4407300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -765,25 +765,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30017200</v>
+        <v>28613300</v>
       </c>
       <c r="E8" s="3">
-        <v>29797700</v>
+        <v>28404000</v>
       </c>
       <c r="F8" s="3">
-        <v>35424000</v>
+        <v>33767100</v>
       </c>
       <c r="G8" s="3">
-        <v>29306800</v>
+        <v>27936000</v>
       </c>
       <c r="H8" s="3">
-        <v>30044200</v>
+        <v>28639000</v>
       </c>
       <c r="I8" s="3">
-        <v>27365300</v>
+        <v>26085400</v>
       </c>
       <c r="J8" s="3">
-        <v>32284900</v>
+        <v>30774900</v>
       </c>
       <c r="K8" s="3">
         <v>22849500</v>
@@ -842,25 +842,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18933800</v>
+        <v>18048300</v>
       </c>
       <c r="E9" s="3">
-        <v>20290100</v>
+        <v>19341100</v>
       </c>
       <c r="F9" s="3">
-        <v>21416500</v>
+        <v>20414800</v>
       </c>
       <c r="G9" s="3">
-        <v>18947400</v>
+        <v>18061200</v>
       </c>
       <c r="H9" s="3">
-        <v>18121900</v>
+        <v>17274300</v>
       </c>
       <c r="I9" s="3">
-        <v>18320000</v>
+        <v>17463200</v>
       </c>
       <c r="J9" s="3">
-        <v>17708800</v>
+        <v>16880500</v>
       </c>
       <c r="K9" s="3">
         <v>13256500</v>
@@ -919,25 +919,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11083400</v>
+        <v>10565000</v>
       </c>
       <c r="E10" s="3">
-        <v>9507600</v>
+        <v>9062900</v>
       </c>
       <c r="F10" s="3">
-        <v>14007500</v>
+        <v>13352300</v>
       </c>
       <c r="G10" s="3">
-        <v>10359400</v>
+        <v>9874800</v>
       </c>
       <c r="H10" s="3">
-        <v>11922300</v>
+        <v>11364700</v>
       </c>
       <c r="I10" s="3">
-        <v>9045200</v>
+        <v>8622200</v>
       </c>
       <c r="J10" s="3">
-        <v>14576100</v>
+        <v>13894400</v>
       </c>
       <c r="K10" s="3">
         <v>9593000</v>
@@ -1025,25 +1025,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2072600</v>
+        <v>1975700</v>
       </c>
       <c r="E12" s="3">
-        <v>1598200</v>
+        <v>1523400</v>
       </c>
       <c r="F12" s="3">
-        <v>2293400</v>
+        <v>2186100</v>
       </c>
       <c r="G12" s="3">
-        <v>2233800</v>
+        <v>2129300</v>
       </c>
       <c r="H12" s="3">
-        <v>1974200</v>
+        <v>1881800</v>
       </c>
       <c r="I12" s="3">
-        <v>1942500</v>
+        <v>1851600</v>
       </c>
       <c r="J12" s="3">
-        <v>1987000</v>
+        <v>1894100</v>
       </c>
       <c r="K12" s="3">
         <v>2835900</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>3671300</v>
+        <v>3499600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1256,25 +1256,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>401700</v>
+        <v>382900</v>
       </c>
       <c r="E15" s="3">
-        <v>413400</v>
+        <v>394100</v>
       </c>
       <c r="F15" s="3">
-        <v>414300</v>
+        <v>394900</v>
       </c>
       <c r="G15" s="3">
-        <v>424400</v>
+        <v>404500</v>
       </c>
       <c r="H15" s="3">
-        <v>448800</v>
+        <v>427800</v>
       </c>
       <c r="I15" s="3">
-        <v>498700</v>
+        <v>475400</v>
       </c>
       <c r="J15" s="3">
-        <v>463200</v>
+        <v>441500</v>
       </c>
       <c r="K15" s="3">
         <v>425600</v>
@@ -1359,25 +1359,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26374800</v>
+        <v>25141200</v>
       </c>
       <c r="E17" s="3">
-        <v>27356500</v>
+        <v>26077000</v>
       </c>
       <c r="F17" s="3">
-        <v>34391800</v>
+        <v>32783300</v>
       </c>
       <c r="G17" s="3">
-        <v>27115400</v>
+        <v>25847200</v>
       </c>
       <c r="H17" s="3">
-        <v>25539600</v>
+        <v>24345100</v>
       </c>
       <c r="I17" s="3">
-        <v>28484300</v>
+        <v>27152100</v>
       </c>
       <c r="J17" s="3">
-        <v>25129100</v>
+        <v>23953800</v>
       </c>
       <c r="K17" s="3">
         <v>20840400</v>
@@ -1436,25 +1436,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3642400</v>
+        <v>3472100</v>
       </c>
       <c r="E18" s="3">
-        <v>2441200</v>
+        <v>2327000</v>
       </c>
       <c r="F18" s="3">
-        <v>1032100</v>
+        <v>983900</v>
       </c>
       <c r="G18" s="3">
-        <v>2191300</v>
+        <v>2088800</v>
       </c>
       <c r="H18" s="3">
-        <v>4504600</v>
+        <v>4293900</v>
       </c>
       <c r="I18" s="3">
-        <v>-1119000</v>
+        <v>-1066700</v>
       </c>
       <c r="J18" s="3">
-        <v>7155800</v>
+        <v>6821100</v>
       </c>
       <c r="K18" s="3">
         <v>2009100</v>
@@ -1542,25 +1542,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800000</v>
+        <v>762500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5123900</v>
+        <v>-4884200</v>
       </c>
       <c r="F20" s="3">
-        <v>3423500</v>
+        <v>3263400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1430100</v>
+        <v>-1363200</v>
       </c>
       <c r="H20" s="3">
-        <v>2374200</v>
+        <v>2263100</v>
       </c>
       <c r="I20" s="3">
-        <v>325100</v>
+        <v>309900</v>
       </c>
       <c r="J20" s="3">
-        <v>6259100</v>
+        <v>5966400</v>
       </c>
       <c r="K20" s="3">
         <v>1717900</v>
@@ -1619,25 +1619,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5821800</v>
+        <v>5549500</v>
       </c>
       <c r="E21" s="3">
-        <v>-2534600</v>
+        <v>-2416100</v>
       </c>
       <c r="F21" s="3">
-        <v>4406900</v>
+        <v>4200800</v>
       </c>
       <c r="G21" s="3">
-        <v>723700</v>
+        <v>689900</v>
       </c>
       <c r="H21" s="3">
-        <v>8334700</v>
+        <v>7944800</v>
       </c>
       <c r="I21" s="3">
-        <v>592600</v>
+        <v>564900</v>
       </c>
       <c r="J21" s="3">
-        <v>13575800</v>
+        <v>12940900</v>
       </c>
       <c r="K21" s="3">
         <v>3812200</v>
@@ -1696,25 +1696,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>181700</v>
+        <v>173200</v>
       </c>
       <c r="E22" s="3">
-        <v>173600</v>
+        <v>165500</v>
       </c>
       <c r="F22" s="3">
-        <v>173200</v>
+        <v>165100</v>
       </c>
       <c r="G22" s="3">
-        <v>185000</v>
+        <v>176400</v>
       </c>
       <c r="H22" s="3">
-        <v>185000</v>
+        <v>176400</v>
       </c>
       <c r="I22" s="3">
-        <v>169400</v>
+        <v>161500</v>
       </c>
       <c r="J22" s="3">
-        <v>159500</v>
+        <v>152000</v>
       </c>
       <c r="K22" s="3">
         <v>162200</v>
@@ -1773,25 +1773,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4260700</v>
+        <v>4061400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2856300</v>
+        <v>-2722800</v>
       </c>
       <c r="F23" s="3">
-        <v>4282500</v>
+        <v>4082200</v>
       </c>
       <c r="G23" s="3">
-        <v>576200</v>
+        <v>549300</v>
       </c>
       <c r="H23" s="3">
-        <v>6693700</v>
+        <v>6380600</v>
       </c>
       <c r="I23" s="3">
-        <v>-963400</v>
+        <v>-918300</v>
       </c>
       <c r="J23" s="3">
-        <v>13255400</v>
+        <v>12635500</v>
       </c>
       <c r="K23" s="3">
         <v>3564800</v>
@@ -1850,25 +1850,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>788400</v>
+        <v>751500</v>
       </c>
       <c r="E24" s="3">
-        <v>303600</v>
+        <v>289400</v>
       </c>
       <c r="F24" s="3">
-        <v>1395000</v>
+        <v>1329800</v>
       </c>
       <c r="G24" s="3">
-        <v>888900</v>
+        <v>847300</v>
       </c>
       <c r="H24" s="3">
-        <v>1328300</v>
+        <v>1266200</v>
       </c>
       <c r="I24" s="3">
-        <v>1029400</v>
+        <v>981200</v>
       </c>
       <c r="J24" s="3">
-        <v>1342600</v>
+        <v>1279800</v>
       </c>
       <c r="K24" s="3">
         <v>281600</v>
@@ -2004,25 +2004,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3472300</v>
+        <v>3309900</v>
       </c>
       <c r="E26" s="3">
-        <v>-3159900</v>
+        <v>-3012100</v>
       </c>
       <c r="F26" s="3">
-        <v>2887500</v>
+        <v>2752400</v>
       </c>
       <c r="G26" s="3">
-        <v>-312700</v>
+        <v>-298000</v>
       </c>
       <c r="H26" s="3">
-        <v>5365400</v>
+        <v>5114500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1992700</v>
+        <v>-1899500</v>
       </c>
       <c r="J26" s="3">
-        <v>11912800</v>
+        <v>11355700</v>
       </c>
       <c r="K26" s="3">
         <v>3283200</v>
@@ -2081,25 +2081,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3320600</v>
+        <v>3165300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1311100</v>
+        <v>-1249700</v>
       </c>
       <c r="F27" s="3">
-        <v>2983200</v>
+        <v>2843700</v>
       </c>
       <c r="G27" s="3">
-        <v>783700</v>
+        <v>747100</v>
       </c>
       <c r="H27" s="3">
-        <v>6591900</v>
+        <v>6283600</v>
       </c>
       <c r="I27" s="3">
-        <v>-800100</v>
+        <v>-762700</v>
       </c>
       <c r="J27" s="3">
-        <v>11598700</v>
+        <v>11056200</v>
       </c>
       <c r="K27" s="3">
         <v>4239400</v>
@@ -2466,25 +2466,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800000</v>
+        <v>-762500</v>
       </c>
       <c r="E32" s="3">
-        <v>5123900</v>
+        <v>4884200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3423500</v>
+        <v>-3263400</v>
       </c>
       <c r="G32" s="3">
-        <v>1430100</v>
+        <v>1363200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2374200</v>
+        <v>-2263100</v>
       </c>
       <c r="I32" s="3">
-        <v>-325100</v>
+        <v>-309900</v>
       </c>
       <c r="J32" s="3">
-        <v>-6259100</v>
+        <v>-5966400</v>
       </c>
       <c r="K32" s="3">
         <v>-1717900</v>
@@ -2543,25 +2543,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3320600</v>
+        <v>3165300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1311100</v>
+        <v>-1249700</v>
       </c>
       <c r="F33" s="3">
-        <v>2983200</v>
+        <v>2843700</v>
       </c>
       <c r="G33" s="3">
-        <v>783700</v>
+        <v>747100</v>
       </c>
       <c r="H33" s="3">
-        <v>6591900</v>
+        <v>6283600</v>
       </c>
       <c r="I33" s="3">
-        <v>-800100</v>
+        <v>-762700</v>
       </c>
       <c r="J33" s="3">
-        <v>11598700</v>
+        <v>11056200</v>
       </c>
       <c r="K33" s="3">
         <v>4239400</v>
@@ -2697,25 +2697,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3320600</v>
+        <v>3165300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1311100</v>
+        <v>-1249700</v>
       </c>
       <c r="F35" s="3">
-        <v>2983200</v>
+        <v>2843700</v>
       </c>
       <c r="G35" s="3">
-        <v>783700</v>
+        <v>747100</v>
       </c>
       <c r="H35" s="3">
-        <v>6591900</v>
+        <v>6283600</v>
       </c>
       <c r="I35" s="3">
-        <v>-800100</v>
+        <v>-762700</v>
       </c>
       <c r="J35" s="3">
-        <v>11598700</v>
+        <v>11056200</v>
       </c>
       <c r="K35" s="3">
         <v>4239400</v>
@@ -2914,25 +2914,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25808200</v>
+        <v>24601100</v>
       </c>
       <c r="E41" s="3">
-        <v>27730800</v>
+        <v>26433800</v>
       </c>
       <c r="F41" s="3">
-        <v>42803300</v>
+        <v>40801300</v>
       </c>
       <c r="G41" s="3">
-        <v>39750200</v>
+        <v>37891100</v>
       </c>
       <c r="H41" s="3">
-        <v>42612900</v>
+        <v>40619800</v>
       </c>
       <c r="I41" s="3">
-        <v>46913900</v>
+        <v>44719700</v>
       </c>
       <c r="J41" s="3">
-        <v>45581400</v>
+        <v>43449500</v>
       </c>
       <c r="K41" s="3">
         <v>44430400</v>
@@ -2991,25 +2991,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41845000</v>
+        <v>39887900</v>
       </c>
       <c r="E42" s="3">
-        <v>38725300</v>
+        <v>36914000</v>
       </c>
       <c r="F42" s="3">
-        <v>29471800</v>
+        <v>28093300</v>
       </c>
       <c r="G42" s="3">
-        <v>27307500</v>
+        <v>26030300</v>
       </c>
       <c r="H42" s="3">
-        <v>27971000</v>
+        <v>26662800</v>
       </c>
       <c r="I42" s="3">
-        <v>23683600</v>
+        <v>22575900</v>
       </c>
       <c r="J42" s="3">
-        <v>21908000</v>
+        <v>20883300</v>
       </c>
       <c r="K42" s="3">
         <v>16090800</v>
@@ -3222,25 +3222,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26530900</v>
+        <v>25290000</v>
       </c>
       <c r="E45" s="3">
-        <v>26789200</v>
+        <v>25536200</v>
       </c>
       <c r="F45" s="3">
-        <v>26315300</v>
+        <v>25084500</v>
       </c>
       <c r="G45" s="3">
-        <v>26116300</v>
+        <v>24894800</v>
       </c>
       <c r="H45" s="3">
-        <v>23917500</v>
+        <v>22798900</v>
       </c>
       <c r="I45" s="3">
-        <v>23352400</v>
+        <v>22260200</v>
       </c>
       <c r="J45" s="3">
-        <v>19796600</v>
+        <v>18870600</v>
       </c>
       <c r="K45" s="3">
         <v>16538500</v>
@@ -3299,25 +3299,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>94184100</v>
+        <v>89779000</v>
       </c>
       <c r="E46" s="3">
-        <v>93245300</v>
+        <v>88884100</v>
       </c>
       <c r="F46" s="3">
-        <v>98590400</v>
+        <v>93979200</v>
       </c>
       <c r="G46" s="3">
-        <v>93174000</v>
+        <v>88816100</v>
       </c>
       <c r="H46" s="3">
-        <v>94501400</v>
+        <v>90081500</v>
       </c>
       <c r="I46" s="3">
-        <v>93949900</v>
+        <v>89555700</v>
       </c>
       <c r="J46" s="3">
-        <v>87285900</v>
+        <v>83203500</v>
       </c>
       <c r="K46" s="3">
         <v>77059700</v>
@@ -3376,25 +3376,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65243600</v>
+        <v>62192100</v>
       </c>
       <c r="E47" s="3">
-        <v>64728200</v>
+        <v>61700800</v>
       </c>
       <c r="F47" s="3">
-        <v>69560100</v>
+        <v>66306700</v>
       </c>
       <c r="G47" s="3">
-        <v>67374400</v>
+        <v>64223300</v>
       </c>
       <c r="H47" s="3">
-        <v>66376900</v>
+        <v>63272400</v>
       </c>
       <c r="I47" s="3">
-        <v>63875000</v>
+        <v>60887500</v>
       </c>
       <c r="J47" s="3">
-        <v>62174900</v>
+        <v>59266900</v>
       </c>
       <c r="K47" s="3">
         <v>58735200</v>
@@ -3453,25 +3453,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25965900</v>
+        <v>24751400</v>
       </c>
       <c r="E48" s="3">
-        <v>36486900</v>
+        <v>34780400</v>
       </c>
       <c r="F48" s="3">
-        <v>24103100</v>
+        <v>22975800</v>
       </c>
       <c r="G48" s="3">
-        <v>22936300</v>
+        <v>21863600</v>
       </c>
       <c r="H48" s="3">
-        <v>22285100</v>
+        <v>21242800</v>
       </c>
       <c r="I48" s="3">
-        <v>21526600</v>
+        <v>20519800</v>
       </c>
       <c r="J48" s="3">
-        <v>21478400</v>
+        <v>20473800</v>
       </c>
       <c r="K48" s="3">
         <v>17393900</v>
@@ -3530,25 +3530,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>47790400</v>
+        <v>45555100</v>
       </c>
       <c r="E49" s="3">
-        <v>48016400</v>
+        <v>45770600</v>
       </c>
       <c r="F49" s="3">
-        <v>48361000</v>
+        <v>46099100</v>
       </c>
       <c r="G49" s="3">
-        <v>52538100</v>
+        <v>50080800</v>
       </c>
       <c r="H49" s="3">
-        <v>52559300</v>
+        <v>50101000</v>
       </c>
       <c r="I49" s="3">
-        <v>53097100</v>
+        <v>50613700</v>
       </c>
       <c r="J49" s="3">
-        <v>53641600</v>
+        <v>51132800</v>
       </c>
       <c r="K49" s="3">
         <v>49004600</v>
@@ -3761,25 +3761,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16289100</v>
+        <v>15527200</v>
       </c>
       <c r="E52" s="3">
-        <v>5124800</v>
+        <v>4885100</v>
       </c>
       <c r="F52" s="3">
-        <v>16480900</v>
+        <v>15710100</v>
       </c>
       <c r="G52" s="3">
-        <v>15977300</v>
+        <v>15230000</v>
       </c>
       <c r="H52" s="3">
-        <v>14749800</v>
+        <v>14059900</v>
       </c>
       <c r="I52" s="3">
-        <v>14374000</v>
+        <v>13701700</v>
       </c>
       <c r="J52" s="3">
-        <v>14217000</v>
+        <v>13552100</v>
       </c>
       <c r="K52" s="3">
         <v>9065700</v>
@@ -3915,25 +3915,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>249473000</v>
+        <v>237804800</v>
       </c>
       <c r="E54" s="3">
-        <v>247601600</v>
+        <v>236021000</v>
       </c>
       <c r="F54" s="3">
-        <v>257095600</v>
+        <v>245070900</v>
       </c>
       <c r="G54" s="3">
-        <v>252000200</v>
+        <v>240213800</v>
       </c>
       <c r="H54" s="3">
-        <v>250472400</v>
+        <v>238757500</v>
       </c>
       <c r="I54" s="3">
-        <v>246822500</v>
+        <v>235278300</v>
       </c>
       <c r="J54" s="3">
-        <v>238797900</v>
+        <v>227629000</v>
       </c>
       <c r="K54" s="3">
         <v>211259100</v>
@@ -4050,25 +4050,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38780200</v>
+        <v>36966400</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3">
-        <v>41161000</v>
+        <v>39235900</v>
       </c>
       <c r="G57" s="3">
-        <v>38834800</v>
+        <v>37018400</v>
       </c>
       <c r="H57" s="3">
-        <v>36565000</v>
+        <v>34854800</v>
       </c>
       <c r="I57" s="3">
-        <v>38103500</v>
+        <v>36321300</v>
       </c>
       <c r="J57" s="3">
-        <v>32843600</v>
+        <v>31307500</v>
       </c>
       <c r="K57" s="3">
         <v>26279700</v>
@@ -4127,25 +4127,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1978600</v>
+        <v>1886000</v>
       </c>
       <c r="E58" s="3">
-        <v>1291100</v>
+        <v>1230700</v>
       </c>
       <c r="F58" s="3">
-        <v>1154500</v>
+        <v>1100500</v>
       </c>
       <c r="G58" s="3">
-        <v>2752100</v>
+        <v>2623400</v>
       </c>
       <c r="H58" s="3">
-        <v>2484400</v>
+        <v>2368200</v>
       </c>
       <c r="I58" s="3">
-        <v>1962200</v>
+        <v>1870400</v>
       </c>
       <c r="J58" s="3">
-        <v>2197300</v>
+        <v>2094500</v>
       </c>
       <c r="K58" s="3">
         <v>722500</v>
@@ -4204,25 +4204,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14087800</v>
+        <v>13428900</v>
       </c>
       <c r="E59" s="3">
-        <v>54752900</v>
+        <v>52192100</v>
       </c>
       <c r="F59" s="3">
-        <v>17630800</v>
+        <v>16806200</v>
       </c>
       <c r="G59" s="3">
-        <v>15052800</v>
+        <v>14348700</v>
       </c>
       <c r="H59" s="3">
-        <v>14718700</v>
+        <v>14030200</v>
       </c>
       <c r="I59" s="3">
-        <v>15039900</v>
+        <v>14336500</v>
       </c>
       <c r="J59" s="3">
-        <v>17261200</v>
+        <v>16453900</v>
       </c>
       <c r="K59" s="3">
         <v>11744900</v>
@@ -4281,25 +4281,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54846500</v>
+        <v>52281300</v>
       </c>
       <c r="E60" s="3">
-        <v>56044000</v>
+        <v>53422700</v>
       </c>
       <c r="F60" s="3">
-        <v>59946300</v>
+        <v>57142600</v>
       </c>
       <c r="G60" s="3">
-        <v>56639600</v>
+        <v>53990500</v>
       </c>
       <c r="H60" s="3">
-        <v>53768100</v>
+        <v>51253300</v>
       </c>
       <c r="I60" s="3">
-        <v>55105600</v>
+        <v>52528200</v>
       </c>
       <c r="J60" s="3">
-        <v>52302100</v>
+        <v>49855900</v>
       </c>
       <c r="K60" s="3">
         <v>38747100</v>
@@ -4358,25 +4358,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20219600</v>
+        <v>19273900</v>
       </c>
       <c r="E61" s="3">
-        <v>19349400</v>
+        <v>18444400</v>
       </c>
       <c r="F61" s="3">
-        <v>19236700</v>
+        <v>18337000</v>
       </c>
       <c r="G61" s="3">
-        <v>19408400</v>
+        <v>18500700</v>
       </c>
       <c r="H61" s="3">
-        <v>19509500</v>
+        <v>18597000</v>
       </c>
       <c r="I61" s="3">
-        <v>19818600</v>
+        <v>18891700</v>
       </c>
       <c r="J61" s="3">
-        <v>14990300</v>
+        <v>14289200</v>
       </c>
       <c r="K61" s="3">
         <v>17224200</v>
@@ -4435,25 +4435,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14309800</v>
+        <v>13640500</v>
       </c>
       <c r="E62" s="3">
-        <v>14175600</v>
+        <v>13512600</v>
       </c>
       <c r="F62" s="3">
-        <v>14336500</v>
+        <v>13666000</v>
       </c>
       <c r="G62" s="3">
-        <v>14104600</v>
+        <v>13444900</v>
       </c>
       <c r="H62" s="3">
-        <v>13843200</v>
+        <v>13195700</v>
       </c>
       <c r="I62" s="3">
-        <v>13655300</v>
+        <v>13016600</v>
       </c>
       <c r="J62" s="3">
-        <v>13449400</v>
+        <v>12820300</v>
       </c>
       <c r="K62" s="3">
         <v>10694800</v>
@@ -4743,25 +4743,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>107459200</v>
+        <v>102433200</v>
       </c>
       <c r="E66" s="3">
-        <v>107685300</v>
+        <v>102648700</v>
       </c>
       <c r="F66" s="3">
-        <v>113269600</v>
+        <v>107971900</v>
       </c>
       <c r="G66" s="3">
-        <v>109881100</v>
+        <v>104741900</v>
       </c>
       <c r="H66" s="3">
-        <v>106798500</v>
+        <v>101803400</v>
       </c>
       <c r="I66" s="3">
-        <v>108657300</v>
+        <v>103575200</v>
       </c>
       <c r="J66" s="3">
-        <v>100725900</v>
+        <v>96014900</v>
       </c>
       <c r="K66" s="3">
         <v>83728500</v>
@@ -5003,25 +5003,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1351800</v>
+        <v>1288600</v>
       </c>
       <c r="E70" s="3">
-        <v>1409900</v>
+        <v>1344000</v>
       </c>
       <c r="F70" s="3">
-        <v>1549100</v>
+        <v>1476600</v>
       </c>
       <c r="G70" s="3">
-        <v>1517800</v>
+        <v>1446800</v>
       </c>
       <c r="H70" s="3">
-        <v>1221200</v>
+        <v>1164100</v>
       </c>
       <c r="I70" s="3">
-        <v>1266500</v>
+        <v>1207300</v>
       </c>
       <c r="J70" s="3">
-        <v>1232900</v>
+        <v>1175300</v>
       </c>
       <c r="K70" s="3">
         <v>1183700</v>
@@ -5157,25 +5157,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>84334500</v>
+        <v>80390100</v>
       </c>
       <c r="E72" s="3">
-        <v>83733000</v>
+        <v>79816700</v>
       </c>
       <c r="F72" s="3">
-        <v>86326200</v>
+        <v>82288600</v>
       </c>
       <c r="G72" s="3">
-        <v>84380400</v>
+        <v>80433800</v>
       </c>
       <c r="H72" s="3">
-        <v>87758600</v>
+        <v>83654000</v>
       </c>
       <c r="I72" s="3">
-        <v>82108400</v>
+        <v>78268100</v>
       </c>
       <c r="J72" s="3">
-        <v>82993400</v>
+        <v>79111700</v>
       </c>
       <c r="K72" s="3">
         <v>72029000</v>
@@ -5465,25 +5465,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>140661900</v>
+        <v>134083000</v>
       </c>
       <c r="E76" s="3">
-        <v>138506400</v>
+        <v>132028300</v>
       </c>
       <c r="F76" s="3">
-        <v>142276900</v>
+        <v>135622400</v>
       </c>
       <c r="G76" s="3">
-        <v>140601200</v>
+        <v>134025100</v>
       </c>
       <c r="H76" s="3">
-        <v>142452700</v>
+        <v>135790000</v>
       </c>
       <c r="I76" s="3">
-        <v>136898700</v>
+        <v>130495800</v>
       </c>
       <c r="J76" s="3">
-        <v>136839000</v>
+        <v>130438900</v>
       </c>
       <c r="K76" s="3">
         <v>126346900</v>
@@ -5701,25 +5701,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3320600</v>
+        <v>3165300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1311100</v>
+        <v>-1249700</v>
       </c>
       <c r="F81" s="3">
-        <v>2983200</v>
+        <v>2843700</v>
       </c>
       <c r="G81" s="3">
-        <v>783700</v>
+        <v>747100</v>
       </c>
       <c r="H81" s="3">
-        <v>6591900</v>
+        <v>6283600</v>
       </c>
       <c r="I81" s="3">
-        <v>-800100</v>
+        <v>-762700</v>
       </c>
       <c r="J81" s="3">
-        <v>11598700</v>
+        <v>11056200</v>
       </c>
       <c r="K81" s="3">
         <v>4239400</v>
@@ -6269,25 +6269,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4945900</v>
+        <v>4714600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1028100</v>
+        <v>-980000</v>
       </c>
       <c r="F89" s="3">
-        <v>11735800</v>
+        <v>11186900</v>
       </c>
       <c r="G89" s="3">
-        <v>5232300</v>
+        <v>4987500</v>
       </c>
       <c r="H89" s="3">
-        <v>4907000</v>
+        <v>4677500</v>
       </c>
       <c r="I89" s="3">
-        <v>3531400</v>
+        <v>3366300</v>
       </c>
       <c r="J89" s="3">
-        <v>15071500</v>
+        <v>14366600</v>
       </c>
       <c r="K89" s="3">
         <v>8001100</v>
@@ -6375,10 +6375,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1729400</v>
+        <v>-1648500</v>
       </c>
       <c r="E91" s="3">
-        <v>-7186300</v>
+        <v>-6850200</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -6390,10 +6390,10 @@
         <v>10</v>
       </c>
       <c r="I91" s="3">
-        <v>-475800</v>
+        <v>-453500</v>
       </c>
       <c r="J91" s="3">
-        <v>-853400</v>
+        <v>-813500</v>
       </c>
       <c r="K91" s="3">
         <v>-2757100</v>
@@ -6606,25 +6606,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4031500</v>
+        <v>-3842900</v>
       </c>
       <c r="E94" s="3">
-        <v>-12741700</v>
+        <v>-12145800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4934400</v>
+        <v>-4703600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4347800</v>
+        <v>-4144400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6976600</v>
+        <v>-6650300</v>
       </c>
       <c r="I94" s="3">
-        <v>-4045200</v>
+        <v>-3856000</v>
       </c>
       <c r="J94" s="3">
-        <v>-11640300</v>
+        <v>-11095900</v>
       </c>
       <c r="K94" s="3">
         <v>-10175700</v>
@@ -7020,25 +7020,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3069800</v>
+        <v>-2926300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1550000</v>
+        <v>-1477500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2730300</v>
+        <v>-2602600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3456500</v>
+        <v>-3294900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1674700</v>
+        <v>-1596300</v>
       </c>
       <c r="I100" s="3">
-        <v>4420300</v>
+        <v>4213600</v>
       </c>
       <c r="J100" s="3">
-        <v>-830200</v>
+        <v>-791400</v>
       </c>
       <c r="K100" s="3">
         <v>1489200</v>
@@ -7097,25 +7097,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>485700</v>
+        <v>463000</v>
       </c>
       <c r="E101" s="3">
-        <v>-133300</v>
+        <v>-127100</v>
       </c>
       <c r="F101" s="3">
-        <v>-865100</v>
+        <v>-824600</v>
       </c>
       <c r="G101" s="3">
-        <v>28500</v>
+        <v>27100</v>
       </c>
       <c r="H101" s="3">
-        <v>-320100</v>
+        <v>-305100</v>
       </c>
       <c r="I101" s="3">
-        <v>167800</v>
+        <v>159900</v>
       </c>
       <c r="J101" s="3">
-        <v>-603400</v>
+        <v>-575200</v>
       </c>
       <c r="K101" s="3">
         <v>-567800</v>
@@ -7174,25 +7174,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1669700</v>
+        <v>-1591600</v>
       </c>
       <c r="E102" s="3">
-        <v>-15453000</v>
+        <v>-14730300</v>
       </c>
       <c r="F102" s="3">
-        <v>3206100</v>
+        <v>3056100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2543600</v>
+        <v>-2424600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4064300</v>
+        <v>-3874200</v>
       </c>
       <c r="I102" s="3">
-        <v>4074400</v>
+        <v>3883800</v>
       </c>
       <c r="J102" s="3">
-        <v>1997500</v>
+        <v>1904100</v>
       </c>
       <c r="K102" s="3">
         <v>-1253100</v>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,357 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28613300</v>
+        <v>35582700</v>
       </c>
       <c r="E8" s="3">
-        <v>28404000</v>
+        <v>29754600</v>
       </c>
       <c r="F8" s="3">
-        <v>33767100</v>
+        <v>29521800</v>
       </c>
       <c r="G8" s="3">
-        <v>27936000</v>
+        <v>29305900</v>
       </c>
       <c r="H8" s="3">
-        <v>28639000</v>
+        <v>34839300</v>
       </c>
       <c r="I8" s="3">
+        <v>28823100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>29548400</v>
+      </c>
+      <c r="K8" s="3">
         <v>26085400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30774900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22849500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>22656700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>17897000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>24861000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>18567800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>17558100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>14222900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>17032300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11917300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11610400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>8886000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>12322200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>8180700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>7447800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5610500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>7743900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18048300</v>
+        <v>21543700</v>
       </c>
       <c r="E9" s="3">
-        <v>19341100</v>
+        <v>18844400</v>
       </c>
       <c r="F9" s="3">
-        <v>20414800</v>
+        <v>18621300</v>
       </c>
       <c r="G9" s="3">
-        <v>18061200</v>
+        <v>19955300</v>
       </c>
       <c r="H9" s="3">
-        <v>17274300</v>
+        <v>21063000</v>
       </c>
       <c r="I9" s="3">
+        <v>18634700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17822800</v>
+      </c>
+      <c r="K9" s="3">
         <v>17463200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>16880500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>13256500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>12455300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>11350900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12985400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>10225800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9164800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>8459400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8831900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6548200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>6272900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4663700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>5205900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3265300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2591200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2252700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2781500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10565000</v>
+        <v>14039000</v>
       </c>
       <c r="E10" s="3">
-        <v>9062900</v>
+        <v>10910200</v>
       </c>
       <c r="F10" s="3">
-        <v>13352300</v>
+        <v>10900500</v>
       </c>
       <c r="G10" s="3">
-        <v>9874800</v>
+        <v>9350700</v>
       </c>
       <c r="H10" s="3">
-        <v>11364700</v>
+        <v>13776300</v>
       </c>
       <c r="I10" s="3">
+        <v>10188400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>11725600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8622200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>13894400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9593000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10201400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6546100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>11875600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8342000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8393300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>5763500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>8200400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>5369100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5337500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4222300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>7116300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>4915300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4856600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>3357800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>4962400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,85 +1043,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1975700</v>
+        <v>1941900</v>
       </c>
       <c r="E12" s="3">
-        <v>1523400</v>
+        <v>2175800</v>
       </c>
       <c r="F12" s="3">
-        <v>2186100</v>
+        <v>2038400</v>
       </c>
       <c r="G12" s="3">
-        <v>2129300</v>
+        <v>1571800</v>
       </c>
       <c r="H12" s="3">
-        <v>1881800</v>
+        <v>2255600</v>
       </c>
       <c r="I12" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1941600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1851600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1894100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2835900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1633000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1657500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1705600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1706400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1600800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1317200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1292700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1170800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1651500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>959300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>933400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>754400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>696900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>657100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>642800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1173,162 +1205,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>389800</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3499600</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3610800</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>89900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>73300</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>309000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>382900</v>
+        <v>794200</v>
       </c>
       <c r="E15" s="3">
-        <v>394100</v>
+        <v>391900</v>
       </c>
       <c r="F15" s="3">
-        <v>394900</v>
+        <v>395100</v>
       </c>
       <c r="G15" s="3">
-        <v>404500</v>
+        <v>406600</v>
       </c>
       <c r="H15" s="3">
-        <v>427800</v>
+        <v>407400</v>
       </c>
       <c r="I15" s="3">
+        <v>417400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>441300</v>
+      </c>
+      <c r="K15" s="3">
         <v>475400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>441500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>425600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>435000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>633100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>503800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>469000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>468400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>487200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>408000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>365400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>301900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>190700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>305300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>259400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>294700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>190900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>183400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1353,162 +1403,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25141200</v>
+        <v>30551600</v>
       </c>
       <c r="E17" s="3">
-        <v>26077000</v>
+        <v>26144400</v>
       </c>
       <c r="F17" s="3">
-        <v>32783300</v>
+        <v>25939500</v>
       </c>
       <c r="G17" s="3">
-        <v>25847200</v>
+        <v>26905100</v>
       </c>
       <c r="H17" s="3">
-        <v>24345100</v>
+        <v>33824200</v>
       </c>
       <c r="I17" s="3">
+        <v>26667900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>25118100</v>
+      </c>
+      <c r="K17" s="3">
         <v>27152100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23953800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20840400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17542600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16780600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>18769500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>15390900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13834100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>12889600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>13140400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>10027700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>10459700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>7563000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8464100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5719400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4848700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4533300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4738700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3472100</v>
+        <v>5031200</v>
       </c>
       <c r="E18" s="3">
-        <v>2327000</v>
+        <v>3610200</v>
       </c>
       <c r="F18" s="3">
-        <v>983900</v>
+        <v>3582300</v>
       </c>
       <c r="G18" s="3">
-        <v>2088800</v>
+        <v>2400900</v>
       </c>
       <c r="H18" s="3">
-        <v>4293900</v>
+        <v>1015100</v>
       </c>
       <c r="I18" s="3">
+        <v>2155200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4430200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1066700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6821100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2009100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>5114100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1116400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>6091400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3177000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3724000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1333300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3891900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1889600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1150700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1323000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3858100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2461200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2599100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>1077200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3005200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,144 +1600,152 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>762500</v>
+        <v>2438400</v>
       </c>
       <c r="E20" s="3">
-        <v>-4884200</v>
+        <v>-5674100</v>
       </c>
       <c r="F20" s="3">
-        <v>3263400</v>
+        <v>786800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1363200</v>
+        <v>-5039300</v>
       </c>
       <c r="H20" s="3">
-        <v>2263100</v>
+        <v>3367000</v>
       </c>
       <c r="I20" s="3">
+        <v>-1406500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2335000</v>
+      </c>
+      <c r="K20" s="3">
         <v>309900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5966400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1717900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3482100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1023100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2790600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>10377600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>349600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3059700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1735100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>714200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1027700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>405900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>3457200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>767600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>498500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1326000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>560200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5549500</v>
+        <v>7867100</v>
       </c>
       <c r="E21" s="3">
-        <v>-2416100</v>
+        <v>-2002200</v>
       </c>
       <c r="F21" s="3">
-        <v>4200800</v>
+        <v>5725700</v>
       </c>
       <c r="G21" s="3">
-        <v>689900</v>
+        <v>-2492800</v>
       </c>
       <c r="H21" s="3">
-        <v>7944800</v>
+        <v>4334200</v>
       </c>
       <c r="I21" s="3">
+        <v>711800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>8197100</v>
+      </c>
+      <c r="K21" s="3">
         <v>564900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>12940900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3812200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>9866300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1609300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>8955000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>13596400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>5257300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4411900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5740800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2772500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>10</v>
@@ -1681,248 +1753,272 @@
       <c r="X21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="3">
         <v>2424500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>3570300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>173200</v>
+        <v>222600</v>
       </c>
       <c r="E22" s="3">
+        <v>199300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>178700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>170800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>170300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>182000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>182000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>161500</v>
+      </c>
+      <c r="L22" s="3">
+        <v>152000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>162200</v>
+      </c>
+      <c r="N22" s="3">
         <v>165500</v>
       </c>
-      <c r="F22" s="3">
-        <v>165100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>176400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>176400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>161500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>152000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>162200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>165500</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>182400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>201600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>212200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>205600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>198200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>193700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>187500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>174000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>168600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>125300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>110900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>118700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>98300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>101900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4061400</v>
+        <v>7246900</v>
       </c>
       <c r="E23" s="3">
-        <v>-2722800</v>
+        <v>-2263300</v>
       </c>
       <c r="F23" s="3">
-        <v>4082200</v>
+        <v>4190400</v>
       </c>
       <c r="G23" s="3">
-        <v>549300</v>
+        <v>-2809200</v>
       </c>
       <c r="H23" s="3">
-        <v>6380600</v>
+        <v>4211800</v>
       </c>
       <c r="I23" s="3">
+        <v>566700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6583300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-918300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12635500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3564800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8430800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-89100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8680500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>13342400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>3867900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>4194900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>5433200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2416300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2004400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1560300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>7190000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>3117900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>2978900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2304900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>3463400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>751500</v>
+        <v>548600</v>
       </c>
       <c r="E24" s="3">
-        <v>289400</v>
+        <v>369400</v>
       </c>
       <c r="F24" s="3">
-        <v>1329800</v>
+        <v>775400</v>
       </c>
       <c r="G24" s="3">
-        <v>847300</v>
+        <v>298600</v>
       </c>
       <c r="H24" s="3">
-        <v>1266200</v>
+        <v>1372000</v>
       </c>
       <c r="I24" s="3">
+        <v>874200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1306400</v>
+      </c>
+      <c r="K24" s="3">
         <v>981200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1279800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>281600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1639200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>411400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1294500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>439200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1025500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>764400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>811300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>38800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>812800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>597500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>988900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>403500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>690600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>662100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>743100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1998,162 +2094,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3309900</v>
+        <v>6698300</v>
       </c>
       <c r="E26" s="3">
-        <v>-3012100</v>
+        <v>-2632700</v>
       </c>
       <c r="F26" s="3">
-        <v>2752400</v>
+        <v>3415000</v>
       </c>
       <c r="G26" s="3">
-        <v>-298000</v>
+        <v>-3107800</v>
       </c>
       <c r="H26" s="3">
-        <v>5114500</v>
+        <v>2839800</v>
       </c>
       <c r="I26" s="3">
+        <v>-307500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5276900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1899500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>11355700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3283200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6791500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7386000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>12903300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2842500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3430500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4621900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2377500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1191600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>962900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>6201200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2714400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>2288300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1642800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2720300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3165300</v>
+        <v>6723600</v>
       </c>
       <c r="E27" s="3">
-        <v>-1249700</v>
+        <v>-2953000</v>
       </c>
       <c r="F27" s="3">
-        <v>2843700</v>
+        <v>3265800</v>
       </c>
       <c r="G27" s="3">
-        <v>747100</v>
+        <v>-1289400</v>
       </c>
       <c r="H27" s="3">
-        <v>6283600</v>
+        <v>2934000</v>
       </c>
       <c r="I27" s="3">
+        <v>770800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6483200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-762700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11056200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>4239400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7013000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>495000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>8054500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>11317000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3246900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3929300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>4800100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2803800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1246100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1084900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>3572700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2622100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>2179100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1548400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2596700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2229,8 +2343,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2306,8 +2426,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2383,8 +2509,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2460,162 +2592,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-762500</v>
+        <v>-2438400</v>
       </c>
       <c r="E32" s="3">
-        <v>4884200</v>
+        <v>5674100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3263400</v>
+        <v>-786800</v>
       </c>
       <c r="G32" s="3">
-        <v>1363200</v>
+        <v>5039300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2263100</v>
+        <v>-3367000</v>
       </c>
       <c r="I32" s="3">
+        <v>1406500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2335000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-309900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5966400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1717900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3482100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1023100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-349600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-714200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-405900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-767600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-498500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-560200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3165300</v>
+        <v>6723600</v>
       </c>
       <c r="E33" s="3">
-        <v>-1249700</v>
+        <v>-2953000</v>
       </c>
       <c r="F33" s="3">
-        <v>2843700</v>
+        <v>3265800</v>
       </c>
       <c r="G33" s="3">
-        <v>747100</v>
+        <v>-1289400</v>
       </c>
       <c r="H33" s="3">
-        <v>6283600</v>
+        <v>2934000</v>
       </c>
       <c r="I33" s="3">
+        <v>770800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6483200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-762700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11056200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>4239400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7013000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>495000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>8054500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>11317000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3246900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3929300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4800100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2803800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1246100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1084900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>3572700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2622100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>2179100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1548400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2596700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2691,167 +2841,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3165300</v>
+        <v>6723600</v>
       </c>
       <c r="E35" s="3">
-        <v>-1249700</v>
+        <v>-2953000</v>
       </c>
       <c r="F35" s="3">
-        <v>2843700</v>
+        <v>3265800</v>
       </c>
       <c r="G35" s="3">
-        <v>747100</v>
+        <v>-1289400</v>
       </c>
       <c r="H35" s="3">
-        <v>6283600</v>
+        <v>2934000</v>
       </c>
       <c r="I35" s="3">
+        <v>770800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>6483200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-762700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11056200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>4239400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7013000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>495000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>8054500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>11317000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3246900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3929300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4800100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2803800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1246100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1084900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>3572700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2622100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>2179100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1548400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2596700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2879,8 +3047,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2908,162 +3078,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24601100</v>
+        <v>28041700</v>
       </c>
       <c r="E41" s="3">
-        <v>26433800</v>
+        <v>29687800</v>
       </c>
       <c r="F41" s="3">
-        <v>40801300</v>
+        <v>25382200</v>
       </c>
       <c r="G41" s="3">
-        <v>37891100</v>
+        <v>27273200</v>
       </c>
       <c r="H41" s="3">
-        <v>40619800</v>
+        <v>42096900</v>
       </c>
       <c r="I41" s="3">
+        <v>39094200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>41909600</v>
+      </c>
+      <c r="K41" s="3">
         <v>44719700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43449500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>44430400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>45573600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>51743500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>53981500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36534000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>32166100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>28899100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>27478100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>23005900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>24089600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>28596900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>31492000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>22075400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>21540800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>20903500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>19486000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39887900</v>
+        <v>46527700</v>
       </c>
       <c r="E42" s="3">
-        <v>36914000</v>
+        <v>40270900</v>
       </c>
       <c r="F42" s="3">
-        <v>28093300</v>
+        <v>41154500</v>
       </c>
       <c r="G42" s="3">
-        <v>26030300</v>
+        <v>38086200</v>
       </c>
       <c r="H42" s="3">
-        <v>26662800</v>
+        <v>28985400</v>
       </c>
       <c r="I42" s="3">
+        <v>26856800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>27509400</v>
+      </c>
+      <c r="K42" s="3">
         <v>22575900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>20883300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>16090800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>11389600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5121400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1021700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1066000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1540200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2006300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1653700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2402000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2475900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1564100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1771400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>2413700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1108600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1027500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>1135400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3139,8 +3323,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3216,393 +3406,429 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25290000</v>
+        <v>30040000</v>
       </c>
       <c r="E45" s="3">
-        <v>25536200</v>
+        <v>27373800</v>
       </c>
       <c r="F45" s="3">
-        <v>25084500</v>
+        <v>26093000</v>
       </c>
       <c r="G45" s="3">
-        <v>24894800</v>
+        <v>26347100</v>
       </c>
       <c r="H45" s="3">
-        <v>22798900</v>
+        <v>25881000</v>
       </c>
       <c r="I45" s="3">
+        <v>25685300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>23522800</v>
+      </c>
+      <c r="K45" s="3">
         <v>22260200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18870600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>16538500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15436500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>15610300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15742300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>14770600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>10696400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>10208500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>8872000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7886200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>7438400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>6692600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>6553500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>5882700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>5013300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>4517500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>3887600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89779000</v>
+        <v>104609400</v>
       </c>
       <c r="E46" s="3">
-        <v>88884100</v>
+        <v>97332600</v>
       </c>
       <c r="F46" s="3">
-        <v>93979200</v>
+        <v>92629700</v>
       </c>
       <c r="G46" s="3">
-        <v>88816100</v>
+        <v>91706400</v>
       </c>
       <c r="H46" s="3">
-        <v>90081500</v>
+        <v>96963300</v>
       </c>
       <c r="I46" s="3">
+        <v>91636300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>92941800</v>
+      </c>
+      <c r="K46" s="3">
         <v>89555700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>83203500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>77059700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>72399700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>72475200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>70745500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>52370500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>44402800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>41113900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>38003800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>33294100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>34003900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>36853600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>39816900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>30371800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>27662700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>26448500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>24509000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62192100</v>
+        <v>62634500</v>
       </c>
       <c r="E47" s="3">
-        <v>61700800</v>
+        <v>60056300</v>
       </c>
       <c r="F47" s="3">
-        <v>66306700</v>
+        <v>64166800</v>
       </c>
       <c r="G47" s="3">
-        <v>64223300</v>
+        <v>63660000</v>
       </c>
       <c r="H47" s="3">
-        <v>63272400</v>
+        <v>68412100</v>
       </c>
       <c r="I47" s="3">
+        <v>66262500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>65281500</v>
+      </c>
+      <c r="K47" s="3">
         <v>60887500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>59266900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>58735200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>55079600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>54946500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>55746500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>51631700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>38852700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>36743700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>33087900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>30691800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>28385900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>25523900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>24392700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>23730600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>22240600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>22079200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>22453800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24751400</v>
+        <v>25535100</v>
       </c>
       <c r="E48" s="3">
-        <v>34780400</v>
+        <v>25789400</v>
       </c>
       <c r="F48" s="3">
-        <v>22975800</v>
+        <v>25537400</v>
       </c>
       <c r="G48" s="3">
-        <v>21863600</v>
+        <v>35884700</v>
       </c>
       <c r="H48" s="3">
-        <v>21242800</v>
+        <v>23705300</v>
       </c>
       <c r="I48" s="3">
+        <v>22557800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>21917300</v>
+      </c>
+      <c r="K48" s="3">
         <v>20519800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20473800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>17393900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>16424900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>21612600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19466200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19627200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>18193700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>13999600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>13188900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12180000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>11286000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>9539800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>9642600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>7359200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>6518500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2938600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2893900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45555100</v>
+        <v>45538000</v>
       </c>
       <c r="E49" s="3">
-        <v>45770600</v>
+        <v>46741000</v>
       </c>
       <c r="F49" s="3">
-        <v>46099100</v>
+        <v>47001700</v>
       </c>
       <c r="G49" s="3">
-        <v>50080800</v>
+        <v>47224000</v>
       </c>
       <c r="H49" s="3">
-        <v>50101000</v>
+        <v>47562900</v>
       </c>
       <c r="I49" s="3">
+        <v>51671000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>51691900</v>
+      </c>
+      <c r="K49" s="3">
         <v>50613700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>51132800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>49004600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>49288400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>52874900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>52626800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>53469800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>50862400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>50688100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>45348800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>35607600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>37195600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>27205800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>28168500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>21480600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>21635700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>20291600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>19700100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3678,8 +3904,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3755,85 +3987,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15527200</v>
+        <v>16195500</v>
       </c>
       <c r="E52" s="3">
-        <v>4885100</v>
+        <v>16036300</v>
       </c>
       <c r="F52" s="3">
-        <v>15710100</v>
+        <v>16020200</v>
       </c>
       <c r="G52" s="3">
-        <v>15230000</v>
+        <v>5040200</v>
       </c>
       <c r="H52" s="3">
-        <v>14059900</v>
+        <v>16209000</v>
       </c>
       <c r="I52" s="3">
+        <v>15713600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14506300</v>
+      </c>
+      <c r="K52" s="3">
         <v>13701700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13552100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9065700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8569300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3651800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>4590900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3806500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>3348900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>4262100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3683500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>3660800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3433600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>3769800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3562900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2961100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2635200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1947900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1829800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3909,85 +4153,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>237804800</v>
+        <v>254512400</v>
       </c>
       <c r="E54" s="3">
-        <v>236021000</v>
+        <v>245955600</v>
       </c>
       <c r="F54" s="3">
-        <v>245070900</v>
+        <v>245355800</v>
       </c>
       <c r="G54" s="3">
-        <v>240213800</v>
+        <v>243515300</v>
       </c>
       <c r="H54" s="3">
-        <v>238757500</v>
+        <v>252852600</v>
       </c>
       <c r="I54" s="3">
+        <v>247841300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>246338700</v>
+      </c>
+      <c r="K54" s="3">
         <v>235278300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>227629000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>211259100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>201761900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>205560900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>203175800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>180905600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>155660500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>146807400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>133312900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>115434400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>114305100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>102893000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>105583600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>85903300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>80692600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>73705700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>71386600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4015,8 +4271,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4044,47 +4302,49 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>36966400</v>
-      </c>
-      <c r="E57" s="3" t="s">
+        <v>42176300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>39045000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>38140200</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="3">
-        <v>39235900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>37018400</v>
-      </c>
       <c r="H57" s="3">
-        <v>34854800</v>
+        <v>40481700</v>
       </c>
       <c r="I57" s="3">
+        <v>38193900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>35961600</v>
+      </c>
+      <c r="K57" s="3">
         <v>36321300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31307500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>26279700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>24271800</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -4121,393 +4381,429 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1886000</v>
+        <v>1661000</v>
       </c>
       <c r="E58" s="3">
-        <v>1230700</v>
+        <v>1666300</v>
       </c>
       <c r="F58" s="3">
-        <v>1100500</v>
+        <v>1945900</v>
       </c>
       <c r="G58" s="3">
-        <v>2623400</v>
+        <v>1269700</v>
       </c>
       <c r="H58" s="3">
-        <v>2368200</v>
+        <v>1135500</v>
       </c>
       <c r="I58" s="3">
+        <v>2706700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2443400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1870400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2094500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>722500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>669500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>806900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>649000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3768400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3516800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3417500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3313000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1262700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1964700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>864900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>956800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2428100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2442100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2166500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1989300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13428900</v>
+        <v>16172200</v>
       </c>
       <c r="E59" s="3">
-        <v>52192100</v>
+        <v>14275300</v>
       </c>
       <c r="F59" s="3">
-        <v>16806200</v>
+        <v>13855300</v>
       </c>
       <c r="G59" s="3">
-        <v>14348700</v>
+        <v>53849300</v>
       </c>
       <c r="H59" s="3">
-        <v>14030200</v>
+        <v>17339800</v>
       </c>
       <c r="I59" s="3">
+        <v>14804300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>14475700</v>
+      </c>
+      <c r="K59" s="3">
         <v>14336500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>16453900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11744900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11617700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>37060600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>39764300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>34290100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>28673900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>28173100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>27007000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>22264000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>21594200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>18621100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>19292000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>15311900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>13438700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>11440500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>11476900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52281300</v>
+        <v>60009500</v>
       </c>
       <c r="E60" s="3">
-        <v>53422700</v>
+        <v>54986500</v>
       </c>
       <c r="F60" s="3">
-        <v>57142600</v>
+        <v>53941400</v>
       </c>
       <c r="G60" s="3">
-        <v>53990500</v>
+        <v>55119100</v>
       </c>
       <c r="H60" s="3">
-        <v>51253300</v>
+        <v>58957000</v>
       </c>
       <c r="I60" s="3">
+        <v>55704900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>52880700</v>
+      </c>
+      <c r="K60" s="3">
         <v>52528200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>49855900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>38747100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>36559000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>37867500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>40413300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>38058500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>32190700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>31590600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>30320000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>23526700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>23558800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>19486000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>20248800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>17740000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>15880800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>13607000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>13466200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19273900</v>
+        <v>21293100</v>
       </c>
       <c r="E61" s="3">
-        <v>18444400</v>
+        <v>21519700</v>
       </c>
       <c r="F61" s="3">
-        <v>18337000</v>
+        <v>19885900</v>
       </c>
       <c r="G61" s="3">
-        <v>18500700</v>
+        <v>19030100</v>
       </c>
       <c r="H61" s="3">
-        <v>18597000</v>
+        <v>18919200</v>
       </c>
       <c r="I61" s="3">
+        <v>19088100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>19187500</v>
+      </c>
+      <c r="K61" s="3">
         <v>18891700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14289200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17224200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>17814900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>18830400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>18196100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18958600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>17779000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>17012200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>16446000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>18082000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>17848900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>17149400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>18237200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>11186100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>11407200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>11174100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>11219300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13640500</v>
+        <v>13822900</v>
       </c>
       <c r="E62" s="3">
-        <v>13512600</v>
+        <v>13984700</v>
       </c>
       <c r="F62" s="3">
-        <v>13666000</v>
+        <v>14073600</v>
       </c>
       <c r="G62" s="3">
-        <v>13444900</v>
+        <v>13941600</v>
       </c>
       <c r="H62" s="3">
-        <v>13195700</v>
+        <v>14099900</v>
       </c>
       <c r="I62" s="3">
+        <v>13871800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13614700</v>
+      </c>
+      <c r="K62" s="3">
         <v>13016600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12820300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10694800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10566900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11144900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>11048800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>10354200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7139000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>4589600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4043600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3657000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>4636800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3206800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>3288800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2362400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>2291500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1787600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1681900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4583,8 +4879,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4660,8 +4962,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4737,85 +5045,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102433200</v>
+        <v>112959400</v>
       </c>
       <c r="E66" s="3">
-        <v>102648700</v>
+        <v>108416900</v>
       </c>
       <c r="F66" s="3">
-        <v>107971900</v>
+        <v>105685800</v>
       </c>
       <c r="G66" s="3">
-        <v>104741900</v>
+        <v>105908100</v>
       </c>
       <c r="H66" s="3">
-        <v>101803400</v>
+        <v>111400300</v>
       </c>
       <c r="I66" s="3">
+        <v>108067700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>105035900</v>
+      </c>
+      <c r="K66" s="3">
         <v>103575200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>96014900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>83728500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>81439100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>85870200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>87396600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>85691900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>74973700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>70887900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>65336800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>55593000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>57452000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>49974200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>53203800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>37956500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>36261200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>32724800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>32523100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4843,8 +5163,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4920,8 +5242,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4997,85 +5325,97 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1288600</v>
+        <v>1386500</v>
       </c>
       <c r="E70" s="3">
-        <v>1344000</v>
+        <v>1396000</v>
       </c>
       <c r="F70" s="3">
-        <v>1476600</v>
+        <v>1329500</v>
       </c>
       <c r="G70" s="3">
-        <v>1446800</v>
+        <v>1386700</v>
       </c>
       <c r="H70" s="3">
-        <v>1164100</v>
+        <v>1523500</v>
       </c>
       <c r="I70" s="3">
+        <v>1492800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1201100</v>
+      </c>
+      <c r="K70" s="3">
         <v>1207300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>1175300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1183700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1152400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1425200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1200300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>1171000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>1083400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>1037300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>1040600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>839900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>452700</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>430600</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>442100</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>133300</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>113200</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>435100</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>515800</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AC70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5151,85 +5491,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>80390100</v>
+        <v>85832200</v>
       </c>
       <c r="E72" s="3">
-        <v>79816700</v>
+        <v>80008100</v>
       </c>
       <c r="F72" s="3">
-        <v>82288600</v>
+        <v>82942700</v>
       </c>
       <c r="G72" s="3">
-        <v>80433800</v>
+        <v>82351100</v>
       </c>
       <c r="H72" s="3">
-        <v>83654000</v>
+        <v>84901500</v>
       </c>
       <c r="I72" s="3">
+        <v>82987800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>86310300</v>
+      </c>
+      <c r="K72" s="3">
         <v>78268100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>79111700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>72029000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>67773800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>64563300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>63003500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>55694500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>43446200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>39985800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>34455500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>29692900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>27742100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>25305600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>25027300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>21444900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>18812900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>16290200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>14732300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5305,8 +5657,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5382,8 +5740,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5459,85 +5823,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>134083000</v>
+        <v>140166500</v>
       </c>
       <c r="E76" s="3">
-        <v>132028300</v>
+        <v>136142700</v>
       </c>
       <c r="F76" s="3">
-        <v>135622400</v>
+        <v>138340500</v>
       </c>
       <c r="G76" s="3">
-        <v>134025100</v>
+        <v>136220600</v>
       </c>
       <c r="H76" s="3">
-        <v>135790000</v>
+        <v>139928800</v>
       </c>
       <c r="I76" s="3">
+        <v>138280800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>140101700</v>
+      </c>
+      <c r="K76" s="3">
         <v>130495800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>130438900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>126346900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>119170500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>118265600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>114579000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>94042700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>79603400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>74882100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>66935500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>59001500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>56400400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>52488100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>51937700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>47813500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>44318200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>40545700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>38347700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5613,167 +5989,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3165300</v>
+        <v>6723600</v>
       </c>
       <c r="E81" s="3">
-        <v>-1249700</v>
+        <v>-2953000</v>
       </c>
       <c r="F81" s="3">
-        <v>2843700</v>
+        <v>3265800</v>
       </c>
       <c r="G81" s="3">
-        <v>747100</v>
+        <v>-1289400</v>
       </c>
       <c r="H81" s="3">
-        <v>6283600</v>
+        <v>2934000</v>
       </c>
       <c r="I81" s="3">
+        <v>770800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>6483200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-762700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11056200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>4239400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7013000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>495000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>8054500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>11317000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3246900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3929300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4800100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2803800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1246100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1084900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>3572700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2622100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>2179100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1548400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2596700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5801,8 +6195,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5878,8 +6274,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5955,8 +6357,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6032,8 +6440,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6109,8 +6523,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6186,8 +6606,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6263,85 +6689,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4714600</v>
+        <v>12548100</v>
       </c>
       <c r="E89" s="3">
-        <v>-980000</v>
+        <v>6766200</v>
       </c>
       <c r="F89" s="3">
-        <v>11186900</v>
+        <v>4864300</v>
       </c>
       <c r="G89" s="3">
-        <v>4987500</v>
+        <v>-1011100</v>
       </c>
       <c r="H89" s="3">
-        <v>4677500</v>
+        <v>11542200</v>
       </c>
       <c r="I89" s="3">
+        <v>5145900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4826100</v>
+      </c>
+      <c r="K89" s="3">
         <v>3366300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14366600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>8001100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>7382600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>338800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>14859800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7383300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>5288000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2822300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>9425100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4395700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>5182100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>2063700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>8226100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4470300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>3839800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1562800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>5441400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6369,85 +6807,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1648500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-6850200</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>-7067700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="3">
         <v>-453500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-813500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2757100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2009700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-281000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1025400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-975000</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="W91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-532600</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6523,8 +6969,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6600,85 +7052,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3842900</v>
+        <v>-10476100</v>
       </c>
       <c r="E94" s="3">
-        <v>-12145800</v>
+        <v>-1170200</v>
       </c>
       <c r="F94" s="3">
-        <v>-4703600</v>
+        <v>-3964900</v>
       </c>
       <c r="G94" s="3">
-        <v>-4144400</v>
+        <v>-12531400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6650300</v>
+        <v>-4852900</v>
       </c>
       <c r="I94" s="3">
+        <v>-4276000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6861400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3856000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-11095900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10175700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-9980400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5165700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-441400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6706,8 +7170,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6783,8 +7249,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6860,8 +7332,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6937,8 +7415,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7014,235 +7498,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2926300</v>
+        <v>-3419300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1477500</v>
+        <v>-1647300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2602600</v>
+        <v>-3019200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3294900</v>
+        <v>-1524400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1596300</v>
+        <v>-2685300</v>
       </c>
       <c r="I100" s="3">
+        <v>-3399500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1647000</v>
+      </c>
+      <c r="K100" s="3">
         <v>4213600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-791400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1489200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-679200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>464500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>9437000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>328600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>686400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>109400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-486600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>614200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-660700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>5086600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-61700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>361000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>463000</v>
+        <v>-291700</v>
       </c>
       <c r="E101" s="3">
-        <v>-127100</v>
+        <v>493500</v>
       </c>
       <c r="F101" s="3">
-        <v>-824600</v>
+        <v>477700</v>
       </c>
       <c r="G101" s="3">
-        <v>27100</v>
+        <v>-131100</v>
       </c>
       <c r="H101" s="3">
-        <v>-305100</v>
+        <v>-850800</v>
       </c>
       <c r="I101" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-314800</v>
+      </c>
+      <c r="K101" s="3">
         <v>159900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-575200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-567800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-51700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>363500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>367100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>210400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-173700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-9600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>233700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>399300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-380700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-224000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-120400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-162100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-64900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>253800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1591600</v>
+        <v>-1639000</v>
       </c>
       <c r="E102" s="3">
-        <v>-14730300</v>
+        <v>4442200</v>
       </c>
       <c r="F102" s="3">
-        <v>3056100</v>
+        <v>-1642200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2424600</v>
+        <v>-15198000</v>
       </c>
       <c r="H102" s="3">
-        <v>-3874200</v>
+        <v>3153200</v>
       </c>
       <c r="I102" s="3">
+        <v>-2501600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3997200</v>
+      </c>
+      <c r="K102" s="3">
         <v>3883800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1904100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1253100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3328700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3998900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>18978300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>4747700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2955700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>209800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3610700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-277700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>9481900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>494500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>291500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1417500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>4407300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BABA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35582700</v>
+        <v>29595600</v>
       </c>
       <c r="E8" s="3">
-        <v>29754600</v>
+        <v>35218500</v>
       </c>
       <c r="F8" s="3">
-        <v>29521800</v>
+        <v>29450100</v>
       </c>
       <c r="G8" s="3">
-        <v>29305900</v>
+        <v>29219600</v>
       </c>
       <c r="H8" s="3">
-        <v>34839300</v>
+        <v>29006000</v>
       </c>
       <c r="I8" s="3">
-        <v>28823100</v>
+        <v>34482700</v>
       </c>
       <c r="J8" s="3">
+        <v>28528100</v>
+      </c>
+      <c r="K8" s="3">
         <v>29548400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26085400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30774900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22849500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22656700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17897000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24861000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>18567800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17558100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14222900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17032300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11917300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11610400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8886000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12322200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8180700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7447800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5610500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7743900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>21543700</v>
+        <v>19733700</v>
       </c>
       <c r="E9" s="3">
-        <v>18844400</v>
+        <v>21323200</v>
       </c>
       <c r="F9" s="3">
-        <v>18621300</v>
+        <v>18651500</v>
       </c>
       <c r="G9" s="3">
-        <v>19955300</v>
+        <v>18430700</v>
       </c>
       <c r="H9" s="3">
-        <v>21063000</v>
+        <v>19751000</v>
       </c>
       <c r="I9" s="3">
-        <v>18634700</v>
+        <v>20847400</v>
       </c>
       <c r="J9" s="3">
+        <v>18444000</v>
+      </c>
+      <c r="K9" s="3">
         <v>17822800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17463200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16880500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13256500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12455300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11350900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12985400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10225800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9164800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8459400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8831900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6548200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6272900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4663700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5205900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3265300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2591200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2252700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2781500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14039000</v>
+        <v>9861900</v>
       </c>
       <c r="E10" s="3">
-        <v>10910200</v>
+        <v>13895300</v>
       </c>
       <c r="F10" s="3">
-        <v>10900500</v>
+        <v>10798600</v>
       </c>
       <c r="G10" s="3">
-        <v>9350700</v>
+        <v>10788900</v>
       </c>
       <c r="H10" s="3">
-        <v>13776300</v>
+        <v>9255000</v>
       </c>
       <c r="I10" s="3">
-        <v>10188400</v>
+        <v>13635300</v>
       </c>
       <c r="J10" s="3">
+        <v>10084100</v>
+      </c>
+      <c r="K10" s="3">
         <v>11725600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8622200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13894400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9593000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10201400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6546100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11875600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8342000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8393300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5763500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8200400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5369100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5337500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4222300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7116300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4915300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4856600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3357800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4962400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1045,91 +1057,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1941900</v>
+        <v>1973000</v>
       </c>
       <c r="E12" s="3">
-        <v>2175800</v>
+        <v>1922000</v>
       </c>
       <c r="F12" s="3">
-        <v>2038400</v>
+        <v>2153600</v>
       </c>
       <c r="G12" s="3">
-        <v>1571800</v>
+        <v>2017500</v>
       </c>
       <c r="H12" s="3">
-        <v>2255600</v>
+        <v>1555700</v>
       </c>
       <c r="I12" s="3">
-        <v>2197000</v>
+        <v>2232500</v>
       </c>
       <c r="J12" s="3">
+        <v>2174500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1941600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1851600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1894100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2835900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1633000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1657500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1705600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1706400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1317200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1292700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1170800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1651500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>959300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>933400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>754400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>696900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>657100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>642800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1211,174 +1227,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>389800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>385800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>3610800</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3573800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>89900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>73300</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3">
         <v>309000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>794200</v>
+        <v>354500</v>
       </c>
       <c r="E15" s="3">
-        <v>391900</v>
+        <v>786100</v>
       </c>
       <c r="F15" s="3">
-        <v>395100</v>
+        <v>387900</v>
       </c>
       <c r="G15" s="3">
-        <v>406600</v>
+        <v>391100</v>
       </c>
       <c r="H15" s="3">
-        <v>407400</v>
+        <v>402400</v>
       </c>
       <c r="I15" s="3">
-        <v>417400</v>
+        <v>403300</v>
       </c>
       <c r="J15" s="3">
+        <v>413100</v>
+      </c>
+      <c r="K15" s="3">
         <v>441300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>475400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>441500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>425600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>435000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>633100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>503800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>469000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>468400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>487200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>408000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>365400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>301900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>190700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>305300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>259400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>294700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>190900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>183400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1405,174 +1430,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30551600</v>
+        <v>27429300</v>
       </c>
       <c r="E17" s="3">
-        <v>26144400</v>
+        <v>30238900</v>
       </c>
       <c r="F17" s="3">
-        <v>25939500</v>
+        <v>25876800</v>
       </c>
       <c r="G17" s="3">
-        <v>26905100</v>
+        <v>25674000</v>
       </c>
       <c r="H17" s="3">
-        <v>33824200</v>
+        <v>26629700</v>
       </c>
       <c r="I17" s="3">
-        <v>26667900</v>
+        <v>33478000</v>
       </c>
       <c r="J17" s="3">
+        <v>26395000</v>
+      </c>
+      <c r="K17" s="3">
         <v>25118100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27152100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23953800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20840400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17542600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16780600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18769500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15390900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13834100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12889600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13140400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10027700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10459700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7563000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8464100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5719400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4848700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4533300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4738700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5031200</v>
+        <v>2166400</v>
       </c>
       <c r="E18" s="3">
-        <v>3610200</v>
+        <v>4979700</v>
       </c>
       <c r="F18" s="3">
-        <v>3582300</v>
+        <v>3573200</v>
       </c>
       <c r="G18" s="3">
-        <v>2400900</v>
+        <v>3545600</v>
       </c>
       <c r="H18" s="3">
-        <v>1015100</v>
+        <v>2376300</v>
       </c>
       <c r="I18" s="3">
-        <v>2155200</v>
+        <v>1004700</v>
       </c>
       <c r="J18" s="3">
+        <v>2133100</v>
+      </c>
+      <c r="K18" s="3">
         <v>4430200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1066700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6821100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2009100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5114100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1116400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6091400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3177000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3724000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1333300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3891900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1889600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1150700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1323000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3858100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2461200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2599100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1077200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3005200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1602,153 +1634,157 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2438400</v>
+        <v>1677900</v>
       </c>
       <c r="E20" s="3">
-        <v>-5674100</v>
+        <v>2413400</v>
       </c>
       <c r="F20" s="3">
-        <v>786800</v>
+        <v>-5616100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5039300</v>
+        <v>778700</v>
       </c>
       <c r="H20" s="3">
-        <v>3367000</v>
+        <v>-4987800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1406500</v>
+        <v>3332600</v>
       </c>
       <c r="J20" s="3">
+        <v>-1392100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2335000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>309900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5966400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1717900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3482100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1023100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2790600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10377600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>349600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3059700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1735100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>714200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1027700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>405900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3457200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>767600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>498500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1326000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>560200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7867100</v>
+        <v>3374200</v>
       </c>
       <c r="E21" s="3">
-        <v>-2002200</v>
+        <v>7786600</v>
       </c>
       <c r="F21" s="3">
-        <v>5725700</v>
+        <v>-1981700</v>
       </c>
       <c r="G21" s="3">
-        <v>-2492800</v>
+        <v>5667100</v>
       </c>
       <c r="H21" s="3">
-        <v>4334200</v>
+        <v>-2467300</v>
       </c>
       <c r="I21" s="3">
-        <v>711800</v>
+        <v>4289800</v>
       </c>
       <c r="J21" s="3">
+        <v>704500</v>
+      </c>
+      <c r="K21" s="3">
         <v>8197100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>564900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12940900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3812200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9866300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1609300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8955000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13596400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5257300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4411900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5740800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2772500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>10</v>
@@ -1759,266 +1795,278 @@
       <c r="Z21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="3">
         <v>2424500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3570300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>222600</v>
+        <v>246800</v>
       </c>
       <c r="E22" s="3">
-        <v>199300</v>
+        <v>220300</v>
       </c>
       <c r="F22" s="3">
-        <v>178700</v>
+        <v>197300</v>
       </c>
       <c r="G22" s="3">
-        <v>170800</v>
+        <v>176800</v>
       </c>
       <c r="H22" s="3">
-        <v>170300</v>
+        <v>169000</v>
       </c>
       <c r="I22" s="3">
+        <v>168600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K22" s="3">
         <v>182000</v>
       </c>
-      <c r="J22" s="3">
-        <v>182000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>161500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>152000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>162200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>165500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>182400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>201600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>212200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>205600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>198200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>193700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>187500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>174000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>168600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>125300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>110900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>118700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>98300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>101900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7246900</v>
+        <v>3597500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2263300</v>
+        <v>7172700</v>
       </c>
       <c r="F23" s="3">
-        <v>4190400</v>
+        <v>-2240100</v>
       </c>
       <c r="G23" s="3">
-        <v>-2809200</v>
+        <v>4147500</v>
       </c>
       <c r="H23" s="3">
-        <v>4211800</v>
+        <v>-2780500</v>
       </c>
       <c r="I23" s="3">
-        <v>566700</v>
+        <v>4168700</v>
       </c>
       <c r="J23" s="3">
+        <v>560900</v>
+      </c>
+      <c r="K23" s="3">
         <v>6583300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-918300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12635500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3564800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8430800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-89100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8680500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13342400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3867900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4194900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5433200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2416300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2004400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1560300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7190000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3117900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2978900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2304900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3463400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>548600</v>
+        <v>534200</v>
       </c>
       <c r="E24" s="3">
-        <v>369400</v>
+        <v>543000</v>
       </c>
       <c r="F24" s="3">
-        <v>775400</v>
+        <v>365600</v>
       </c>
       <c r="G24" s="3">
-        <v>298600</v>
+        <v>767500</v>
       </c>
       <c r="H24" s="3">
-        <v>1372000</v>
+        <v>295500</v>
       </c>
       <c r="I24" s="3">
-        <v>874200</v>
+        <v>1358000</v>
       </c>
       <c r="J24" s="3">
+        <v>865300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1306400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>981200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1279800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>281600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1639200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>411400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1294500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>439200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1025500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>764400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>811300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>812800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>597500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>988900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>403500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>690600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>662100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>743100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2100,174 +2148,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6698300</v>
+        <v>3063300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2632700</v>
+        <v>6629700</v>
       </c>
       <c r="F26" s="3">
-        <v>3415000</v>
+        <v>-2605800</v>
       </c>
       <c r="G26" s="3">
-        <v>-3107800</v>
+        <v>3380000</v>
       </c>
       <c r="H26" s="3">
-        <v>2839800</v>
+        <v>-3076000</v>
       </c>
       <c r="I26" s="3">
-        <v>-307500</v>
+        <v>2810700</v>
       </c>
       <c r="J26" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="K26" s="3">
         <v>5276900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1899500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11355700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3283200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6791500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7386000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12903300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2842500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3430500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4621900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2377500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1191600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>962900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6201200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2714400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2288300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1642800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2720300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6723600</v>
+        <v>3342800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2953000</v>
+        <v>6654800</v>
       </c>
       <c r="F27" s="3">
-        <v>3265800</v>
+        <v>-2922700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1289400</v>
+        <v>3232300</v>
       </c>
       <c r="H27" s="3">
-        <v>2934000</v>
+        <v>-1276200</v>
       </c>
       <c r="I27" s="3">
-        <v>770800</v>
+        <v>2904000</v>
       </c>
       <c r="J27" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K27" s="3">
         <v>6483200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-762700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11056200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4239400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7013000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>495000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8054500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11317000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3246900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3929300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4800100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2803800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1246100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1084900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3572700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2622100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2179100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1548400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2596700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2349,8 +2406,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2432,8 +2492,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2515,8 +2578,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2598,174 +2664,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2438400</v>
+        <v>-1677900</v>
       </c>
       <c r="E32" s="3">
-        <v>5674100</v>
+        <v>-2413400</v>
       </c>
       <c r="F32" s="3">
-        <v>-786800</v>
+        <v>5616100</v>
       </c>
       <c r="G32" s="3">
-        <v>5039300</v>
+        <v>-778700</v>
       </c>
       <c r="H32" s="3">
-        <v>-3367000</v>
+        <v>4987800</v>
       </c>
       <c r="I32" s="3">
-        <v>1406500</v>
+        <v>-3332600</v>
       </c>
       <c r="J32" s="3">
+        <v>1392100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2335000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-309900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5966400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1717900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3482100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1023100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-349600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-714200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-405900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-767600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-498500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-560200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6723600</v>
+        <v>3342800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2953000</v>
+        <v>6654800</v>
       </c>
       <c r="F33" s="3">
-        <v>3265800</v>
+        <v>-2922700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1289400</v>
+        <v>3232300</v>
       </c>
       <c r="H33" s="3">
-        <v>2934000</v>
+        <v>-1276200</v>
       </c>
       <c r="I33" s="3">
-        <v>770800</v>
+        <v>2904000</v>
       </c>
       <c r="J33" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K33" s="3">
         <v>6483200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-762700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11056200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4239400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7013000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>495000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8054500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11317000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3246900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3929300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4800100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2803800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1246100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1084900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3572700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2622100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2179100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1548400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2596700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,179 +2922,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6723600</v>
+        <v>3342800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2953000</v>
+        <v>6654800</v>
       </c>
       <c r="F35" s="3">
-        <v>3265800</v>
+        <v>-2922700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1289400</v>
+        <v>3232300</v>
       </c>
       <c r="H35" s="3">
-        <v>2934000</v>
+        <v>-1276200</v>
       </c>
       <c r="I35" s="3">
-        <v>770800</v>
+        <v>2904000</v>
       </c>
       <c r="J35" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K35" s="3">
         <v>6483200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-762700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11056200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4239400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7013000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>495000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8054500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11317000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3246900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3929300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4800100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2803800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1246100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1084900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3572700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2622100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2179100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1548400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2596700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3049,8 +3133,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3080,174 +3165,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28041700</v>
+        <v>27447200</v>
       </c>
       <c r="E41" s="3">
-        <v>29687800</v>
+        <v>27754600</v>
       </c>
       <c r="F41" s="3">
-        <v>25382200</v>
+        <v>29384000</v>
       </c>
       <c r="G41" s="3">
-        <v>27273200</v>
+        <v>25122500</v>
       </c>
       <c r="H41" s="3">
-        <v>42096900</v>
+        <v>26994000</v>
       </c>
       <c r="I41" s="3">
-        <v>39094200</v>
+        <v>41666000</v>
       </c>
       <c r="J41" s="3">
+        <v>38694100</v>
+      </c>
+      <c r="K41" s="3">
         <v>41909600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44719700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43449500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44430400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45573600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51743500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>53981500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36534000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32166100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28899100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>27478100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23005900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24089600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28596900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>31492000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>22075400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>21540800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>20903500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>19486000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46527700</v>
+        <v>47106200</v>
       </c>
       <c r="E42" s="3">
-        <v>40270900</v>
+        <v>46051500</v>
       </c>
       <c r="F42" s="3">
-        <v>41154500</v>
+        <v>39858700</v>
       </c>
       <c r="G42" s="3">
-        <v>38086200</v>
+        <v>40733200</v>
       </c>
       <c r="H42" s="3">
-        <v>28985400</v>
+        <v>37696300</v>
       </c>
       <c r="I42" s="3">
-        <v>26856800</v>
+        <v>28688700</v>
       </c>
       <c r="J42" s="3">
+        <v>26581900</v>
+      </c>
+      <c r="K42" s="3">
         <v>27509400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22575900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20883300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16090800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11389600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5121400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1021700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1066000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1540200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2006300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1653700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2402000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2475900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1564100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1771400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2413700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1108600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1027500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1135400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3329,8 +3421,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3412,423 +3507,441 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30040000</v>
+        <v>24662500</v>
       </c>
       <c r="E45" s="3">
-        <v>27373800</v>
+        <v>29732500</v>
       </c>
       <c r="F45" s="3">
-        <v>26093000</v>
+        <v>27093600</v>
       </c>
       <c r="G45" s="3">
-        <v>26347100</v>
+        <v>25826000</v>
       </c>
       <c r="H45" s="3">
-        <v>25881000</v>
+        <v>26077400</v>
       </c>
       <c r="I45" s="3">
-        <v>25685300</v>
+        <v>25616100</v>
       </c>
       <c r="J45" s="3">
+        <v>25422400</v>
+      </c>
+      <c r="K45" s="3">
         <v>23522800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22260200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18870600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16538500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15436500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15610300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15742300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14770600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10696400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10208500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8872000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7886200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7438400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6692600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6553500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5882700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5013300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4517500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3887600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>104609400</v>
+        <v>99215900</v>
       </c>
       <c r="E46" s="3">
-        <v>97332600</v>
+        <v>103538600</v>
       </c>
       <c r="F46" s="3">
-        <v>92629700</v>
+        <v>96336300</v>
       </c>
       <c r="G46" s="3">
-        <v>91706400</v>
+        <v>91681600</v>
       </c>
       <c r="H46" s="3">
-        <v>96963300</v>
+        <v>90767800</v>
       </c>
       <c r="I46" s="3">
-        <v>91636300</v>
+        <v>95970900</v>
       </c>
       <c r="J46" s="3">
+        <v>90698400</v>
+      </c>
+      <c r="K46" s="3">
         <v>92941800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>89555700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>83203500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>77059700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>72399700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72475200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>70745500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>52370500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>44402800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41113900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38003800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33294100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34003900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>36853600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>39816900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>30371800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>27662700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26448500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>24509000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62634500</v>
+        <v>64410600</v>
       </c>
       <c r="E47" s="3">
-        <v>60056300</v>
+        <v>61993500</v>
       </c>
       <c r="F47" s="3">
-        <v>64166800</v>
+        <v>59441600</v>
       </c>
       <c r="G47" s="3">
-        <v>63660000</v>
+        <v>63510100</v>
       </c>
       <c r="H47" s="3">
-        <v>68412100</v>
+        <v>63008400</v>
       </c>
       <c r="I47" s="3">
-        <v>66262500</v>
+        <v>67711900</v>
       </c>
       <c r="J47" s="3">
+        <v>65584300</v>
+      </c>
+      <c r="K47" s="3">
         <v>65281500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>60887500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>59266900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>58735200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55079600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54946500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55746500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51631700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>38852700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>36743700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>33087900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>30691800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>28385900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>25523900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>24392700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>23730600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>22240600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>22079200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>22453800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25535100</v>
+        <v>25022800</v>
       </c>
       <c r="E48" s="3">
-        <v>25789400</v>
+        <v>25273700</v>
       </c>
       <c r="F48" s="3">
-        <v>25537400</v>
+        <v>25525400</v>
       </c>
       <c r="G48" s="3">
-        <v>35884700</v>
+        <v>25276000</v>
       </c>
       <c r="H48" s="3">
-        <v>23705300</v>
+        <v>35517500</v>
       </c>
       <c r="I48" s="3">
-        <v>22557800</v>
+        <v>23462700</v>
       </c>
       <c r="J48" s="3">
+        <v>22326900</v>
+      </c>
+      <c r="K48" s="3">
         <v>21917300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20519800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20473800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17393900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16424900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21612600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19466200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19627200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18193700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13999600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13188900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12180000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11286000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9539800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9642600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7359200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6518500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2938600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2893900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>45538000</v>
+        <v>44777800</v>
       </c>
       <c r="E49" s="3">
-        <v>46741000</v>
+        <v>45071900</v>
       </c>
       <c r="F49" s="3">
-        <v>47001700</v>
+        <v>46262600</v>
       </c>
       <c r="G49" s="3">
-        <v>47224000</v>
+        <v>46520600</v>
       </c>
       <c r="H49" s="3">
-        <v>47562900</v>
+        <v>46740600</v>
       </c>
       <c r="I49" s="3">
-        <v>51671000</v>
+        <v>47076100</v>
       </c>
       <c r="J49" s="3">
+        <v>51142200</v>
+      </c>
+      <c r="K49" s="3">
         <v>51691900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50613700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51132800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>49004600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49288400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52874900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52626800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53469800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>50862400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50688100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>45348800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35607600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>37195600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27205800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28168500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>21480600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>21635700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>20291600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>19700100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3910,8 +4023,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3993,91 +4109,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16195500</v>
+        <v>15768100</v>
       </c>
       <c r="E52" s="3">
-        <v>16036300</v>
+        <v>16029700</v>
       </c>
       <c r="F52" s="3">
-        <v>16020200</v>
+        <v>15872200</v>
       </c>
       <c r="G52" s="3">
-        <v>5040200</v>
+        <v>15856300</v>
       </c>
       <c r="H52" s="3">
-        <v>16209000</v>
+        <v>4988600</v>
       </c>
       <c r="I52" s="3">
-        <v>15713600</v>
+        <v>16043000</v>
       </c>
       <c r="J52" s="3">
+        <v>15552800</v>
+      </c>
+      <c r="K52" s="3">
         <v>14506300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13701700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13552100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9065700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8569300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3651800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4590900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3806500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3348900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4262100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3683500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3660800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3433600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3769800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3562900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2961100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2635200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1947900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1829800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4159,91 +4281,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>254512400</v>
+        <v>249195200</v>
       </c>
       <c r="E54" s="3">
-        <v>245955600</v>
+        <v>251907400</v>
       </c>
       <c r="F54" s="3">
-        <v>245355800</v>
+        <v>243438100</v>
       </c>
       <c r="G54" s="3">
-        <v>243515300</v>
+        <v>242844500</v>
       </c>
       <c r="H54" s="3">
-        <v>252852600</v>
+        <v>241022900</v>
       </c>
       <c r="I54" s="3">
-        <v>247841300</v>
+        <v>250264600</v>
       </c>
       <c r="J54" s="3">
+        <v>245304600</v>
+      </c>
+      <c r="K54" s="3">
         <v>246338700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>235278300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>227629000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>211259100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>201761900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>205560900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>203175800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>180905600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155660500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>146807400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>133312900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>115434400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>114305100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>102893000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>105583600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>85903300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>80692600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>73705700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>71386600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4273,8 +4401,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4304,50 +4433,51 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42176300</v>
+        <v>39226300</v>
       </c>
       <c r="E57" s="3">
-        <v>39045000</v>
+        <v>41744600</v>
       </c>
       <c r="F57" s="3">
-        <v>38140200</v>
-      </c>
-      <c r="G57" s="3" t="s">
+        <v>38645300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>37749800</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="3">
-        <v>40481700</v>
-      </c>
       <c r="I57" s="3">
-        <v>38193900</v>
+        <v>40067400</v>
       </c>
       <c r="J57" s="3">
+        <v>37802900</v>
+      </c>
+      <c r="K57" s="3">
         <v>35961600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36321300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31307500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26279700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24271800</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -4387,423 +4517,441 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1661000</v>
+        <v>1743600</v>
       </c>
       <c r="E58" s="3">
-        <v>1666300</v>
+        <v>1644000</v>
       </c>
       <c r="F58" s="3">
-        <v>1945900</v>
+        <v>1649200</v>
       </c>
       <c r="G58" s="3">
-        <v>1269700</v>
+        <v>1926000</v>
       </c>
       <c r="H58" s="3">
-        <v>1135500</v>
+        <v>1256700</v>
       </c>
       <c r="I58" s="3">
-        <v>2706700</v>
+        <v>1123800</v>
       </c>
       <c r="J58" s="3">
+        <v>2679000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2443400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1870400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2094500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>722500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>669500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>806900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>649000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3768400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3516800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3417500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3313000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1262700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1964700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>864900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>956800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2428100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2442100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2166500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1989300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16172200</v>
+        <v>13807700</v>
       </c>
       <c r="E59" s="3">
-        <v>14275300</v>
+        <v>16006700</v>
       </c>
       <c r="F59" s="3">
-        <v>13855300</v>
+        <v>14129100</v>
       </c>
       <c r="G59" s="3">
-        <v>53849300</v>
+        <v>13713500</v>
       </c>
       <c r="H59" s="3">
-        <v>17339800</v>
+        <v>53298100</v>
       </c>
       <c r="I59" s="3">
-        <v>14804300</v>
+        <v>17162300</v>
       </c>
       <c r="J59" s="3">
+        <v>14652800</v>
+      </c>
+      <c r="K59" s="3">
         <v>14475700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14336500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16453900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11744900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11617700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37060600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39764300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34290100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28673900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28173100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27007000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>22264000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>21594200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>18621100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>19292000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>15311900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>13438700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11440500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11476900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>60009500</v>
+        <v>54777600</v>
       </c>
       <c r="E60" s="3">
-        <v>54986500</v>
+        <v>59395200</v>
       </c>
       <c r="F60" s="3">
-        <v>53941400</v>
+        <v>54423700</v>
       </c>
       <c r="G60" s="3">
-        <v>55119100</v>
+        <v>53389300</v>
       </c>
       <c r="H60" s="3">
-        <v>58957000</v>
+        <v>54554900</v>
       </c>
       <c r="I60" s="3">
-        <v>55704900</v>
+        <v>58353600</v>
       </c>
       <c r="J60" s="3">
+        <v>55134700</v>
+      </c>
+      <c r="K60" s="3">
         <v>52880700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52528200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49855900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38747100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36559000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37867500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>40413300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38058500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>32190700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>31590600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>30320000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>23526700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23558800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19486000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>20248800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>17740000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15880800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>13607000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>13466200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21293100</v>
+        <v>21192900</v>
       </c>
       <c r="E61" s="3">
-        <v>21519700</v>
+        <v>21075200</v>
       </c>
       <c r="F61" s="3">
-        <v>19885900</v>
+        <v>21299500</v>
       </c>
       <c r="G61" s="3">
-        <v>19030100</v>
+        <v>19682400</v>
       </c>
       <c r="H61" s="3">
-        <v>18919200</v>
+        <v>18835300</v>
       </c>
       <c r="I61" s="3">
-        <v>19088100</v>
+        <v>18725600</v>
       </c>
       <c r="J61" s="3">
+        <v>18892700</v>
+      </c>
+      <c r="K61" s="3">
         <v>19187500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18891700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14289200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17224200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17814900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18830400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18196100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18958600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17779000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17012200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16446000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18082000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17848900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17149400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18237200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11186100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11407200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11174100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11219300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13822900</v>
+        <v>13601500</v>
       </c>
       <c r="E62" s="3">
-        <v>13984700</v>
+        <v>13681400</v>
       </c>
       <c r="F62" s="3">
-        <v>14073600</v>
+        <v>13841600</v>
       </c>
       <c r="G62" s="3">
-        <v>13941600</v>
+        <v>13929600</v>
       </c>
       <c r="H62" s="3">
-        <v>14099900</v>
+        <v>13798900</v>
       </c>
       <c r="I62" s="3">
-        <v>13871800</v>
+        <v>13955600</v>
       </c>
       <c r="J62" s="3">
+        <v>13729800</v>
+      </c>
+      <c r="K62" s="3">
         <v>13614700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13016600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12820300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10694800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10566900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11144900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11048800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10354200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7139000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4589600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4043600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3657000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4636800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3206800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3288800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2362400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2291500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1787600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1681900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4885,8 +5033,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4968,8 +5119,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5051,91 +5205,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>112959400</v>
+        <v>107114100</v>
       </c>
       <c r="E66" s="3">
-        <v>108416900</v>
+        <v>111803200</v>
       </c>
       <c r="F66" s="3">
-        <v>105685800</v>
+        <v>107307200</v>
       </c>
       <c r="G66" s="3">
-        <v>105908100</v>
+        <v>104604100</v>
       </c>
       <c r="H66" s="3">
-        <v>111400300</v>
+        <v>104824100</v>
       </c>
       <c r="I66" s="3">
-        <v>108067700</v>
+        <v>110260100</v>
       </c>
       <c r="J66" s="3">
+        <v>106961600</v>
+      </c>
+      <c r="K66" s="3">
         <v>105035900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103575200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>96014900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83728500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>81439100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>85870200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87396600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>85691900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>74973700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>70887900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>65336800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>55593000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>57452000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49974200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>53203800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>37956500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>36261200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>32724800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>32523100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5165,8 +5325,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5248,8 +5409,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5331,91 +5495,97 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1386500</v>
+        <v>1401300</v>
       </c>
       <c r="E70" s="3">
-        <v>1396000</v>
+        <v>1372300</v>
       </c>
       <c r="F70" s="3">
-        <v>1329500</v>
+        <v>1381700</v>
       </c>
       <c r="G70" s="3">
-        <v>1386700</v>
+        <v>1315900</v>
       </c>
       <c r="H70" s="3">
-        <v>1523500</v>
+        <v>1372500</v>
       </c>
       <c r="I70" s="3">
-        <v>1492800</v>
+        <v>1507900</v>
       </c>
       <c r="J70" s="3">
+        <v>1477500</v>
+      </c>
+      <c r="K70" s="3">
         <v>1201100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1207300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1175300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1183700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1152400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1425200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1200300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1171000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1083400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1037300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1040600</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>839900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>452700</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>430600</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>442100</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>133300</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>113200</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>435100</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>515800</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5497,91 +5667,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>85832200</v>
+        <v>86996500</v>
       </c>
       <c r="E72" s="3">
-        <v>80008100</v>
+        <v>84953700</v>
       </c>
       <c r="F72" s="3">
-        <v>82942700</v>
+        <v>79189200</v>
       </c>
       <c r="G72" s="3">
-        <v>82351100</v>
+        <v>82093800</v>
       </c>
       <c r="H72" s="3">
-        <v>84901500</v>
+        <v>81508200</v>
       </c>
       <c r="I72" s="3">
-        <v>82987800</v>
+        <v>84032500</v>
       </c>
       <c r="J72" s="3">
+        <v>82138400</v>
+      </c>
+      <c r="K72" s="3">
         <v>86310300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>78268100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>79111700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>72029000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>67773800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>64563300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>63003500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55694500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43446200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39985800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34455500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29692900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27742100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>25305600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25027300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>21444900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>18812900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>16290200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>14732300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5663,8 +5839,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5746,8 +5925,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5829,91 +6011,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>140166500</v>
+        <v>140679700</v>
       </c>
       <c r="E76" s="3">
-        <v>136142700</v>
+        <v>138731900</v>
       </c>
       <c r="F76" s="3">
-        <v>138340500</v>
+        <v>134749200</v>
       </c>
       <c r="G76" s="3">
-        <v>136220600</v>
+        <v>136924600</v>
       </c>
       <c r="H76" s="3">
-        <v>139928800</v>
+        <v>134826300</v>
       </c>
       <c r="I76" s="3">
-        <v>138280800</v>
+        <v>138496600</v>
       </c>
       <c r="J76" s="3">
+        <v>136865400</v>
+      </c>
+      <c r="K76" s="3">
         <v>140101700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130495800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130438900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>126346900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>119170500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>118265600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>114579000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>94042700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79603400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74882100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>66935500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59001500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>56400400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>52488100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>51937700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>47813500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>44318200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>40545700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>38347700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5995,179 +6183,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6723600</v>
+        <v>3342800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2953000</v>
+        <v>6654800</v>
       </c>
       <c r="F81" s="3">
-        <v>3265800</v>
+        <v>-2922700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1289400</v>
+        <v>3232300</v>
       </c>
       <c r="H81" s="3">
-        <v>2934000</v>
+        <v>-1276200</v>
       </c>
       <c r="I81" s="3">
-        <v>770800</v>
+        <v>2904000</v>
       </c>
       <c r="J81" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K81" s="3">
         <v>6483200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-762700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11056200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4239400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7013000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>495000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8054500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11317000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3246900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3929300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4800100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2803800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1246100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1084900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3572700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2622100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2179100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1548400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2596700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6197,8 +6394,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6280,8 +6478,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6363,8 +6564,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6446,8 +6650,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6529,8 +6736,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6612,8 +6822,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6695,91 +6908,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12548100</v>
+        <v>4463700</v>
       </c>
       <c r="E89" s="3">
-        <v>6766200</v>
+        <v>12419600</v>
       </c>
       <c r="F89" s="3">
-        <v>4864300</v>
+        <v>6697000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1011100</v>
+        <v>4814500</v>
       </c>
       <c r="H89" s="3">
-        <v>11542200</v>
+        <v>-1000700</v>
       </c>
       <c r="I89" s="3">
-        <v>5145900</v>
+        <v>11424000</v>
       </c>
       <c r="J89" s="3">
+        <v>5093200</v>
+      </c>
+      <c r="K89" s="3">
         <v>4826100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3366300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14366600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8001100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7382600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>338800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14859800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7383300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5288000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2822300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9425100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4395700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5182100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2063700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>8226100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4470300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3839800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1562800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5441400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6809,91 +7028,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>-34330000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-20770000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4098000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-15938000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-12518000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4993000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5844000</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="L91" s="3">
+        <v>-453500</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-813500</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-2757100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-2009700</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-281000</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-1025400</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-1533000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-975000</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>-1466800</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-1734700</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-1607700</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7067700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-453500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-813500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-2757100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-2009700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-281000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1025400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1533000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-975000</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-1466800</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-1734700</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-1607700</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-532600</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6975,8 +7198,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7058,91 +7284,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10476100</v>
+        <v>-3810800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1170200</v>
+        <v>-10368800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3964900</v>
+        <v>-1158200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12531400</v>
+        <v>-3924300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4852900</v>
+        <v>-12403200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4276000</v>
+        <v>-4803200</v>
       </c>
       <c r="J94" s="3">
+        <v>-4232200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6861400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3856000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11095900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10175700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9980400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5165700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-441400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7172,8 +7404,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7255,8 +7488,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7338,8 +7574,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7421,8 +7660,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7504,253 +7746,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3419300</v>
+        <v>-1324700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1647300</v>
+        <v>-3384300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3019200</v>
+        <v>-1630500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1524400</v>
+        <v>-2988300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2685300</v>
+        <v>-1508800</v>
       </c>
       <c r="I100" s="3">
-        <v>-3399500</v>
+        <v>-2657800</v>
       </c>
       <c r="J100" s="3">
+        <v>-3364700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1647000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4213600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-791400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1489200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-679200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>464500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9437000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>328600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>686400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>109400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-486600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>614200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-660700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>5086600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-61700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>361000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-291700</v>
+        <v>-170700</v>
       </c>
       <c r="E101" s="3">
-        <v>493500</v>
+        <v>-288700</v>
       </c>
       <c r="F101" s="3">
-        <v>477700</v>
+        <v>488400</v>
       </c>
       <c r="G101" s="3">
-        <v>-131100</v>
+        <v>472800</v>
       </c>
       <c r="H101" s="3">
-        <v>-850800</v>
+        <v>-129800</v>
       </c>
       <c r="I101" s="3">
-        <v>28000</v>
+        <v>-842100</v>
       </c>
       <c r="J101" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-314800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>159900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-575200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-567800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-51700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>363500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>367100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>210400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-173700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>233700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>399300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-380700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-224000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-120400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-162100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-64900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>253800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1639000</v>
+        <v>-842500</v>
       </c>
       <c r="E102" s="3">
-        <v>4442200</v>
+        <v>-1622200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1642200</v>
+        <v>4396700</v>
       </c>
       <c r="G102" s="3">
-        <v>-15198000</v>
+        <v>-1625300</v>
       </c>
       <c r="H102" s="3">
-        <v>3153200</v>
+        <v>-15042500</v>
       </c>
       <c r="I102" s="3">
-        <v>-2501600</v>
+        <v>3120900</v>
       </c>
       <c r="J102" s="3">
+        <v>-2476000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3997200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3883800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1904100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1253100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3328700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3998900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>18978300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4747700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2955700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>209800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3610700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-277700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>9481900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>494500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>291500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1417500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4407300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,381 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29595600</v>
+        <v>32262000</v>
       </c>
       <c r="E8" s="3">
-        <v>35218500</v>
+        <v>28685800</v>
       </c>
       <c r="F8" s="3">
-        <v>29450100</v>
+        <v>34135800</v>
       </c>
       <c r="G8" s="3">
-        <v>29219600</v>
+        <v>28544700</v>
       </c>
       <c r="H8" s="3">
-        <v>29006000</v>
+        <v>28321400</v>
       </c>
       <c r="I8" s="3">
-        <v>34482700</v>
+        <v>28114300</v>
       </c>
       <c r="J8" s="3">
+        <v>33422700</v>
+      </c>
+      <c r="K8" s="3">
         <v>28528100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29548400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26085400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30774900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22849500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22656700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17897000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>24861000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>18567800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17558100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14222900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17032300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11917300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11610400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8886000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12322200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8180700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7447800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5610500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7743900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19733700</v>
+        <v>19612600</v>
       </c>
       <c r="E9" s="3">
-        <v>21323200</v>
+        <v>19127000</v>
       </c>
       <c r="F9" s="3">
-        <v>18651500</v>
+        <v>20667700</v>
       </c>
       <c r="G9" s="3">
-        <v>18430700</v>
+        <v>18078100</v>
       </c>
       <c r="H9" s="3">
-        <v>19751000</v>
+        <v>17864100</v>
       </c>
       <c r="I9" s="3">
-        <v>20847400</v>
+        <v>19143800</v>
       </c>
       <c r="J9" s="3">
+        <v>20206500</v>
+      </c>
+      <c r="K9" s="3">
         <v>18444000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17822800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17463200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16880500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13256500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12455300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11350900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12985400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10225800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9164800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8459400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8831900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6548200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6272900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4663700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5205900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3265300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2591200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2252700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2781500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9861900</v>
+        <v>12649400</v>
       </c>
       <c r="E10" s="3">
-        <v>13895300</v>
+        <v>9558800</v>
       </c>
       <c r="F10" s="3">
-        <v>10798600</v>
+        <v>13468100</v>
       </c>
       <c r="G10" s="3">
-        <v>10788900</v>
+        <v>10466600</v>
       </c>
       <c r="H10" s="3">
-        <v>9255000</v>
+        <v>10457200</v>
       </c>
       <c r="I10" s="3">
-        <v>13635300</v>
+        <v>8970400</v>
       </c>
       <c r="J10" s="3">
+        <v>13216100</v>
+      </c>
+      <c r="K10" s="3">
         <v>10084100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11725600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8622200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>13894400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9593000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10201400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6546100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11875600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8342000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8393300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5763500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8200400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5369100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5337500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4222300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7116300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4915300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4856600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3357800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4962400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,94 +1070,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1973000</v>
+        <v>1441900</v>
       </c>
       <c r="E12" s="3">
-        <v>1922000</v>
+        <v>1912400</v>
       </c>
       <c r="F12" s="3">
-        <v>2153600</v>
+        <v>1862900</v>
       </c>
       <c r="G12" s="3">
-        <v>2017500</v>
+        <v>2087400</v>
       </c>
       <c r="H12" s="3">
-        <v>1555700</v>
+        <v>1955500</v>
       </c>
       <c r="I12" s="3">
-        <v>2232500</v>
+        <v>1507900</v>
       </c>
       <c r="J12" s="3">
+        <v>2163800</v>
+      </c>
+      <c r="K12" s="3">
         <v>2174500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1941600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1851600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1894100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2835900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1633000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1657500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1705600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1706400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1317200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1292700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1170800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1651500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>959300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>933400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>754400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>696900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>657100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>642800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,180 +1246,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>279800</v>
       </c>
       <c r="E14" s="3">
-        <v>385800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>373900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>3573800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3463900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>89900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>73300</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
         <v>309000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>354500</v>
+        <v>341600</v>
       </c>
       <c r="E15" s="3">
-        <v>786100</v>
+        <v>343600</v>
       </c>
       <c r="F15" s="3">
-        <v>387900</v>
+        <v>761900</v>
       </c>
       <c r="G15" s="3">
-        <v>391100</v>
+        <v>376000</v>
       </c>
       <c r="H15" s="3">
-        <v>402400</v>
+        <v>379000</v>
       </c>
       <c r="I15" s="3">
-        <v>403300</v>
+        <v>390100</v>
       </c>
       <c r="J15" s="3">
+        <v>390900</v>
+      </c>
+      <c r="K15" s="3">
         <v>413100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>441300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>475400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>441500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>425600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>435000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>633100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>503800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>469000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>468400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>487200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>408000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>365400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>301900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>190700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>305300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>259400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>294700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>190900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>183400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1431,180 +1456,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27429300</v>
+        <v>26407700</v>
       </c>
       <c r="E17" s="3">
-        <v>30238900</v>
+        <v>26586000</v>
       </c>
       <c r="F17" s="3">
-        <v>25876800</v>
+        <v>29309300</v>
       </c>
       <c r="G17" s="3">
-        <v>25674000</v>
+        <v>25081300</v>
       </c>
       <c r="H17" s="3">
-        <v>26629700</v>
+        <v>24884700</v>
       </c>
       <c r="I17" s="3">
-        <v>33478000</v>
+        <v>25811000</v>
       </c>
       <c r="J17" s="3">
+        <v>32448800</v>
+      </c>
+      <c r="K17" s="3">
         <v>26395000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25118100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27152100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23953800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20840400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17542600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16780600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18769500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15390900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13834100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12889600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13140400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10027700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10459700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7563000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8464100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5719400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4848700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4533300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4738700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2166400</v>
+        <v>5854300</v>
       </c>
       <c r="E18" s="3">
-        <v>4979700</v>
+        <v>2099800</v>
       </c>
       <c r="F18" s="3">
-        <v>3573200</v>
+        <v>4826600</v>
       </c>
       <c r="G18" s="3">
-        <v>3545600</v>
+        <v>3463400</v>
       </c>
       <c r="H18" s="3">
-        <v>2376300</v>
+        <v>3436600</v>
       </c>
       <c r="I18" s="3">
-        <v>1004700</v>
+        <v>2303300</v>
       </c>
       <c r="J18" s="3">
+        <v>973800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2133100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4430200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1066700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6821100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2009100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5114100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1116400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6091400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3177000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3724000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1333300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3891900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1889600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1150700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1323000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3858100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2461200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2599100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1077200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3005200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1635,159 +1667,163 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1677900</v>
+        <v>-624700</v>
       </c>
       <c r="E20" s="3">
-        <v>2413400</v>
+        <v>1626400</v>
       </c>
       <c r="F20" s="3">
-        <v>-5616100</v>
+        <v>2339200</v>
       </c>
       <c r="G20" s="3">
-        <v>778700</v>
+        <v>-5443400</v>
       </c>
       <c r="H20" s="3">
-        <v>-4987800</v>
+        <v>754800</v>
       </c>
       <c r="I20" s="3">
-        <v>3332600</v>
+        <v>-4834400</v>
       </c>
       <c r="J20" s="3">
+        <v>3230100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1392100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2335000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>309900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5966400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1717900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3482100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1023100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2790600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10377600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>349600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3059700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1735100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>714200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1027700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>405900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3457200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>767600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>498500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1326000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>560200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3374200</v>
+        <v>6491600</v>
       </c>
       <c r="E21" s="3">
-        <v>7786600</v>
+        <v>3270500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1981700</v>
+        <v>7547200</v>
       </c>
       <c r="G21" s="3">
-        <v>5667100</v>
+        <v>-1920800</v>
       </c>
       <c r="H21" s="3">
-        <v>-2467300</v>
+        <v>5492900</v>
       </c>
       <c r="I21" s="3">
-        <v>4289800</v>
+        <v>-2391400</v>
       </c>
       <c r="J21" s="3">
+        <v>4157900</v>
+      </c>
+      <c r="K21" s="3">
         <v>704500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8197100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>564900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12940900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3812200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9866300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1609300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8955000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>13596400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5257300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4411900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5740800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2772500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>10</v>
@@ -1798,275 +1834,287 @@
       <c r="AA21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="3">
         <v>2424500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3570300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>246800</v>
+        <v>245800</v>
       </c>
       <c r="E22" s="3">
-        <v>220300</v>
+        <v>239200</v>
       </c>
       <c r="F22" s="3">
-        <v>197300</v>
+        <v>213600</v>
       </c>
       <c r="G22" s="3">
-        <v>176800</v>
+        <v>191200</v>
       </c>
       <c r="H22" s="3">
-        <v>169000</v>
+        <v>171400</v>
       </c>
       <c r="I22" s="3">
+        <v>163800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>163400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>180100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>182000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>161500</v>
+      </c>
+      <c r="N22" s="3">
+        <v>152000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>162200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>165500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>182400</v>
+      </c>
+      <c r="R22" s="3">
+        <v>201600</v>
+      </c>
+      <c r="S22" s="3">
+        <v>212200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>205600</v>
+      </c>
+      <c r="U22" s="3">
+        <v>198200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>193700</v>
+      </c>
+      <c r="W22" s="3">
+        <v>187500</v>
+      </c>
+      <c r="X22" s="3">
+        <v>174000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>168600</v>
       </c>
-      <c r="J22" s="3">
-        <v>180100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>182000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>161500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>152000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>162200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>165500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>182400</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>201600</v>
-      </c>
-      <c r="R22" s="3">
-        <v>212200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>205600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>198200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>193700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>187500</v>
-      </c>
-      <c r="W22" s="3">
-        <v>174000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>168600</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>125300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>110900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>118700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>98300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>101900</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3597500</v>
+        <v>4983800</v>
       </c>
       <c r="E23" s="3">
-        <v>7172700</v>
+        <v>3486900</v>
       </c>
       <c r="F23" s="3">
-        <v>-2240100</v>
+        <v>6952200</v>
       </c>
       <c r="G23" s="3">
-        <v>4147500</v>
+        <v>-2171300</v>
       </c>
       <c r="H23" s="3">
-        <v>-2780500</v>
+        <v>4020000</v>
       </c>
       <c r="I23" s="3">
-        <v>4168700</v>
+        <v>-2695000</v>
       </c>
       <c r="J23" s="3">
+        <v>4040500</v>
+      </c>
+      <c r="K23" s="3">
         <v>560900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6583300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-918300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12635500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3564800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8430800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8680500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13342400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3867900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4194900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>5433200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2416300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2004400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1560300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>7190000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3117900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2978900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2304900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3463400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>534200</v>
+        <v>829700</v>
       </c>
       <c r="E24" s="3">
-        <v>543000</v>
+        <v>517800</v>
       </c>
       <c r="F24" s="3">
-        <v>365600</v>
+        <v>526300</v>
       </c>
       <c r="G24" s="3">
-        <v>767500</v>
+        <v>354400</v>
       </c>
       <c r="H24" s="3">
-        <v>295500</v>
+        <v>743900</v>
       </c>
       <c r="I24" s="3">
-        <v>1358000</v>
+        <v>286400</v>
       </c>
       <c r="J24" s="3">
+        <v>1316200</v>
+      </c>
+      <c r="K24" s="3">
         <v>865300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1306400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>981200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1279800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>281600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1639200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>411400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1294500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>439200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1025500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>764400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>811300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>812800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>597500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>988900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>403500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>690600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>662100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>743100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2151,180 +2199,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3063300</v>
+        <v>4154100</v>
       </c>
       <c r="E26" s="3">
-        <v>6629700</v>
+        <v>2969200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2605800</v>
+        <v>6425900</v>
       </c>
       <c r="G26" s="3">
-        <v>3380000</v>
+        <v>-2525600</v>
       </c>
       <c r="H26" s="3">
-        <v>-3076000</v>
+        <v>3276100</v>
       </c>
       <c r="I26" s="3">
-        <v>2810700</v>
+        <v>-2981400</v>
       </c>
       <c r="J26" s="3">
+        <v>2724300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-304300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5276900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1899500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11355700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3283200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6791500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7386000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12903300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2842500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3430500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4621900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2377500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1191600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>962900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>6201200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2714400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2288300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1642800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2720300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3342800</v>
+        <v>4730300</v>
       </c>
       <c r="E27" s="3">
-        <v>6654800</v>
+        <v>3240000</v>
       </c>
       <c r="F27" s="3">
-        <v>-2922700</v>
+        <v>6450200</v>
       </c>
       <c r="G27" s="3">
-        <v>3232300</v>
+        <v>-2832900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1276200</v>
+        <v>3133000</v>
       </c>
       <c r="I27" s="3">
-        <v>2904000</v>
+        <v>-1237000</v>
       </c>
       <c r="J27" s="3">
+        <v>2814700</v>
+      </c>
+      <c r="K27" s="3">
         <v>762900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6483200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-762700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11056200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4239400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7013000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>495000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>8054500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11317000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3246900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3929300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4800100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2803800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1246100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1084900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3572700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2622100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2179100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1548400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2596700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2409,8 +2466,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2495,8 +2555,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2581,8 +2644,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2667,180 +2733,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1677900</v>
+        <v>624700</v>
       </c>
       <c r="E32" s="3">
-        <v>-2413400</v>
+        <v>-1626400</v>
       </c>
       <c r="F32" s="3">
-        <v>5616100</v>
+        <v>-2339200</v>
       </c>
       <c r="G32" s="3">
-        <v>-778700</v>
+        <v>5443400</v>
       </c>
       <c r="H32" s="3">
-        <v>4987800</v>
+        <v>-754800</v>
       </c>
       <c r="I32" s="3">
-        <v>-3332600</v>
+        <v>4834400</v>
       </c>
       <c r="J32" s="3">
+        <v>-3230100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1392100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2335000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-309900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5966400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1717900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3482100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1023100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-349600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-714200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-405900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-767600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-498500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-560200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3342800</v>
+        <v>4730300</v>
       </c>
       <c r="E33" s="3">
-        <v>6654800</v>
+        <v>3240000</v>
       </c>
       <c r="F33" s="3">
-        <v>-2922700</v>
+        <v>6450200</v>
       </c>
       <c r="G33" s="3">
-        <v>3232300</v>
+        <v>-2832900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1276200</v>
+        <v>3133000</v>
       </c>
       <c r="I33" s="3">
-        <v>2904000</v>
+        <v>-1237000</v>
       </c>
       <c r="J33" s="3">
+        <v>2814700</v>
+      </c>
+      <c r="K33" s="3">
         <v>762900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6483200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-762700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11056200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4239400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7013000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>495000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>8054500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11317000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3246900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3929300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4800100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2803800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1246100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1084900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3572700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2622100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2179100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1548400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2596700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2925,185 +3000,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3342800</v>
+        <v>4730300</v>
       </c>
       <c r="E35" s="3">
-        <v>6654800</v>
+        <v>3240000</v>
       </c>
       <c r="F35" s="3">
-        <v>-2922700</v>
+        <v>6450200</v>
       </c>
       <c r="G35" s="3">
-        <v>3232300</v>
+        <v>-2832900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1276200</v>
+        <v>3133000</v>
       </c>
       <c r="I35" s="3">
-        <v>2904000</v>
+        <v>-1237000</v>
       </c>
       <c r="J35" s="3">
+        <v>2814700</v>
+      </c>
+      <c r="K35" s="3">
         <v>762900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6483200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-762700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11056200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4239400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7013000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>495000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>8054500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11317000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3246900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3929300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4800100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2803800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1246100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1084900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3572700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2622100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2179100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1548400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2596700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3134,8 +3218,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3166,180 +3251,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27447200</v>
+        <v>31194100</v>
       </c>
       <c r="E41" s="3">
-        <v>27754600</v>
+        <v>26603400</v>
       </c>
       <c r="F41" s="3">
-        <v>29384000</v>
+        <v>26901400</v>
       </c>
       <c r="G41" s="3">
-        <v>25122500</v>
+        <v>28480600</v>
       </c>
       <c r="H41" s="3">
-        <v>26994000</v>
+        <v>24350100</v>
       </c>
       <c r="I41" s="3">
-        <v>41666000</v>
+        <v>26164100</v>
       </c>
       <c r="J41" s="3">
+        <v>40385100</v>
+      </c>
+      <c r="K41" s="3">
         <v>38694100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41909600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44719700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43449500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44430400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45573600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51743500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>53981500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36534000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>32166100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28899100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>27478100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>23005900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24089600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28596900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>31492000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>22075400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>21540800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>20903500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>19486000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>47106200</v>
+        <v>43817300</v>
       </c>
       <c r="E42" s="3">
-        <v>46051500</v>
+        <v>45658100</v>
       </c>
       <c r="F42" s="3">
-        <v>39858700</v>
+        <v>44635800</v>
       </c>
       <c r="G42" s="3">
-        <v>40733200</v>
+        <v>38633400</v>
       </c>
       <c r="H42" s="3">
-        <v>37696300</v>
+        <v>39481000</v>
       </c>
       <c r="I42" s="3">
-        <v>28688700</v>
+        <v>36537500</v>
       </c>
       <c r="J42" s="3">
+        <v>27806800</v>
+      </c>
+      <c r="K42" s="3">
         <v>26581900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27509400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22575900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20883300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16090800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11389600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5121400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1021700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1066000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1540200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2006300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1653700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2402000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2475900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1564100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1771400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2413700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1108600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1027500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1135400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3424,8 +3516,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3510,438 +3605,456 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24662500</v>
+        <v>25627900</v>
       </c>
       <c r="E45" s="3">
-        <v>29732500</v>
+        <v>23904300</v>
       </c>
       <c r="F45" s="3">
-        <v>27093600</v>
+        <v>28818500</v>
       </c>
       <c r="G45" s="3">
-        <v>25826000</v>
+        <v>26260700</v>
       </c>
       <c r="H45" s="3">
-        <v>26077400</v>
+        <v>25032000</v>
       </c>
       <c r="I45" s="3">
-        <v>25616100</v>
+        <v>25275700</v>
       </c>
       <c r="J45" s="3">
+        <v>24828600</v>
+      </c>
+      <c r="K45" s="3">
         <v>25422400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23522800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22260200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18870600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16538500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15436500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15610300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15742300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14770600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10696400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10208500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>8872000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7886200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7438400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6692600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6553500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>5882700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5013300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4517500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>3887600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>99215900</v>
+        <v>100639300</v>
       </c>
       <c r="E46" s="3">
-        <v>103538600</v>
+        <v>96165800</v>
       </c>
       <c r="F46" s="3">
-        <v>96336300</v>
+        <v>100355600</v>
       </c>
       <c r="G46" s="3">
-        <v>91681600</v>
+        <v>93374700</v>
       </c>
       <c r="H46" s="3">
-        <v>90767800</v>
+        <v>88863100</v>
       </c>
       <c r="I46" s="3">
-        <v>95970900</v>
+        <v>87977400</v>
       </c>
       <c r="J46" s="3">
+        <v>93020500</v>
+      </c>
+      <c r="K46" s="3">
         <v>90698400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>92941800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>89555700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83203500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>77059700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>72399700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>72475200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>70745500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>52370500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44402800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41113900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38003800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>33294100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34003900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>36853600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>39816900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>30371800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>27662700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>26448500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>24509000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64410600</v>
+        <v>62229700</v>
       </c>
       <c r="E47" s="3">
-        <v>61993500</v>
+        <v>62430500</v>
       </c>
       <c r="F47" s="3">
-        <v>59441600</v>
+        <v>60087600</v>
       </c>
       <c r="G47" s="3">
-        <v>63510100</v>
+        <v>57614200</v>
       </c>
       <c r="H47" s="3">
-        <v>63008400</v>
+        <v>61557600</v>
       </c>
       <c r="I47" s="3">
-        <v>67711900</v>
+        <v>61071400</v>
       </c>
       <c r="J47" s="3">
+        <v>65630300</v>
+      </c>
+      <c r="K47" s="3">
         <v>65584300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65281500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>60887500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>59266900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58735200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55079600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54946500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>55746500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>51631700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>38852700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>36743700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>33087900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>30691800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>28385900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>25523900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>24392700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>23730600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>22240600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>22079200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>22453800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25022800</v>
+        <v>24229900</v>
       </c>
       <c r="E48" s="3">
-        <v>25273700</v>
+        <v>24253600</v>
       </c>
       <c r="F48" s="3">
-        <v>25525400</v>
+        <v>24496700</v>
       </c>
       <c r="G48" s="3">
-        <v>25276000</v>
+        <v>24740700</v>
       </c>
       <c r="H48" s="3">
-        <v>35517500</v>
+        <v>24498900</v>
       </c>
       <c r="I48" s="3">
-        <v>23462700</v>
+        <v>34425600</v>
       </c>
       <c r="J48" s="3">
+        <v>22741400</v>
+      </c>
+      <c r="K48" s="3">
         <v>22326900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21917300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20519800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20473800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17393900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16424900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21612600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19466200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19627200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18193700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13999600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13188900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12180000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11286000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>9539800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9642600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7359200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6518500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2938600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2893900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>44777800</v>
+        <v>42869400</v>
       </c>
       <c r="E49" s="3">
-        <v>45071900</v>
+        <v>43401300</v>
       </c>
       <c r="F49" s="3">
-        <v>46262600</v>
+        <v>43686300</v>
       </c>
       <c r="G49" s="3">
-        <v>46520600</v>
+        <v>44840400</v>
       </c>
       <c r="H49" s="3">
-        <v>46740600</v>
+        <v>45090400</v>
       </c>
       <c r="I49" s="3">
-        <v>47076100</v>
+        <v>45303700</v>
       </c>
       <c r="J49" s="3">
+        <v>45628900</v>
+      </c>
+      <c r="K49" s="3">
         <v>51142200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51691900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50613700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>51132800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>49004600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49288400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52874900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>52626800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53469800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>50862400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50688100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>45348800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35607600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>37195600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>27205800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28168500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>21480600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>21635700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>20291600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>19700100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4026,8 +4139,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4112,94 +4228,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15768100</v>
+        <v>14839700</v>
       </c>
       <c r="E52" s="3">
-        <v>16029700</v>
+        <v>15283400</v>
       </c>
       <c r="F52" s="3">
-        <v>15872200</v>
+        <v>15536900</v>
       </c>
       <c r="G52" s="3">
-        <v>15856300</v>
+        <v>15384200</v>
       </c>
       <c r="H52" s="3">
-        <v>4988600</v>
+        <v>15368800</v>
       </c>
       <c r="I52" s="3">
-        <v>16043000</v>
+        <v>4835300</v>
       </c>
       <c r="J52" s="3">
+        <v>15549900</v>
+      </c>
+      <c r="K52" s="3">
         <v>15552800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14506300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13701700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13552100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9065700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8569300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3651800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4590900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3806500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3348900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4262100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3683500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3660800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3433600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3769800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3562900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2961100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2635200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1947900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1829800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4284,94 +4406,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>249195200</v>
+        <v>244808100</v>
       </c>
       <c r="E54" s="3">
-        <v>251907400</v>
+        <v>241534400</v>
       </c>
       <c r="F54" s="3">
-        <v>243438100</v>
+        <v>244163200</v>
       </c>
       <c r="G54" s="3">
-        <v>242844500</v>
+        <v>235954300</v>
       </c>
       <c r="H54" s="3">
-        <v>241022900</v>
+        <v>235378900</v>
       </c>
       <c r="I54" s="3">
-        <v>250264600</v>
+        <v>233613300</v>
       </c>
       <c r="J54" s="3">
+        <v>242570900</v>
+      </c>
+      <c r="K54" s="3">
         <v>245304600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>246338700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>235278300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>227629000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>211259100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>201761900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>205560900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>203175800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>180905600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>155660500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>146807400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>133312900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>115434400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>114305100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>102893000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>105583600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>85903300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>80692600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>73705700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>71386600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4402,8 +4530,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4434,53 +4563,54 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>39226300</v>
+        <v>38489000</v>
       </c>
       <c r="E57" s="3">
-        <v>41744600</v>
+        <v>38020400</v>
       </c>
       <c r="F57" s="3">
-        <v>38645300</v>
+        <v>40461300</v>
       </c>
       <c r="G57" s="3">
-        <v>37749800</v>
-      </c>
-      <c r="H57" s="3" t="s">
+        <v>37457300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>36589300</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I57" s="3">
-        <v>40067400</v>
-      </c>
       <c r="J57" s="3">
+        <v>38835600</v>
+      </c>
+      <c r="K57" s="3">
         <v>37802900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35961600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36321300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31307500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26279700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24271800</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -4520,438 +4650,456 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1743600</v>
+        <v>1134800</v>
       </c>
       <c r="E58" s="3">
-        <v>1644000</v>
+        <v>1690000</v>
       </c>
       <c r="F58" s="3">
-        <v>1649200</v>
+        <v>1593400</v>
       </c>
       <c r="G58" s="3">
-        <v>1926000</v>
+        <v>1598500</v>
       </c>
       <c r="H58" s="3">
-        <v>1256700</v>
+        <v>1866800</v>
       </c>
       <c r="I58" s="3">
-        <v>1123800</v>
+        <v>1218100</v>
       </c>
       <c r="J58" s="3">
+        <v>1089300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2679000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2443400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1870400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2094500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>722500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>669500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>806900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>649000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3768400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3516800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3417500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3313000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1262700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1964700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>864900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>956800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2428100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2442100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2166500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1989300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13807700</v>
+        <v>12765600</v>
       </c>
       <c r="E59" s="3">
-        <v>16006700</v>
+        <v>13383300</v>
       </c>
       <c r="F59" s="3">
-        <v>14129100</v>
+        <v>15514600</v>
       </c>
       <c r="G59" s="3">
-        <v>13713500</v>
+        <v>13694800</v>
       </c>
       <c r="H59" s="3">
-        <v>53298100</v>
+        <v>13291900</v>
       </c>
       <c r="I59" s="3">
-        <v>17162300</v>
+        <v>51659600</v>
       </c>
       <c r="J59" s="3">
+        <v>16634700</v>
+      </c>
+      <c r="K59" s="3">
         <v>14652800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14475700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14336500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16453900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11744900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11617700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37060600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>39764300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34290100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28673900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28173100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27007000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>22264000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>21594200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>18621100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>19292000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>15311900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>13438700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11440500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11476900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54777600</v>
+        <v>52389300</v>
       </c>
       <c r="E60" s="3">
-        <v>59395200</v>
+        <v>53093700</v>
       </c>
       <c r="F60" s="3">
-        <v>54423700</v>
+        <v>57569300</v>
       </c>
       <c r="G60" s="3">
-        <v>53389300</v>
+        <v>52750600</v>
       </c>
       <c r="H60" s="3">
-        <v>54554900</v>
+        <v>51748000</v>
       </c>
       <c r="I60" s="3">
-        <v>58353600</v>
+        <v>52877800</v>
       </c>
       <c r="J60" s="3">
+        <v>56559700</v>
+      </c>
+      <c r="K60" s="3">
         <v>55134700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52880700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52528200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>49855900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38747100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>36559000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37867500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40413300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38058500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>32190700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>31590600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>30320000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>23526700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23558800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19486000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>20248800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>17740000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>15880800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>13607000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>13466200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21192900</v>
+        <v>21673800</v>
       </c>
       <c r="E61" s="3">
-        <v>21075200</v>
+        <v>20541300</v>
       </c>
       <c r="F61" s="3">
-        <v>21299500</v>
+        <v>20427300</v>
       </c>
       <c r="G61" s="3">
-        <v>19682400</v>
+        <v>20644700</v>
       </c>
       <c r="H61" s="3">
-        <v>18835300</v>
+        <v>19077300</v>
       </c>
       <c r="I61" s="3">
-        <v>18725600</v>
+        <v>18256300</v>
       </c>
       <c r="J61" s="3">
+        <v>18149900</v>
+      </c>
+      <c r="K61" s="3">
         <v>18892700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19187500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18891700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14289200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17224200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17814900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18830400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18196100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18958600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17779000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17012200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16446000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18082000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17848900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17149400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18237200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11186100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11407200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11174100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11219300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13601500</v>
+        <v>12705700</v>
       </c>
       <c r="E62" s="3">
-        <v>13681400</v>
+        <v>13183300</v>
       </c>
       <c r="F62" s="3">
-        <v>13841600</v>
+        <v>13260800</v>
       </c>
       <c r="G62" s="3">
-        <v>13929600</v>
+        <v>13416100</v>
       </c>
       <c r="H62" s="3">
-        <v>13798900</v>
+        <v>13501300</v>
       </c>
       <c r="I62" s="3">
-        <v>13955600</v>
+        <v>13374700</v>
       </c>
       <c r="J62" s="3">
+        <v>13526600</v>
+      </c>
+      <c r="K62" s="3">
         <v>13729800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13614700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13016600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12820300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10694800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10566900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11144900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11048800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10354200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7139000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4589600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4043600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3657000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4636800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3206800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3288800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2362400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2291500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1787600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1681900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5036,8 +5184,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5122,8 +5273,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5208,94 +5362,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>107114100</v>
+        <v>103795200</v>
       </c>
       <c r="E66" s="3">
-        <v>111803200</v>
+        <v>103821200</v>
       </c>
       <c r="F66" s="3">
-        <v>107307200</v>
+        <v>108366200</v>
       </c>
       <c r="G66" s="3">
-        <v>104604100</v>
+        <v>104008300</v>
       </c>
       <c r="H66" s="3">
-        <v>104824100</v>
+        <v>101388300</v>
       </c>
       <c r="I66" s="3">
-        <v>110260100</v>
+        <v>101601600</v>
       </c>
       <c r="J66" s="3">
+        <v>106870400</v>
+      </c>
+      <c r="K66" s="3">
         <v>106961600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105035900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103575200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>96014900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83728500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>81439100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>85870200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>87396600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>85691900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>74973700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>70887900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>65336800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>55593000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>57452000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49974200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>53203800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>37956500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>36261200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>32724800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>32523100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5326,8 +5486,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5412,8 +5573,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5498,94 +5662,100 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1401300</v>
+        <v>1372300</v>
       </c>
       <c r="E70" s="3">
-        <v>1372300</v>
+        <v>1358200</v>
       </c>
       <c r="F70" s="3">
-        <v>1381700</v>
+        <v>1330100</v>
       </c>
       <c r="G70" s="3">
-        <v>1315900</v>
+        <v>1339200</v>
       </c>
       <c r="H70" s="3">
-        <v>1372500</v>
+        <v>1275400</v>
       </c>
       <c r="I70" s="3">
-        <v>1507900</v>
+        <v>1330300</v>
       </c>
       <c r="J70" s="3">
+        <v>1461600</v>
+      </c>
+      <c r="K70" s="3">
         <v>1477500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1201100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1207300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1175300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1183700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1152400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1425200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1200300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1171000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1083400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1037300</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1040600</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>839900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>452700</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>430600</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>442100</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>133300</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>113200</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>435100</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>515800</v>
       </c>
-      <c r="AD70" s="3">
+      <c r="AE70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5670,94 +5840,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>86996500</v>
+        <v>86928700</v>
       </c>
       <c r="E72" s="3">
-        <v>84953700</v>
+        <v>84322000</v>
       </c>
       <c r="F72" s="3">
-        <v>79189200</v>
+        <v>82342000</v>
       </c>
       <c r="G72" s="3">
-        <v>82093800</v>
+        <v>76754800</v>
       </c>
       <c r="H72" s="3">
-        <v>81508200</v>
+        <v>79570000</v>
       </c>
       <c r="I72" s="3">
-        <v>84032500</v>
+        <v>79002500</v>
       </c>
       <c r="J72" s="3">
+        <v>81449200</v>
+      </c>
+      <c r="K72" s="3">
         <v>82138400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>86310300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>78268100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>79111700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>72029000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>67773800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>64563300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>63003500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55694500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43446200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>39985800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34455500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29692900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27742100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>25305600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25027300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>21444900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>18812900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>16290200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>14732300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5842,8 +6018,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5928,8 +6107,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6014,94 +6196,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>140679700</v>
+        <v>139640600</v>
       </c>
       <c r="E76" s="3">
-        <v>138731900</v>
+        <v>136354900</v>
       </c>
       <c r="F76" s="3">
-        <v>134749200</v>
+        <v>134466900</v>
       </c>
       <c r="G76" s="3">
-        <v>136924600</v>
+        <v>130606800</v>
       </c>
       <c r="H76" s="3">
-        <v>134826300</v>
+        <v>132715200</v>
       </c>
       <c r="I76" s="3">
-        <v>138496600</v>
+        <v>130681400</v>
       </c>
       <c r="J76" s="3">
+        <v>134238900</v>
+      </c>
+      <c r="K76" s="3">
         <v>136865400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>140101700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130495800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130438900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>126346900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>119170500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>118265600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>114579000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>94042700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79603400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74882100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>66935500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>59001500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>56400400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>52488100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>51937700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>47813500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>44318200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>40545700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>38347700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6186,185 +6374,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3342800</v>
+        <v>4730300</v>
       </c>
       <c r="E81" s="3">
-        <v>6654800</v>
+        <v>3240000</v>
       </c>
       <c r="F81" s="3">
-        <v>-2922700</v>
+        <v>6450200</v>
       </c>
       <c r="G81" s="3">
-        <v>3232300</v>
+        <v>-2832900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1276200</v>
+        <v>3133000</v>
       </c>
       <c r="I81" s="3">
-        <v>2904000</v>
+        <v>-1237000</v>
       </c>
       <c r="J81" s="3">
+        <v>2814700</v>
+      </c>
+      <c r="K81" s="3">
         <v>762900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6483200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-762700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11056200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4239400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7013000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>495000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>8054500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11317000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3246900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3929300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4800100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2803800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1246100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1084900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3572700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2622100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2179100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1548400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2596700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6395,8 +6592,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6481,8 +6679,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6567,8 +6768,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6653,8 +6857,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6739,8 +6946,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6825,8 +7035,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6911,94 +7124,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4463700</v>
+        <v>6242300</v>
       </c>
       <c r="E89" s="3">
-        <v>12419600</v>
+        <v>4326400</v>
       </c>
       <c r="F89" s="3">
-        <v>6697000</v>
+        <v>12037800</v>
       </c>
       <c r="G89" s="3">
-        <v>4814500</v>
+        <v>6491100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1000700</v>
+        <v>4666500</v>
       </c>
       <c r="I89" s="3">
-        <v>11424000</v>
+        <v>-970000</v>
       </c>
       <c r="J89" s="3">
+        <v>11072800</v>
+      </c>
+      <c r="K89" s="3">
         <v>5093200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4826100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3366300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14366600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8001100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>7382600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>338800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14859800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>7383300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5288000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2822300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9425100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4395700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5182100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2063700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>8226100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>4470300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3839800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1562800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5441400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7029,94 +7248,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34330000</v>
+        <v>-20770000</v>
       </c>
       <c r="E91" s="3">
-        <v>-20770000</v>
+        <v>-4098000</v>
       </c>
       <c r="F91" s="3">
-        <v>-4098000</v>
+        <v>-15938000</v>
       </c>
       <c r="G91" s="3">
-        <v>-15938000</v>
+        <v>-12518000</v>
       </c>
       <c r="H91" s="3">
-        <v>-12518000</v>
+        <v>-4993000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4993000</v>
+        <v>-5844000</v>
       </c>
       <c r="J91" s="3">
+        <v>-18710000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5844000</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-453500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-813500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2757100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2009700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-281000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1025400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-975000</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="U91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="X91" s="3" t="s">
+      <c r="Y91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-532600</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7201,8 +7424,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7287,94 +7513,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3810800</v>
+        <v>1735300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10368800</v>
+        <v>-3693600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1158200</v>
+        <v>-10050100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3924300</v>
+        <v>-1122600</v>
       </c>
       <c r="H94" s="3">
-        <v>-12403200</v>
+        <v>-3803700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4803200</v>
+        <v>-12021900</v>
       </c>
       <c r="J94" s="3">
+        <v>-4655600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4232200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6861400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3856000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11095900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10175700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9980400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5165700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-441400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7405,8 +7637,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7491,8 +7724,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7577,8 +7813,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7663,8 +7902,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7749,262 +7991,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1324700</v>
+        <v>-3394300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3384300</v>
+        <v>-1284000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1630500</v>
+        <v>-3280300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2988300</v>
+        <v>-1580300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1508800</v>
+        <v>-2896400</v>
       </c>
       <c r="I100" s="3">
-        <v>-2657800</v>
+        <v>-1462400</v>
       </c>
       <c r="J100" s="3">
+        <v>-2576100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3364700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1647000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4213600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-791400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1489200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-679200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>464500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>9437000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>328600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>686400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>109400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-486600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>614200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-660700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>5086600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-61700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>361000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-170700</v>
+        <v>595100</v>
       </c>
       <c r="E101" s="3">
-        <v>-288700</v>
+        <v>-165500</v>
       </c>
       <c r="F101" s="3">
-        <v>488400</v>
+        <v>-279800</v>
       </c>
       <c r="G101" s="3">
-        <v>472800</v>
+        <v>473400</v>
       </c>
       <c r="H101" s="3">
-        <v>-129800</v>
+        <v>458300</v>
       </c>
       <c r="I101" s="3">
-        <v>-842100</v>
+        <v>-125800</v>
       </c>
       <c r="J101" s="3">
+        <v>-816200</v>
+      </c>
+      <c r="K101" s="3">
         <v>27700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-314800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>159900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-575200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-567800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-51700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>363500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>367100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>210400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-173700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>233700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>399300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-380700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-224000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-120400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-162100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-64900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>253800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-842500</v>
+        <v>5178300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1622200</v>
+        <v>-816600</v>
       </c>
       <c r="F102" s="3">
-        <v>4396700</v>
+        <v>-1572300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1625300</v>
+        <v>4261500</v>
       </c>
       <c r="H102" s="3">
-        <v>-15042500</v>
+        <v>-1575400</v>
       </c>
       <c r="I102" s="3">
-        <v>3120900</v>
+        <v>-14580000</v>
       </c>
       <c r="J102" s="3">
+        <v>3025000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2476000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3997200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3883800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1904100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1253100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3328700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3998900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>18978300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4747700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2955700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>209800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3610700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-277700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>9481900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>494500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>291500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1417500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4407300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>3117700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BABA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32262000</v>
+        <v>31039000</v>
       </c>
       <c r="E8" s="3">
-        <v>28685800</v>
+        <v>32332300</v>
       </c>
       <c r="F8" s="3">
-        <v>34135800</v>
+        <v>28748300</v>
       </c>
       <c r="G8" s="3">
-        <v>28544700</v>
+        <v>34210100</v>
       </c>
       <c r="H8" s="3">
-        <v>28321400</v>
+        <v>28606900</v>
       </c>
       <c r="I8" s="3">
-        <v>28114300</v>
+        <v>28383000</v>
       </c>
       <c r="J8" s="3">
+        <v>28175500</v>
+      </c>
+      <c r="K8" s="3">
         <v>33422700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28528100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29548400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26085400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30774900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>22849500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>22656700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17897000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>24861000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>18567800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17558100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14222900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17032300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11917300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11610400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8886000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12322200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8180700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7447800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5610500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7743900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>4987100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19612600</v>
+        <v>19284800</v>
       </c>
       <c r="E9" s="3">
-        <v>19127000</v>
+        <v>19655300</v>
       </c>
       <c r="F9" s="3">
-        <v>20667700</v>
+        <v>19168700</v>
       </c>
       <c r="G9" s="3">
-        <v>18078100</v>
+        <v>20712700</v>
       </c>
       <c r="H9" s="3">
-        <v>17864100</v>
+        <v>18117500</v>
       </c>
       <c r="I9" s="3">
-        <v>19143800</v>
+        <v>17903000</v>
       </c>
       <c r="J9" s="3">
+        <v>19185500</v>
+      </c>
+      <c r="K9" s="3">
         <v>20206500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18444000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17822800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17463200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16880500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13256500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12455300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11350900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12985400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10225800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9164800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8459400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8831900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6548200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6272900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4663700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5205900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3265300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2591200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2252700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2781500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1908500</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12649400</v>
+        <v>11754200</v>
       </c>
       <c r="E10" s="3">
-        <v>9558800</v>
+        <v>12677000</v>
       </c>
       <c r="F10" s="3">
-        <v>13468100</v>
+        <v>9579600</v>
       </c>
       <c r="G10" s="3">
-        <v>10466600</v>
+        <v>13497500</v>
       </c>
       <c r="H10" s="3">
-        <v>10457200</v>
+        <v>10489400</v>
       </c>
       <c r="I10" s="3">
-        <v>8970400</v>
+        <v>10480000</v>
       </c>
       <c r="J10" s="3">
+        <v>8990000</v>
+      </c>
+      <c r="K10" s="3">
         <v>13216100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10084100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11725600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8622200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>13894400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9593000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10201400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6546100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11875600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8342000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8393300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5763500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>8200400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5369100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5337500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4222300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7116300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4915300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4856600</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3357800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4962400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>3078600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,97 +1083,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1441900</v>
+        <v>1963200</v>
       </c>
       <c r="E12" s="3">
-        <v>1912400</v>
+        <v>1445000</v>
       </c>
       <c r="F12" s="3">
-        <v>1862900</v>
+        <v>1916600</v>
       </c>
       <c r="G12" s="3">
-        <v>2087400</v>
+        <v>1867000</v>
       </c>
       <c r="H12" s="3">
-        <v>1955500</v>
+        <v>2091900</v>
       </c>
       <c r="I12" s="3">
-        <v>1507900</v>
+        <v>1959800</v>
       </c>
       <c r="J12" s="3">
+        <v>1511100</v>
+      </c>
+      <c r="K12" s="3">
         <v>2163800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2174500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1941600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1851600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1894100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2835900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1633000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1657500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1705600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1706400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1600800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1317200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1292700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1170800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1651500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>959300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>933400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>754400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>696900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>657100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>642800</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>601200</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1249,186 +1265,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>279800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>280400</v>
       </c>
       <c r="F14" s="3">
-        <v>373900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>374700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3463900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>89900</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>73300</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3">
         <v>309000</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>341600</v>
+        <v>335700</v>
       </c>
       <c r="E15" s="3">
-        <v>343600</v>
+        <v>342300</v>
       </c>
       <c r="F15" s="3">
-        <v>761900</v>
+        <v>344400</v>
       </c>
       <c r="G15" s="3">
-        <v>376000</v>
+        <v>763600</v>
       </c>
       <c r="H15" s="3">
-        <v>379000</v>
+        <v>376800</v>
       </c>
       <c r="I15" s="3">
-        <v>390100</v>
+        <v>379900</v>
       </c>
       <c r="J15" s="3">
         <v>390900</v>
       </c>
       <c r="K15" s="3">
+        <v>390900</v>
+      </c>
+      <c r="L15" s="3">
         <v>413100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>441300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>475400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>441500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>425600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>435000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>633100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>503800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>469000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>468400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>487200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>408000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>365400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>301900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>190700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>305300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>259400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>294700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>190900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>183400</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>188600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1457,186 +1482,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26407700</v>
+        <v>26401700</v>
       </c>
       <c r="E17" s="3">
-        <v>26586000</v>
+        <v>26465200</v>
       </c>
       <c r="F17" s="3">
-        <v>29309300</v>
+        <v>26643900</v>
       </c>
       <c r="G17" s="3">
-        <v>25081300</v>
+        <v>29373100</v>
       </c>
       <c r="H17" s="3">
-        <v>24884700</v>
+        <v>25135900</v>
       </c>
       <c r="I17" s="3">
-        <v>25811000</v>
+        <v>24938900</v>
       </c>
       <c r="J17" s="3">
+        <v>25867200</v>
+      </c>
+      <c r="K17" s="3">
         <v>32448800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26395000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25118100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27152100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23953800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20840400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17542600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16780600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18769500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15390900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13834100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12889600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13140400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10027700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10459700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7563000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8464100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5719400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4848700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4533300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4738700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3671700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5854300</v>
+        <v>4637300</v>
       </c>
       <c r="E18" s="3">
-        <v>2099800</v>
+        <v>5867000</v>
       </c>
       <c r="F18" s="3">
-        <v>4826600</v>
+        <v>2104300</v>
       </c>
       <c r="G18" s="3">
-        <v>3463400</v>
+        <v>4837100</v>
       </c>
       <c r="H18" s="3">
-        <v>3436600</v>
+        <v>3470900</v>
       </c>
       <c r="I18" s="3">
-        <v>2303300</v>
+        <v>3444100</v>
       </c>
       <c r="J18" s="3">
+        <v>2308300</v>
+      </c>
+      <c r="K18" s="3">
         <v>973800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2133100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4430200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1066700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6821100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2009100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5114100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1116400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6091400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3177000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3724000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1333300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3891900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1889600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1150700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1323000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3858100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2461200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2599100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1077200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3005200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1315400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1668,165 +1700,169 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-624700</v>
+        <v>901200</v>
       </c>
       <c r="E20" s="3">
-        <v>1626400</v>
+        <v>-626100</v>
       </c>
       <c r="F20" s="3">
-        <v>2339200</v>
+        <v>1629900</v>
       </c>
       <c r="G20" s="3">
-        <v>-5443400</v>
+        <v>2344300</v>
       </c>
       <c r="H20" s="3">
-        <v>754800</v>
+        <v>-5455300</v>
       </c>
       <c r="I20" s="3">
-        <v>-4834400</v>
+        <v>756400</v>
       </c>
       <c r="J20" s="3">
+        <v>-4845000</v>
+      </c>
+      <c r="K20" s="3">
         <v>3230100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1392100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2335000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>309900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5966400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1717900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3482100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1023100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2790600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10377600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>349600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3059700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1735100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>714200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1027700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>405900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3457200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>767600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>498500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1326000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>560200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>187200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6491600</v>
+        <v>5492000</v>
       </c>
       <c r="E21" s="3">
-        <v>3270500</v>
+        <v>6505800</v>
       </c>
       <c r="F21" s="3">
-        <v>7547200</v>
+        <v>3277600</v>
       </c>
       <c r="G21" s="3">
-        <v>-1920800</v>
+        <v>7563600</v>
       </c>
       <c r="H21" s="3">
-        <v>5492900</v>
+        <v>-1925000</v>
       </c>
       <c r="I21" s="3">
-        <v>-2391400</v>
+        <v>5504800</v>
       </c>
       <c r="J21" s="3">
+        <v>-2396700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4157900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>704500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8197100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>564900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12940900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3812200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9866300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1609300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>8955000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>13596400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5257300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4411900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5740800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2772500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2890300</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>10</v>
@@ -1837,284 +1873,296 @@
       <c r="AB21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="3">
         <v>2424500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>3570300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1520600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>245800</v>
+        <v>256000</v>
       </c>
       <c r="E22" s="3">
-        <v>239200</v>
+        <v>246300</v>
       </c>
       <c r="F22" s="3">
-        <v>213600</v>
+        <v>239700</v>
       </c>
       <c r="G22" s="3">
-        <v>191200</v>
+        <v>214000</v>
       </c>
       <c r="H22" s="3">
-        <v>171400</v>
+        <v>191700</v>
       </c>
       <c r="I22" s="3">
-        <v>163800</v>
+        <v>171800</v>
       </c>
       <c r="J22" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K22" s="3">
         <v>163400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>180100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>182000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>161500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>152000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>162200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>165500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>182400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>201600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>212200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>205600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>198200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>193700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>187500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>174000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>168600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>125300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>110900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>118700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>98300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>101900</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>97100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4983800</v>
+        <v>5282500</v>
       </c>
       <c r="E23" s="3">
-        <v>3486900</v>
+        <v>4994600</v>
       </c>
       <c r="F23" s="3">
-        <v>6952200</v>
+        <v>3494500</v>
       </c>
       <c r="G23" s="3">
-        <v>-2171300</v>
+        <v>6967400</v>
       </c>
       <c r="H23" s="3">
-        <v>4020000</v>
+        <v>-2176000</v>
       </c>
       <c r="I23" s="3">
-        <v>-2695000</v>
+        <v>4028800</v>
       </c>
       <c r="J23" s="3">
+        <v>-2700800</v>
+      </c>
+      <c r="K23" s="3">
         <v>4040500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>560900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6583300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-918300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12635500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3564800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8430800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-89100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8680500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>13342400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3867900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4194900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5433200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2416300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2004400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1560300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>7190000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3117900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2978900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2304900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>3463400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1405400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>829700</v>
+        <v>800400</v>
       </c>
       <c r="E24" s="3">
-        <v>517800</v>
+        <v>831500</v>
       </c>
       <c r="F24" s="3">
-        <v>526300</v>
+        <v>518900</v>
       </c>
       <c r="G24" s="3">
-        <v>354400</v>
+        <v>527500</v>
       </c>
       <c r="H24" s="3">
-        <v>743900</v>
+        <v>355100</v>
       </c>
       <c r="I24" s="3">
-        <v>286400</v>
+        <v>745500</v>
       </c>
       <c r="J24" s="3">
+        <v>287100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1316200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>865300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1306400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>981200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1279800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>281600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1639200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>411400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1294500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>439200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1025500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>764400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>811300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>812800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>597500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>988900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>403500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>690600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>662100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>743100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>294100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2202,186 +2250,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4154100</v>
+        <v>4482100</v>
       </c>
       <c r="E26" s="3">
-        <v>2969200</v>
+        <v>4163100</v>
       </c>
       <c r="F26" s="3">
-        <v>6425900</v>
+        <v>2975600</v>
       </c>
       <c r="G26" s="3">
-        <v>-2525600</v>
+        <v>6439900</v>
       </c>
       <c r="H26" s="3">
-        <v>3276100</v>
+        <v>-2531100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2981400</v>
+        <v>3283300</v>
       </c>
       <c r="J26" s="3">
+        <v>-2987900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2724300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-304300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5276900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1899500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11355700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3283200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6791500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7386000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12903300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2842500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3430500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4621900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2377500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1191600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>962900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>6201200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2714400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2288300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1642800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2720300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1111400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4730300</v>
+        <v>3825600</v>
       </c>
       <c r="E27" s="3">
-        <v>3240000</v>
+        <v>4740600</v>
       </c>
       <c r="F27" s="3">
-        <v>6450200</v>
+        <v>3247100</v>
       </c>
       <c r="G27" s="3">
-        <v>-2832900</v>
+        <v>6464200</v>
       </c>
       <c r="H27" s="3">
-        <v>3133000</v>
+        <v>-2839100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1237000</v>
+        <v>3139800</v>
       </c>
       <c r="J27" s="3">
+        <v>-1239700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2814700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>762900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6483200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-762700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11056200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4239400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7013000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>495000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8054500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11317000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3246900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3929300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>4800100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2803800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1246100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1084900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3572700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2622100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2179100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1548400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2596700</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2469,8 +2526,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2558,8 +2618,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2647,8 +2710,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2736,186 +2802,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>624700</v>
+        <v>-901200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1626400</v>
+        <v>626100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2339200</v>
+        <v>-1629900</v>
       </c>
       <c r="G32" s="3">
-        <v>5443400</v>
+        <v>-2344300</v>
       </c>
       <c r="H32" s="3">
-        <v>-754800</v>
+        <v>5455300</v>
       </c>
       <c r="I32" s="3">
-        <v>4834400</v>
+        <v>-756400</v>
       </c>
       <c r="J32" s="3">
+        <v>4845000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3230100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1392100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2335000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-309900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5966400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1717900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3482100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1023100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2790600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10377600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-349600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3059700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1735100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-714200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1027700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-405900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3457200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-767600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-498500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1326000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-560200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-187200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4730300</v>
+        <v>3825600</v>
       </c>
       <c r="E33" s="3">
-        <v>3240000</v>
+        <v>4740600</v>
       </c>
       <c r="F33" s="3">
-        <v>6450200</v>
+        <v>3247100</v>
       </c>
       <c r="G33" s="3">
-        <v>-2832900</v>
+        <v>6464200</v>
       </c>
       <c r="H33" s="3">
-        <v>3133000</v>
+        <v>-2839100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1237000</v>
+        <v>3139800</v>
       </c>
       <c r="J33" s="3">
+        <v>-1239700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2814700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>762900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6483200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-762700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11056200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4239400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7013000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>495000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8054500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11317000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3246900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3929300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4800100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2803800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1246100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1084900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3572700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2622100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2179100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1548400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2596700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3003,191 +3078,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4730300</v>
+        <v>3825600</v>
       </c>
       <c r="E35" s="3">
-        <v>3240000</v>
+        <v>4740600</v>
       </c>
       <c r="F35" s="3">
-        <v>6450200</v>
+        <v>3247100</v>
       </c>
       <c r="G35" s="3">
-        <v>-2832900</v>
+        <v>6464200</v>
       </c>
       <c r="H35" s="3">
-        <v>3133000</v>
+        <v>-2839100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1237000</v>
+        <v>3139800</v>
       </c>
       <c r="J35" s="3">
+        <v>-1239700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2814700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>762900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6483200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-762700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11056200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4239400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7013000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>495000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8054500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11317000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3246900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3929300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4800100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2803800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1246100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1084900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3572700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2622100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2179100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1548400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2596700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3219,8 +3303,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3252,186 +3337,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31194100</v>
+        <v>33652300</v>
       </c>
       <c r="E41" s="3">
-        <v>26603400</v>
+        <v>31262000</v>
       </c>
       <c r="F41" s="3">
-        <v>26901400</v>
+        <v>26661300</v>
       </c>
       <c r="G41" s="3">
-        <v>28480600</v>
+        <v>26960000</v>
       </c>
       <c r="H41" s="3">
-        <v>24350100</v>
+        <v>28542700</v>
       </c>
       <c r="I41" s="3">
-        <v>26164100</v>
+        <v>24403200</v>
       </c>
       <c r="J41" s="3">
+        <v>26221100</v>
+      </c>
+      <c r="K41" s="3">
         <v>40385100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>38694100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41909600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44719700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43449500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44430400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>45573600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51743500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>53981500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36534000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>32166100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>28899100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27478100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>23005900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>24089600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>28596900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>31492000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>22075400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>21540800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>20903500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>19486000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>15078800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43817300</v>
+        <v>45655300</v>
       </c>
       <c r="E42" s="3">
-        <v>45658100</v>
+        <v>43912800</v>
       </c>
       <c r="F42" s="3">
-        <v>44635800</v>
+        <v>45757500</v>
       </c>
       <c r="G42" s="3">
-        <v>38633400</v>
+        <v>44732900</v>
       </c>
       <c r="H42" s="3">
-        <v>39481000</v>
+        <v>38717500</v>
       </c>
       <c r="I42" s="3">
-        <v>36537500</v>
+        <v>39567000</v>
       </c>
       <c r="J42" s="3">
+        <v>36617000</v>
+      </c>
+      <c r="K42" s="3">
         <v>27806800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26581900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27509400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22575900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20883300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16090800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11389600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5121400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1021700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1066000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1540200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2006300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1653700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2402000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2475900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1564100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1771400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2413700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1108600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1027500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1135400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1065100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3519,8 +3611,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3608,453 +3703,471 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25627900</v>
+        <v>25350900</v>
       </c>
       <c r="E45" s="3">
-        <v>23904300</v>
+        <v>25683700</v>
       </c>
       <c r="F45" s="3">
-        <v>28818500</v>
+        <v>23956300</v>
       </c>
       <c r="G45" s="3">
-        <v>26260700</v>
+        <v>28881200</v>
       </c>
       <c r="H45" s="3">
-        <v>25032000</v>
+        <v>26317900</v>
       </c>
       <c r="I45" s="3">
-        <v>25275700</v>
+        <v>25086500</v>
       </c>
       <c r="J45" s="3">
+        <v>25330800</v>
+      </c>
+      <c r="K45" s="3">
         <v>24828600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25422400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23522800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22260200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18870600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16538500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15436500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15610300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15742300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14770600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>10696400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10208500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8872000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7886200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7438400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6692600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6553500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>5882700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>5013300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4517500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>3887600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>3682000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100639300</v>
+        <v>104658600</v>
       </c>
       <c r="E46" s="3">
-        <v>96165800</v>
+        <v>100858500</v>
       </c>
       <c r="F46" s="3">
-        <v>100355600</v>
+        <v>96375100</v>
       </c>
       <c r="G46" s="3">
-        <v>93374700</v>
+        <v>100574200</v>
       </c>
       <c r="H46" s="3">
-        <v>88863100</v>
+        <v>93578100</v>
       </c>
       <c r="I46" s="3">
-        <v>87977400</v>
+        <v>89056600</v>
       </c>
       <c r="J46" s="3">
+        <v>88168900</v>
+      </c>
+      <c r="K46" s="3">
         <v>93020500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90698400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92941800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>89555700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>83203500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>77059700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>72399700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>72475200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>70745500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>52370500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44402800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41113900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>38003800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>33294100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34003900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>36853600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>39816900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>30371800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>27662700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>26448500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>24509000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>19825900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62229700</v>
+        <v>62979500</v>
       </c>
       <c r="E47" s="3">
-        <v>62430500</v>
+        <v>62365200</v>
       </c>
       <c r="F47" s="3">
-        <v>60087600</v>
+        <v>62566400</v>
       </c>
       <c r="G47" s="3">
-        <v>57614200</v>
+        <v>60218500</v>
       </c>
       <c r="H47" s="3">
-        <v>61557600</v>
+        <v>57739700</v>
       </c>
       <c r="I47" s="3">
-        <v>61071400</v>
+        <v>61691700</v>
       </c>
       <c r="J47" s="3">
+        <v>61204400</v>
+      </c>
+      <c r="K47" s="3">
         <v>65630300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65584300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65281500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>60887500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>59266900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>58735200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>55079600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>54946500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>55746500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>51631700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38852700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>36743700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>33087900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>30691800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>28385900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>25523900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>24392700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>23730600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>22240600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>22079200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>22453800</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>22895300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24229900</v>
+        <v>24776500</v>
       </c>
       <c r="E48" s="3">
-        <v>24253600</v>
+        <v>24282600</v>
       </c>
       <c r="F48" s="3">
-        <v>24496700</v>
+        <v>24306400</v>
       </c>
       <c r="G48" s="3">
-        <v>24740700</v>
+        <v>24550100</v>
       </c>
       <c r="H48" s="3">
-        <v>24498900</v>
+        <v>24794600</v>
       </c>
       <c r="I48" s="3">
-        <v>34425600</v>
+        <v>24552300</v>
       </c>
       <c r="J48" s="3">
+        <v>34500500</v>
+      </c>
+      <c r="K48" s="3">
         <v>22741400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22326900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21917300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20519800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20473800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17393900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16424900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21612600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19466200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19627200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18193700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13999600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13188900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12180000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>11286000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>9539800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>9642600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7359200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6518500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2938600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2893900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2385100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>42869400</v>
+        <v>42570800</v>
       </c>
       <c r="E49" s="3">
-        <v>43401300</v>
+        <v>42962800</v>
       </c>
       <c r="F49" s="3">
-        <v>43686300</v>
+        <v>43495800</v>
       </c>
       <c r="G49" s="3">
-        <v>44840400</v>
+        <v>43781400</v>
       </c>
       <c r="H49" s="3">
-        <v>45090400</v>
+        <v>44938000</v>
       </c>
       <c r="I49" s="3">
-        <v>45303700</v>
+        <v>45188600</v>
       </c>
       <c r="J49" s="3">
+        <v>45402400</v>
+      </c>
+      <c r="K49" s="3">
         <v>45628900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>51142200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>51691900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>50613700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>51132800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>49004600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>49288400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>52874900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>52626800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>53469800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>50862400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>50688100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>45348800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35607600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>37195600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27205800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28168500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>21480600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>21635700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>20291600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>19700100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>19685800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4142,8 +4255,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4231,97 +4347,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14839700</v>
+        <v>15159000</v>
       </c>
       <c r="E52" s="3">
-        <v>15283400</v>
+        <v>14872000</v>
       </c>
       <c r="F52" s="3">
-        <v>15536900</v>
+        <v>15316700</v>
       </c>
       <c r="G52" s="3">
-        <v>15384200</v>
+        <v>15570700</v>
       </c>
       <c r="H52" s="3">
-        <v>15368800</v>
+        <v>15417700</v>
       </c>
       <c r="I52" s="3">
-        <v>4835300</v>
+        <v>15402300</v>
       </c>
       <c r="J52" s="3">
+        <v>4845800</v>
+      </c>
+      <c r="K52" s="3">
         <v>15549900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15552800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14506300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13701700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13552100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9065700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8569300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3651800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4590900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3806500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3348900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4262100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3683500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3660800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3433600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3769800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3562900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2961100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2635200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1947900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1829800</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1582400</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4409,97 +4531,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>244808100</v>
+        <v>250144300</v>
       </c>
       <c r="E54" s="3">
-        <v>241534400</v>
+        <v>245341100</v>
       </c>
       <c r="F54" s="3">
-        <v>244163200</v>
+        <v>242060300</v>
       </c>
       <c r="G54" s="3">
-        <v>235954300</v>
+        <v>244694900</v>
       </c>
       <c r="H54" s="3">
-        <v>235378900</v>
+        <v>236468100</v>
       </c>
       <c r="I54" s="3">
-        <v>233613300</v>
+        <v>235891500</v>
       </c>
       <c r="J54" s="3">
+        <v>234122000</v>
+      </c>
+      <c r="K54" s="3">
         <v>242570900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>245304600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>246338700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>235278300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>227629000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>211259100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>201761900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>205560900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>203175800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>180905600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>155660500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>146807400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>133312900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>115434400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>114305100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>102893000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>105583600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>85903300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>80692600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>73705700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>71386600</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>66374500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4531,8 +4659,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4564,56 +4693,57 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38489000</v>
+        <v>39574300</v>
       </c>
       <c r="E57" s="3">
-        <v>38020400</v>
+        <v>38572800</v>
       </c>
       <c r="F57" s="3">
-        <v>40461300</v>
+        <v>38103200</v>
       </c>
       <c r="G57" s="3">
-        <v>37457300</v>
+        <v>40549400</v>
       </c>
       <c r="H57" s="3">
-        <v>36589300</v>
-      </c>
-      <c r="I57" s="3" t="s">
+        <v>37538800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>36668900</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38835600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37802900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35961600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36321300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31307500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>26279700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24271800</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -4653,453 +4783,471 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1134800</v>
+        <v>1130500</v>
       </c>
       <c r="E58" s="3">
-        <v>1690000</v>
+        <v>1137200</v>
       </c>
       <c r="F58" s="3">
-        <v>1593400</v>
+        <v>1693700</v>
       </c>
       <c r="G58" s="3">
-        <v>1598500</v>
+        <v>1596900</v>
       </c>
       <c r="H58" s="3">
-        <v>1866800</v>
+        <v>1602000</v>
       </c>
       <c r="I58" s="3">
-        <v>1218100</v>
+        <v>1870800</v>
       </c>
       <c r="J58" s="3">
+        <v>1220800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1089300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2679000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2443400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1870400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2094500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>722500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>669500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>806900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>649000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3768400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3516800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3417500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3313000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1262700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1964700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>864900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>956800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2428100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2442100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2166500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1989300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>802800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12765600</v>
+        <v>13120200</v>
       </c>
       <c r="E59" s="3">
-        <v>13383300</v>
+        <v>12793400</v>
       </c>
       <c r="F59" s="3">
-        <v>15514600</v>
+        <v>13412400</v>
       </c>
       <c r="G59" s="3">
-        <v>13694800</v>
+        <v>15548400</v>
       </c>
       <c r="H59" s="3">
-        <v>13291900</v>
+        <v>13724600</v>
       </c>
       <c r="I59" s="3">
-        <v>51659600</v>
+        <v>13320900</v>
       </c>
       <c r="J59" s="3">
+        <v>51772100</v>
+      </c>
+      <c r="K59" s="3">
         <v>16634700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14652800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14475700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14336500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16453900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11744900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11617700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37060600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>39764300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34290100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28673900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28173100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>27007000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>22264000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>21594200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>18621100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>19292000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>15311900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>13438700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11440500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>11476900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>9003700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52389300</v>
+        <v>53825000</v>
       </c>
       <c r="E60" s="3">
-        <v>53093700</v>
+        <v>52503400</v>
       </c>
       <c r="F60" s="3">
-        <v>57569300</v>
+        <v>53209300</v>
       </c>
       <c r="G60" s="3">
-        <v>52750600</v>
+        <v>57694700</v>
       </c>
       <c r="H60" s="3">
-        <v>51748000</v>
+        <v>52865400</v>
       </c>
       <c r="I60" s="3">
-        <v>52877800</v>
+        <v>51860600</v>
       </c>
       <c r="J60" s="3">
+        <v>52992900</v>
+      </c>
+      <c r="K60" s="3">
         <v>56559700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55134700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52880700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52528200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>49855900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38747100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>36559000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>37867500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40413300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>38058500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>32190700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>31590600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>30320000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>23526700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>23558800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19486000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>20248800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>17740000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>15880800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>13607000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>13466200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>9806500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21673800</v>
+        <v>21893600</v>
       </c>
       <c r="E61" s="3">
-        <v>20541300</v>
+        <v>21721000</v>
       </c>
       <c r="F61" s="3">
-        <v>20427300</v>
+        <v>20586100</v>
       </c>
       <c r="G61" s="3">
-        <v>20644700</v>
+        <v>20471700</v>
       </c>
       <c r="H61" s="3">
-        <v>19077300</v>
+        <v>20689600</v>
       </c>
       <c r="I61" s="3">
-        <v>18256300</v>
+        <v>19118800</v>
       </c>
       <c r="J61" s="3">
+        <v>18296000</v>
+      </c>
+      <c r="K61" s="3">
         <v>18149900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18892700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19187500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18891700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14289200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17224200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17814900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18830400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18196100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18958600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17779000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17012200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>16446000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18082000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17848900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17149400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18237200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11186100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>11407200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>11174100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>11219300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>12008900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12705700</v>
+        <v>12865900</v>
       </c>
       <c r="E62" s="3">
-        <v>13183300</v>
+        <v>12733300</v>
       </c>
       <c r="F62" s="3">
-        <v>13260800</v>
+        <v>13212000</v>
       </c>
       <c r="G62" s="3">
-        <v>13416100</v>
+        <v>13289600</v>
       </c>
       <c r="H62" s="3">
-        <v>13501300</v>
+        <v>13445300</v>
       </c>
       <c r="I62" s="3">
-        <v>13374700</v>
+        <v>13530700</v>
       </c>
       <c r="J62" s="3">
+        <v>13403800</v>
+      </c>
+      <c r="K62" s="3">
         <v>13526600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13729800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13614700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13016600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12820300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10694800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10566900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>11144900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11048800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10354200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7139000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4589600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4043600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3657000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>4636800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3206800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3288800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2362400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2291500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1787600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1681900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5187,8 +5335,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5276,8 +5427,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5365,97 +5519,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103795200</v>
+        <v>107220200</v>
       </c>
       <c r="E66" s="3">
-        <v>103821200</v>
+        <v>105396500</v>
       </c>
       <c r="F66" s="3">
-        <v>108366200</v>
+        <v>105408500</v>
       </c>
       <c r="G66" s="3">
-        <v>104008300</v>
+        <v>109935200</v>
       </c>
       <c r="H66" s="3">
-        <v>101388300</v>
+        <v>105576900</v>
       </c>
       <c r="I66" s="3">
-        <v>101601600</v>
+        <v>102887300</v>
       </c>
       <c r="J66" s="3">
+        <v>103156000</v>
+      </c>
+      <c r="K66" s="3">
         <v>106870400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106961600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>105035900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103575200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>96014900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>83728500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81439100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>85870200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>87396600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>85691900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>74973700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>70887900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>65336800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>55593000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>57452000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>49974200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>53203800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>37956500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>36261200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>32724800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>32523100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>29976500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5487,8 +5647,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5576,8 +5737,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5665,97 +5829,103 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1372300</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>1358200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1330100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>1339200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>1275400</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>1330300</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1461600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1477500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1201100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1207300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1175300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1183700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1152400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1425200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1200300</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1171000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1083400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1037300</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1040600</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>839900</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>452700</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>430600</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>442100</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>133300</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>113200</v>
       </c>
-      <c r="AC70" s="3">
+      <c r="AD70" s="3">
         <v>435100</v>
       </c>
-      <c r="AD70" s="3">
+      <c r="AE70" s="3">
         <v>515800</v>
       </c>
-      <c r="AE70" s="3">
+      <c r="AF70" s="3">
         <v>561800</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5843,97 +6013,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>86928700</v>
+        <v>89762900</v>
       </c>
       <c r="E72" s="3">
-        <v>84322000</v>
+        <v>87118000</v>
       </c>
       <c r="F72" s="3">
-        <v>82342000</v>
+        <v>84505700</v>
       </c>
       <c r="G72" s="3">
-        <v>76754800</v>
+        <v>82521300</v>
       </c>
       <c r="H72" s="3">
-        <v>79570000</v>
+        <v>76921900</v>
       </c>
       <c r="I72" s="3">
-        <v>79002500</v>
+        <v>79743300</v>
       </c>
       <c r="J72" s="3">
+        <v>79174500</v>
+      </c>
+      <c r="K72" s="3">
         <v>81449200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>82138400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>86310300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>78268100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>79111700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>72029000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>67773800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>64563300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>63003500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55694500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43446200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>39985800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34455500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>29692900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27742100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>25305600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>25027300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21444900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>18812900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>16290200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>14732300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>12126100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6021,8 +6197,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6110,8 +6289,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6199,97 +6381,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>139640600</v>
+        <v>142924100</v>
       </c>
       <c r="E76" s="3">
-        <v>136354900</v>
+        <v>139944600</v>
       </c>
       <c r="F76" s="3">
-        <v>134466900</v>
+        <v>136651800</v>
       </c>
       <c r="G76" s="3">
-        <v>130606800</v>
+        <v>134759700</v>
       </c>
       <c r="H76" s="3">
-        <v>132715200</v>
+        <v>130891100</v>
       </c>
       <c r="I76" s="3">
-        <v>130681400</v>
+        <v>133004200</v>
       </c>
       <c r="J76" s="3">
+        <v>130966000</v>
+      </c>
+      <c r="K76" s="3">
         <v>134238900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>136865400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>140101700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>130495800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>130438900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>126346900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>119170500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>118265600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>114579000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>94042700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79603400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>74882100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>66935500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>59001500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>56400400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>52488100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>51937700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>47813500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>44318200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>40545700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>38347700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>35836300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6377,191 +6565,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4730300</v>
+        <v>3825600</v>
       </c>
       <c r="E81" s="3">
-        <v>3240000</v>
+        <v>4740600</v>
       </c>
       <c r="F81" s="3">
-        <v>6450200</v>
+        <v>3247100</v>
       </c>
       <c r="G81" s="3">
-        <v>-2832900</v>
+        <v>6464200</v>
       </c>
       <c r="H81" s="3">
-        <v>3133000</v>
+        <v>-2839100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1237000</v>
+        <v>3139800</v>
       </c>
       <c r="J81" s="3">
+        <v>-1239700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2814700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>762900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6483200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-762700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11056200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4239400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7013000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>495000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8054500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11317000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3246900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3929300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4800100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2803800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1246100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1084900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3572700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2622100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2179100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1548400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2596700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1108600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6593,8 +6790,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6682,8 +6880,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6771,8 +6972,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6860,8 +7064,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6949,8 +7156,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7038,8 +7248,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7127,97 +7340,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6242300</v>
+        <v>6797800</v>
       </c>
       <c r="E89" s="3">
-        <v>4326400</v>
+        <v>6255900</v>
       </c>
       <c r="F89" s="3">
-        <v>12037800</v>
+        <v>4335900</v>
       </c>
       <c r="G89" s="3">
-        <v>6491100</v>
+        <v>12064000</v>
       </c>
       <c r="H89" s="3">
-        <v>4666500</v>
+        <v>6505200</v>
       </c>
       <c r="I89" s="3">
-        <v>-970000</v>
+        <v>4676600</v>
       </c>
       <c r="J89" s="3">
+        <v>-972100</v>
+      </c>
+      <c r="K89" s="3">
         <v>11072800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5093200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4826100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3366300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14366600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8001100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>7382600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>338800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14859800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>7383300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5288000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2822300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9425100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>4395700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5182100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2063700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>8226100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>4470300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3839800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1562800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5441400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>2502300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7249,8 +7468,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7276,70 +7496,73 @@
         <v>-18710000</v>
       </c>
       <c r="K91" s="3">
+        <v>-18710000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-5844000</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-453500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-813500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2757100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2009700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-281000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1025400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1533000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-975000</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="V91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1466800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1734700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1607700</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Z91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1546700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1287200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-532600</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7427,8 +7650,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7516,97 +7742,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1735300</v>
+        <v>-3280900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3693600</v>
+        <v>1739100</v>
       </c>
       <c r="F94" s="3">
-        <v>-10050100</v>
+        <v>-3701600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1122600</v>
+        <v>-10072000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3803700</v>
+        <v>-1125100</v>
       </c>
       <c r="I94" s="3">
-        <v>-12021900</v>
+        <v>-3812000</v>
       </c>
       <c r="J94" s="3">
+        <v>-12048000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4655600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4232200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6861400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3856000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11095900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10175700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9980400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5165700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5017900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3331300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3229200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2548200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4510100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-4420500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10283200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2866200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3607000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3795100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2064700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-441400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1184700</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-831100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7638,8 +7870,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7727,8 +7960,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7816,8 +8052,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7905,8 +8144,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7994,271 +8236,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3394300</v>
+        <v>-1709700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1284000</v>
+        <v>-3401700</v>
       </c>
       <c r="F100" s="3">
-        <v>-3280300</v>
+        <v>-1286800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1580300</v>
+        <v>-3287400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2896400</v>
+        <v>-1583800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1462400</v>
+        <v>-2902700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1465600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2576100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3364700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1647000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4213600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-791400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1489200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-679200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>464500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9437000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>328600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>686400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>109400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1294700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-486600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>614200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-660700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>5086600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-61700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1320000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>361000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-103300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>1429600</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>595100</v>
+        <v>112300</v>
       </c>
       <c r="E101" s="3">
-        <v>-165500</v>
+        <v>596400</v>
       </c>
       <c r="F101" s="3">
-        <v>-279800</v>
+        <v>-165800</v>
       </c>
       <c r="G101" s="3">
-        <v>473400</v>
+        <v>-280400</v>
       </c>
       <c r="H101" s="3">
-        <v>458300</v>
+        <v>474400</v>
       </c>
       <c r="I101" s="3">
-        <v>-125800</v>
+        <v>459300</v>
       </c>
       <c r="J101" s="3">
+        <v>-126100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-816200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-314800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>159900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-575200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-567800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>363500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-300600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>367100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>210400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-173700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>233700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>399300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-380700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-224000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-120400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-162100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-64900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>253800</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5178300</v>
+        <v>1919500</v>
       </c>
       <c r="E102" s="3">
-        <v>-816600</v>
+        <v>5189600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1572300</v>
+        <v>-818400</v>
       </c>
       <c r="G102" s="3">
-        <v>4261500</v>
+        <v>-1575800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1575400</v>
+        <v>4270800</v>
       </c>
       <c r="I102" s="3">
-        <v>-14580000</v>
+        <v>-1578800</v>
       </c>
       <c r="J102" s="3">
+        <v>-14611800</v>
+      </c>
+      <c r="K102" s="3">
         <v>3025000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2476000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3997200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3883800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1904100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1253100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3328700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3998900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>18978300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4747700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2955700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>209800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3610700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-277700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4087600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1843900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>9481900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>494500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>291500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1417500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>4407300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>3117700</v>
       </c>
     </row>
